--- a/Behaviour/BCIO_behaviour.xlsx
+++ b/Behaviour/BCIO_behaviour.xlsx
@@ -584,7 +584,8 @@
       <c r="C2" s="2" t="inlineStr"/>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves administering a vaccination to prevent or lower the risk of a disease.</t>
+          <t xml:space="preserve">Providing healthcare that involves administering a vaccination to prevent or lower the risk of a disease. CHANGE
+</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr"/>
@@ -623,7 +624,7 @@
       <c r="V2" s="2" t="inlineStr"/>
       <c r="W2" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; b-</t>
         </is>
       </c>
       <c r="X2" s="2" t="inlineStr">
@@ -4071,7 +4072,7 @@
       <c r="Y55" s="2" t="inlineStr"/>
       <c r="Z55" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">
+          <t>
 </t>
         </is>
       </c>

--- a/Behaviour/BCIO_behaviour.xlsx
+++ b/Behaviour/BCIO_behaviour.xlsx
@@ -584,7 +584,7 @@
       <c r="C2" s="2" t="inlineStr"/>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Providing healthcare that involves administering a vaccination to prevent or lower the risk of a disease. CHANGE
+          <t xml:space="preserve">Providing healthcare that involves administering a vaccination to prevent or lower the risk of a disease
 </t>
         </is>
       </c>

--- a/Behaviour/BCIO_behaviour.xlsx
+++ b/Behaviour/BCIO_behaviour.xlsx
@@ -584,7 +584,7 @@
       <c r="C2" s="2" t="inlineStr"/>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Providing healthcare that involves administering a vaccination to prevent or lower the risk of a disease
+          <t xml:space="preserve">Providing healthcare that involves administering a vaccination to prevent or lower the risk of a disease. CHANGE
 </t>
         </is>
       </c>

--- a/Behaviour/BCIO_behaviour.xlsx
+++ b/Behaviour/BCIO_behaviour.xlsx
@@ -584,7 +584,7 @@
       <c r="C2" s="2" t="inlineStr"/>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Providing healthcare that involves administering a vaccination to prevent or lower the risk of a disease. CHANGE
+          <t xml:space="preserve">Providing healthcare that involves administering a vaccination to prevent or lower the risk of a disease. CHANGE1
 </t>
         </is>
       </c>

--- a/Behaviour/BCIO_behaviour.xlsx
+++ b/Behaviour/BCIO_behaviour.xlsx
@@ -584,7 +584,7 @@
       <c r="C2" s="2" t="inlineStr"/>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Providing healthcare that involves administering a vaccination to prevent or lower the risk of a disease. CHANGE1
+          <t xml:space="preserve">Providing healthcare that involves administering a vaccination to prevent or lower the risk of a disease. CHANGE2
 </t>
         </is>
       </c>

--- a/Behaviour/BCIO_behaviour.xlsx
+++ b/Behaviour/BCIO_behaviour.xlsx
@@ -584,7 +584,7 @@
       <c r="C2" s="2" t="inlineStr"/>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Providing healthcare that involves administering a vaccination to prevent or lower the risk of a disease. CHANGE2
+          <t xml:space="preserve">Providing healthcare that involves administering a vaccination to prevent or lower the risk of a disease. CHANGE3
 </t>
         </is>
       </c>

--- a/Behaviour/BCIO_behaviour.xlsx
+++ b/Behaviour/BCIO_behaviour.xlsx
@@ -584,7 +584,7 @@
       <c r="C2" s="2" t="inlineStr"/>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Providing healthcare that involves administering a vaccination to prevent or lower the risk of a disease. CHANGE3
+          <t xml:space="preserve">Providing healthcare that involves administering a vaccination to prevent or lower the risk of a disease. CHANGE4
 </t>
         </is>
       </c>

--- a/Behaviour/BCIO_behaviour.xlsx
+++ b/Behaviour/BCIO_behaviour.xlsx
@@ -584,7 +584,7 @@
       <c r="C2" s="2" t="inlineStr"/>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Providing healthcare that involves administering a vaccination to prevent or lower the risk of a disease. CHANGE4
+          <t xml:space="preserve">Providing healthcare that involves administering a vaccination to prevent or lower the risk of a disease. CHANGE5
 </t>
         </is>
       </c>

--- a/Behaviour/BCIO_behaviour.xlsx
+++ b/Behaviour/BCIO_behaviour.xlsx
@@ -584,8 +584,7 @@
       <c r="C2" s="2" t="inlineStr"/>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Providing healthcare that involves administering a vaccination to prevent or lower the risk of a disease. CHANGE5
-</t>
+          <t>Providing healthcare that involves administering a vaccination to prevent or lower the risk of a disease. CHANGE6</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr"/>

--- a/Behaviour/BCIO_behaviour.xlsx
+++ b/Behaviour/BCIO_behaviour.xlsx
@@ -587,7 +587,11 @@
           <t>administering vaccine</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr"/>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Something</t>
+        </is>
+      </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
           <t>Providing healthcare that involves administering a vaccination to prevent or lower the risk of a disease.</t>
@@ -629,7 +633,7 @@
       <c r="V2" s="2" t="inlineStr"/>
       <c r="W2" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; BG</t>
         </is>
       </c>
       <c r="X2" s="2" t="inlineStr">
@@ -3143,8 +3147,10 @@
       <c r="R41" s="4" t="inlineStr"/>
       <c r="S41" s="4" t="inlineStr"/>
       <c r="T41" s="4" t="inlineStr"/>
-      <c r="U41" s="4" t="n">
-        <v>0</v>
+      <c r="U41" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="V41" s="4" t="inlineStr"/>
       <c r="W41" s="4" t="inlineStr">
@@ -3522,8 +3528,10 @@
       <c r="R47" s="4" t="inlineStr"/>
       <c r="S47" s="4" t="inlineStr"/>
       <c r="T47" s="4" t="inlineStr"/>
-      <c r="U47" s="4" t="n">
-        <v>0</v>
+      <c r="U47" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="V47" s="4" t="inlineStr"/>
       <c r="W47" s="4" t="inlineStr">
@@ -4463,8 +4471,10 @@
       <c r="R61" s="4" t="inlineStr"/>
       <c r="S61" s="4" t="inlineStr"/>
       <c r="T61" s="4" t="inlineStr"/>
-      <c r="U61" s="4" t="n">
-        <v>0</v>
+      <c r="U61" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="V61" s="4" t="inlineStr"/>
       <c r="W61" s="4" t="inlineStr">
@@ -4608,7 +4618,7 @@
       <c r="Y63" s="2" t="inlineStr"/>
       <c r="Z63" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">
+          <t>
 </t>
         </is>
       </c>
@@ -4838,8 +4848,10 @@
       <c r="R67" s="4" t="inlineStr"/>
       <c r="S67" s="4" t="inlineStr"/>
       <c r="T67" s="4" t="inlineStr"/>
-      <c r="U67" s="4" t="n">
-        <v>0</v>
+      <c r="U67" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="V67" s="4" t="inlineStr"/>
       <c r="W67" s="4" t="inlineStr">
@@ -6767,8 +6779,10 @@
       <c r="R97" s="4" t="inlineStr"/>
       <c r="S97" s="4" t="inlineStr"/>
       <c r="T97" s="4" t="inlineStr"/>
-      <c r="U97" s="4" t="n">
-        <v>0</v>
+      <c r="U97" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="V97" s="4" t="inlineStr"/>
       <c r="W97" s="4" t="inlineStr">
@@ -8759,8 +8773,10 @@
       <c r="R129" s="4" t="inlineStr"/>
       <c r="S129" s="4" t="inlineStr"/>
       <c r="T129" s="4" t="inlineStr"/>
-      <c r="U129" s="4" t="n">
-        <v>0</v>
+      <c r="U129" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="V129" s="4" t="inlineStr"/>
       <c r="W129" s="4" t="inlineStr">
@@ -9996,8 +10012,10 @@
       <c r="R148" s="4" t="inlineStr"/>
       <c r="S148" s="4" t="inlineStr"/>
       <c r="T148" s="4" t="inlineStr"/>
-      <c r="U148" s="4" t="n">
-        <v>0</v>
+      <c r="U148" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="V148" s="4" t="inlineStr"/>
       <c r="W148" s="4" t="inlineStr">

--- a/Behaviour/BCIO_behaviour.xlsx
+++ b/Behaviour/BCIO_behaviour.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z150"/>
+  <dimension ref="A1:Z151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8793,91 +8793,75 @@
       <c r="Z129" s="4" t="inlineStr"/>
     </row>
     <row r="130">
-      <c r="A130" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:036112</t>
-        </is>
-      </c>
-      <c r="B130" s="2" t="inlineStr">
-        <is>
-          <t>spiritual behaviour</t>
-        </is>
-      </c>
-      <c r="C130" s="2" t="inlineStr"/>
-      <c r="D130" s="2" t="inlineStr">
-        <is>
-          <t>An experience-related behaviour that is performed in line with a belief system that is grounded in reverence for a supernatural power or powers and provides meaning in life.</t>
-        </is>
-      </c>
-      <c r="E130" s="2" t="inlineStr"/>
-      <c r="F130" s="2" t="inlineStr"/>
-      <c r="G130" s="2" t="inlineStr">
-        <is>
-          <t>individual human behaviour</t>
-        </is>
-      </c>
-      <c r="H130" s="2" t="inlineStr"/>
-      <c r="I130" s="2" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="J130" s="2" t="inlineStr"/>
-      <c r="K130" s="2" t="inlineStr"/>
-      <c r="L130" s="2" t="inlineStr"/>
-      <c r="M130" s="2" t="inlineStr"/>
-      <c r="N130" s="2" t="inlineStr"/>
-      <c r="O130" s="2" t="inlineStr"/>
-      <c r="P130" s="2" t="inlineStr"/>
-      <c r="Q130" s="2" t="inlineStr"/>
-      <c r="R130" s="2" t="inlineStr"/>
-      <c r="S130" s="2" t="inlineStr"/>
-      <c r="T130" s="2" t="inlineStr">
-        <is>
-          <t>Praying, participating in rituals, meditation practices for spiritual purposes, fasting for spiritual purposes, participating in a silent retreat</t>
-        </is>
-      </c>
-      <c r="U130" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V130" s="2" t="inlineStr"/>
-      <c r="W130" s="2" t="inlineStr">
-        <is>
-          <t>OC; JH; PS</t>
-        </is>
-      </c>
-      <c r="X130" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="Y130" s="2" t="inlineStr"/>
-      <c r="Z130" s="2" t="inlineStr"/>
+      <c r="A130" s="4" t="inlineStr"/>
+      <c r="B130" s="4" t="inlineStr">
+        <is>
+          <t>some label</t>
+        </is>
+      </c>
+      <c r="C130" s="4" t="inlineStr"/>
+      <c r="D130" s="4" t="inlineStr"/>
+      <c r="E130" s="4" t="inlineStr"/>
+      <c r="F130" s="4" t="inlineStr"/>
+      <c r="G130" s="4" t="inlineStr">
+        <is>
+          <t>occurent</t>
+        </is>
+      </c>
+      <c r="H130" s="4" t="inlineStr"/>
+      <c r="I130" s="4" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J130" s="4" t="inlineStr"/>
+      <c r="K130" s="4" t="inlineStr"/>
+      <c r="L130" s="4" t="inlineStr"/>
+      <c r="M130" s="4" t="inlineStr"/>
+      <c r="N130" s="4" t="inlineStr"/>
+      <c r="O130" s="4" t="inlineStr"/>
+      <c r="P130" s="4" t="inlineStr"/>
+      <c r="Q130" s="4" t="inlineStr"/>
+      <c r="R130" s="4" t="inlineStr"/>
+      <c r="S130" s="4" t="inlineStr"/>
+      <c r="T130" s="4" t="inlineStr"/>
+      <c r="U130" s="4" t="inlineStr"/>
+      <c r="V130" s="4" t="inlineStr"/>
+      <c r="W130" s="4" t="inlineStr">
+        <is>
+          <t>BG</t>
+        </is>
+      </c>
+      <c r="X130" s="4" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Y130" s="4" t="inlineStr"/>
+      <c r="Z130" s="4" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036070</t>
+          <t>BCIO:036112</t>
         </is>
       </c>
       <c r="B131" s="2" t="inlineStr">
         <is>
-          <t>standing</t>
+          <t>spiritual behaviour</t>
         </is>
       </c>
       <c r="C131" s="2" t="inlineStr"/>
       <c r="D131" s="2" t="inlineStr">
         <is>
-          <t>A posture behaviour in which one has or is maintaining an upright position while supported by one's feet</t>
+          <t>An experience-related behaviour that is performed in line with a belief system that is grounded in reverence for a supernatural power or powers and provides meaning in life.</t>
         </is>
       </c>
       <c r="E131" s="2" t="inlineStr"/>
       <c r="F131" s="2" t="inlineStr"/>
       <c r="G131" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">posture behaviour </t>
+          <t>individual human behaviour</t>
         </is>
       </c>
       <c r="H131" s="2" t="inlineStr"/>
@@ -8896,7 +8880,11 @@
       <c r="Q131" s="2" t="inlineStr"/>
       <c r="R131" s="2" t="inlineStr"/>
       <c r="S131" s="2" t="inlineStr"/>
-      <c r="T131" s="2" t="inlineStr"/>
+      <c r="T131" s="2" t="inlineStr">
+        <is>
+          <t>Praying, participating in rituals, meditation practices for spiritual purposes, fasting for spiritual purposes, participating in a silent retreat</t>
+        </is>
+      </c>
       <c r="U131" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -8905,7 +8893,7 @@
       <c r="V131" s="2" t="inlineStr"/>
       <c r="W131" s="2" t="inlineStr">
         <is>
-          <t>OC</t>
+          <t>OC; JH; PS</t>
         </is>
       </c>
       <c r="X131" s="2" t="inlineStr">
@@ -8919,32 +8907,28 @@
     <row r="132">
       <c r="A132" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036113</t>
+          <t>BCIO:036070</t>
         </is>
       </c>
       <c r="B132" s="2" t="inlineStr">
         <is>
-          <t>substance use behaviour</t>
+          <t>standing</t>
         </is>
       </c>
       <c r="C132" s="2" t="inlineStr"/>
       <c r="D132" s="2" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves ingesting a psychoactive substance into the body.</t>
+          <t>A posture behaviour in which one has or is maintaining an upright position while supported by one's feet</t>
         </is>
       </c>
       <c r="E132" s="2" t="inlineStr"/>
       <c r="F132" s="2" t="inlineStr"/>
       <c r="G132" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">consumption behaviour </t>
-        </is>
-      </c>
-      <c r="H132" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t xml:space="preserve">posture behaviour </t>
+        </is>
+      </c>
+      <c r="H132" s="2" t="inlineStr"/>
       <c r="I132" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -8957,17 +8941,9 @@
       <c r="N132" s="2" t="inlineStr"/>
       <c r="O132" s="2" t="inlineStr"/>
       <c r="P132" s="2" t="inlineStr"/>
-      <c r="Q132" s="2" t="inlineStr">
-        <is>
-          <t>substance use</t>
-        </is>
-      </c>
+      <c r="Q132" s="2" t="inlineStr"/>
       <c r="R132" s="2" t="inlineStr"/>
-      <c r="S132" s="2" t="inlineStr">
-        <is>
-          <t>Substance use behaviour is not equated with substance abuse.</t>
-        </is>
-      </c>
+      <c r="S132" s="2" t="inlineStr"/>
       <c r="T132" s="2" t="inlineStr"/>
       <c r="U132" s="2" t="inlineStr">
         <is>
@@ -8977,7 +8953,7 @@
       <c r="V132" s="2" t="inlineStr"/>
       <c r="W132" s="2" t="inlineStr">
         <is>
-          <t>RW; OC; JH</t>
+          <t>OC</t>
         </is>
       </c>
       <c r="X132" s="2" t="inlineStr">
@@ -8991,28 +8967,32 @@
     <row r="133">
       <c r="A133" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050211</t>
+          <t>BCIO:036113</t>
         </is>
       </c>
       <c r="B133" s="2" t="inlineStr">
         <is>
-          <t>substance use behaviour pattern</t>
+          <t>substance use behaviour</t>
         </is>
       </c>
       <c r="C133" s="2" t="inlineStr"/>
       <c r="D133" s="2" t="inlineStr">
         <is>
-          <t>A consumption behaviour pattern that involves substance use behaviour.</t>
+          <t>A consumption behaviour that involves ingesting a psychoactive substance into the body.</t>
         </is>
       </c>
       <c r="E133" s="2" t="inlineStr"/>
       <c r="F133" s="2" t="inlineStr"/>
       <c r="G133" s="2" t="inlineStr">
         <is>
-          <t>consumption behaviour pattern</t>
-        </is>
-      </c>
-      <c r="H133" s="2" t="inlineStr"/>
+          <t xml:space="preserve">consumption behaviour </t>
+        </is>
+      </c>
+      <c r="H133" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I133" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -9025,9 +9005,17 @@
       <c r="N133" s="2" t="inlineStr"/>
       <c r="O133" s="2" t="inlineStr"/>
       <c r="P133" s="2" t="inlineStr"/>
-      <c r="Q133" s="2" t="inlineStr"/>
+      <c r="Q133" s="2" t="inlineStr">
+        <is>
+          <t>substance use</t>
+        </is>
+      </c>
       <c r="R133" s="2" t="inlineStr"/>
-      <c r="S133" s="2" t="inlineStr"/>
+      <c r="S133" s="2" t="inlineStr">
+        <is>
+          <t>Substance use behaviour is not equated with substance abuse.</t>
+        </is>
+      </c>
       <c r="T133" s="2" t="inlineStr"/>
       <c r="U133" s="2" t="inlineStr">
         <is>
@@ -9037,7 +9025,7 @@
       <c r="V133" s="2" t="inlineStr"/>
       <c r="W133" s="2" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>RW; OC; JH</t>
         </is>
       </c>
       <c r="X133" s="2" t="inlineStr">
@@ -9051,25 +9039,25 @@
     <row r="134">
       <c r="A134" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050411</t>
+          <t>BCIO:050211</t>
         </is>
       </c>
       <c r="B134" s="2" t="inlineStr">
         <is>
-          <t>sun protective behaviour</t>
+          <t>substance use behaviour pattern</t>
         </is>
       </c>
       <c r="C134" s="2" t="inlineStr"/>
       <c r="D134" s="2" t="inlineStr">
         <is>
-          <t>A personal bodily care behaviour that involves protecting one's skin or eyes from the damaging effects of the sun.</t>
+          <t>A consumption behaviour pattern that involves substance use behaviour.</t>
         </is>
       </c>
       <c r="E134" s="2" t="inlineStr"/>
       <c r="F134" s="2" t="inlineStr"/>
       <c r="G134" s="2" t="inlineStr">
         <is>
-          <t>personal bodily care behaviour</t>
+          <t>consumption behaviour pattern</t>
         </is>
       </c>
       <c r="H134" s="2" t="inlineStr"/>
@@ -9087,11 +9075,7 @@
       <c r="P134" s="2" t="inlineStr"/>
       <c r="Q134" s="2" t="inlineStr"/>
       <c r="R134" s="2" t="inlineStr"/>
-      <c r="S134" s="2" t="inlineStr">
-        <is>
-          <t>‘Sun protective behaviour’ is defined in terms of its goal (to protect oneself from the damaging effects of the sun) and can include very different behaviours, e.g., applying sunscreen and staying in the shade.</t>
-        </is>
-      </c>
+      <c r="S134" s="2" t="inlineStr"/>
       <c r="T134" s="2" t="inlineStr"/>
       <c r="U134" s="2" t="inlineStr">
         <is>
@@ -9101,7 +9085,7 @@
       <c r="V134" s="2" t="inlineStr"/>
       <c r="W134" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="X134" s="2" t="inlineStr">
@@ -9115,32 +9099,28 @@
     <row r="135">
       <c r="A135" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036103</t>
+          <t>BCIO:050411</t>
         </is>
       </c>
       <c r="B135" s="2" t="inlineStr">
         <is>
-          <t>tobacco smoking behaviour</t>
+          <t>sun protective behaviour</t>
         </is>
       </c>
       <c r="C135" s="2" t="inlineStr"/>
       <c r="D135" s="2" t="inlineStr">
         <is>
-          <t>A tobacco use behaviour that involves setting light to a combustible tobacco product and ingesting the tobacco smoke that is produced.</t>
+          <t>A personal bodily care behaviour that involves protecting one's skin or eyes from the damaging effects of the sun.</t>
         </is>
       </c>
       <c r="E135" s="2" t="inlineStr"/>
       <c r="F135" s="2" t="inlineStr"/>
       <c r="G135" s="2" t="inlineStr">
         <is>
-          <t>tobacco use behaviour</t>
-        </is>
-      </c>
-      <c r="H135" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>personal bodily care behaviour</t>
+        </is>
+      </c>
+      <c r="H135" s="2" t="inlineStr"/>
       <c r="I135" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -9153,13 +9133,13 @@
       <c r="N135" s="2" t="inlineStr"/>
       <c r="O135" s="2" t="inlineStr"/>
       <c r="P135" s="2" t="inlineStr"/>
-      <c r="Q135" s="2" t="inlineStr">
-        <is>
-          <t>smoking</t>
-        </is>
-      </c>
+      <c r="Q135" s="2" t="inlineStr"/>
       <c r="R135" s="2" t="inlineStr"/>
-      <c r="S135" s="2" t="inlineStr"/>
+      <c r="S135" s="2" t="inlineStr">
+        <is>
+          <t>‘Sun protective behaviour’ is defined in terms of its goal (to protect oneself from the damaging effects of the sun) and can include very different behaviours, e.g., applying sunscreen and staying in the shade.</t>
+        </is>
+      </c>
       <c r="T135" s="2" t="inlineStr"/>
       <c r="U135" s="2" t="inlineStr">
         <is>
@@ -9169,7 +9149,7 @@
       <c r="V135" s="2" t="inlineStr"/>
       <c r="W135" s="2" t="inlineStr">
         <is>
-          <t>RW; JH</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X135" s="2" t="inlineStr">
@@ -9183,25 +9163,25 @@
     <row r="136">
       <c r="A136" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036104</t>
+          <t>BCIO:036103</t>
         </is>
       </c>
       <c r="B136" s="2" t="inlineStr">
         <is>
-          <t>tobacco smoking behaviour pattern</t>
+          <t>tobacco smoking behaviour</t>
         </is>
       </c>
       <c r="C136" s="2" t="inlineStr"/>
       <c r="D136" s="2" t="inlineStr">
         <is>
-          <t>A tobacco use behaviour pattern that involves tobacco smoking behaviour.</t>
+          <t>A tobacco use behaviour that involves setting light to a combustible tobacco product and ingesting the tobacco smoke that is produced.</t>
         </is>
       </c>
       <c r="E136" s="2" t="inlineStr"/>
       <c r="F136" s="2" t="inlineStr"/>
       <c r="G136" s="2" t="inlineStr">
         <is>
-          <t>tobacco use behaviour pattern</t>
+          <t>tobacco use behaviour</t>
         </is>
       </c>
       <c r="H136" s="2" t="inlineStr">
@@ -9221,7 +9201,11 @@
       <c r="N136" s="2" t="inlineStr"/>
       <c r="O136" s="2" t="inlineStr"/>
       <c r="P136" s="2" t="inlineStr"/>
-      <c r="Q136" s="2" t="inlineStr"/>
+      <c r="Q136" s="2" t="inlineStr">
+        <is>
+          <t>smoking</t>
+        </is>
+      </c>
       <c r="R136" s="2" t="inlineStr"/>
       <c r="S136" s="2" t="inlineStr"/>
       <c r="T136" s="2" t="inlineStr"/>
@@ -9247,25 +9231,25 @@
     <row r="137">
       <c r="A137" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050269</t>
+          <t>BCIO:036104</t>
         </is>
       </c>
       <c r="B137" s="2" t="inlineStr">
         <is>
-          <t>tobacco smoking cessation</t>
+          <t>tobacco smoking behaviour pattern</t>
         </is>
       </c>
       <c r="C137" s="2" t="inlineStr"/>
       <c r="D137" s="2" t="inlineStr">
         <is>
-          <t>Tobacco use cessation in which the form of tobacco use is tobacco smoking.</t>
+          <t>A tobacco use behaviour pattern that involves tobacco smoking behaviour.</t>
         </is>
       </c>
       <c r="E137" s="2" t="inlineStr"/>
       <c r="F137" s="2" t="inlineStr"/>
       <c r="G137" s="2" t="inlineStr">
         <is>
-          <t>tobacco use cessation</t>
+          <t>tobacco use behaviour pattern</t>
         </is>
       </c>
       <c r="H137" s="2" t="inlineStr">
@@ -9297,7 +9281,7 @@
       <c r="V137" s="2" t="inlineStr"/>
       <c r="W137" s="2" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>RW; JH</t>
         </is>
       </c>
       <c r="X137" s="2" t="inlineStr">
@@ -9311,25 +9295,25 @@
     <row r="138">
       <c r="A138" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036114</t>
+          <t>BCIO:050269</t>
         </is>
       </c>
       <c r="B138" s="2" t="inlineStr">
         <is>
-          <t>tobacco use behaviour</t>
+          <t>tobacco smoking cessation</t>
         </is>
       </c>
       <c r="C138" s="2" t="inlineStr"/>
       <c r="D138" s="2" t="inlineStr">
         <is>
-          <t>A substance use behaviour that involves ingesting constituents of a tobacco-containing product.</t>
+          <t>Tobacco use cessation in which the form of tobacco use is tobacco smoking.</t>
         </is>
       </c>
       <c r="E138" s="2" t="inlineStr"/>
       <c r="F138" s="2" t="inlineStr"/>
       <c r="G138" s="2" t="inlineStr">
         <is>
-          <t>substance use behaviour</t>
+          <t>tobacco use cessation</t>
         </is>
       </c>
       <c r="H138" s="2" t="inlineStr">
@@ -9349,11 +9333,7 @@
       <c r="N138" s="2" t="inlineStr"/>
       <c r="O138" s="2" t="inlineStr"/>
       <c r="P138" s="2" t="inlineStr"/>
-      <c r="Q138" s="2" t="inlineStr">
-        <is>
-          <t>tobacco use</t>
-        </is>
-      </c>
+      <c r="Q138" s="2" t="inlineStr"/>
       <c r="R138" s="2" t="inlineStr"/>
       <c r="S138" s="2" t="inlineStr"/>
       <c r="T138" s="2" t="inlineStr"/>
@@ -9365,7 +9345,7 @@
       <c r="V138" s="2" t="inlineStr"/>
       <c r="W138" s="2" t="inlineStr">
         <is>
-          <t>RW; OC; JH</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="X138" s="2" t="inlineStr">
@@ -9379,25 +9359,25 @@
     <row r="139">
       <c r="A139" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036102</t>
+          <t>BCIO:036114</t>
         </is>
       </c>
       <c r="B139" s="2" t="inlineStr">
         <is>
-          <t>tobacco use behaviour pattern</t>
+          <t>tobacco use behaviour</t>
         </is>
       </c>
       <c r="C139" s="2" t="inlineStr"/>
       <c r="D139" s="2" t="inlineStr">
         <is>
-          <t>A substance use behaviour pattern that involves tobacco use.</t>
+          <t>A substance use behaviour that involves ingesting constituents of a tobacco-containing product.</t>
         </is>
       </c>
       <c r="E139" s="2" t="inlineStr"/>
       <c r="F139" s="2" t="inlineStr"/>
       <c r="G139" s="2" t="inlineStr">
         <is>
-          <t>substance use behaviour pattern</t>
+          <t>substance use behaviour</t>
         </is>
       </c>
       <c r="H139" s="2" t="inlineStr">
@@ -9433,7 +9413,7 @@
       <c r="V139" s="2" t="inlineStr"/>
       <c r="W139" s="2" t="inlineStr">
         <is>
-          <t>RW; JH</t>
+          <t>RW; OC; JH</t>
         </is>
       </c>
       <c r="X139" s="2" t="inlineStr">
@@ -9447,29 +9427,25 @@
     <row r="140">
       <c r="A140" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050208</t>
+          <t>BCIO:036102</t>
         </is>
       </c>
       <c r="B140" s="2" t="inlineStr">
         <is>
-          <t>tobacco use cessation</t>
-        </is>
-      </c>
-      <c r="C140" s="2" t="inlineStr">
-        <is>
-          <t>Cessation of tobacco use for a period of time.</t>
-        </is>
-      </c>
+          <t>tobacco use behaviour pattern</t>
+        </is>
+      </c>
+      <c r="C140" s="2" t="inlineStr"/>
       <c r="D140" s="2" t="inlineStr">
         <is>
-          <t>Individual human behaviour pattern cessation in which the behaviour pattern involved is tobacco use.</t>
+          <t>A substance use behaviour pattern that involves tobacco use.</t>
         </is>
       </c>
       <c r="E140" s="2" t="inlineStr"/>
       <c r="F140" s="2" t="inlineStr"/>
       <c r="G140" s="2" t="inlineStr">
         <is>
-          <t>individual human behaviour pattern cessation</t>
+          <t>substance use behaviour pattern</t>
         </is>
       </c>
       <c r="H140" s="2" t="inlineStr">
@@ -9489,14 +9465,13 @@
       <c r="N140" s="2" t="inlineStr"/>
       <c r="O140" s="2" t="inlineStr"/>
       <c r="P140" s="2" t="inlineStr"/>
-      <c r="Q140" s="2" t="inlineStr"/>
+      <c r="Q140" s="2" t="inlineStr">
+        <is>
+          <t>tobacco use</t>
+        </is>
+      </c>
       <c r="R140" s="2" t="inlineStr"/>
-      <c r="S140" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">As with the parent class 'individual human behaviour pattern cessation'  this class can only be identified after the duration for which cessation has occurred has elapsed and it is necessary to specify this period for the class to be meaningful.
-</t>
-        </is>
-      </c>
+      <c r="S140" s="2" t="inlineStr"/>
       <c r="T140" s="2" t="inlineStr"/>
       <c r="U140" s="2" t="inlineStr">
         <is>
@@ -9506,7 +9481,7 @@
       <c r="V140" s="2" t="inlineStr"/>
       <c r="W140" s="2" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>RW; JH</t>
         </is>
       </c>
       <c r="X140" s="2" t="inlineStr">
@@ -9520,28 +9495,36 @@
     <row r="141">
       <c r="A141" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050396</t>
+          <t>BCIO:050208</t>
         </is>
       </c>
       <c r="B141" s="2" t="inlineStr">
         <is>
-          <t>transdermal consumption</t>
-        </is>
-      </c>
-      <c r="C141" s="2" t="inlineStr"/>
+          <t>tobacco use cessation</t>
+        </is>
+      </c>
+      <c r="C141" s="2" t="inlineStr">
+        <is>
+          <t>Cessation of tobacco use for a period of time.</t>
+        </is>
+      </c>
       <c r="D141" s="2" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves applying a material to the skin and ingesting this material into the circulation through the skin.</t>
+          <t>Individual human behaviour pattern cessation in which the behaviour pattern involved is tobacco use.</t>
         </is>
       </c>
       <c r="E141" s="2" t="inlineStr"/>
       <c r="F141" s="2" t="inlineStr"/>
       <c r="G141" s="2" t="inlineStr">
         <is>
-          <t>consumption behaviour</t>
-        </is>
-      </c>
-      <c r="H141" s="2" t="inlineStr"/>
+          <t>individual human behaviour pattern cessation</t>
+        </is>
+      </c>
+      <c r="H141" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I141" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -9556,12 +9539,13 @@
       <c r="P141" s="2" t="inlineStr"/>
       <c r="Q141" s="2" t="inlineStr"/>
       <c r="R141" s="2" t="inlineStr"/>
-      <c r="S141" s="2" t="inlineStr"/>
-      <c r="T141" s="2" t="inlineStr">
-        <is>
-          <t>Nicotine patches, hormone patches, pain relief gels</t>
-        </is>
-      </c>
+      <c r="S141" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">As with the parent class 'individual human behaviour pattern cessation'  this class can only be identified after the duration for which cessation has occurred has elapsed and it is necessary to specify this period for the class to be meaningful.
+</t>
+        </is>
+      </c>
+      <c r="T141" s="2" t="inlineStr"/>
       <c r="U141" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -9570,7 +9554,7 @@
       <c r="V141" s="2" t="inlineStr"/>
       <c r="W141" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="X141" s="2" t="inlineStr">
@@ -9584,25 +9568,25 @@
     <row r="142">
       <c r="A142" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036064</t>
+          <t>BCIO:050396</t>
         </is>
       </c>
       <c r="B142" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">transporting behaviour </t>
+          <t>transdermal consumption</t>
         </is>
       </c>
       <c r="C142" s="2" t="inlineStr"/>
       <c r="D142" s="2" t="inlineStr">
         <is>
-          <t>A travel behaviour that involves moving an object in addition toother than the actor.</t>
+          <t>A consumption behaviour that involves applying a material to the skin and ingesting this material into the circulation through the skin.</t>
         </is>
       </c>
       <c r="E142" s="2" t="inlineStr"/>
       <c r="F142" s="2" t="inlineStr"/>
       <c r="G142" s="2" t="inlineStr">
         <is>
-          <t>travel behaviour</t>
+          <t>consumption behaviour</t>
         </is>
       </c>
       <c r="H142" s="2" t="inlineStr"/>
@@ -9621,7 +9605,11 @@
       <c r="Q142" s="2" t="inlineStr"/>
       <c r="R142" s="2" t="inlineStr"/>
       <c r="S142" s="2" t="inlineStr"/>
-      <c r="T142" s="2" t="inlineStr"/>
+      <c r="T142" s="2" t="inlineStr">
+        <is>
+          <t>Nicotine patches, hormone patches, pain relief gels</t>
+        </is>
+      </c>
       <c r="U142" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -9630,7 +9618,7 @@
       <c r="V142" s="2" t="inlineStr"/>
       <c r="W142" s="2" t="inlineStr">
         <is>
-          <t>OC; RW</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X142" s="2" t="inlineStr">
@@ -9644,25 +9632,25 @@
     <row r="143">
       <c r="A143" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036059</t>
+          <t>BCIO:036064</t>
         </is>
       </c>
       <c r="B143" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">travel behaviour </t>
+          <t xml:space="preserve">transporting behaviour </t>
         </is>
       </c>
       <c r="C143" s="2" t="inlineStr"/>
       <c r="D143" s="2" t="inlineStr">
         <is>
-          <t>A position-related behaviour that involves changing physical location.</t>
+          <t>A travel behaviour that involves moving an object in addition toother than the actor.</t>
         </is>
       </c>
       <c r="E143" s="2" t="inlineStr"/>
       <c r="F143" s="2" t="inlineStr"/>
       <c r="G143" s="2" t="inlineStr">
         <is>
-          <t>position-related behaviour</t>
+          <t>travel behaviour</t>
         </is>
       </c>
       <c r="H143" s="2" t="inlineStr"/>
@@ -9680,12 +9668,7 @@
       <c r="P143" s="2" t="inlineStr"/>
       <c r="Q143" s="2" t="inlineStr"/>
       <c r="R143" s="2" t="inlineStr"/>
-      <c r="S143" s="2" t="inlineStr">
-        <is>
-          <t>Travel refers to some form of relocation from a place or position to another.
-The classes 'travel behaviour' and 'locomotive behaviour' have many instances in which they overlap. However, there are also examples where these classes are not the same. For instance, running on a treadmill is a locomotive behaviour but not a travel behaviour.</t>
-        </is>
-      </c>
+      <c r="S143" s="2" t="inlineStr"/>
       <c r="T143" s="2" t="inlineStr"/>
       <c r="U143" s="2" t="inlineStr">
         <is>
@@ -9695,7 +9678,7 @@
       <c r="V143" s="2" t="inlineStr"/>
       <c r="W143" s="2" t="inlineStr">
         <is>
-          <t>OC; RW; PS</t>
+          <t>OC; RW</t>
         </is>
       </c>
       <c r="X143" s="2" t="inlineStr">
@@ -9709,25 +9692,25 @@
     <row r="144">
       <c r="A144" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050403</t>
+          <t>BCIO:036059</t>
         </is>
       </c>
       <c r="B144" s="2" t="inlineStr">
         <is>
-          <t>undergoing vaccination</t>
+          <t xml:space="preserve">travel behaviour </t>
         </is>
       </c>
       <c r="C144" s="2" t="inlineStr"/>
       <c r="D144" s="2" t="inlineStr">
         <is>
-          <t>Utilising healthcare that involves interacting with a healthcare provider to receive a vaccination to prevent or lower the risk of a disease.</t>
+          <t>A position-related behaviour that involves changing physical location.</t>
         </is>
       </c>
       <c r="E144" s="2" t="inlineStr"/>
       <c r="F144" s="2" t="inlineStr"/>
       <c r="G144" s="2" t="inlineStr">
         <is>
-          <t>utilising healthcare</t>
+          <t>position-related behaviour</t>
         </is>
       </c>
       <c r="H144" s="2" t="inlineStr"/>
@@ -9747,7 +9730,8 @@
       <c r="R144" s="2" t="inlineStr"/>
       <c r="S144" s="2" t="inlineStr">
         <is>
-          <t>Vaccination is defined as “a medical intervention that involves in adding vaccine into a host (e.g., human, mouse) in vivo with the intent to invoke an adaptive immune response.” (http://purl.obolibrary.org/obo/VO_0000002)</t>
+          <t>Travel refers to some form of relocation from a place or position to another.
+The classes 'travel behaviour' and 'locomotive behaviour' have many instances in which they overlap. However, there are also examples where these classes are not the same. For instance, running on a treadmill is a locomotive behaviour but not a travel behaviour.</t>
         </is>
       </c>
       <c r="T144" s="2" t="inlineStr"/>
@@ -9759,7 +9743,7 @@
       <c r="V144" s="2" t="inlineStr"/>
       <c r="W144" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>OC; RW; PS</t>
         </is>
       </c>
       <c r="X144" s="2" t="inlineStr">
@@ -9773,36 +9757,28 @@
     <row r="145">
       <c r="A145" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050267</t>
+          <t>BCIO:050403</t>
         </is>
       </c>
       <c r="B145" s="2" t="inlineStr">
         <is>
-          <t>uniform process aggregate</t>
-        </is>
-      </c>
-      <c r="C145" s="2" t="inlineStr">
-        <is>
-          <t>Several processes of the same type repeated over time.</t>
-        </is>
-      </c>
+          <t>undergoing vaccination</t>
+        </is>
+      </c>
+      <c r="C145" s="2" t="inlineStr"/>
       <c r="D145" s="2" t="inlineStr">
         <is>
-          <t>A process aggregate whose member parts are of the same type.</t>
+          <t>Utilising healthcare that involves interacting with a healthcare provider to receive a vaccination to prevent or lower the risk of a disease.</t>
         </is>
       </c>
       <c r="E145" s="2" t="inlineStr"/>
       <c r="F145" s="2" t="inlineStr"/>
       <c r="G145" s="2" t="inlineStr">
         <is>
-          <t>process aggregate</t>
-        </is>
-      </c>
-      <c r="H145" s="2" t="inlineStr">
-        <is>
-          <t>occurrent</t>
-        </is>
-      </c>
+          <t>utilising healthcare</t>
+        </is>
+      </c>
+      <c r="H145" s="2" t="inlineStr"/>
       <c r="I145" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -9814,7 +9790,79 @@
       <c r="M145" s="2" t="inlineStr"/>
       <c r="N145" s="2" t="inlineStr"/>
       <c r="O145" s="2" t="inlineStr"/>
-      <c r="P145" s="2" t="inlineStr">
+      <c r="P145" s="2" t="inlineStr"/>
+      <c r="Q145" s="2" t="inlineStr"/>
+      <c r="R145" s="2" t="inlineStr"/>
+      <c r="S145" s="2" t="inlineStr">
+        <is>
+          <t>Vaccination is defined as “a medical intervention that involves in adding vaccine into a host (e.g., human, mouse) in vivo with the intent to invoke an adaptive immune response.” (http://purl.obolibrary.org/obo/VO_0000002)</t>
+        </is>
+      </c>
+      <c r="T145" s="2" t="inlineStr"/>
+      <c r="U145" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V145" s="2" t="inlineStr"/>
+      <c r="W145" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="X145" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="Y145" s="2" t="inlineStr"/>
+      <c r="Z145" s="2" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050267</t>
+        </is>
+      </c>
+      <c r="B146" s="2" t="inlineStr">
+        <is>
+          <t>uniform process aggregate</t>
+        </is>
+      </c>
+      <c r="C146" s="2" t="inlineStr">
+        <is>
+          <t>Several processes of the same type repeated over time.</t>
+        </is>
+      </c>
+      <c r="D146" s="2" t="inlineStr">
+        <is>
+          <t>A process aggregate whose member parts are of the same type.</t>
+        </is>
+      </c>
+      <c r="E146" s="2" t="inlineStr"/>
+      <c r="F146" s="2" t="inlineStr"/>
+      <c r="G146" s="2" t="inlineStr">
+        <is>
+          <t>process aggregate</t>
+        </is>
+      </c>
+      <c r="H146" s="2" t="inlineStr">
+        <is>
+          <t>occurrent</t>
+        </is>
+      </c>
+      <c r="I146" s="2" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J146" s="2" t="inlineStr"/>
+      <c r="K146" s="2" t="inlineStr"/>
+      <c r="L146" s="2" t="inlineStr"/>
+      <c r="M146" s="2" t="inlineStr"/>
+      <c r="N146" s="2" t="inlineStr"/>
+      <c r="O146" s="2" t="inlineStr"/>
+      <c r="P146" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">u is a uniform process aggregate means:
 •	u instance_of process aggregate
@@ -9824,73 +9872,9 @@
 </t>
         </is>
       </c>
-      <c r="Q145" s="2" t="inlineStr"/>
-      <c r="R145" s="2" t="inlineStr"/>
-      <c r="S145" s="2" t="inlineStr"/>
-      <c r="T145" s="2" t="inlineStr"/>
-      <c r="U145" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V145" s="2" t="inlineStr"/>
-      <c r="W145" s="2" t="inlineStr">
-        <is>
-          <t>RW; JH</t>
-        </is>
-      </c>
-      <c r="X145" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="Y145" s="2" t="inlineStr"/>
-      <c r="Z145" s="2" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050399</t>
-        </is>
-      </c>
-      <c r="B146" s="2" t="inlineStr">
-        <is>
-          <t>utilising healthcare</t>
-        </is>
-      </c>
-      <c r="C146" s="2" t="inlineStr"/>
-      <c r="D146" s="2" t="inlineStr">
-        <is>
-          <t>A health-related behaviour that involves interacting with a healthcare provider in order to assess, monitor, improve or maintain an aspect of one's health.</t>
-        </is>
-      </c>
-      <c r="E146" s="2" t="inlineStr"/>
-      <c r="F146" s="2" t="inlineStr"/>
-      <c r="G146" s="2" t="inlineStr">
-        <is>
-          <t>health-related behaviour</t>
-        </is>
-      </c>
-      <c r="H146" s="2" t="inlineStr"/>
-      <c r="I146" s="2" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="J146" s="2" t="inlineStr"/>
-      <c r="K146" s="2" t="inlineStr"/>
-      <c r="L146" s="2" t="inlineStr"/>
-      <c r="M146" s="2" t="inlineStr"/>
-      <c r="N146" s="2" t="inlineStr"/>
-      <c r="O146" s="2" t="inlineStr"/>
-      <c r="P146" s="2" t="inlineStr"/>
       <c r="Q146" s="2" t="inlineStr"/>
       <c r="R146" s="2" t="inlineStr"/>
-      <c r="S146" s="2" t="inlineStr">
-        <is>
-          <t>A ‘healthcare provider’ can be a person or organisation</t>
-        </is>
-      </c>
+      <c r="S146" s="2" t="inlineStr"/>
       <c r="T146" s="2" t="inlineStr"/>
       <c r="U146" s="2" t="inlineStr">
         <is>
@@ -9900,7 +9884,7 @@
       <c r="V146" s="2" t="inlineStr"/>
       <c r="W146" s="2" t="inlineStr">
         <is>
-          <t>PS; RW</t>
+          <t>RW; JH</t>
         </is>
       </c>
       <c r="X146" s="2" t="inlineStr">
@@ -9914,25 +9898,25 @@
     <row r="147">
       <c r="A147" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050379</t>
+          <t>BCIO:050399</t>
         </is>
       </c>
       <c r="B147" s="2" t="inlineStr">
         <is>
-          <t>vaping device use</t>
+          <t>utilising healthcare</t>
         </is>
       </c>
       <c r="C147" s="2" t="inlineStr"/>
       <c r="D147" s="2" t="inlineStr">
         <is>
-          <t>Inhaling consumption that involves using a device to consume an aerosol.</t>
+          <t>A health-related behaviour that involves interacting with a healthcare provider in order to assess, monitor, improve or maintain an aspect of one's health.</t>
         </is>
       </c>
       <c r="E147" s="2" t="inlineStr"/>
       <c r="F147" s="2" t="inlineStr"/>
       <c r="G147" s="2" t="inlineStr">
         <is>
-          <t>inhaling consumption</t>
+          <t>health-related behaviour</t>
         </is>
       </c>
       <c r="H147" s="2" t="inlineStr"/>
@@ -9950,7 +9934,11 @@
       <c r="P147" s="2" t="inlineStr"/>
       <c r="Q147" s="2" t="inlineStr"/>
       <c r="R147" s="2" t="inlineStr"/>
-      <c r="S147" s="2" t="inlineStr"/>
+      <c r="S147" s="2" t="inlineStr">
+        <is>
+          <t>A ‘healthcare provider’ can be a person or organisation</t>
+        </is>
+      </c>
       <c r="T147" s="2" t="inlineStr"/>
       <c r="U147" s="2" t="inlineStr">
         <is>
@@ -9960,7 +9948,7 @@
       <c r="V147" s="2" t="inlineStr"/>
       <c r="W147" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="X147" s="2" t="inlineStr">
@@ -9972,154 +9960,154 @@
       <c r="Z147" s="2" t="inlineStr"/>
     </row>
     <row r="148">
-      <c r="A148" s="4" t="inlineStr">
+      <c r="A148" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050379</t>
+        </is>
+      </c>
+      <c r="B148" s="2" t="inlineStr">
+        <is>
+          <t>vaping device use</t>
+        </is>
+      </c>
+      <c r="C148" s="2" t="inlineStr"/>
+      <c r="D148" s="2" t="inlineStr">
+        <is>
+          <t>Inhaling consumption that involves using a device to consume an aerosol.</t>
+        </is>
+      </c>
+      <c r="E148" s="2" t="inlineStr"/>
+      <c r="F148" s="2" t="inlineStr"/>
+      <c r="G148" s="2" t="inlineStr">
+        <is>
+          <t>inhaling consumption</t>
+        </is>
+      </c>
+      <c r="H148" s="2" t="inlineStr"/>
+      <c r="I148" s="2" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J148" s="2" t="inlineStr"/>
+      <c r="K148" s="2" t="inlineStr"/>
+      <c r="L148" s="2" t="inlineStr"/>
+      <c r="M148" s="2" t="inlineStr"/>
+      <c r="N148" s="2" t="inlineStr"/>
+      <c r="O148" s="2" t="inlineStr"/>
+      <c r="P148" s="2" t="inlineStr"/>
+      <c r="Q148" s="2" t="inlineStr"/>
+      <c r="R148" s="2" t="inlineStr"/>
+      <c r="S148" s="2" t="inlineStr"/>
+      <c r="T148" s="2" t="inlineStr"/>
+      <c r="U148" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V148" s="2" t="inlineStr"/>
+      <c r="W148" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="X148" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="Y148" s="2" t="inlineStr"/>
+      <c r="Z148" s="2" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="4" t="inlineStr">
         <is>
           <t>BCIO:050442</t>
         </is>
       </c>
-      <c r="B148" s="4" t="inlineStr">
+      <c r="B149" s="4" t="inlineStr">
         <is>
           <t>vocalisation behaviour</t>
         </is>
       </c>
-      <c r="C148" s="4" t="inlineStr"/>
-      <c r="D148" s="4" t="inlineStr">
+      <c r="C149" s="4" t="inlineStr"/>
+      <c r="D149" s="4" t="inlineStr">
         <is>
           <t>An individual human behaviour using one's voice to produce sounds.</t>
         </is>
       </c>
-      <c r="E148" s="4" t="inlineStr"/>
-      <c r="F148" s="4" t="inlineStr"/>
-      <c r="G148" s="4" t="inlineStr">
+      <c r="E149" s="4" t="inlineStr"/>
+      <c r="F149" s="4" t="inlineStr"/>
+      <c r="G149" s="4" t="inlineStr">
         <is>
           <t>individual human behaviour</t>
         </is>
       </c>
-      <c r="H148" s="4" t="inlineStr"/>
-      <c r="I148" s="4" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="J148" s="4" t="inlineStr"/>
-      <c r="K148" s="4" t="inlineStr"/>
-      <c r="L148" s="4" t="inlineStr"/>
-      <c r="M148" s="4" t="inlineStr"/>
-      <c r="N148" s="4" t="inlineStr"/>
-      <c r="O148" s="4" t="inlineStr"/>
-      <c r="P148" s="4" t="inlineStr"/>
-      <c r="Q148" s="4" t="inlineStr"/>
-      <c r="R148" s="4" t="inlineStr"/>
-      <c r="S148" s="4" t="inlineStr"/>
-      <c r="T148" s="4" t="inlineStr"/>
-      <c r="U148" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V148" s="4" t="inlineStr"/>
-      <c r="W148" s="4" t="inlineStr">
+      <c r="H149" s="4" t="inlineStr"/>
+      <c r="I149" s="4" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J149" s="4" t="inlineStr"/>
+      <c r="K149" s="4" t="inlineStr"/>
+      <c r="L149" s="4" t="inlineStr"/>
+      <c r="M149" s="4" t="inlineStr"/>
+      <c r="N149" s="4" t="inlineStr"/>
+      <c r="O149" s="4" t="inlineStr"/>
+      <c r="P149" s="4" t="inlineStr"/>
+      <c r="Q149" s="4" t="inlineStr"/>
+      <c r="R149" s="4" t="inlineStr"/>
+      <c r="S149" s="4" t="inlineStr"/>
+      <c r="T149" s="4" t="inlineStr"/>
+      <c r="U149" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V149" s="4" t="inlineStr"/>
+      <c r="W149" s="4" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="X148" s="4" t="inlineStr">
+      <c r="X149" s="4" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="Y148" s="4" t="inlineStr"/>
-      <c r="Z148" s="4" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:036108</t>
-        </is>
-      </c>
-      <c r="B149" s="2" t="inlineStr">
-        <is>
-          <t>walking</t>
-        </is>
-      </c>
-      <c r="C149" s="2" t="inlineStr"/>
-      <c r="D149" s="2" t="inlineStr">
-        <is>
-          <t>A locomotive behaviour that involves moving at a regular pace by lifting and setting down each foot in turn, never having both feet off the ground at once.</t>
-        </is>
-      </c>
-      <c r="E149" s="2" t="inlineStr"/>
-      <c r="F149" s="2" t="inlineStr"/>
-      <c r="G149" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">locomotive behaviour </t>
-        </is>
-      </c>
-      <c r="H149" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="I149" s="2" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="J149" s="2" t="inlineStr"/>
-      <c r="K149" s="2" t="inlineStr"/>
-      <c r="L149" s="2" t="inlineStr"/>
-      <c r="M149" s="2" t="inlineStr"/>
-      <c r="N149" s="2" t="inlineStr"/>
-      <c r="O149" s="2" t="inlineStr"/>
-      <c r="P149" s="2" t="inlineStr"/>
-      <c r="Q149" s="2" t="inlineStr"/>
-      <c r="R149" s="2" t="inlineStr"/>
-      <c r="S149" s="2" t="inlineStr"/>
-      <c r="T149" s="2" t="inlineStr"/>
-      <c r="U149" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V149" s="2" t="inlineStr"/>
-      <c r="W149" s="2" t="inlineStr">
-        <is>
-          <t>RW; OC; JH</t>
-        </is>
-      </c>
-      <c r="X149" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="Y149" s="2" t="inlineStr"/>
-      <c r="Z149" s="2" t="inlineStr"/>
+      <c r="Y149" s="4" t="inlineStr"/>
+      <c r="Z149" s="4" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050418</t>
+          <t>BCIO:036108</t>
         </is>
       </c>
       <c r="B150" s="2" t="inlineStr">
         <is>
-          <t>watching behaviour</t>
+          <t>walking</t>
         </is>
       </c>
       <c r="C150" s="2" t="inlineStr"/>
       <c r="D150" s="2" t="inlineStr">
         <is>
-          <t>An object-using behaviour that involves deriving meaning from visual or audiovisual material.</t>
+          <t>A locomotive behaviour that involves moving at a regular pace by lifting and setting down each foot in turn, never having both feet off the ground at once.</t>
         </is>
       </c>
       <c r="E150" s="2" t="inlineStr"/>
       <c r="F150" s="2" t="inlineStr"/>
       <c r="G150" s="2" t="inlineStr">
         <is>
-          <t>object-using behaviour</t>
-        </is>
-      </c>
-      <c r="H150" s="2" t="inlineStr"/>
+          <t xml:space="preserve">locomotive behaviour </t>
+        </is>
+      </c>
+      <c r="H150" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I150" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -10135,11 +10123,7 @@
       <c r="Q150" s="2" t="inlineStr"/>
       <c r="R150" s="2" t="inlineStr"/>
       <c r="S150" s="2" t="inlineStr"/>
-      <c r="T150" s="2" t="inlineStr">
-        <is>
-          <t>Watching a movie</t>
-        </is>
-      </c>
+      <c r="T150" s="2" t="inlineStr"/>
       <c r="U150" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -10148,7 +10132,7 @@
       <c r="V150" s="2" t="inlineStr"/>
       <c r="W150" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW; OC; JH</t>
         </is>
       </c>
       <c r="X150" s="2" t="inlineStr">
@@ -10158,6 +10142,70 @@
       </c>
       <c r="Y150" s="2" t="inlineStr"/>
       <c r="Z150" s="2" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050418</t>
+        </is>
+      </c>
+      <c r="B151" s="2" t="inlineStr">
+        <is>
+          <t>watching behaviour</t>
+        </is>
+      </c>
+      <c r="C151" s="2" t="inlineStr"/>
+      <c r="D151" s="2" t="inlineStr">
+        <is>
+          <t>An object-using behaviour that involves deriving meaning from visual or audiovisual material.</t>
+        </is>
+      </c>
+      <c r="E151" s="2" t="inlineStr"/>
+      <c r="F151" s="2" t="inlineStr"/>
+      <c r="G151" s="2" t="inlineStr">
+        <is>
+          <t>object-using behaviour</t>
+        </is>
+      </c>
+      <c r="H151" s="2" t="inlineStr"/>
+      <c r="I151" s="2" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J151" s="2" t="inlineStr"/>
+      <c r="K151" s="2" t="inlineStr"/>
+      <c r="L151" s="2" t="inlineStr"/>
+      <c r="M151" s="2" t="inlineStr"/>
+      <c r="N151" s="2" t="inlineStr"/>
+      <c r="O151" s="2" t="inlineStr"/>
+      <c r="P151" s="2" t="inlineStr"/>
+      <c r="Q151" s="2" t="inlineStr"/>
+      <c r="R151" s="2" t="inlineStr"/>
+      <c r="S151" s="2" t="inlineStr"/>
+      <c r="T151" s="2" t="inlineStr">
+        <is>
+          <t>Watching a movie</t>
+        </is>
+      </c>
+      <c r="U151" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V151" s="2" t="inlineStr"/>
+      <c r="W151" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="X151" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="Y151" s="2" t="inlineStr"/>
+      <c r="Z151" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Behaviour/BCIO_behaviour.xlsx
+++ b/Behaviour/BCIO_behaviour.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z151"/>
+  <dimension ref="A1:Z152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8825,7 +8825,9 @@
       <c r="R130" s="4" t="inlineStr"/>
       <c r="S130" s="4" t="inlineStr"/>
       <c r="T130" s="4" t="inlineStr"/>
-      <c r="U130" s="4" t="inlineStr"/>
+      <c r="U130" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="V130" s="4" t="inlineStr"/>
       <c r="W130" s="4" t="inlineStr">
         <is>
@@ -9161,95 +9163,71 @@
       <c r="Z135" s="2" t="inlineStr"/>
     </row>
     <row r="136">
-      <c r="A136" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:036103</t>
-        </is>
-      </c>
-      <c r="B136" s="2" t="inlineStr">
-        <is>
-          <t>tobacco smoking behaviour</t>
-        </is>
-      </c>
-      <c r="C136" s="2" t="inlineStr"/>
-      <c r="D136" s="2" t="inlineStr">
-        <is>
-          <t>A tobacco use behaviour that involves setting light to a combustible tobacco product and ingesting the tobacco smoke that is produced.</t>
-        </is>
-      </c>
-      <c r="E136" s="2" t="inlineStr"/>
-      <c r="F136" s="2" t="inlineStr"/>
-      <c r="G136" s="2" t="inlineStr">
-        <is>
-          <t>tobacco use behaviour</t>
-        </is>
-      </c>
-      <c r="H136" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="I136" s="2" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="J136" s="2" t="inlineStr"/>
-      <c r="K136" s="2" t="inlineStr"/>
-      <c r="L136" s="2" t="inlineStr"/>
-      <c r="M136" s="2" t="inlineStr"/>
-      <c r="N136" s="2" t="inlineStr"/>
-      <c r="O136" s="2" t="inlineStr"/>
-      <c r="P136" s="2" t="inlineStr"/>
-      <c r="Q136" s="2" t="inlineStr">
-        <is>
-          <t>smoking</t>
-        </is>
-      </c>
-      <c r="R136" s="2" t="inlineStr"/>
-      <c r="S136" s="2" t="inlineStr"/>
-      <c r="T136" s="2" t="inlineStr"/>
-      <c r="U136" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V136" s="2" t="inlineStr"/>
-      <c r="W136" s="2" t="inlineStr">
-        <is>
-          <t>RW; JH</t>
-        </is>
-      </c>
-      <c r="X136" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="Y136" s="2" t="inlineStr"/>
-      <c r="Z136" s="2" t="inlineStr"/>
+      <c r="A136" s="4" t="inlineStr"/>
+      <c r="B136" s="4" t="inlineStr">
+        <is>
+          <t>test label</t>
+        </is>
+      </c>
+      <c r="C136" s="4" t="inlineStr"/>
+      <c r="D136" s="4" t="inlineStr"/>
+      <c r="E136" s="4" t="inlineStr"/>
+      <c r="F136" s="4" t="inlineStr"/>
+      <c r="G136" s="4" t="inlineStr"/>
+      <c r="H136" s="4" t="inlineStr"/>
+      <c r="I136" s="4" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J136" s="4" t="inlineStr"/>
+      <c r="K136" s="4" t="inlineStr"/>
+      <c r="L136" s="4" t="inlineStr"/>
+      <c r="M136" s="4" t="inlineStr"/>
+      <c r="N136" s="4" t="inlineStr"/>
+      <c r="O136" s="4" t="inlineStr"/>
+      <c r="P136" s="4" t="inlineStr"/>
+      <c r="Q136" s="4" t="inlineStr"/>
+      <c r="R136" s="4" t="inlineStr"/>
+      <c r="S136" s="4" t="inlineStr"/>
+      <c r="T136" s="4" t="inlineStr"/>
+      <c r="U136" s="4" t="inlineStr"/>
+      <c r="V136" s="4" t="inlineStr"/>
+      <c r="W136" s="4" t="inlineStr">
+        <is>
+          <t>BG</t>
+        </is>
+      </c>
+      <c r="X136" s="4" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Y136" s="4" t="inlineStr"/>
+      <c r="Z136" s="4" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036104</t>
+          <t>BCIO:036103</t>
         </is>
       </c>
       <c r="B137" s="2" t="inlineStr">
         <is>
-          <t>tobacco smoking behaviour pattern</t>
+          <t>tobacco smoking behaviour</t>
         </is>
       </c>
       <c r="C137" s="2" t="inlineStr"/>
       <c r="D137" s="2" t="inlineStr">
         <is>
-          <t>A tobacco use behaviour pattern that involves tobacco smoking behaviour.</t>
+          <t>A tobacco use behaviour that involves setting light to a combustible tobacco product and ingesting the tobacco smoke that is produced.</t>
         </is>
       </c>
       <c r="E137" s="2" t="inlineStr"/>
       <c r="F137" s="2" t="inlineStr"/>
       <c r="G137" s="2" t="inlineStr">
         <is>
-          <t>tobacco use behaviour pattern</t>
+          <t>tobacco use behaviour</t>
         </is>
       </c>
       <c r="H137" s="2" t="inlineStr">
@@ -9269,7 +9247,11 @@
       <c r="N137" s="2" t="inlineStr"/>
       <c r="O137" s="2" t="inlineStr"/>
       <c r="P137" s="2" t="inlineStr"/>
-      <c r="Q137" s="2" t="inlineStr"/>
+      <c r="Q137" s="2" t="inlineStr">
+        <is>
+          <t>smoking</t>
+        </is>
+      </c>
       <c r="R137" s="2" t="inlineStr"/>
       <c r="S137" s="2" t="inlineStr"/>
       <c r="T137" s="2" t="inlineStr"/>
@@ -9295,25 +9277,25 @@
     <row r="138">
       <c r="A138" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050269</t>
+          <t>BCIO:036104</t>
         </is>
       </c>
       <c r="B138" s="2" t="inlineStr">
         <is>
-          <t>tobacco smoking cessation</t>
+          <t>tobacco smoking behaviour pattern</t>
         </is>
       </c>
       <c r="C138" s="2" t="inlineStr"/>
       <c r="D138" s="2" t="inlineStr">
         <is>
-          <t>Tobacco use cessation in which the form of tobacco use is tobacco smoking.</t>
+          <t>A tobacco use behaviour pattern that involves tobacco smoking behaviour.</t>
         </is>
       </c>
       <c r="E138" s="2" t="inlineStr"/>
       <c r="F138" s="2" t="inlineStr"/>
       <c r="G138" s="2" t="inlineStr">
         <is>
-          <t>tobacco use cessation</t>
+          <t>tobacco use behaviour pattern</t>
         </is>
       </c>
       <c r="H138" s="2" t="inlineStr">
@@ -9345,7 +9327,7 @@
       <c r="V138" s="2" t="inlineStr"/>
       <c r="W138" s="2" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>RW; JH</t>
         </is>
       </c>
       <c r="X138" s="2" t="inlineStr">
@@ -9359,25 +9341,25 @@
     <row r="139">
       <c r="A139" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036114</t>
+          <t>BCIO:050269</t>
         </is>
       </c>
       <c r="B139" s="2" t="inlineStr">
         <is>
-          <t>tobacco use behaviour</t>
+          <t>tobacco smoking cessation</t>
         </is>
       </c>
       <c r="C139" s="2" t="inlineStr"/>
       <c r="D139" s="2" t="inlineStr">
         <is>
-          <t>A substance use behaviour that involves ingesting constituents of a tobacco-containing product.</t>
+          <t>Tobacco use cessation in which the form of tobacco use is tobacco smoking.</t>
         </is>
       </c>
       <c r="E139" s="2" t="inlineStr"/>
       <c r="F139" s="2" t="inlineStr"/>
       <c r="G139" s="2" t="inlineStr">
         <is>
-          <t>substance use behaviour</t>
+          <t>tobacco use cessation</t>
         </is>
       </c>
       <c r="H139" s="2" t="inlineStr">
@@ -9397,11 +9379,7 @@
       <c r="N139" s="2" t="inlineStr"/>
       <c r="O139" s="2" t="inlineStr"/>
       <c r="P139" s="2" t="inlineStr"/>
-      <c r="Q139" s="2" t="inlineStr">
-        <is>
-          <t>tobacco use</t>
-        </is>
-      </c>
+      <c r="Q139" s="2" t="inlineStr"/>
       <c r="R139" s="2" t="inlineStr"/>
       <c r="S139" s="2" t="inlineStr"/>
       <c r="T139" s="2" t="inlineStr"/>
@@ -9413,7 +9391,7 @@
       <c r="V139" s="2" t="inlineStr"/>
       <c r="W139" s="2" t="inlineStr">
         <is>
-          <t>RW; OC; JH</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="X139" s="2" t="inlineStr">
@@ -9427,25 +9405,25 @@
     <row r="140">
       <c r="A140" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036102</t>
+          <t>BCIO:036114</t>
         </is>
       </c>
       <c r="B140" s="2" t="inlineStr">
         <is>
-          <t>tobacco use behaviour pattern</t>
+          <t>tobacco use behaviour</t>
         </is>
       </c>
       <c r="C140" s="2" t="inlineStr"/>
       <c r="D140" s="2" t="inlineStr">
         <is>
-          <t>A substance use behaviour pattern that involves tobacco use.</t>
+          <t>A substance use behaviour that involves ingesting constituents of a tobacco-containing product.</t>
         </is>
       </c>
       <c r="E140" s="2" t="inlineStr"/>
       <c r="F140" s="2" t="inlineStr"/>
       <c r="G140" s="2" t="inlineStr">
         <is>
-          <t>substance use behaviour pattern</t>
+          <t>substance use behaviour</t>
         </is>
       </c>
       <c r="H140" s="2" t="inlineStr">
@@ -9481,7 +9459,7 @@
       <c r="V140" s="2" t="inlineStr"/>
       <c r="W140" s="2" t="inlineStr">
         <is>
-          <t>RW; JH</t>
+          <t>RW; OC; JH</t>
         </is>
       </c>
       <c r="X140" s="2" t="inlineStr">
@@ -9495,29 +9473,25 @@
     <row r="141">
       <c r="A141" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050208</t>
+          <t>BCIO:036102</t>
         </is>
       </c>
       <c r="B141" s="2" t="inlineStr">
         <is>
-          <t>tobacco use cessation</t>
-        </is>
-      </c>
-      <c r="C141" s="2" t="inlineStr">
-        <is>
-          <t>Cessation of tobacco use for a period of time.</t>
-        </is>
-      </c>
+          <t>tobacco use behaviour pattern</t>
+        </is>
+      </c>
+      <c r="C141" s="2" t="inlineStr"/>
       <c r="D141" s="2" t="inlineStr">
         <is>
-          <t>Individual human behaviour pattern cessation in which the behaviour pattern involved is tobacco use.</t>
+          <t>A substance use behaviour pattern that involves tobacco use.</t>
         </is>
       </c>
       <c r="E141" s="2" t="inlineStr"/>
       <c r="F141" s="2" t="inlineStr"/>
       <c r="G141" s="2" t="inlineStr">
         <is>
-          <t>individual human behaviour pattern cessation</t>
+          <t>substance use behaviour pattern</t>
         </is>
       </c>
       <c r="H141" s="2" t="inlineStr">
@@ -9537,14 +9511,13 @@
       <c r="N141" s="2" t="inlineStr"/>
       <c r="O141" s="2" t="inlineStr"/>
       <c r="P141" s="2" t="inlineStr"/>
-      <c r="Q141" s="2" t="inlineStr"/>
+      <c r="Q141" s="2" t="inlineStr">
+        <is>
+          <t>tobacco use</t>
+        </is>
+      </c>
       <c r="R141" s="2" t="inlineStr"/>
-      <c r="S141" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">As with the parent class 'individual human behaviour pattern cessation'  this class can only be identified after the duration for which cessation has occurred has elapsed and it is necessary to specify this period for the class to be meaningful.
-</t>
-        </is>
-      </c>
+      <c r="S141" s="2" t="inlineStr"/>
       <c r="T141" s="2" t="inlineStr"/>
       <c r="U141" s="2" t="inlineStr">
         <is>
@@ -9554,7 +9527,7 @@
       <c r="V141" s="2" t="inlineStr"/>
       <c r="W141" s="2" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>RW; JH</t>
         </is>
       </c>
       <c r="X141" s="2" t="inlineStr">
@@ -9568,28 +9541,36 @@
     <row r="142">
       <c r="A142" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050396</t>
+          <t>BCIO:050208</t>
         </is>
       </c>
       <c r="B142" s="2" t="inlineStr">
         <is>
-          <t>transdermal consumption</t>
-        </is>
-      </c>
-      <c r="C142" s="2" t="inlineStr"/>
+          <t>tobacco use cessation</t>
+        </is>
+      </c>
+      <c r="C142" s="2" t="inlineStr">
+        <is>
+          <t>Cessation of tobacco use for a period of time.</t>
+        </is>
+      </c>
       <c r="D142" s="2" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves applying a material to the skin and ingesting this material into the circulation through the skin.</t>
+          <t>Individual human behaviour pattern cessation in which the behaviour pattern involved is tobacco use.</t>
         </is>
       </c>
       <c r="E142" s="2" t="inlineStr"/>
       <c r="F142" s="2" t="inlineStr"/>
       <c r="G142" s="2" t="inlineStr">
         <is>
-          <t>consumption behaviour</t>
-        </is>
-      </c>
-      <c r="H142" s="2" t="inlineStr"/>
+          <t>individual human behaviour pattern cessation</t>
+        </is>
+      </c>
+      <c r="H142" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I142" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -9604,12 +9585,13 @@
       <c r="P142" s="2" t="inlineStr"/>
       <c r="Q142" s="2" t="inlineStr"/>
       <c r="R142" s="2" t="inlineStr"/>
-      <c r="S142" s="2" t="inlineStr"/>
-      <c r="T142" s="2" t="inlineStr">
-        <is>
-          <t>Nicotine patches, hormone patches, pain relief gels</t>
-        </is>
-      </c>
+      <c r="S142" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">As with the parent class 'individual human behaviour pattern cessation'  this class can only be identified after the duration for which cessation has occurred has elapsed and it is necessary to specify this period for the class to be meaningful.
+</t>
+        </is>
+      </c>
+      <c r="T142" s="2" t="inlineStr"/>
       <c r="U142" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -9618,7 +9600,7 @@
       <c r="V142" s="2" t="inlineStr"/>
       <c r="W142" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="X142" s="2" t="inlineStr">
@@ -9632,25 +9614,25 @@
     <row r="143">
       <c r="A143" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036064</t>
+          <t>BCIO:050396</t>
         </is>
       </c>
       <c r="B143" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">transporting behaviour </t>
+          <t>transdermal consumption</t>
         </is>
       </c>
       <c r="C143" s="2" t="inlineStr"/>
       <c r="D143" s="2" t="inlineStr">
         <is>
-          <t>A travel behaviour that involves moving an object in addition toother than the actor.</t>
+          <t>A consumption behaviour that involves applying a material to the skin and ingesting this material into the circulation through the skin.</t>
         </is>
       </c>
       <c r="E143" s="2" t="inlineStr"/>
       <c r="F143" s="2" t="inlineStr"/>
       <c r="G143" s="2" t="inlineStr">
         <is>
-          <t>travel behaviour</t>
+          <t>consumption behaviour</t>
         </is>
       </c>
       <c r="H143" s="2" t="inlineStr"/>
@@ -9669,7 +9651,11 @@
       <c r="Q143" s="2" t="inlineStr"/>
       <c r="R143" s="2" t="inlineStr"/>
       <c r="S143" s="2" t="inlineStr"/>
-      <c r="T143" s="2" t="inlineStr"/>
+      <c r="T143" s="2" t="inlineStr">
+        <is>
+          <t>Nicotine patches, hormone patches, pain relief gels</t>
+        </is>
+      </c>
       <c r="U143" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -9678,7 +9664,7 @@
       <c r="V143" s="2" t="inlineStr"/>
       <c r="W143" s="2" t="inlineStr">
         <is>
-          <t>OC; RW</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X143" s="2" t="inlineStr">
@@ -9692,25 +9678,25 @@
     <row r="144">
       <c r="A144" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036059</t>
+          <t>BCIO:036064</t>
         </is>
       </c>
       <c r="B144" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">travel behaviour </t>
+          <t xml:space="preserve">transporting behaviour </t>
         </is>
       </c>
       <c r="C144" s="2" t="inlineStr"/>
       <c r="D144" s="2" t="inlineStr">
         <is>
-          <t>A position-related behaviour that involves changing physical location.</t>
+          <t>A travel behaviour that involves moving an object in addition toother than the actor.</t>
         </is>
       </c>
       <c r="E144" s="2" t="inlineStr"/>
       <c r="F144" s="2" t="inlineStr"/>
       <c r="G144" s="2" t="inlineStr">
         <is>
-          <t>position-related behaviour</t>
+          <t>travel behaviour</t>
         </is>
       </c>
       <c r="H144" s="2" t="inlineStr"/>
@@ -9728,12 +9714,7 @@
       <c r="P144" s="2" t="inlineStr"/>
       <c r="Q144" s="2" t="inlineStr"/>
       <c r="R144" s="2" t="inlineStr"/>
-      <c r="S144" s="2" t="inlineStr">
-        <is>
-          <t>Travel refers to some form of relocation from a place or position to another.
-The classes 'travel behaviour' and 'locomotive behaviour' have many instances in which they overlap. However, there are also examples where these classes are not the same. For instance, running on a treadmill is a locomotive behaviour but not a travel behaviour.</t>
-        </is>
-      </c>
+      <c r="S144" s="2" t="inlineStr"/>
       <c r="T144" s="2" t="inlineStr"/>
       <c r="U144" s="2" t="inlineStr">
         <is>
@@ -9743,7 +9724,7 @@
       <c r="V144" s="2" t="inlineStr"/>
       <c r="W144" s="2" t="inlineStr">
         <is>
-          <t>OC; RW; PS</t>
+          <t>OC; RW</t>
         </is>
       </c>
       <c r="X144" s="2" t="inlineStr">
@@ -9757,25 +9738,25 @@
     <row r="145">
       <c r="A145" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050403</t>
+          <t>BCIO:036059</t>
         </is>
       </c>
       <c r="B145" s="2" t="inlineStr">
         <is>
-          <t>undergoing vaccination</t>
+          <t xml:space="preserve">travel behaviour </t>
         </is>
       </c>
       <c r="C145" s="2" t="inlineStr"/>
       <c r="D145" s="2" t="inlineStr">
         <is>
-          <t>Utilising healthcare that involves interacting with a healthcare provider to receive a vaccination to prevent or lower the risk of a disease.</t>
+          <t>A position-related behaviour that involves changing physical location.</t>
         </is>
       </c>
       <c r="E145" s="2" t="inlineStr"/>
       <c r="F145" s="2" t="inlineStr"/>
       <c r="G145" s="2" t="inlineStr">
         <is>
-          <t>utilising healthcare</t>
+          <t>position-related behaviour</t>
         </is>
       </c>
       <c r="H145" s="2" t="inlineStr"/>
@@ -9795,7 +9776,8 @@
       <c r="R145" s="2" t="inlineStr"/>
       <c r="S145" s="2" t="inlineStr">
         <is>
-          <t>Vaccination is defined as “a medical intervention that involves in adding vaccine into a host (e.g., human, mouse) in vivo with the intent to invoke an adaptive immune response.” (http://purl.obolibrary.org/obo/VO_0000002)</t>
+          <t>Travel refers to some form of relocation from a place or position to another.
+The classes 'travel behaviour' and 'locomotive behaviour' have many instances in which they overlap. However, there are also examples where these classes are not the same. For instance, running on a treadmill is a locomotive behaviour but not a travel behaviour.</t>
         </is>
       </c>
       <c r="T145" s="2" t="inlineStr"/>
@@ -9807,7 +9789,7 @@
       <c r="V145" s="2" t="inlineStr"/>
       <c r="W145" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>OC; RW; PS</t>
         </is>
       </c>
       <c r="X145" s="2" t="inlineStr">
@@ -9821,36 +9803,28 @@
     <row r="146">
       <c r="A146" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050267</t>
+          <t>BCIO:050403</t>
         </is>
       </c>
       <c r="B146" s="2" t="inlineStr">
         <is>
-          <t>uniform process aggregate</t>
-        </is>
-      </c>
-      <c r="C146" s="2" t="inlineStr">
-        <is>
-          <t>Several processes of the same type repeated over time.</t>
-        </is>
-      </c>
+          <t>undergoing vaccination</t>
+        </is>
+      </c>
+      <c r="C146" s="2" t="inlineStr"/>
       <c r="D146" s="2" t="inlineStr">
         <is>
-          <t>A process aggregate whose member parts are of the same type.</t>
+          <t>Utilising healthcare that involves interacting with a healthcare provider to receive a vaccination to prevent or lower the risk of a disease.</t>
         </is>
       </c>
       <c r="E146" s="2" t="inlineStr"/>
       <c r="F146" s="2" t="inlineStr"/>
       <c r="G146" s="2" t="inlineStr">
         <is>
-          <t>process aggregate</t>
-        </is>
-      </c>
-      <c r="H146" s="2" t="inlineStr">
-        <is>
-          <t>occurrent</t>
-        </is>
-      </c>
+          <t>utilising healthcare</t>
+        </is>
+      </c>
+      <c r="H146" s="2" t="inlineStr"/>
       <c r="I146" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -9862,7 +9836,79 @@
       <c r="M146" s="2" t="inlineStr"/>
       <c r="N146" s="2" t="inlineStr"/>
       <c r="O146" s="2" t="inlineStr"/>
-      <c r="P146" s="2" t="inlineStr">
+      <c r="P146" s="2" t="inlineStr"/>
+      <c r="Q146" s="2" t="inlineStr"/>
+      <c r="R146" s="2" t="inlineStr"/>
+      <c r="S146" s="2" t="inlineStr">
+        <is>
+          <t>Vaccination is defined as “a medical intervention that involves in adding vaccine into a host (e.g., human, mouse) in vivo with the intent to invoke an adaptive immune response.” (http://purl.obolibrary.org/obo/VO_0000002)</t>
+        </is>
+      </c>
+      <c r="T146" s="2" t="inlineStr"/>
+      <c r="U146" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V146" s="2" t="inlineStr"/>
+      <c r="W146" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="X146" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="Y146" s="2" t="inlineStr"/>
+      <c r="Z146" s="2" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050267</t>
+        </is>
+      </c>
+      <c r="B147" s="2" t="inlineStr">
+        <is>
+          <t>uniform process aggregate</t>
+        </is>
+      </c>
+      <c r="C147" s="2" t="inlineStr">
+        <is>
+          <t>Several processes of the same type repeated over time.</t>
+        </is>
+      </c>
+      <c r="D147" s="2" t="inlineStr">
+        <is>
+          <t>A process aggregate whose member parts are of the same type.</t>
+        </is>
+      </c>
+      <c r="E147" s="2" t="inlineStr"/>
+      <c r="F147" s="2" t="inlineStr"/>
+      <c r="G147" s="2" t="inlineStr">
+        <is>
+          <t>process aggregate</t>
+        </is>
+      </c>
+      <c r="H147" s="2" t="inlineStr">
+        <is>
+          <t>occurrent</t>
+        </is>
+      </c>
+      <c r="I147" s="2" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J147" s="2" t="inlineStr"/>
+      <c r="K147" s="2" t="inlineStr"/>
+      <c r="L147" s="2" t="inlineStr"/>
+      <c r="M147" s="2" t="inlineStr"/>
+      <c r="N147" s="2" t="inlineStr"/>
+      <c r="O147" s="2" t="inlineStr"/>
+      <c r="P147" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">u is a uniform process aggregate means:
 •	u instance_of process aggregate
@@ -9872,73 +9918,9 @@
 </t>
         </is>
       </c>
-      <c r="Q146" s="2" t="inlineStr"/>
-      <c r="R146" s="2" t="inlineStr"/>
-      <c r="S146" s="2" t="inlineStr"/>
-      <c r="T146" s="2" t="inlineStr"/>
-      <c r="U146" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V146" s="2" t="inlineStr"/>
-      <c r="W146" s="2" t="inlineStr">
-        <is>
-          <t>RW; JH</t>
-        </is>
-      </c>
-      <c r="X146" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="Y146" s="2" t="inlineStr"/>
-      <c r="Z146" s="2" t="inlineStr"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050399</t>
-        </is>
-      </c>
-      <c r="B147" s="2" t="inlineStr">
-        <is>
-          <t>utilising healthcare</t>
-        </is>
-      </c>
-      <c r="C147" s="2" t="inlineStr"/>
-      <c r="D147" s="2" t="inlineStr">
-        <is>
-          <t>A health-related behaviour that involves interacting with a healthcare provider in order to assess, monitor, improve or maintain an aspect of one's health.</t>
-        </is>
-      </c>
-      <c r="E147" s="2" t="inlineStr"/>
-      <c r="F147" s="2" t="inlineStr"/>
-      <c r="G147" s="2" t="inlineStr">
-        <is>
-          <t>health-related behaviour</t>
-        </is>
-      </c>
-      <c r="H147" s="2" t="inlineStr"/>
-      <c r="I147" s="2" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="J147" s="2" t="inlineStr"/>
-      <c r="K147" s="2" t="inlineStr"/>
-      <c r="L147" s="2" t="inlineStr"/>
-      <c r="M147" s="2" t="inlineStr"/>
-      <c r="N147" s="2" t="inlineStr"/>
-      <c r="O147" s="2" t="inlineStr"/>
-      <c r="P147" s="2" t="inlineStr"/>
       <c r="Q147" s="2" t="inlineStr"/>
       <c r="R147" s="2" t="inlineStr"/>
-      <c r="S147" s="2" t="inlineStr">
-        <is>
-          <t>A ‘healthcare provider’ can be a person or organisation</t>
-        </is>
-      </c>
+      <c r="S147" s="2" t="inlineStr"/>
       <c r="T147" s="2" t="inlineStr"/>
       <c r="U147" s="2" t="inlineStr">
         <is>
@@ -9948,7 +9930,7 @@
       <c r="V147" s="2" t="inlineStr"/>
       <c r="W147" s="2" t="inlineStr">
         <is>
-          <t>PS; RW</t>
+          <t>RW; JH</t>
         </is>
       </c>
       <c r="X147" s="2" t="inlineStr">
@@ -9962,25 +9944,25 @@
     <row r="148">
       <c r="A148" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050379</t>
+          <t>BCIO:050399</t>
         </is>
       </c>
       <c r="B148" s="2" t="inlineStr">
         <is>
-          <t>vaping device use</t>
+          <t>utilising healthcare</t>
         </is>
       </c>
       <c r="C148" s="2" t="inlineStr"/>
       <c r="D148" s="2" t="inlineStr">
         <is>
-          <t>Inhaling consumption that involves using a device to consume an aerosol.</t>
+          <t>A health-related behaviour that involves interacting with a healthcare provider in order to assess, monitor, improve or maintain an aspect of one's health.</t>
         </is>
       </c>
       <c r="E148" s="2" t="inlineStr"/>
       <c r="F148" s="2" t="inlineStr"/>
       <c r="G148" s="2" t="inlineStr">
         <is>
-          <t>inhaling consumption</t>
+          <t>health-related behaviour</t>
         </is>
       </c>
       <c r="H148" s="2" t="inlineStr"/>
@@ -9998,7 +9980,11 @@
       <c r="P148" s="2" t="inlineStr"/>
       <c r="Q148" s="2" t="inlineStr"/>
       <c r="R148" s="2" t="inlineStr"/>
-      <c r="S148" s="2" t="inlineStr"/>
+      <c r="S148" s="2" t="inlineStr">
+        <is>
+          <t>A ‘healthcare provider’ can be a person or organisation</t>
+        </is>
+      </c>
       <c r="T148" s="2" t="inlineStr"/>
       <c r="U148" s="2" t="inlineStr">
         <is>
@@ -10008,7 +9994,7 @@
       <c r="V148" s="2" t="inlineStr"/>
       <c r="W148" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="X148" s="2" t="inlineStr">
@@ -10020,154 +10006,154 @@
       <c r="Z148" s="2" t="inlineStr"/>
     </row>
     <row r="149">
-      <c r="A149" s="4" t="inlineStr">
+      <c r="A149" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050379</t>
+        </is>
+      </c>
+      <c r="B149" s="2" t="inlineStr">
+        <is>
+          <t>vaping device use</t>
+        </is>
+      </c>
+      <c r="C149" s="2" t="inlineStr"/>
+      <c r="D149" s="2" t="inlineStr">
+        <is>
+          <t>Inhaling consumption that involves using a device to consume an aerosol.</t>
+        </is>
+      </c>
+      <c r="E149" s="2" t="inlineStr"/>
+      <c r="F149" s="2" t="inlineStr"/>
+      <c r="G149" s="2" t="inlineStr">
+        <is>
+          <t>inhaling consumption</t>
+        </is>
+      </c>
+      <c r="H149" s="2" t="inlineStr"/>
+      <c r="I149" s="2" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J149" s="2" t="inlineStr"/>
+      <c r="K149" s="2" t="inlineStr"/>
+      <c r="L149" s="2" t="inlineStr"/>
+      <c r="M149" s="2" t="inlineStr"/>
+      <c r="N149" s="2" t="inlineStr"/>
+      <c r="O149" s="2" t="inlineStr"/>
+      <c r="P149" s="2" t="inlineStr"/>
+      <c r="Q149" s="2" t="inlineStr"/>
+      <c r="R149" s="2" t="inlineStr"/>
+      <c r="S149" s="2" t="inlineStr"/>
+      <c r="T149" s="2" t="inlineStr"/>
+      <c r="U149" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V149" s="2" t="inlineStr"/>
+      <c r="W149" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="X149" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="Y149" s="2" t="inlineStr"/>
+      <c r="Z149" s="2" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="4" t="inlineStr">
         <is>
           <t>BCIO:050442</t>
         </is>
       </c>
-      <c r="B149" s="4" t="inlineStr">
+      <c r="B150" s="4" t="inlineStr">
         <is>
           <t>vocalisation behaviour</t>
         </is>
       </c>
-      <c r="C149" s="4" t="inlineStr"/>
-      <c r="D149" s="4" t="inlineStr">
+      <c r="C150" s="4" t="inlineStr"/>
+      <c r="D150" s="4" t="inlineStr">
         <is>
           <t>An individual human behaviour using one's voice to produce sounds.</t>
         </is>
       </c>
-      <c r="E149" s="4" t="inlineStr"/>
-      <c r="F149" s="4" t="inlineStr"/>
-      <c r="G149" s="4" t="inlineStr">
+      <c r="E150" s="4" t="inlineStr"/>
+      <c r="F150" s="4" t="inlineStr"/>
+      <c r="G150" s="4" t="inlineStr">
         <is>
           <t>individual human behaviour</t>
         </is>
       </c>
-      <c r="H149" s="4" t="inlineStr"/>
-      <c r="I149" s="4" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="J149" s="4" t="inlineStr"/>
-      <c r="K149" s="4" t="inlineStr"/>
-      <c r="L149" s="4" t="inlineStr"/>
-      <c r="M149" s="4" t="inlineStr"/>
-      <c r="N149" s="4" t="inlineStr"/>
-      <c r="O149" s="4" t="inlineStr"/>
-      <c r="P149" s="4" t="inlineStr"/>
-      <c r="Q149" s="4" t="inlineStr"/>
-      <c r="R149" s="4" t="inlineStr"/>
-      <c r="S149" s="4" t="inlineStr"/>
-      <c r="T149" s="4" t="inlineStr"/>
-      <c r="U149" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V149" s="4" t="inlineStr"/>
-      <c r="W149" s="4" t="inlineStr">
+      <c r="H150" s="4" t="inlineStr"/>
+      <c r="I150" s="4" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J150" s="4" t="inlineStr"/>
+      <c r="K150" s="4" t="inlineStr"/>
+      <c r="L150" s="4" t="inlineStr"/>
+      <c r="M150" s="4" t="inlineStr"/>
+      <c r="N150" s="4" t="inlineStr"/>
+      <c r="O150" s="4" t="inlineStr"/>
+      <c r="P150" s="4" t="inlineStr"/>
+      <c r="Q150" s="4" t="inlineStr"/>
+      <c r="R150" s="4" t="inlineStr"/>
+      <c r="S150" s="4" t="inlineStr"/>
+      <c r="T150" s="4" t="inlineStr"/>
+      <c r="U150" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V150" s="4" t="inlineStr"/>
+      <c r="W150" s="4" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="X149" s="4" t="inlineStr">
+      <c r="X150" s="4" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="Y149" s="4" t="inlineStr"/>
-      <c r="Z149" s="4" t="inlineStr"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:036108</t>
-        </is>
-      </c>
-      <c r="B150" s="2" t="inlineStr">
-        <is>
-          <t>walking</t>
-        </is>
-      </c>
-      <c r="C150" s="2" t="inlineStr"/>
-      <c r="D150" s="2" t="inlineStr">
-        <is>
-          <t>A locomotive behaviour that involves moving at a regular pace by lifting and setting down each foot in turn, never having both feet off the ground at once.</t>
-        </is>
-      </c>
-      <c r="E150" s="2" t="inlineStr"/>
-      <c r="F150" s="2" t="inlineStr"/>
-      <c r="G150" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">locomotive behaviour </t>
-        </is>
-      </c>
-      <c r="H150" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="I150" s="2" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="J150" s="2" t="inlineStr"/>
-      <c r="K150" s="2" t="inlineStr"/>
-      <c r="L150" s="2" t="inlineStr"/>
-      <c r="M150" s="2" t="inlineStr"/>
-      <c r="N150" s="2" t="inlineStr"/>
-      <c r="O150" s="2" t="inlineStr"/>
-      <c r="P150" s="2" t="inlineStr"/>
-      <c r="Q150" s="2" t="inlineStr"/>
-      <c r="R150" s="2" t="inlineStr"/>
-      <c r="S150" s="2" t="inlineStr"/>
-      <c r="T150" s="2" t="inlineStr"/>
-      <c r="U150" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V150" s="2" t="inlineStr"/>
-      <c r="W150" s="2" t="inlineStr">
-        <is>
-          <t>RW; OC; JH</t>
-        </is>
-      </c>
-      <c r="X150" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="Y150" s="2" t="inlineStr"/>
-      <c r="Z150" s="2" t="inlineStr"/>
+      <c r="Y150" s="4" t="inlineStr"/>
+      <c r="Z150" s="4" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050418</t>
+          <t>BCIO:036108</t>
         </is>
       </c>
       <c r="B151" s="2" t="inlineStr">
         <is>
-          <t>watching behaviour</t>
+          <t>walking</t>
         </is>
       </c>
       <c r="C151" s="2" t="inlineStr"/>
       <c r="D151" s="2" t="inlineStr">
         <is>
-          <t>An object-using behaviour that involves deriving meaning from visual or audiovisual material.</t>
+          <t>A locomotive behaviour that involves moving at a regular pace by lifting and setting down each foot in turn, never having both feet off the ground at once.</t>
         </is>
       </c>
       <c r="E151" s="2" t="inlineStr"/>
       <c r="F151" s="2" t="inlineStr"/>
       <c r="G151" s="2" t="inlineStr">
         <is>
-          <t>object-using behaviour</t>
-        </is>
-      </c>
-      <c r="H151" s="2" t="inlineStr"/>
+          <t xml:space="preserve">locomotive behaviour </t>
+        </is>
+      </c>
+      <c r="H151" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I151" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -10183,11 +10169,7 @@
       <c r="Q151" s="2" t="inlineStr"/>
       <c r="R151" s="2" t="inlineStr"/>
       <c r="S151" s="2" t="inlineStr"/>
-      <c r="T151" s="2" t="inlineStr">
-        <is>
-          <t>Watching a movie</t>
-        </is>
-      </c>
+      <c r="T151" s="2" t="inlineStr"/>
       <c r="U151" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -10196,7 +10178,7 @@
       <c r="V151" s="2" t="inlineStr"/>
       <c r="W151" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW; OC; JH</t>
         </is>
       </c>
       <c r="X151" s="2" t="inlineStr">
@@ -10206,6 +10188,70 @@
       </c>
       <c r="Y151" s="2" t="inlineStr"/>
       <c r="Z151" s="2" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050418</t>
+        </is>
+      </c>
+      <c r="B152" s="2" t="inlineStr">
+        <is>
+          <t>watching behaviour</t>
+        </is>
+      </c>
+      <c r="C152" s="2" t="inlineStr"/>
+      <c r="D152" s="2" t="inlineStr">
+        <is>
+          <t>An object-using behaviour that involves deriving meaning from visual or audiovisual material.</t>
+        </is>
+      </c>
+      <c r="E152" s="2" t="inlineStr"/>
+      <c r="F152" s="2" t="inlineStr"/>
+      <c r="G152" s="2" t="inlineStr">
+        <is>
+          <t>object-using behaviour</t>
+        </is>
+      </c>
+      <c r="H152" s="2" t="inlineStr"/>
+      <c r="I152" s="2" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J152" s="2" t="inlineStr"/>
+      <c r="K152" s="2" t="inlineStr"/>
+      <c r="L152" s="2" t="inlineStr"/>
+      <c r="M152" s="2" t="inlineStr"/>
+      <c r="N152" s="2" t="inlineStr"/>
+      <c r="O152" s="2" t="inlineStr"/>
+      <c r="P152" s="2" t="inlineStr"/>
+      <c r="Q152" s="2" t="inlineStr"/>
+      <c r="R152" s="2" t="inlineStr"/>
+      <c r="S152" s="2" t="inlineStr"/>
+      <c r="T152" s="2" t="inlineStr">
+        <is>
+          <t>Watching a movie</t>
+        </is>
+      </c>
+      <c r="U152" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V152" s="2" t="inlineStr"/>
+      <c r="W152" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="X152" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="Y152" s="2" t="inlineStr"/>
+      <c r="Z152" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Behaviour/BCIO_behaviour.xlsx
+++ b/Behaviour/BCIO_behaviour.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z152"/>
+  <dimension ref="A1:Z153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8825,8 +8825,10 @@
       <c r="R130" s="4" t="inlineStr"/>
       <c r="S130" s="4" t="inlineStr"/>
       <c r="T130" s="4" t="inlineStr"/>
-      <c r="U130" s="4" t="n">
-        <v>0</v>
+      <c r="U130" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="V130" s="4" t="inlineStr"/>
       <c r="W130" s="4" t="inlineStr">
@@ -9191,7 +9193,9 @@
       <c r="R136" s="4" t="inlineStr"/>
       <c r="S136" s="4" t="inlineStr"/>
       <c r="T136" s="4" t="inlineStr"/>
-      <c r="U136" s="4" t="inlineStr"/>
+      <c r="U136" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="V136" s="4" t="inlineStr"/>
       <c r="W136" s="4" t="inlineStr">
         <is>
@@ -9207,95 +9211,71 @@
       <c r="Z136" s="4" t="inlineStr"/>
     </row>
     <row r="137">
-      <c r="A137" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:036103</t>
-        </is>
-      </c>
-      <c r="B137" s="2" t="inlineStr">
-        <is>
-          <t>tobacco smoking behaviour</t>
-        </is>
-      </c>
-      <c r="C137" s="2" t="inlineStr"/>
-      <c r="D137" s="2" t="inlineStr">
-        <is>
-          <t>A tobacco use behaviour that involves setting light to a combustible tobacco product and ingesting the tobacco smoke that is produced.</t>
-        </is>
-      </c>
-      <c r="E137" s="2" t="inlineStr"/>
-      <c r="F137" s="2" t="inlineStr"/>
-      <c r="G137" s="2" t="inlineStr">
-        <is>
-          <t>tobacco use behaviour</t>
-        </is>
-      </c>
-      <c r="H137" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="I137" s="2" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="J137" s="2" t="inlineStr"/>
-      <c r="K137" s="2" t="inlineStr"/>
-      <c r="L137" s="2" t="inlineStr"/>
-      <c r="M137" s="2" t="inlineStr"/>
-      <c r="N137" s="2" t="inlineStr"/>
-      <c r="O137" s="2" t="inlineStr"/>
-      <c r="P137" s="2" t="inlineStr"/>
-      <c r="Q137" s="2" t="inlineStr">
-        <is>
-          <t>smoking</t>
-        </is>
-      </c>
-      <c r="R137" s="2" t="inlineStr"/>
-      <c r="S137" s="2" t="inlineStr"/>
-      <c r="T137" s="2" t="inlineStr"/>
-      <c r="U137" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V137" s="2" t="inlineStr"/>
-      <c r="W137" s="2" t="inlineStr">
-        <is>
-          <t>RW; JH</t>
-        </is>
-      </c>
-      <c r="X137" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="Y137" s="2" t="inlineStr"/>
-      <c r="Z137" s="2" t="inlineStr"/>
+      <c r="A137" s="4" t="inlineStr"/>
+      <c r="B137" s="4" t="inlineStr">
+        <is>
+          <t>test label 3</t>
+        </is>
+      </c>
+      <c r="C137" s="4" t="inlineStr"/>
+      <c r="D137" s="4" t="inlineStr"/>
+      <c r="E137" s="4" t="inlineStr"/>
+      <c r="F137" s="4" t="inlineStr"/>
+      <c r="G137" s="4" t="inlineStr"/>
+      <c r="H137" s="4" t="inlineStr"/>
+      <c r="I137" s="4" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="J137" s="4" t="inlineStr"/>
+      <c r="K137" s="4" t="inlineStr"/>
+      <c r="L137" s="4" t="inlineStr"/>
+      <c r="M137" s="4" t="inlineStr"/>
+      <c r="N137" s="4" t="inlineStr"/>
+      <c r="O137" s="4" t="inlineStr"/>
+      <c r="P137" s="4" t="inlineStr"/>
+      <c r="Q137" s="4" t="inlineStr"/>
+      <c r="R137" s="4" t="inlineStr"/>
+      <c r="S137" s="4" t="inlineStr"/>
+      <c r="T137" s="4" t="inlineStr"/>
+      <c r="U137" s="4" t="inlineStr"/>
+      <c r="V137" s="4" t="inlineStr"/>
+      <c r="W137" s="4" t="inlineStr">
+        <is>
+          <t>BG</t>
+        </is>
+      </c>
+      <c r="X137" s="4" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Y137" s="4" t="inlineStr"/>
+      <c r="Z137" s="4" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036104</t>
+          <t>BCIO:036103</t>
         </is>
       </c>
       <c r="B138" s="2" t="inlineStr">
         <is>
-          <t>tobacco smoking behaviour pattern</t>
+          <t>tobacco smoking behaviour</t>
         </is>
       </c>
       <c r="C138" s="2" t="inlineStr"/>
       <c r="D138" s="2" t="inlineStr">
         <is>
-          <t>A tobacco use behaviour pattern that involves tobacco smoking behaviour.</t>
+          <t>A tobacco use behaviour that involves setting light to a combustible tobacco product and ingesting the tobacco smoke that is produced.</t>
         </is>
       </c>
       <c r="E138" s="2" t="inlineStr"/>
       <c r="F138" s="2" t="inlineStr"/>
       <c r="G138" s="2" t="inlineStr">
         <is>
-          <t>tobacco use behaviour pattern</t>
+          <t>tobacco use behaviour</t>
         </is>
       </c>
       <c r="H138" s="2" t="inlineStr">
@@ -9315,7 +9295,11 @@
       <c r="N138" s="2" t="inlineStr"/>
       <c r="O138" s="2" t="inlineStr"/>
       <c r="P138" s="2" t="inlineStr"/>
-      <c r="Q138" s="2" t="inlineStr"/>
+      <c r="Q138" s="2" t="inlineStr">
+        <is>
+          <t>smoking</t>
+        </is>
+      </c>
       <c r="R138" s="2" t="inlineStr"/>
       <c r="S138" s="2" t="inlineStr"/>
       <c r="T138" s="2" t="inlineStr"/>
@@ -9341,25 +9325,25 @@
     <row r="139">
       <c r="A139" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050269</t>
+          <t>BCIO:036104</t>
         </is>
       </c>
       <c r="B139" s="2" t="inlineStr">
         <is>
-          <t>tobacco smoking cessation</t>
+          <t>tobacco smoking behaviour pattern</t>
         </is>
       </c>
       <c r="C139" s="2" t="inlineStr"/>
       <c r="D139" s="2" t="inlineStr">
         <is>
-          <t>Tobacco use cessation in which the form of tobacco use is tobacco smoking.</t>
+          <t>A tobacco use behaviour pattern that involves tobacco smoking behaviour.</t>
         </is>
       </c>
       <c r="E139" s="2" t="inlineStr"/>
       <c r="F139" s="2" t="inlineStr"/>
       <c r="G139" s="2" t="inlineStr">
         <is>
-          <t>tobacco use cessation</t>
+          <t>tobacco use behaviour pattern</t>
         </is>
       </c>
       <c r="H139" s="2" t="inlineStr">
@@ -9391,7 +9375,7 @@
       <c r="V139" s="2" t="inlineStr"/>
       <c r="W139" s="2" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>RW; JH</t>
         </is>
       </c>
       <c r="X139" s="2" t="inlineStr">
@@ -9405,25 +9389,25 @@
     <row r="140">
       <c r="A140" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036114</t>
+          <t>BCIO:050269</t>
         </is>
       </c>
       <c r="B140" s="2" t="inlineStr">
         <is>
-          <t>tobacco use behaviour</t>
+          <t>tobacco smoking cessation</t>
         </is>
       </c>
       <c r="C140" s="2" t="inlineStr"/>
       <c r="D140" s="2" t="inlineStr">
         <is>
-          <t>A substance use behaviour that involves ingesting constituents of a tobacco-containing product.</t>
+          <t>Tobacco use cessation in which the form of tobacco use is tobacco smoking.</t>
         </is>
       </c>
       <c r="E140" s="2" t="inlineStr"/>
       <c r="F140" s="2" t="inlineStr"/>
       <c r="G140" s="2" t="inlineStr">
         <is>
-          <t>substance use behaviour</t>
+          <t>tobacco use cessation</t>
         </is>
       </c>
       <c r="H140" s="2" t="inlineStr">
@@ -9443,11 +9427,7 @@
       <c r="N140" s="2" t="inlineStr"/>
       <c r="O140" s="2" t="inlineStr"/>
       <c r="P140" s="2" t="inlineStr"/>
-      <c r="Q140" s="2" t="inlineStr">
-        <is>
-          <t>tobacco use</t>
-        </is>
-      </c>
+      <c r="Q140" s="2" t="inlineStr"/>
       <c r="R140" s="2" t="inlineStr"/>
       <c r="S140" s="2" t="inlineStr"/>
       <c r="T140" s="2" t="inlineStr"/>
@@ -9459,7 +9439,7 @@
       <c r="V140" s="2" t="inlineStr"/>
       <c r="W140" s="2" t="inlineStr">
         <is>
-          <t>RW; OC; JH</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="X140" s="2" t="inlineStr">
@@ -9473,25 +9453,25 @@
     <row r="141">
       <c r="A141" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036102</t>
+          <t>BCIO:036114</t>
         </is>
       </c>
       <c r="B141" s="2" t="inlineStr">
         <is>
-          <t>tobacco use behaviour pattern</t>
+          <t>tobacco use behaviour</t>
         </is>
       </c>
       <c r="C141" s="2" t="inlineStr"/>
       <c r="D141" s="2" t="inlineStr">
         <is>
-          <t>A substance use behaviour pattern that involves tobacco use.</t>
+          <t>A substance use behaviour that involves ingesting constituents of a tobacco-containing product.</t>
         </is>
       </c>
       <c r="E141" s="2" t="inlineStr"/>
       <c r="F141" s="2" t="inlineStr"/>
       <c r="G141" s="2" t="inlineStr">
         <is>
-          <t>substance use behaviour pattern</t>
+          <t>substance use behaviour</t>
         </is>
       </c>
       <c r="H141" s="2" t="inlineStr">
@@ -9527,7 +9507,7 @@
       <c r="V141" s="2" t="inlineStr"/>
       <c r="W141" s="2" t="inlineStr">
         <is>
-          <t>RW; JH</t>
+          <t>RW; OC; JH</t>
         </is>
       </c>
       <c r="X141" s="2" t="inlineStr">
@@ -9541,29 +9521,25 @@
     <row r="142">
       <c r="A142" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050208</t>
+          <t>BCIO:036102</t>
         </is>
       </c>
       <c r="B142" s="2" t="inlineStr">
         <is>
-          <t>tobacco use cessation</t>
-        </is>
-      </c>
-      <c r="C142" s="2" t="inlineStr">
-        <is>
-          <t>Cessation of tobacco use for a period of time.</t>
-        </is>
-      </c>
+          <t>tobacco use behaviour pattern</t>
+        </is>
+      </c>
+      <c r="C142" s="2" t="inlineStr"/>
       <c r="D142" s="2" t="inlineStr">
         <is>
-          <t>Individual human behaviour pattern cessation in which the behaviour pattern involved is tobacco use.</t>
+          <t>A substance use behaviour pattern that involves tobacco use.</t>
         </is>
       </c>
       <c r="E142" s="2" t="inlineStr"/>
       <c r="F142" s="2" t="inlineStr"/>
       <c r="G142" s="2" t="inlineStr">
         <is>
-          <t>individual human behaviour pattern cessation</t>
+          <t>substance use behaviour pattern</t>
         </is>
       </c>
       <c r="H142" s="2" t="inlineStr">
@@ -9583,14 +9559,13 @@
       <c r="N142" s="2" t="inlineStr"/>
       <c r="O142" s="2" t="inlineStr"/>
       <c r="P142" s="2" t="inlineStr"/>
-      <c r="Q142" s="2" t="inlineStr"/>
+      <c r="Q142" s="2" t="inlineStr">
+        <is>
+          <t>tobacco use</t>
+        </is>
+      </c>
       <c r="R142" s="2" t="inlineStr"/>
-      <c r="S142" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">As with the parent class 'individual human behaviour pattern cessation'  this class can only be identified after the duration for which cessation has occurred has elapsed and it is necessary to specify this period for the class to be meaningful.
-</t>
-        </is>
-      </c>
+      <c r="S142" s="2" t="inlineStr"/>
       <c r="T142" s="2" t="inlineStr"/>
       <c r="U142" s="2" t="inlineStr">
         <is>
@@ -9600,7 +9575,7 @@
       <c r="V142" s="2" t="inlineStr"/>
       <c r="W142" s="2" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>RW; JH</t>
         </is>
       </c>
       <c r="X142" s="2" t="inlineStr">
@@ -9614,28 +9589,36 @@
     <row r="143">
       <c r="A143" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050396</t>
+          <t>BCIO:050208</t>
         </is>
       </c>
       <c r="B143" s="2" t="inlineStr">
         <is>
-          <t>transdermal consumption</t>
-        </is>
-      </c>
-      <c r="C143" s="2" t="inlineStr"/>
+          <t>tobacco use cessation</t>
+        </is>
+      </c>
+      <c r="C143" s="2" t="inlineStr">
+        <is>
+          <t>Cessation of tobacco use for a period of time.</t>
+        </is>
+      </c>
       <c r="D143" s="2" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves applying a material to the skin and ingesting this material into the circulation through the skin.</t>
+          <t>Individual human behaviour pattern cessation in which the behaviour pattern involved is tobacco use.</t>
         </is>
       </c>
       <c r="E143" s="2" t="inlineStr"/>
       <c r="F143" s="2" t="inlineStr"/>
       <c r="G143" s="2" t="inlineStr">
         <is>
-          <t>consumption behaviour</t>
-        </is>
-      </c>
-      <c r="H143" s="2" t="inlineStr"/>
+          <t>individual human behaviour pattern cessation</t>
+        </is>
+      </c>
+      <c r="H143" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I143" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -9650,12 +9633,13 @@
       <c r="P143" s="2" t="inlineStr"/>
       <c r="Q143" s="2" t="inlineStr"/>
       <c r="R143" s="2" t="inlineStr"/>
-      <c r="S143" s="2" t="inlineStr"/>
-      <c r="T143" s="2" t="inlineStr">
-        <is>
-          <t>Nicotine patches, hormone patches, pain relief gels</t>
-        </is>
-      </c>
+      <c r="S143" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">As with the parent class 'individual human behaviour pattern cessation'  this class can only be identified after the duration for which cessation has occurred has elapsed and it is necessary to specify this period for the class to be meaningful.
+</t>
+        </is>
+      </c>
+      <c r="T143" s="2" t="inlineStr"/>
       <c r="U143" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -9664,7 +9648,7 @@
       <c r="V143" s="2" t="inlineStr"/>
       <c r="W143" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="X143" s="2" t="inlineStr">
@@ -9678,25 +9662,25 @@
     <row r="144">
       <c r="A144" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036064</t>
+          <t>BCIO:050396</t>
         </is>
       </c>
       <c r="B144" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">transporting behaviour </t>
+          <t>transdermal consumption</t>
         </is>
       </c>
       <c r="C144" s="2" t="inlineStr"/>
       <c r="D144" s="2" t="inlineStr">
         <is>
-          <t>A travel behaviour that involves moving an object in addition toother than the actor.</t>
+          <t>A consumption behaviour that involves applying a material to the skin and ingesting this material into the circulation through the skin.</t>
         </is>
       </c>
       <c r="E144" s="2" t="inlineStr"/>
       <c r="F144" s="2" t="inlineStr"/>
       <c r="G144" s="2" t="inlineStr">
         <is>
-          <t>travel behaviour</t>
+          <t>consumption behaviour</t>
         </is>
       </c>
       <c r="H144" s="2" t="inlineStr"/>
@@ -9715,7 +9699,11 @@
       <c r="Q144" s="2" t="inlineStr"/>
       <c r="R144" s="2" t="inlineStr"/>
       <c r="S144" s="2" t="inlineStr"/>
-      <c r="T144" s="2" t="inlineStr"/>
+      <c r="T144" s="2" t="inlineStr">
+        <is>
+          <t>Nicotine patches, hormone patches, pain relief gels</t>
+        </is>
+      </c>
       <c r="U144" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -9724,7 +9712,7 @@
       <c r="V144" s="2" t="inlineStr"/>
       <c r="W144" s="2" t="inlineStr">
         <is>
-          <t>OC; RW</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X144" s="2" t="inlineStr">
@@ -9738,25 +9726,25 @@
     <row r="145">
       <c r="A145" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036059</t>
+          <t>BCIO:036064</t>
         </is>
       </c>
       <c r="B145" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">travel behaviour </t>
+          <t xml:space="preserve">transporting behaviour </t>
         </is>
       </c>
       <c r="C145" s="2" t="inlineStr"/>
       <c r="D145" s="2" t="inlineStr">
         <is>
-          <t>A position-related behaviour that involves changing physical location.</t>
+          <t>A travel behaviour that involves moving an object in addition toother than the actor.</t>
         </is>
       </c>
       <c r="E145" s="2" t="inlineStr"/>
       <c r="F145" s="2" t="inlineStr"/>
       <c r="G145" s="2" t="inlineStr">
         <is>
-          <t>position-related behaviour</t>
+          <t>travel behaviour</t>
         </is>
       </c>
       <c r="H145" s="2" t="inlineStr"/>
@@ -9774,12 +9762,7 @@
       <c r="P145" s="2" t="inlineStr"/>
       <c r="Q145" s="2" t="inlineStr"/>
       <c r="R145" s="2" t="inlineStr"/>
-      <c r="S145" s="2" t="inlineStr">
-        <is>
-          <t>Travel refers to some form of relocation from a place or position to another.
-The classes 'travel behaviour' and 'locomotive behaviour' have many instances in which they overlap. However, there are also examples where these classes are not the same. For instance, running on a treadmill is a locomotive behaviour but not a travel behaviour.</t>
-        </is>
-      </c>
+      <c r="S145" s="2" t="inlineStr"/>
       <c r="T145" s="2" t="inlineStr"/>
       <c r="U145" s="2" t="inlineStr">
         <is>
@@ -9789,7 +9772,7 @@
       <c r="V145" s="2" t="inlineStr"/>
       <c r="W145" s="2" t="inlineStr">
         <is>
-          <t>OC; RW; PS</t>
+          <t>OC; RW</t>
         </is>
       </c>
       <c r="X145" s="2" t="inlineStr">
@@ -9803,25 +9786,25 @@
     <row r="146">
       <c r="A146" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050403</t>
+          <t>BCIO:036059</t>
         </is>
       </c>
       <c r="B146" s="2" t="inlineStr">
         <is>
-          <t>undergoing vaccination</t>
+          <t xml:space="preserve">travel behaviour </t>
         </is>
       </c>
       <c r="C146" s="2" t="inlineStr"/>
       <c r="D146" s="2" t="inlineStr">
         <is>
-          <t>Utilising healthcare that involves interacting with a healthcare provider to receive a vaccination to prevent or lower the risk of a disease.</t>
+          <t>A position-related behaviour that involves changing physical location.</t>
         </is>
       </c>
       <c r="E146" s="2" t="inlineStr"/>
       <c r="F146" s="2" t="inlineStr"/>
       <c r="G146" s="2" t="inlineStr">
         <is>
-          <t>utilising healthcare</t>
+          <t>position-related behaviour</t>
         </is>
       </c>
       <c r="H146" s="2" t="inlineStr"/>
@@ -9841,7 +9824,8 @@
       <c r="R146" s="2" t="inlineStr"/>
       <c r="S146" s="2" t="inlineStr">
         <is>
-          <t>Vaccination is defined as “a medical intervention that involves in adding vaccine into a host (e.g., human, mouse) in vivo with the intent to invoke an adaptive immune response.” (http://purl.obolibrary.org/obo/VO_0000002)</t>
+          <t>Travel refers to some form of relocation from a place or position to another.
+The classes 'travel behaviour' and 'locomotive behaviour' have many instances in which they overlap. However, there are also examples where these classes are not the same. For instance, running on a treadmill is a locomotive behaviour but not a travel behaviour.</t>
         </is>
       </c>
       <c r="T146" s="2" t="inlineStr"/>
@@ -9853,7 +9837,7 @@
       <c r="V146" s="2" t="inlineStr"/>
       <c r="W146" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>OC; RW; PS</t>
         </is>
       </c>
       <c r="X146" s="2" t="inlineStr">
@@ -9867,36 +9851,28 @@
     <row r="147">
       <c r="A147" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050267</t>
+          <t>BCIO:050403</t>
         </is>
       </c>
       <c r="B147" s="2" t="inlineStr">
         <is>
-          <t>uniform process aggregate</t>
-        </is>
-      </c>
-      <c r="C147" s="2" t="inlineStr">
-        <is>
-          <t>Several processes of the same type repeated over time.</t>
-        </is>
-      </c>
+          <t>undergoing vaccination</t>
+        </is>
+      </c>
+      <c r="C147" s="2" t="inlineStr"/>
       <c r="D147" s="2" t="inlineStr">
         <is>
-          <t>A process aggregate whose member parts are of the same type.</t>
+          <t>Utilising healthcare that involves interacting with a healthcare provider to receive a vaccination to prevent or lower the risk of a disease.</t>
         </is>
       </c>
       <c r="E147" s="2" t="inlineStr"/>
       <c r="F147" s="2" t="inlineStr"/>
       <c r="G147" s="2" t="inlineStr">
         <is>
-          <t>process aggregate</t>
-        </is>
-      </c>
-      <c r="H147" s="2" t="inlineStr">
-        <is>
-          <t>occurrent</t>
-        </is>
-      </c>
+          <t>utilising healthcare</t>
+        </is>
+      </c>
+      <c r="H147" s="2" t="inlineStr"/>
       <c r="I147" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -9908,7 +9884,79 @@
       <c r="M147" s="2" t="inlineStr"/>
       <c r="N147" s="2" t="inlineStr"/>
       <c r="O147" s="2" t="inlineStr"/>
-      <c r="P147" s="2" t="inlineStr">
+      <c r="P147" s="2" t="inlineStr"/>
+      <c r="Q147" s="2" t="inlineStr"/>
+      <c r="R147" s="2" t="inlineStr"/>
+      <c r="S147" s="2" t="inlineStr">
+        <is>
+          <t>Vaccination is defined as “a medical intervention that involves in adding vaccine into a host (e.g., human, mouse) in vivo with the intent to invoke an adaptive immune response.” (http://purl.obolibrary.org/obo/VO_0000002)</t>
+        </is>
+      </c>
+      <c r="T147" s="2" t="inlineStr"/>
+      <c r="U147" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V147" s="2" t="inlineStr"/>
+      <c r="W147" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="X147" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="Y147" s="2" t="inlineStr"/>
+      <c r="Z147" s="2" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050267</t>
+        </is>
+      </c>
+      <c r="B148" s="2" t="inlineStr">
+        <is>
+          <t>uniform process aggregate</t>
+        </is>
+      </c>
+      <c r="C148" s="2" t="inlineStr">
+        <is>
+          <t>Several processes of the same type repeated over time.</t>
+        </is>
+      </c>
+      <c r="D148" s="2" t="inlineStr">
+        <is>
+          <t>A process aggregate whose member parts are of the same type.</t>
+        </is>
+      </c>
+      <c r="E148" s="2" t="inlineStr"/>
+      <c r="F148" s="2" t="inlineStr"/>
+      <c r="G148" s="2" t="inlineStr">
+        <is>
+          <t>process aggregate</t>
+        </is>
+      </c>
+      <c r="H148" s="2" t="inlineStr">
+        <is>
+          <t>occurrent</t>
+        </is>
+      </c>
+      <c r="I148" s="2" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J148" s="2" t="inlineStr"/>
+      <c r="K148" s="2" t="inlineStr"/>
+      <c r="L148" s="2" t="inlineStr"/>
+      <c r="M148" s="2" t="inlineStr"/>
+      <c r="N148" s="2" t="inlineStr"/>
+      <c r="O148" s="2" t="inlineStr"/>
+      <c r="P148" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">u is a uniform process aggregate means:
 •	u instance_of process aggregate
@@ -9918,73 +9966,9 @@
 </t>
         </is>
       </c>
-      <c r="Q147" s="2" t="inlineStr"/>
-      <c r="R147" s="2" t="inlineStr"/>
-      <c r="S147" s="2" t="inlineStr"/>
-      <c r="T147" s="2" t="inlineStr"/>
-      <c r="U147" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V147" s="2" t="inlineStr"/>
-      <c r="W147" s="2" t="inlineStr">
-        <is>
-          <t>RW; JH</t>
-        </is>
-      </c>
-      <c r="X147" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="Y147" s="2" t="inlineStr"/>
-      <c r="Z147" s="2" t="inlineStr"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050399</t>
-        </is>
-      </c>
-      <c r="B148" s="2" t="inlineStr">
-        <is>
-          <t>utilising healthcare</t>
-        </is>
-      </c>
-      <c r="C148" s="2" t="inlineStr"/>
-      <c r="D148" s="2" t="inlineStr">
-        <is>
-          <t>A health-related behaviour that involves interacting with a healthcare provider in order to assess, monitor, improve or maintain an aspect of one's health.</t>
-        </is>
-      </c>
-      <c r="E148" s="2" t="inlineStr"/>
-      <c r="F148" s="2" t="inlineStr"/>
-      <c r="G148" s="2" t="inlineStr">
-        <is>
-          <t>health-related behaviour</t>
-        </is>
-      </c>
-      <c r="H148" s="2" t="inlineStr"/>
-      <c r="I148" s="2" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="J148" s="2" t="inlineStr"/>
-      <c r="K148" s="2" t="inlineStr"/>
-      <c r="L148" s="2" t="inlineStr"/>
-      <c r="M148" s="2" t="inlineStr"/>
-      <c r="N148" s="2" t="inlineStr"/>
-      <c r="O148" s="2" t="inlineStr"/>
-      <c r="P148" s="2" t="inlineStr"/>
       <c r="Q148" s="2" t="inlineStr"/>
       <c r="R148" s="2" t="inlineStr"/>
-      <c r="S148" s="2" t="inlineStr">
-        <is>
-          <t>A ‘healthcare provider’ can be a person or organisation</t>
-        </is>
-      </c>
+      <c r="S148" s="2" t="inlineStr"/>
       <c r="T148" s="2" t="inlineStr"/>
       <c r="U148" s="2" t="inlineStr">
         <is>
@@ -9994,7 +9978,7 @@
       <c r="V148" s="2" t="inlineStr"/>
       <c r="W148" s="2" t="inlineStr">
         <is>
-          <t>PS; RW</t>
+          <t>RW; JH</t>
         </is>
       </c>
       <c r="X148" s="2" t="inlineStr">
@@ -10008,25 +9992,25 @@
     <row r="149">
       <c r="A149" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050379</t>
+          <t>BCIO:050399</t>
         </is>
       </c>
       <c r="B149" s="2" t="inlineStr">
         <is>
-          <t>vaping device use</t>
+          <t>utilising healthcare</t>
         </is>
       </c>
       <c r="C149" s="2" t="inlineStr"/>
       <c r="D149" s="2" t="inlineStr">
         <is>
-          <t>Inhaling consumption that involves using a device to consume an aerosol.</t>
+          <t>A health-related behaviour that involves interacting with a healthcare provider in order to assess, monitor, improve or maintain an aspect of one's health.</t>
         </is>
       </c>
       <c r="E149" s="2" t="inlineStr"/>
       <c r="F149" s="2" t="inlineStr"/>
       <c r="G149" s="2" t="inlineStr">
         <is>
-          <t>inhaling consumption</t>
+          <t>health-related behaviour</t>
         </is>
       </c>
       <c r="H149" s="2" t="inlineStr"/>
@@ -10044,7 +10028,11 @@
       <c r="P149" s="2" t="inlineStr"/>
       <c r="Q149" s="2" t="inlineStr"/>
       <c r="R149" s="2" t="inlineStr"/>
-      <c r="S149" s="2" t="inlineStr"/>
+      <c r="S149" s="2" t="inlineStr">
+        <is>
+          <t>A ‘healthcare provider’ can be a person or organisation</t>
+        </is>
+      </c>
       <c r="T149" s="2" t="inlineStr"/>
       <c r="U149" s="2" t="inlineStr">
         <is>
@@ -10054,7 +10042,7 @@
       <c r="V149" s="2" t="inlineStr"/>
       <c r="W149" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="X149" s="2" t="inlineStr">
@@ -10066,154 +10054,154 @@
       <c r="Z149" s="2" t="inlineStr"/>
     </row>
     <row r="150">
-      <c r="A150" s="4" t="inlineStr">
+      <c r="A150" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050379</t>
+        </is>
+      </c>
+      <c r="B150" s="2" t="inlineStr">
+        <is>
+          <t>vaping device use</t>
+        </is>
+      </c>
+      <c r="C150" s="2" t="inlineStr"/>
+      <c r="D150" s="2" t="inlineStr">
+        <is>
+          <t>Inhaling consumption that involves using a device to consume an aerosol.</t>
+        </is>
+      </c>
+      <c r="E150" s="2" t="inlineStr"/>
+      <c r="F150" s="2" t="inlineStr"/>
+      <c r="G150" s="2" t="inlineStr">
+        <is>
+          <t>inhaling consumption</t>
+        </is>
+      </c>
+      <c r="H150" s="2" t="inlineStr"/>
+      <c r="I150" s="2" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J150" s="2" t="inlineStr"/>
+      <c r="K150" s="2" t="inlineStr"/>
+      <c r="L150" s="2" t="inlineStr"/>
+      <c r="M150" s="2" t="inlineStr"/>
+      <c r="N150" s="2" t="inlineStr"/>
+      <c r="O150" s="2" t="inlineStr"/>
+      <c r="P150" s="2" t="inlineStr"/>
+      <c r="Q150" s="2" t="inlineStr"/>
+      <c r="R150" s="2" t="inlineStr"/>
+      <c r="S150" s="2" t="inlineStr"/>
+      <c r="T150" s="2" t="inlineStr"/>
+      <c r="U150" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V150" s="2" t="inlineStr"/>
+      <c r="W150" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="X150" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="Y150" s="2" t="inlineStr"/>
+      <c r="Z150" s="2" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="4" t="inlineStr">
         <is>
           <t>BCIO:050442</t>
         </is>
       </c>
-      <c r="B150" s="4" t="inlineStr">
+      <c r="B151" s="4" t="inlineStr">
         <is>
           <t>vocalisation behaviour</t>
         </is>
       </c>
-      <c r="C150" s="4" t="inlineStr"/>
-      <c r="D150" s="4" t="inlineStr">
+      <c r="C151" s="4" t="inlineStr"/>
+      <c r="D151" s="4" t="inlineStr">
         <is>
           <t>An individual human behaviour using one's voice to produce sounds.</t>
         </is>
       </c>
-      <c r="E150" s="4" t="inlineStr"/>
-      <c r="F150" s="4" t="inlineStr"/>
-      <c r="G150" s="4" t="inlineStr">
+      <c r="E151" s="4" t="inlineStr"/>
+      <c r="F151" s="4" t="inlineStr"/>
+      <c r="G151" s="4" t="inlineStr">
         <is>
           <t>individual human behaviour</t>
         </is>
       </c>
-      <c r="H150" s="4" t="inlineStr"/>
-      <c r="I150" s="4" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="J150" s="4" t="inlineStr"/>
-      <c r="K150" s="4" t="inlineStr"/>
-      <c r="L150" s="4" t="inlineStr"/>
-      <c r="M150" s="4" t="inlineStr"/>
-      <c r="N150" s="4" t="inlineStr"/>
-      <c r="O150" s="4" t="inlineStr"/>
-      <c r="P150" s="4" t="inlineStr"/>
-      <c r="Q150" s="4" t="inlineStr"/>
-      <c r="R150" s="4" t="inlineStr"/>
-      <c r="S150" s="4" t="inlineStr"/>
-      <c r="T150" s="4" t="inlineStr"/>
-      <c r="U150" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V150" s="4" t="inlineStr"/>
-      <c r="W150" s="4" t="inlineStr">
+      <c r="H151" s="4" t="inlineStr"/>
+      <c r="I151" s="4" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J151" s="4" t="inlineStr"/>
+      <c r="K151" s="4" t="inlineStr"/>
+      <c r="L151" s="4" t="inlineStr"/>
+      <c r="M151" s="4" t="inlineStr"/>
+      <c r="N151" s="4" t="inlineStr"/>
+      <c r="O151" s="4" t="inlineStr"/>
+      <c r="P151" s="4" t="inlineStr"/>
+      <c r="Q151" s="4" t="inlineStr"/>
+      <c r="R151" s="4" t="inlineStr"/>
+      <c r="S151" s="4" t="inlineStr"/>
+      <c r="T151" s="4" t="inlineStr"/>
+      <c r="U151" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V151" s="4" t="inlineStr"/>
+      <c r="W151" s="4" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="X150" s="4" t="inlineStr">
+      <c r="X151" s="4" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="Y150" s="4" t="inlineStr"/>
-      <c r="Z150" s="4" t="inlineStr"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:036108</t>
-        </is>
-      </c>
-      <c r="B151" s="2" t="inlineStr">
-        <is>
-          <t>walking</t>
-        </is>
-      </c>
-      <c r="C151" s="2" t="inlineStr"/>
-      <c r="D151" s="2" t="inlineStr">
-        <is>
-          <t>A locomotive behaviour that involves moving at a regular pace by lifting and setting down each foot in turn, never having both feet off the ground at once.</t>
-        </is>
-      </c>
-      <c r="E151" s="2" t="inlineStr"/>
-      <c r="F151" s="2" t="inlineStr"/>
-      <c r="G151" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">locomotive behaviour </t>
-        </is>
-      </c>
-      <c r="H151" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="I151" s="2" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="J151" s="2" t="inlineStr"/>
-      <c r="K151" s="2" t="inlineStr"/>
-      <c r="L151" s="2" t="inlineStr"/>
-      <c r="M151" s="2" t="inlineStr"/>
-      <c r="N151" s="2" t="inlineStr"/>
-      <c r="O151" s="2" t="inlineStr"/>
-      <c r="P151" s="2" t="inlineStr"/>
-      <c r="Q151" s="2" t="inlineStr"/>
-      <c r="R151" s="2" t="inlineStr"/>
-      <c r="S151" s="2" t="inlineStr"/>
-      <c r="T151" s="2" t="inlineStr"/>
-      <c r="U151" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V151" s="2" t="inlineStr"/>
-      <c r="W151" s="2" t="inlineStr">
-        <is>
-          <t>RW; OC; JH</t>
-        </is>
-      </c>
-      <c r="X151" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="Y151" s="2" t="inlineStr"/>
-      <c r="Z151" s="2" t="inlineStr"/>
+      <c r="Y151" s="4" t="inlineStr"/>
+      <c r="Z151" s="4" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050418</t>
+          <t>BCIO:036108</t>
         </is>
       </c>
       <c r="B152" s="2" t="inlineStr">
         <is>
-          <t>watching behaviour</t>
+          <t>walking</t>
         </is>
       </c>
       <c r="C152" s="2" t="inlineStr"/>
       <c r="D152" s="2" t="inlineStr">
         <is>
-          <t>An object-using behaviour that involves deriving meaning from visual or audiovisual material.</t>
+          <t>A locomotive behaviour that involves moving at a regular pace by lifting and setting down each foot in turn, never having both feet off the ground at once.</t>
         </is>
       </c>
       <c r="E152" s="2" t="inlineStr"/>
       <c r="F152" s="2" t="inlineStr"/>
       <c r="G152" s="2" t="inlineStr">
         <is>
-          <t>object-using behaviour</t>
-        </is>
-      </c>
-      <c r="H152" s="2" t="inlineStr"/>
+          <t xml:space="preserve">locomotive behaviour </t>
+        </is>
+      </c>
+      <c r="H152" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I152" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -10229,11 +10217,7 @@
       <c r="Q152" s="2" t="inlineStr"/>
       <c r="R152" s="2" t="inlineStr"/>
       <c r="S152" s="2" t="inlineStr"/>
-      <c r="T152" s="2" t="inlineStr">
-        <is>
-          <t>Watching a movie</t>
-        </is>
-      </c>
+      <c r="T152" s="2" t="inlineStr"/>
       <c r="U152" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -10242,7 +10226,7 @@
       <c r="V152" s="2" t="inlineStr"/>
       <c r="W152" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW; OC; JH</t>
         </is>
       </c>
       <c r="X152" s="2" t="inlineStr">
@@ -10252,6 +10236,70 @@
       </c>
       <c r="Y152" s="2" t="inlineStr"/>
       <c r="Z152" s="2" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050418</t>
+        </is>
+      </c>
+      <c r="B153" s="2" t="inlineStr">
+        <is>
+          <t>watching behaviour</t>
+        </is>
+      </c>
+      <c r="C153" s="2" t="inlineStr"/>
+      <c r="D153" s="2" t="inlineStr">
+        <is>
+          <t>An object-using behaviour that involves deriving meaning from visual or audiovisual material.</t>
+        </is>
+      </c>
+      <c r="E153" s="2" t="inlineStr"/>
+      <c r="F153" s="2" t="inlineStr"/>
+      <c r="G153" s="2" t="inlineStr">
+        <is>
+          <t>object-using behaviour</t>
+        </is>
+      </c>
+      <c r="H153" s="2" t="inlineStr"/>
+      <c r="I153" s="2" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J153" s="2" t="inlineStr"/>
+      <c r="K153" s="2" t="inlineStr"/>
+      <c r="L153" s="2" t="inlineStr"/>
+      <c r="M153" s="2" t="inlineStr"/>
+      <c r="N153" s="2" t="inlineStr"/>
+      <c r="O153" s="2" t="inlineStr"/>
+      <c r="P153" s="2" t="inlineStr"/>
+      <c r="Q153" s="2" t="inlineStr"/>
+      <c r="R153" s="2" t="inlineStr"/>
+      <c r="S153" s="2" t="inlineStr"/>
+      <c r="T153" s="2" t="inlineStr">
+        <is>
+          <t>Watching a movie</t>
+        </is>
+      </c>
+      <c r="U153" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V153" s="2" t="inlineStr"/>
+      <c r="W153" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="X153" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="Y153" s="2" t="inlineStr"/>
+      <c r="Z153" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Behaviour/BCIO_behaviour.xlsx
+++ b/Behaviour/BCIO_behaviour.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -47,6 +47,11 @@
         <fgColor rgb="002f4f4f"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ffffff"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -60,11 +65,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -430,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z150"/>
+  <dimension ref="A1:Z151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9103,95 +9109,83 @@
       <c r="Z134" s="2" t="inlineStr"/>
     </row>
     <row r="135">
-      <c r="A135" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:036103</t>
-        </is>
-      </c>
-      <c r="B135" s="2" t="inlineStr">
-        <is>
-          <t>tobacco smoking behaviour</t>
-        </is>
-      </c>
-      <c r="C135" s="2" t="inlineStr"/>
-      <c r="D135" s="2" t="inlineStr">
-        <is>
-          <t>A tobacco use behaviour that involves setting light to a combustible tobacco product and ingesting the tobacco smoke that is produced.</t>
-        </is>
-      </c>
-      <c r="E135" s="2" t="inlineStr"/>
-      <c r="F135" s="2" t="inlineStr"/>
-      <c r="G135" s="2" t="inlineStr">
-        <is>
-          <t>tobacco use behaviour</t>
-        </is>
-      </c>
-      <c r="H135" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="I135" s="2" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="J135" s="2" t="inlineStr"/>
-      <c r="K135" s="2" t="inlineStr"/>
-      <c r="L135" s="2" t="inlineStr"/>
-      <c r="M135" s="2" t="inlineStr"/>
-      <c r="N135" s="2" t="inlineStr"/>
-      <c r="O135" s="2" t="inlineStr"/>
-      <c r="P135" s="2" t="inlineStr"/>
-      <c r="Q135" s="2" t="inlineStr">
-        <is>
-          <t>smoking</t>
-        </is>
-      </c>
-      <c r="R135" s="2" t="inlineStr"/>
-      <c r="S135" s="2" t="inlineStr"/>
-      <c r="T135" s="2" t="inlineStr"/>
-      <c r="U135" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V135" s="2" t="inlineStr"/>
-      <c r="W135" s="2" t="inlineStr">
-        <is>
-          <t>RW; JH</t>
-        </is>
-      </c>
-      <c r="X135" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="Y135" s="2" t="inlineStr"/>
-      <c r="Z135" s="2" t="inlineStr"/>
+      <c r="A135" s="4" t="inlineStr">
+        <is>
+          <t>BCIO:100001</t>
+        </is>
+      </c>
+      <c r="B135" s="4" t="inlineStr">
+        <is>
+          <t>test label</t>
+        </is>
+      </c>
+      <c r="C135" s="4" t="inlineStr"/>
+      <c r="D135" s="4" t="inlineStr">
+        <is>
+          <t>Some definiton</t>
+        </is>
+      </c>
+      <c r="E135" s="4" t="inlineStr"/>
+      <c r="F135" s="4" t="inlineStr"/>
+      <c r="G135" s="4" t="inlineStr">
+        <is>
+          <t>occurrent</t>
+        </is>
+      </c>
+      <c r="H135" s="4" t="inlineStr"/>
+      <c r="I135" s="4" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="J135" s="4" t="inlineStr"/>
+      <c r="K135" s="4" t="inlineStr"/>
+      <c r="L135" s="4" t="inlineStr"/>
+      <c r="M135" s="4" t="inlineStr"/>
+      <c r="N135" s="4" t="inlineStr"/>
+      <c r="O135" s="4" t="inlineStr"/>
+      <c r="P135" s="4" t="inlineStr"/>
+      <c r="Q135" s="4" t="inlineStr"/>
+      <c r="R135" s="4" t="inlineStr"/>
+      <c r="S135" s="4" t="inlineStr"/>
+      <c r="T135" s="4" t="inlineStr"/>
+      <c r="U135" s="4" t="inlineStr"/>
+      <c r="V135" s="4" t="inlineStr"/>
+      <c r="W135" s="4" t="inlineStr">
+        <is>
+          <t>BG</t>
+        </is>
+      </c>
+      <c r="X135" s="4" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Y135" s="4" t="inlineStr"/>
+      <c r="Z135" s="4" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036104</t>
+          <t>BCIO:036103</t>
         </is>
       </c>
       <c r="B136" s="2" t="inlineStr">
         <is>
-          <t>tobacco smoking behaviour pattern</t>
+          <t>tobacco smoking behaviour</t>
         </is>
       </c>
       <c r="C136" s="2" t="inlineStr"/>
       <c r="D136" s="2" t="inlineStr">
         <is>
-          <t>A tobacco use behaviour pattern that involves tobacco smoking behaviour.</t>
+          <t>A tobacco use behaviour that involves setting light to a combustible tobacco product and ingesting the tobacco smoke that is produced.</t>
         </is>
       </c>
       <c r="E136" s="2" t="inlineStr"/>
       <c r="F136" s="2" t="inlineStr"/>
       <c r="G136" s="2" t="inlineStr">
         <is>
-          <t>tobacco use behaviour pattern</t>
+          <t>tobacco use behaviour</t>
         </is>
       </c>
       <c r="H136" s="2" t="inlineStr">
@@ -9211,7 +9205,11 @@
       <c r="N136" s="2" t="inlineStr"/>
       <c r="O136" s="2" t="inlineStr"/>
       <c r="P136" s="2" t="inlineStr"/>
-      <c r="Q136" s="2" t="inlineStr"/>
+      <c r="Q136" s="2" t="inlineStr">
+        <is>
+          <t>smoking</t>
+        </is>
+      </c>
       <c r="R136" s="2" t="inlineStr"/>
       <c r="S136" s="2" t="inlineStr"/>
       <c r="T136" s="2" t="inlineStr"/>
@@ -9237,25 +9235,25 @@
     <row r="137">
       <c r="A137" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050269</t>
+          <t>BCIO:036104</t>
         </is>
       </c>
       <c r="B137" s="2" t="inlineStr">
         <is>
-          <t>tobacco smoking cessation</t>
+          <t>tobacco smoking behaviour pattern</t>
         </is>
       </c>
       <c r="C137" s="2" t="inlineStr"/>
       <c r="D137" s="2" t="inlineStr">
         <is>
-          <t>Tobacco use cessation in which the form of tobacco use is tobacco smoking.</t>
+          <t>A tobacco use behaviour pattern that involves tobacco smoking behaviour.</t>
         </is>
       </c>
       <c r="E137" s="2" t="inlineStr"/>
       <c r="F137" s="2" t="inlineStr"/>
       <c r="G137" s="2" t="inlineStr">
         <is>
-          <t>tobacco use cessation</t>
+          <t>tobacco use behaviour pattern</t>
         </is>
       </c>
       <c r="H137" s="2" t="inlineStr">
@@ -9287,7 +9285,7 @@
       <c r="V137" s="2" t="inlineStr"/>
       <c r="W137" s="2" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>RW; JH</t>
         </is>
       </c>
       <c r="X137" s="2" t="inlineStr">
@@ -9301,25 +9299,25 @@
     <row r="138">
       <c r="A138" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036114</t>
+          <t>BCIO:050269</t>
         </is>
       </c>
       <c r="B138" s="2" t="inlineStr">
         <is>
-          <t>tobacco use behaviour</t>
+          <t>tobacco smoking cessation</t>
         </is>
       </c>
       <c r="C138" s="2" t="inlineStr"/>
       <c r="D138" s="2" t="inlineStr">
         <is>
-          <t>A substance use behaviour that involves ingesting constituents of a tobacco-containing product.</t>
+          <t>Tobacco use cessation in which the form of tobacco use is tobacco smoking.</t>
         </is>
       </c>
       <c r="E138" s="2" t="inlineStr"/>
       <c r="F138" s="2" t="inlineStr"/>
       <c r="G138" s="2" t="inlineStr">
         <is>
-          <t>substance use behaviour</t>
+          <t>tobacco use cessation</t>
         </is>
       </c>
       <c r="H138" s="2" t="inlineStr">
@@ -9339,11 +9337,7 @@
       <c r="N138" s="2" t="inlineStr"/>
       <c r="O138" s="2" t="inlineStr"/>
       <c r="P138" s="2" t="inlineStr"/>
-      <c r="Q138" s="2" t="inlineStr">
-        <is>
-          <t>tobacco use</t>
-        </is>
-      </c>
+      <c r="Q138" s="2" t="inlineStr"/>
       <c r="R138" s="2" t="inlineStr"/>
       <c r="S138" s="2" t="inlineStr"/>
       <c r="T138" s="2" t="inlineStr"/>
@@ -9355,7 +9349,7 @@
       <c r="V138" s="2" t="inlineStr"/>
       <c r="W138" s="2" t="inlineStr">
         <is>
-          <t>RW; OC; JH</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="X138" s="2" t="inlineStr">
@@ -9369,25 +9363,25 @@
     <row r="139">
       <c r="A139" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036102</t>
+          <t>BCIO:036114</t>
         </is>
       </c>
       <c r="B139" s="2" t="inlineStr">
         <is>
-          <t>tobacco use behaviour pattern</t>
+          <t>tobacco use behaviour</t>
         </is>
       </c>
       <c r="C139" s="2" t="inlineStr"/>
       <c r="D139" s="2" t="inlineStr">
         <is>
-          <t>A substance use behaviour pattern that involves tobacco use.</t>
+          <t>A substance use behaviour that involves ingesting constituents of a tobacco-containing product.</t>
         </is>
       </c>
       <c r="E139" s="2" t="inlineStr"/>
       <c r="F139" s="2" t="inlineStr"/>
       <c r="G139" s="2" t="inlineStr">
         <is>
-          <t>substance use behaviour pattern</t>
+          <t>substance use behaviour</t>
         </is>
       </c>
       <c r="H139" s="2" t="inlineStr">
@@ -9423,7 +9417,7 @@
       <c r="V139" s="2" t="inlineStr"/>
       <c r="W139" s="2" t="inlineStr">
         <is>
-          <t>RW; JH</t>
+          <t>RW; OC; JH</t>
         </is>
       </c>
       <c r="X139" s="2" t="inlineStr">
@@ -9437,29 +9431,25 @@
     <row r="140">
       <c r="A140" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050208</t>
+          <t>BCIO:036102</t>
         </is>
       </c>
       <c r="B140" s="2" t="inlineStr">
         <is>
-          <t>tobacco use cessation</t>
-        </is>
-      </c>
-      <c r="C140" s="2" t="inlineStr">
-        <is>
-          <t>Cessation of tobacco use for a period of time.</t>
-        </is>
-      </c>
+          <t>tobacco use behaviour pattern</t>
+        </is>
+      </c>
+      <c r="C140" s="2" t="inlineStr"/>
       <c r="D140" s="2" t="inlineStr">
         <is>
-          <t>Individual human behaviour pattern cessation in which the behaviour pattern involved is tobacco use.</t>
+          <t>A substance use behaviour pattern that involves tobacco use.</t>
         </is>
       </c>
       <c r="E140" s="2" t="inlineStr"/>
       <c r="F140" s="2" t="inlineStr"/>
       <c r="G140" s="2" t="inlineStr">
         <is>
-          <t>individual human behaviour pattern cessation</t>
+          <t>substance use behaviour pattern</t>
         </is>
       </c>
       <c r="H140" s="2" t="inlineStr">
@@ -9479,14 +9469,13 @@
       <c r="N140" s="2" t="inlineStr"/>
       <c r="O140" s="2" t="inlineStr"/>
       <c r="P140" s="2" t="inlineStr"/>
-      <c r="Q140" s="2" t="inlineStr"/>
+      <c r="Q140" s="2" t="inlineStr">
+        <is>
+          <t>tobacco use</t>
+        </is>
+      </c>
       <c r="R140" s="2" t="inlineStr"/>
-      <c r="S140" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">As with the parent class 'individual human behaviour pattern cessation'  this class can only be identified after the duration for which cessation has occurred has elapsed and it is necessary to specify this period for the class to be meaningful.
-</t>
-        </is>
-      </c>
+      <c r="S140" s="2" t="inlineStr"/>
       <c r="T140" s="2" t="inlineStr"/>
       <c r="U140" s="2" t="inlineStr">
         <is>
@@ -9496,7 +9485,7 @@
       <c r="V140" s="2" t="inlineStr"/>
       <c r="W140" s="2" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>RW; JH</t>
         </is>
       </c>
       <c r="X140" s="2" t="inlineStr">
@@ -9510,28 +9499,36 @@
     <row r="141">
       <c r="A141" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050396</t>
+          <t>BCIO:050208</t>
         </is>
       </c>
       <c r="B141" s="2" t="inlineStr">
         <is>
-          <t>transdermal consumption</t>
-        </is>
-      </c>
-      <c r="C141" s="2" t="inlineStr"/>
+          <t>tobacco use cessation</t>
+        </is>
+      </c>
+      <c r="C141" s="2" t="inlineStr">
+        <is>
+          <t>Cessation of tobacco use for a period of time.</t>
+        </is>
+      </c>
       <c r="D141" s="2" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves applying a material to the skin and ingesting this material into the circulation through the skin.</t>
+          <t>Individual human behaviour pattern cessation in which the behaviour pattern involved is tobacco use.</t>
         </is>
       </c>
       <c r="E141" s="2" t="inlineStr"/>
       <c r="F141" s="2" t="inlineStr"/>
       <c r="G141" s="2" t="inlineStr">
         <is>
-          <t>consumption behaviour</t>
-        </is>
-      </c>
-      <c r="H141" s="2" t="inlineStr"/>
+          <t>individual human behaviour pattern cessation</t>
+        </is>
+      </c>
+      <c r="H141" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I141" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -9546,12 +9543,13 @@
       <c r="P141" s="2" t="inlineStr"/>
       <c r="Q141" s="2" t="inlineStr"/>
       <c r="R141" s="2" t="inlineStr"/>
-      <c r="S141" s="2" t="inlineStr"/>
-      <c r="T141" s="2" t="inlineStr">
-        <is>
-          <t>Nicotine patches, hormone patches, pain relief gels</t>
-        </is>
-      </c>
+      <c r="S141" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">As with the parent class 'individual human behaviour pattern cessation'  this class can only be identified after the duration for which cessation has occurred has elapsed and it is necessary to specify this period for the class to be meaningful.
+</t>
+        </is>
+      </c>
+      <c r="T141" s="2" t="inlineStr"/>
       <c r="U141" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -9560,7 +9558,7 @@
       <c r="V141" s="2" t="inlineStr"/>
       <c r="W141" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="X141" s="2" t="inlineStr">
@@ -9574,25 +9572,25 @@
     <row r="142">
       <c r="A142" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036064</t>
+          <t>BCIO:050396</t>
         </is>
       </c>
       <c r="B142" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">transporting behaviour </t>
+          <t>transdermal consumption</t>
         </is>
       </c>
       <c r="C142" s="2" t="inlineStr"/>
       <c r="D142" s="2" t="inlineStr">
         <is>
-          <t>A travel behaviour that involves moving an object in addition toother than the actor.</t>
+          <t>A consumption behaviour that involves applying a material to the skin and ingesting this material into the circulation through the skin.</t>
         </is>
       </c>
       <c r="E142" s="2" t="inlineStr"/>
       <c r="F142" s="2" t="inlineStr"/>
       <c r="G142" s="2" t="inlineStr">
         <is>
-          <t>travel behaviour</t>
+          <t>consumption behaviour</t>
         </is>
       </c>
       <c r="H142" s="2" t="inlineStr"/>
@@ -9611,7 +9609,11 @@
       <c r="Q142" s="2" t="inlineStr"/>
       <c r="R142" s="2" t="inlineStr"/>
       <c r="S142" s="2" t="inlineStr"/>
-      <c r="T142" s="2" t="inlineStr"/>
+      <c r="T142" s="2" t="inlineStr">
+        <is>
+          <t>Nicotine patches, hormone patches, pain relief gels</t>
+        </is>
+      </c>
       <c r="U142" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -9620,7 +9622,7 @@
       <c r="V142" s="2" t="inlineStr"/>
       <c r="W142" s="2" t="inlineStr">
         <is>
-          <t>OC; RW</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X142" s="2" t="inlineStr">
@@ -9634,25 +9636,25 @@
     <row r="143">
       <c r="A143" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036059</t>
+          <t>BCIO:036064</t>
         </is>
       </c>
       <c r="B143" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">travel behaviour </t>
+          <t xml:space="preserve">transporting behaviour </t>
         </is>
       </c>
       <c r="C143" s="2" t="inlineStr"/>
       <c r="D143" s="2" t="inlineStr">
         <is>
-          <t>A position-related behaviour that involves changing physical location.</t>
+          <t>A travel behaviour that involves moving an object in addition toother than the actor.</t>
         </is>
       </c>
       <c r="E143" s="2" t="inlineStr"/>
       <c r="F143" s="2" t="inlineStr"/>
       <c r="G143" s="2" t="inlineStr">
         <is>
-          <t>position-related behaviour</t>
+          <t>travel behaviour</t>
         </is>
       </c>
       <c r="H143" s="2" t="inlineStr"/>
@@ -9670,12 +9672,7 @@
       <c r="P143" s="2" t="inlineStr"/>
       <c r="Q143" s="2" t="inlineStr"/>
       <c r="R143" s="2" t="inlineStr"/>
-      <c r="S143" s="2" t="inlineStr">
-        <is>
-          <t>Travel refers to some form of relocation from a place or position to another.
-The classes 'travel behaviour' and 'locomotive behaviour' have many instances in which they overlap. However, there are also examples where these classes are not the same. For instance, running on a treadmill is a locomotive behaviour but not a travel behaviour.</t>
-        </is>
-      </c>
+      <c r="S143" s="2" t="inlineStr"/>
       <c r="T143" s="2" t="inlineStr"/>
       <c r="U143" s="2" t="inlineStr">
         <is>
@@ -9685,7 +9682,7 @@
       <c r="V143" s="2" t="inlineStr"/>
       <c r="W143" s="2" t="inlineStr">
         <is>
-          <t>OC; RW; PS</t>
+          <t>OC; RW</t>
         </is>
       </c>
       <c r="X143" s="2" t="inlineStr">
@@ -9699,25 +9696,25 @@
     <row r="144">
       <c r="A144" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050403</t>
+          <t>BCIO:036059</t>
         </is>
       </c>
       <c r="B144" s="2" t="inlineStr">
         <is>
-          <t>undergoing vaccination</t>
+          <t xml:space="preserve">travel behaviour </t>
         </is>
       </c>
       <c r="C144" s="2" t="inlineStr"/>
       <c r="D144" s="2" t="inlineStr">
         <is>
-          <t>Utilising healthcare that involves interacting with a healthcare provider to receive a vaccination to prevent or lower the risk of a disease.</t>
+          <t>A position-related behaviour that involves changing physical location.</t>
         </is>
       </c>
       <c r="E144" s="2" t="inlineStr"/>
       <c r="F144" s="2" t="inlineStr"/>
       <c r="G144" s="2" t="inlineStr">
         <is>
-          <t>utilising healthcare</t>
+          <t>position-related behaviour</t>
         </is>
       </c>
       <c r="H144" s="2" t="inlineStr"/>
@@ -9737,7 +9734,8 @@
       <c r="R144" s="2" t="inlineStr"/>
       <c r="S144" s="2" t="inlineStr">
         <is>
-          <t>Vaccination is defined as “a medical intervention that involves in adding vaccine into a host (e.g., human, mouse) in vivo with the intent to invoke an adaptive immune response.” (http://purl.obolibrary.org/obo/VO_0000002)</t>
+          <t>Travel refers to some form of relocation from a place or position to another.
+The classes 'travel behaviour' and 'locomotive behaviour' have many instances in which they overlap. However, there are also examples where these classes are not the same. For instance, running on a treadmill is a locomotive behaviour but not a travel behaviour.</t>
         </is>
       </c>
       <c r="T144" s="2" t="inlineStr"/>
@@ -9749,7 +9747,7 @@
       <c r="V144" s="2" t="inlineStr"/>
       <c r="W144" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>OC; RW; PS</t>
         </is>
       </c>
       <c r="X144" s="2" t="inlineStr">
@@ -9763,36 +9761,28 @@
     <row r="145">
       <c r="A145" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050267</t>
+          <t>BCIO:050403</t>
         </is>
       </c>
       <c r="B145" s="2" t="inlineStr">
         <is>
-          <t>uniform process aggregate</t>
-        </is>
-      </c>
-      <c r="C145" s="2" t="inlineStr">
-        <is>
-          <t>Several processes of the same type repeated over time.</t>
-        </is>
-      </c>
+          <t>undergoing vaccination</t>
+        </is>
+      </c>
+      <c r="C145" s="2" t="inlineStr"/>
       <c r="D145" s="2" t="inlineStr">
         <is>
-          <t>A process aggregate whose member parts are of the same type.</t>
+          <t>Utilising healthcare that involves interacting with a healthcare provider to receive a vaccination to prevent or lower the risk of a disease.</t>
         </is>
       </c>
       <c r="E145" s="2" t="inlineStr"/>
       <c r="F145" s="2" t="inlineStr"/>
       <c r="G145" s="2" t="inlineStr">
         <is>
-          <t>process aggregate</t>
-        </is>
-      </c>
-      <c r="H145" s="2" t="inlineStr">
-        <is>
-          <t>occurrent</t>
-        </is>
-      </c>
+          <t>utilising healthcare</t>
+        </is>
+      </c>
+      <c r="H145" s="2" t="inlineStr"/>
       <c r="I145" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -9804,7 +9794,79 @@
       <c r="M145" s="2" t="inlineStr"/>
       <c r="N145" s="2" t="inlineStr"/>
       <c r="O145" s="2" t="inlineStr"/>
-      <c r="P145" s="2" t="inlineStr">
+      <c r="P145" s="2" t="inlineStr"/>
+      <c r="Q145" s="2" t="inlineStr"/>
+      <c r="R145" s="2" t="inlineStr"/>
+      <c r="S145" s="2" t="inlineStr">
+        <is>
+          <t>Vaccination is defined as “a medical intervention that involves in adding vaccine into a host (e.g., human, mouse) in vivo with the intent to invoke an adaptive immune response.” (http://purl.obolibrary.org/obo/VO_0000002)</t>
+        </is>
+      </c>
+      <c r="T145" s="2" t="inlineStr"/>
+      <c r="U145" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V145" s="2" t="inlineStr"/>
+      <c r="W145" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="X145" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="Y145" s="2" t="inlineStr"/>
+      <c r="Z145" s="2" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050267</t>
+        </is>
+      </c>
+      <c r="B146" s="2" t="inlineStr">
+        <is>
+          <t>uniform process aggregate</t>
+        </is>
+      </c>
+      <c r="C146" s="2" t="inlineStr">
+        <is>
+          <t>Several processes of the same type repeated over time.</t>
+        </is>
+      </c>
+      <c r="D146" s="2" t="inlineStr">
+        <is>
+          <t>A process aggregate whose member parts are of the same type.</t>
+        </is>
+      </c>
+      <c r="E146" s="2" t="inlineStr"/>
+      <c r="F146" s="2" t="inlineStr"/>
+      <c r="G146" s="2" t="inlineStr">
+        <is>
+          <t>process aggregate</t>
+        </is>
+      </c>
+      <c r="H146" s="2" t="inlineStr">
+        <is>
+          <t>occurrent</t>
+        </is>
+      </c>
+      <c r="I146" s="2" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J146" s="2" t="inlineStr"/>
+      <c r="K146" s="2" t="inlineStr"/>
+      <c r="L146" s="2" t="inlineStr"/>
+      <c r="M146" s="2" t="inlineStr"/>
+      <c r="N146" s="2" t="inlineStr"/>
+      <c r="O146" s="2" t="inlineStr"/>
+      <c r="P146" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">u is a uniform process aggregate means:
 •	u instance_of process aggregate
@@ -9814,73 +9876,9 @@
 </t>
         </is>
       </c>
-      <c r="Q145" s="2" t="inlineStr"/>
-      <c r="R145" s="2" t="inlineStr"/>
-      <c r="S145" s="2" t="inlineStr"/>
-      <c r="T145" s="2" t="inlineStr"/>
-      <c r="U145" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V145" s="2" t="inlineStr"/>
-      <c r="W145" s="2" t="inlineStr">
-        <is>
-          <t>RW; JH</t>
-        </is>
-      </c>
-      <c r="X145" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="Y145" s="2" t="inlineStr"/>
-      <c r="Z145" s="2" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050399</t>
-        </is>
-      </c>
-      <c r="B146" s="2" t="inlineStr">
-        <is>
-          <t>utilising healthcare</t>
-        </is>
-      </c>
-      <c r="C146" s="2" t="inlineStr"/>
-      <c r="D146" s="2" t="inlineStr">
-        <is>
-          <t>A health-related behaviour that involves interacting with a healthcare provider in order to assess, monitor, improve or maintain an aspect of one's health.</t>
-        </is>
-      </c>
-      <c r="E146" s="2" t="inlineStr"/>
-      <c r="F146" s="2" t="inlineStr"/>
-      <c r="G146" s="2" t="inlineStr">
-        <is>
-          <t>health-related behaviour</t>
-        </is>
-      </c>
-      <c r="H146" s="2" t="inlineStr"/>
-      <c r="I146" s="2" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="J146" s="2" t="inlineStr"/>
-      <c r="K146" s="2" t="inlineStr"/>
-      <c r="L146" s="2" t="inlineStr"/>
-      <c r="M146" s="2" t="inlineStr"/>
-      <c r="N146" s="2" t="inlineStr"/>
-      <c r="O146" s="2" t="inlineStr"/>
-      <c r="P146" s="2" t="inlineStr"/>
       <c r="Q146" s="2" t="inlineStr"/>
       <c r="R146" s="2" t="inlineStr"/>
-      <c r="S146" s="2" t="inlineStr">
-        <is>
-          <t>A ‘healthcare provider’ can be a person or organisation</t>
-        </is>
-      </c>
+      <c r="S146" s="2" t="inlineStr"/>
       <c r="T146" s="2" t="inlineStr"/>
       <c r="U146" s="2" t="inlineStr">
         <is>
@@ -9890,7 +9888,7 @@
       <c r="V146" s="2" t="inlineStr"/>
       <c r="W146" s="2" t="inlineStr">
         <is>
-          <t>PS; RW</t>
+          <t>RW; JH</t>
         </is>
       </c>
       <c r="X146" s="2" t="inlineStr">
@@ -9904,25 +9902,25 @@
     <row r="147">
       <c r="A147" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050379</t>
+          <t>BCIO:050399</t>
         </is>
       </c>
       <c r="B147" s="2" t="inlineStr">
         <is>
-          <t>vaping device use</t>
+          <t>utilising healthcare</t>
         </is>
       </c>
       <c r="C147" s="2" t="inlineStr"/>
       <c r="D147" s="2" t="inlineStr">
         <is>
-          <t>Inhaling consumption that involves using a device to consume an aerosol.</t>
+          <t>A health-related behaviour that involves interacting with a healthcare provider in order to assess, monitor, improve or maintain an aspect of one's health.</t>
         </is>
       </c>
       <c r="E147" s="2" t="inlineStr"/>
       <c r="F147" s="2" t="inlineStr"/>
       <c r="G147" s="2" t="inlineStr">
         <is>
-          <t>inhaling consumption</t>
+          <t>health-related behaviour</t>
         </is>
       </c>
       <c r="H147" s="2" t="inlineStr"/>
@@ -9940,7 +9938,11 @@
       <c r="P147" s="2" t="inlineStr"/>
       <c r="Q147" s="2" t="inlineStr"/>
       <c r="R147" s="2" t="inlineStr"/>
-      <c r="S147" s="2" t="inlineStr"/>
+      <c r="S147" s="2" t="inlineStr">
+        <is>
+          <t>A ‘healthcare provider’ can be a person or organisation</t>
+        </is>
+      </c>
       <c r="T147" s="2" t="inlineStr"/>
       <c r="U147" s="2" t="inlineStr">
         <is>
@@ -9950,7 +9952,7 @@
       <c r="V147" s="2" t="inlineStr"/>
       <c r="W147" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="X147" s="2" t="inlineStr">
@@ -9964,25 +9966,25 @@
     <row r="148">
       <c r="A148" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050442</t>
+          <t>BCIO:050379</t>
         </is>
       </c>
       <c r="B148" s="2" t="inlineStr">
         <is>
-          <t>vocalisation behaviour</t>
+          <t>vaping device use</t>
         </is>
       </c>
       <c r="C148" s="2" t="inlineStr"/>
       <c r="D148" s="2" t="inlineStr">
         <is>
-          <t>An individual human behaviour using one's voice to produce sounds.</t>
+          <t>Inhaling consumption that involves using a device to consume an aerosol.</t>
         </is>
       </c>
       <c r="E148" s="2" t="inlineStr"/>
       <c r="F148" s="2" t="inlineStr"/>
       <c r="G148" s="2" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t>inhaling consumption</t>
         </is>
       </c>
       <c r="H148" s="2" t="inlineStr"/>
@@ -10010,7 +10012,7 @@
       <c r="V148" s="2" t="inlineStr"/>
       <c r="W148" s="2" t="inlineStr">
         <is>
-          <t>PS; RW</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X148" s="2" t="inlineStr">
@@ -10024,32 +10026,28 @@
     <row r="149">
       <c r="A149" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036108</t>
+          <t>BCIO:050442</t>
         </is>
       </c>
       <c r="B149" s="2" t="inlineStr">
         <is>
-          <t>walking</t>
+          <t>vocalisation behaviour</t>
         </is>
       </c>
       <c r="C149" s="2" t="inlineStr"/>
       <c r="D149" s="2" t="inlineStr">
         <is>
-          <t>A locomotive behaviour that involves moving at a regular pace by lifting and setting down each foot in turn, never having both feet off the ground at once.</t>
+          <t>An individual human behaviour using one's voice to produce sounds.</t>
         </is>
       </c>
       <c r="E149" s="2" t="inlineStr"/>
       <c r="F149" s="2" t="inlineStr"/>
       <c r="G149" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">locomotive behaviour </t>
-        </is>
-      </c>
-      <c r="H149" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>individual human behaviour</t>
+        </is>
+      </c>
+      <c r="H149" s="2" t="inlineStr"/>
       <c r="I149" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -10074,7 +10072,7 @@
       <c r="V149" s="2" t="inlineStr"/>
       <c r="W149" s="2" t="inlineStr">
         <is>
-          <t>RW; OC; JH</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="X149" s="2" t="inlineStr">
@@ -10088,28 +10086,32 @@
     <row r="150">
       <c r="A150" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050418</t>
+          <t>BCIO:036108</t>
         </is>
       </c>
       <c r="B150" s="2" t="inlineStr">
         <is>
-          <t>watching behaviour</t>
+          <t>walking</t>
         </is>
       </c>
       <c r="C150" s="2" t="inlineStr"/>
       <c r="D150" s="2" t="inlineStr">
         <is>
-          <t>An object-using behaviour that involves deriving meaning from visual or audiovisual material.</t>
+          <t>A locomotive behaviour that involves moving at a regular pace by lifting and setting down each foot in turn, never having both feet off the ground at once.</t>
         </is>
       </c>
       <c r="E150" s="2" t="inlineStr"/>
       <c r="F150" s="2" t="inlineStr"/>
       <c r="G150" s="2" t="inlineStr">
         <is>
-          <t>object-using behaviour</t>
-        </is>
-      </c>
-      <c r="H150" s="2" t="inlineStr"/>
+          <t xml:space="preserve">locomotive behaviour </t>
+        </is>
+      </c>
+      <c r="H150" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I150" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -10125,11 +10127,7 @@
       <c r="Q150" s="2" t="inlineStr"/>
       <c r="R150" s="2" t="inlineStr"/>
       <c r="S150" s="2" t="inlineStr"/>
-      <c r="T150" s="2" t="inlineStr">
-        <is>
-          <t>Watching a movie</t>
-        </is>
-      </c>
+      <c r="T150" s="2" t="inlineStr"/>
       <c r="U150" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -10138,7 +10136,7 @@
       <c r="V150" s="2" t="inlineStr"/>
       <c r="W150" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW; OC; JH</t>
         </is>
       </c>
       <c r="X150" s="2" t="inlineStr">
@@ -10148,6 +10146,68 @@
       </c>
       <c r="Y150" s="2" t="inlineStr"/>
       <c r="Z150" s="2" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050418</t>
+        </is>
+      </c>
+      <c r="B151" s="2" t="inlineStr">
+        <is>
+          <t>watching behaviour</t>
+        </is>
+      </c>
+      <c r="C151" s="2" t="inlineStr"/>
+      <c r="D151" s="2" t="inlineStr">
+        <is>
+          <t>An object-using behaviour that involves deriving meaning from visual or audiovisual material.</t>
+        </is>
+      </c>
+      <c r="E151" s="2" t="inlineStr"/>
+      <c r="F151" s="2" t="inlineStr"/>
+      <c r="G151" s="2" t="inlineStr">
+        <is>
+          <t>object-using behaviour</t>
+        </is>
+      </c>
+      <c r="H151" s="2" t="inlineStr"/>
+      <c r="I151" s="2" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J151" s="2" t="inlineStr"/>
+      <c r="K151" s="2" t="inlineStr"/>
+      <c r="L151" s="2" t="inlineStr"/>
+      <c r="M151" s="2" t="inlineStr"/>
+      <c r="N151" s="2" t="inlineStr"/>
+      <c r="O151" s="2" t="inlineStr"/>
+      <c r="P151" s="2" t="inlineStr"/>
+      <c r="Q151" s="2" t="inlineStr"/>
+      <c r="R151" s="2" t="inlineStr"/>
+      <c r="S151" s="2" t="inlineStr"/>
+      <c r="T151" s="2" t="inlineStr">
+        <is>
+          <t>Watching a movie</t>
+        </is>
+      </c>
+      <c r="U151" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="V151" s="2" t="inlineStr"/>
+      <c r="W151" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="X151" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="Y151" s="2" t="inlineStr"/>
+      <c r="Z151" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Behaviour/BCIO_behaviour.xlsx
+++ b/Behaviour/BCIO_behaviour.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z151"/>
+  <dimension ref="A1:Z153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9111,18 +9111,18 @@
     <row r="135">
       <c r="A135" s="4" t="inlineStr">
         <is>
-          <t>BCIO:100001</t>
+          <t>BCIO:100002</t>
         </is>
       </c>
       <c r="B135" s="4" t="inlineStr">
         <is>
-          <t>test label</t>
+          <t>test 2</t>
         </is>
       </c>
       <c r="C135" s="4" t="inlineStr"/>
       <c r="D135" s="4" t="inlineStr">
         <is>
-          <t>Some definiton</t>
+          <t>somethin</t>
         </is>
       </c>
       <c r="E135" s="4" t="inlineStr"/>
@@ -9165,159 +9165,141 @@
       <c r="Z135" s="4" t="inlineStr"/>
     </row>
     <row r="136">
-      <c r="A136" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:036103</t>
-        </is>
-      </c>
-      <c r="B136" s="2" t="inlineStr">
-        <is>
-          <t>tobacco smoking behaviour</t>
-        </is>
-      </c>
-      <c r="C136" s="2" t="inlineStr"/>
-      <c r="D136" s="2" t="inlineStr">
-        <is>
-          <t>A tobacco use behaviour that involves setting light to a combustible tobacco product and ingesting the tobacco smoke that is produced.</t>
-        </is>
-      </c>
-      <c r="E136" s="2" t="inlineStr"/>
-      <c r="F136" s="2" t="inlineStr"/>
-      <c r="G136" s="2" t="inlineStr">
-        <is>
-          <t>tobacco use behaviour</t>
-        </is>
-      </c>
-      <c r="H136" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="I136" s="2" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="J136" s="2" t="inlineStr"/>
-      <c r="K136" s="2" t="inlineStr"/>
-      <c r="L136" s="2" t="inlineStr"/>
-      <c r="M136" s="2" t="inlineStr"/>
-      <c r="N136" s="2" t="inlineStr"/>
-      <c r="O136" s="2" t="inlineStr"/>
-      <c r="P136" s="2" t="inlineStr"/>
-      <c r="Q136" s="2" t="inlineStr">
-        <is>
-          <t>smoking</t>
-        </is>
-      </c>
-      <c r="R136" s="2" t="inlineStr"/>
-      <c r="S136" s="2" t="inlineStr"/>
-      <c r="T136" s="2" t="inlineStr"/>
-      <c r="U136" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V136" s="2" t="inlineStr"/>
-      <c r="W136" s="2" t="inlineStr">
-        <is>
-          <t>RW; JH</t>
-        </is>
-      </c>
-      <c r="X136" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="Y136" s="2" t="inlineStr"/>
-      <c r="Z136" s="2" t="inlineStr"/>
+      <c r="A136" s="4" t="inlineStr">
+        <is>
+          <t>BCIO:100003</t>
+        </is>
+      </c>
+      <c r="B136" s="4" t="inlineStr">
+        <is>
+          <t>test 3</t>
+        </is>
+      </c>
+      <c r="C136" s="4" t="inlineStr"/>
+      <c r="D136" s="4" t="inlineStr">
+        <is>
+          <t>somethi</t>
+        </is>
+      </c>
+      <c r="E136" s="4" t="inlineStr"/>
+      <c r="F136" s="4" t="inlineStr"/>
+      <c r="G136" s="4" t="inlineStr">
+        <is>
+          <t>occurrent</t>
+        </is>
+      </c>
+      <c r="H136" s="4" t="inlineStr"/>
+      <c r="I136" s="4" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="J136" s="4" t="inlineStr"/>
+      <c r="K136" s="4" t="inlineStr"/>
+      <c r="L136" s="4" t="inlineStr"/>
+      <c r="M136" s="4" t="inlineStr"/>
+      <c r="N136" s="4" t="inlineStr"/>
+      <c r="O136" s="4" t="inlineStr"/>
+      <c r="P136" s="4" t="inlineStr"/>
+      <c r="Q136" s="4" t="inlineStr"/>
+      <c r="R136" s="4" t="inlineStr"/>
+      <c r="S136" s="4" t="inlineStr"/>
+      <c r="T136" s="4" t="inlineStr"/>
+      <c r="U136" s="4" t="inlineStr"/>
+      <c r="V136" s="4" t="inlineStr"/>
+      <c r="W136" s="4" t="inlineStr">
+        <is>
+          <t>BG</t>
+        </is>
+      </c>
+      <c r="X136" s="4" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Y136" s="4" t="inlineStr"/>
+      <c r="Z136" s="4" t="inlineStr"/>
     </row>
     <row r="137">
-      <c r="A137" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:036104</t>
-        </is>
-      </c>
-      <c r="B137" s="2" t="inlineStr">
-        <is>
-          <t>tobacco smoking behaviour pattern</t>
-        </is>
-      </c>
-      <c r="C137" s="2" t="inlineStr"/>
-      <c r="D137" s="2" t="inlineStr">
-        <is>
-          <t>A tobacco use behaviour pattern that involves tobacco smoking behaviour.</t>
-        </is>
-      </c>
-      <c r="E137" s="2" t="inlineStr"/>
-      <c r="F137" s="2" t="inlineStr"/>
-      <c r="G137" s="2" t="inlineStr">
-        <is>
-          <t>tobacco use behaviour pattern</t>
-        </is>
-      </c>
-      <c r="H137" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="I137" s="2" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="J137" s="2" t="inlineStr"/>
-      <c r="K137" s="2" t="inlineStr"/>
-      <c r="L137" s="2" t="inlineStr"/>
-      <c r="M137" s="2" t="inlineStr"/>
-      <c r="N137" s="2" t="inlineStr"/>
-      <c r="O137" s="2" t="inlineStr"/>
-      <c r="P137" s="2" t="inlineStr"/>
-      <c r="Q137" s="2" t="inlineStr"/>
-      <c r="R137" s="2" t="inlineStr"/>
-      <c r="S137" s="2" t="inlineStr"/>
-      <c r="T137" s="2" t="inlineStr"/>
-      <c r="U137" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V137" s="2" t="inlineStr"/>
-      <c r="W137" s="2" t="inlineStr">
-        <is>
-          <t>RW; JH</t>
-        </is>
-      </c>
-      <c r="X137" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="Y137" s="2" t="inlineStr"/>
-      <c r="Z137" s="2" t="inlineStr"/>
+      <c r="A137" s="4" t="inlineStr">
+        <is>
+          <t>BCIO:100001</t>
+        </is>
+      </c>
+      <c r="B137" s="4" t="inlineStr">
+        <is>
+          <t>test label</t>
+        </is>
+      </c>
+      <c r="C137" s="4" t="inlineStr"/>
+      <c r="D137" s="4" t="inlineStr">
+        <is>
+          <t>Some definiton</t>
+        </is>
+      </c>
+      <c r="E137" s="4" t="inlineStr"/>
+      <c r="F137" s="4" t="inlineStr"/>
+      <c r="G137" s="4" t="inlineStr">
+        <is>
+          <t>occurrent</t>
+        </is>
+      </c>
+      <c r="H137" s="4" t="inlineStr"/>
+      <c r="I137" s="4" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="J137" s="4" t="inlineStr"/>
+      <c r="K137" s="4" t="inlineStr"/>
+      <c r="L137" s="4" t="inlineStr"/>
+      <c r="M137" s="4" t="inlineStr"/>
+      <c r="N137" s="4" t="inlineStr"/>
+      <c r="O137" s="4" t="inlineStr"/>
+      <c r="P137" s="4" t="inlineStr"/>
+      <c r="Q137" s="4" t="inlineStr"/>
+      <c r="R137" s="4" t="inlineStr"/>
+      <c r="S137" s="4" t="inlineStr"/>
+      <c r="T137" s="4" t="inlineStr"/>
+      <c r="U137" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V137" s="4" t="inlineStr"/>
+      <c r="W137" s="4" t="inlineStr">
+        <is>
+          <t>BG</t>
+        </is>
+      </c>
+      <c r="X137" s="4" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Y137" s="4" t="inlineStr"/>
+      <c r="Z137" s="4" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050269</t>
+          <t>BCIO:036103</t>
         </is>
       </c>
       <c r="B138" s="2" t="inlineStr">
         <is>
-          <t>tobacco smoking cessation</t>
+          <t>tobacco smoking behaviour</t>
         </is>
       </c>
       <c r="C138" s="2" t="inlineStr"/>
       <c r="D138" s="2" t="inlineStr">
         <is>
-          <t>Tobacco use cessation in which the form of tobacco use is tobacco smoking.</t>
+          <t>A tobacco use behaviour that involves setting light to a combustible tobacco product and ingesting the tobacco smoke that is produced.</t>
         </is>
       </c>
       <c r="E138" s="2" t="inlineStr"/>
       <c r="F138" s="2" t="inlineStr"/>
       <c r="G138" s="2" t="inlineStr">
         <is>
-          <t>tobacco use cessation</t>
+          <t>tobacco use behaviour</t>
         </is>
       </c>
       <c r="H138" s="2" t="inlineStr">
@@ -9337,7 +9319,11 @@
       <c r="N138" s="2" t="inlineStr"/>
       <c r="O138" s="2" t="inlineStr"/>
       <c r="P138" s="2" t="inlineStr"/>
-      <c r="Q138" s="2" t="inlineStr"/>
+      <c r="Q138" s="2" t="inlineStr">
+        <is>
+          <t>smoking</t>
+        </is>
+      </c>
       <c r="R138" s="2" t="inlineStr"/>
       <c r="S138" s="2" t="inlineStr"/>
       <c r="T138" s="2" t="inlineStr"/>
@@ -9349,7 +9335,7 @@
       <c r="V138" s="2" t="inlineStr"/>
       <c r="W138" s="2" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>RW; JH</t>
         </is>
       </c>
       <c r="X138" s="2" t="inlineStr">
@@ -9363,25 +9349,25 @@
     <row r="139">
       <c r="A139" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036114</t>
+          <t>BCIO:036104</t>
         </is>
       </c>
       <c r="B139" s="2" t="inlineStr">
         <is>
-          <t>tobacco use behaviour</t>
+          <t>tobacco smoking behaviour pattern</t>
         </is>
       </c>
       <c r="C139" s="2" t="inlineStr"/>
       <c r="D139" s="2" t="inlineStr">
         <is>
-          <t>A substance use behaviour that involves ingesting constituents of a tobacco-containing product.</t>
+          <t>A tobacco use behaviour pattern that involves tobacco smoking behaviour.</t>
         </is>
       </c>
       <c r="E139" s="2" t="inlineStr"/>
       <c r="F139" s="2" t="inlineStr"/>
       <c r="G139" s="2" t="inlineStr">
         <is>
-          <t>substance use behaviour</t>
+          <t>tobacco use behaviour pattern</t>
         </is>
       </c>
       <c r="H139" s="2" t="inlineStr">
@@ -9401,11 +9387,7 @@
       <c r="N139" s="2" t="inlineStr"/>
       <c r="O139" s="2" t="inlineStr"/>
       <c r="P139" s="2" t="inlineStr"/>
-      <c r="Q139" s="2" t="inlineStr">
-        <is>
-          <t>tobacco use</t>
-        </is>
-      </c>
+      <c r="Q139" s="2" t="inlineStr"/>
       <c r="R139" s="2" t="inlineStr"/>
       <c r="S139" s="2" t="inlineStr"/>
       <c r="T139" s="2" t="inlineStr"/>
@@ -9417,7 +9399,7 @@
       <c r="V139" s="2" t="inlineStr"/>
       <c r="W139" s="2" t="inlineStr">
         <is>
-          <t>RW; OC; JH</t>
+          <t>RW; JH</t>
         </is>
       </c>
       <c r="X139" s="2" t="inlineStr">
@@ -9431,25 +9413,25 @@
     <row r="140">
       <c r="A140" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036102</t>
+          <t>BCIO:050269</t>
         </is>
       </c>
       <c r="B140" s="2" t="inlineStr">
         <is>
-          <t>tobacco use behaviour pattern</t>
+          <t>tobacco smoking cessation</t>
         </is>
       </c>
       <c r="C140" s="2" t="inlineStr"/>
       <c r="D140" s="2" t="inlineStr">
         <is>
-          <t>A substance use behaviour pattern that involves tobacco use.</t>
+          <t>Tobacco use cessation in which the form of tobacco use is tobacco smoking.</t>
         </is>
       </c>
       <c r="E140" s="2" t="inlineStr"/>
       <c r="F140" s="2" t="inlineStr"/>
       <c r="G140" s="2" t="inlineStr">
         <is>
-          <t>substance use behaviour pattern</t>
+          <t>tobacco use cessation</t>
         </is>
       </c>
       <c r="H140" s="2" t="inlineStr">
@@ -9469,11 +9451,7 @@
       <c r="N140" s="2" t="inlineStr"/>
       <c r="O140" s="2" t="inlineStr"/>
       <c r="P140" s="2" t="inlineStr"/>
-      <c r="Q140" s="2" t="inlineStr">
-        <is>
-          <t>tobacco use</t>
-        </is>
-      </c>
+      <c r="Q140" s="2" t="inlineStr"/>
       <c r="R140" s="2" t="inlineStr"/>
       <c r="S140" s="2" t="inlineStr"/>
       <c r="T140" s="2" t="inlineStr"/>
@@ -9485,7 +9463,7 @@
       <c r="V140" s="2" t="inlineStr"/>
       <c r="W140" s="2" t="inlineStr">
         <is>
-          <t>RW; JH</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="X140" s="2" t="inlineStr">
@@ -9499,29 +9477,25 @@
     <row r="141">
       <c r="A141" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050208</t>
+          <t>BCIO:036114</t>
         </is>
       </c>
       <c r="B141" s="2" t="inlineStr">
         <is>
-          <t>tobacco use cessation</t>
-        </is>
-      </c>
-      <c r="C141" s="2" t="inlineStr">
-        <is>
-          <t>Cessation of tobacco use for a period of time.</t>
-        </is>
-      </c>
+          <t>tobacco use behaviour</t>
+        </is>
+      </c>
+      <c r="C141" s="2" t="inlineStr"/>
       <c r="D141" s="2" t="inlineStr">
         <is>
-          <t>Individual human behaviour pattern cessation in which the behaviour pattern involved is tobacco use.</t>
+          <t>A substance use behaviour that involves ingesting constituents of a tobacco-containing product.</t>
         </is>
       </c>
       <c r="E141" s="2" t="inlineStr"/>
       <c r="F141" s="2" t="inlineStr"/>
       <c r="G141" s="2" t="inlineStr">
         <is>
-          <t>individual human behaviour pattern cessation</t>
+          <t>substance use behaviour</t>
         </is>
       </c>
       <c r="H141" s="2" t="inlineStr">
@@ -9541,14 +9515,13 @@
       <c r="N141" s="2" t="inlineStr"/>
       <c r="O141" s="2" t="inlineStr"/>
       <c r="P141" s="2" t="inlineStr"/>
-      <c r="Q141" s="2" t="inlineStr"/>
+      <c r="Q141" s="2" t="inlineStr">
+        <is>
+          <t>tobacco use</t>
+        </is>
+      </c>
       <c r="R141" s="2" t="inlineStr"/>
-      <c r="S141" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">As with the parent class 'individual human behaviour pattern cessation'  this class can only be identified after the duration for which cessation has occurred has elapsed and it is necessary to specify this period for the class to be meaningful.
-</t>
-        </is>
-      </c>
+      <c r="S141" s="2" t="inlineStr"/>
       <c r="T141" s="2" t="inlineStr"/>
       <c r="U141" s="2" t="inlineStr">
         <is>
@@ -9558,7 +9531,7 @@
       <c r="V141" s="2" t="inlineStr"/>
       <c r="W141" s="2" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>RW; OC; JH</t>
         </is>
       </c>
       <c r="X141" s="2" t="inlineStr">
@@ -9572,28 +9545,32 @@
     <row r="142">
       <c r="A142" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050396</t>
+          <t>BCIO:036102</t>
         </is>
       </c>
       <c r="B142" s="2" t="inlineStr">
         <is>
-          <t>transdermal consumption</t>
+          <t>tobacco use behaviour pattern</t>
         </is>
       </c>
       <c r="C142" s="2" t="inlineStr"/>
       <c r="D142" s="2" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves applying a material to the skin and ingesting this material into the circulation through the skin.</t>
+          <t>A substance use behaviour pattern that involves tobacco use.</t>
         </is>
       </c>
       <c r="E142" s="2" t="inlineStr"/>
       <c r="F142" s="2" t="inlineStr"/>
       <c r="G142" s="2" t="inlineStr">
         <is>
-          <t>consumption behaviour</t>
-        </is>
-      </c>
-      <c r="H142" s="2" t="inlineStr"/>
+          <t>substance use behaviour pattern</t>
+        </is>
+      </c>
+      <c r="H142" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I142" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -9606,14 +9583,14 @@
       <c r="N142" s="2" t="inlineStr"/>
       <c r="O142" s="2" t="inlineStr"/>
       <c r="P142" s="2" t="inlineStr"/>
-      <c r="Q142" s="2" t="inlineStr"/>
+      <c r="Q142" s="2" t="inlineStr">
+        <is>
+          <t>tobacco use</t>
+        </is>
+      </c>
       <c r="R142" s="2" t="inlineStr"/>
       <c r="S142" s="2" t="inlineStr"/>
-      <c r="T142" s="2" t="inlineStr">
-        <is>
-          <t>Nicotine patches, hormone patches, pain relief gels</t>
-        </is>
-      </c>
+      <c r="T142" s="2" t="inlineStr"/>
       <c r="U142" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -9622,7 +9599,7 @@
       <c r="V142" s="2" t="inlineStr"/>
       <c r="W142" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW; JH</t>
         </is>
       </c>
       <c r="X142" s="2" t="inlineStr">
@@ -9636,28 +9613,36 @@
     <row r="143">
       <c r="A143" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036064</t>
+          <t>BCIO:050208</t>
         </is>
       </c>
       <c r="B143" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">transporting behaviour </t>
-        </is>
-      </c>
-      <c r="C143" s="2" t="inlineStr"/>
+          <t>tobacco use cessation</t>
+        </is>
+      </c>
+      <c r="C143" s="2" t="inlineStr">
+        <is>
+          <t>Cessation of tobacco use for a period of time.</t>
+        </is>
+      </c>
       <c r="D143" s="2" t="inlineStr">
         <is>
-          <t>A travel behaviour that involves moving an object in addition toother than the actor.</t>
+          <t>Individual human behaviour pattern cessation in which the behaviour pattern involved is tobacco use.</t>
         </is>
       </c>
       <c r="E143" s="2" t="inlineStr"/>
       <c r="F143" s="2" t="inlineStr"/>
       <c r="G143" s="2" t="inlineStr">
         <is>
-          <t>travel behaviour</t>
-        </is>
-      </c>
-      <c r="H143" s="2" t="inlineStr"/>
+          <t>individual human behaviour pattern cessation</t>
+        </is>
+      </c>
+      <c r="H143" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I143" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -9672,7 +9657,12 @@
       <c r="P143" s="2" t="inlineStr"/>
       <c r="Q143" s="2" t="inlineStr"/>
       <c r="R143" s="2" t="inlineStr"/>
-      <c r="S143" s="2" t="inlineStr"/>
+      <c r="S143" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">As with the parent class 'individual human behaviour pattern cessation'  this class can only be identified after the duration for which cessation has occurred has elapsed and it is necessary to specify this period for the class to be meaningful.
+</t>
+        </is>
+      </c>
       <c r="T143" s="2" t="inlineStr"/>
       <c r="U143" s="2" t="inlineStr">
         <is>
@@ -9682,7 +9672,7 @@
       <c r="V143" s="2" t="inlineStr"/>
       <c r="W143" s="2" t="inlineStr">
         <is>
-          <t>OC; RW</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="X143" s="2" t="inlineStr">
@@ -9696,25 +9686,25 @@
     <row r="144">
       <c r="A144" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036059</t>
+          <t>BCIO:050396</t>
         </is>
       </c>
       <c r="B144" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">travel behaviour </t>
+          <t>transdermal consumption</t>
         </is>
       </c>
       <c r="C144" s="2" t="inlineStr"/>
       <c r="D144" s="2" t="inlineStr">
         <is>
-          <t>A position-related behaviour that involves changing physical location.</t>
+          <t>A consumption behaviour that involves applying a material to the skin and ingesting this material into the circulation through the skin.</t>
         </is>
       </c>
       <c r="E144" s="2" t="inlineStr"/>
       <c r="F144" s="2" t="inlineStr"/>
       <c r="G144" s="2" t="inlineStr">
         <is>
-          <t>position-related behaviour</t>
+          <t>consumption behaviour</t>
         </is>
       </c>
       <c r="H144" s="2" t="inlineStr"/>
@@ -9732,13 +9722,12 @@
       <c r="P144" s="2" t="inlineStr"/>
       <c r="Q144" s="2" t="inlineStr"/>
       <c r="R144" s="2" t="inlineStr"/>
-      <c r="S144" s="2" t="inlineStr">
-        <is>
-          <t>Travel refers to some form of relocation from a place or position to another.
-The classes 'travel behaviour' and 'locomotive behaviour' have many instances in which they overlap. However, there are also examples where these classes are not the same. For instance, running on a treadmill is a locomotive behaviour but not a travel behaviour.</t>
-        </is>
-      </c>
-      <c r="T144" s="2" t="inlineStr"/>
+      <c r="S144" s="2" t="inlineStr"/>
+      <c r="T144" s="2" t="inlineStr">
+        <is>
+          <t>Nicotine patches, hormone patches, pain relief gels</t>
+        </is>
+      </c>
       <c r="U144" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -9747,7 +9736,7 @@
       <c r="V144" s="2" t="inlineStr"/>
       <c r="W144" s="2" t="inlineStr">
         <is>
-          <t>OC; RW; PS</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X144" s="2" t="inlineStr">
@@ -9761,25 +9750,25 @@
     <row r="145">
       <c r="A145" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050403</t>
+          <t>BCIO:036064</t>
         </is>
       </c>
       <c r="B145" s="2" t="inlineStr">
         <is>
-          <t>undergoing vaccination</t>
+          <t xml:space="preserve">transporting behaviour </t>
         </is>
       </c>
       <c r="C145" s="2" t="inlineStr"/>
       <c r="D145" s="2" t="inlineStr">
         <is>
-          <t>Utilising healthcare that involves interacting with a healthcare provider to receive a vaccination to prevent or lower the risk of a disease.</t>
+          <t>A travel behaviour that involves moving an object in addition toother than the actor.</t>
         </is>
       </c>
       <c r="E145" s="2" t="inlineStr"/>
       <c r="F145" s="2" t="inlineStr"/>
       <c r="G145" s="2" t="inlineStr">
         <is>
-          <t>utilising healthcare</t>
+          <t>travel behaviour</t>
         </is>
       </c>
       <c r="H145" s="2" t="inlineStr"/>
@@ -9797,11 +9786,7 @@
       <c r="P145" s="2" t="inlineStr"/>
       <c r="Q145" s="2" t="inlineStr"/>
       <c r="R145" s="2" t="inlineStr"/>
-      <c r="S145" s="2" t="inlineStr">
-        <is>
-          <t>Vaccination is defined as “a medical intervention that involves in adding vaccine into a host (e.g., human, mouse) in vivo with the intent to invoke an adaptive immune response.” (http://purl.obolibrary.org/obo/VO_0000002)</t>
-        </is>
-      </c>
+      <c r="S145" s="2" t="inlineStr"/>
       <c r="T145" s="2" t="inlineStr"/>
       <c r="U145" s="2" t="inlineStr">
         <is>
@@ -9811,7 +9796,7 @@
       <c r="V145" s="2" t="inlineStr"/>
       <c r="W145" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>OC; RW</t>
         </is>
       </c>
       <c r="X145" s="2" t="inlineStr">
@@ -9825,36 +9810,28 @@
     <row r="146">
       <c r="A146" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050267</t>
+          <t>BCIO:036059</t>
         </is>
       </c>
       <c r="B146" s="2" t="inlineStr">
         <is>
-          <t>uniform process aggregate</t>
-        </is>
-      </c>
-      <c r="C146" s="2" t="inlineStr">
-        <is>
-          <t>Several processes of the same type repeated over time.</t>
-        </is>
-      </c>
+          <t xml:space="preserve">travel behaviour </t>
+        </is>
+      </c>
+      <c r="C146" s="2" t="inlineStr"/>
       <c r="D146" s="2" t="inlineStr">
         <is>
-          <t>A process aggregate whose member parts are of the same type.</t>
+          <t>A position-related behaviour that involves changing physical location.</t>
         </is>
       </c>
       <c r="E146" s="2" t="inlineStr"/>
       <c r="F146" s="2" t="inlineStr"/>
       <c r="G146" s="2" t="inlineStr">
         <is>
-          <t>process aggregate</t>
-        </is>
-      </c>
-      <c r="H146" s="2" t="inlineStr">
-        <is>
-          <t>occurrent</t>
-        </is>
-      </c>
+          <t>position-related behaviour</t>
+        </is>
+      </c>
+      <c r="H146" s="2" t="inlineStr"/>
       <c r="I146" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -9866,19 +9843,15 @@
       <c r="M146" s="2" t="inlineStr"/>
       <c r="N146" s="2" t="inlineStr"/>
       <c r="O146" s="2" t="inlineStr"/>
-      <c r="P146" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">u is a uniform process aggregate means:
-•	u instance_of process aggregate
-•	P is the set {p1,…pn} of process aggregate member parts of u
-•	X is some descendant of process
-•	Each of {p1,…pn} in P is instance_of X
-</t>
-        </is>
-      </c>
+      <c r="P146" s="2" t="inlineStr"/>
       <c r="Q146" s="2" t="inlineStr"/>
       <c r="R146" s="2" t="inlineStr"/>
-      <c r="S146" s="2" t="inlineStr"/>
+      <c r="S146" s="2" t="inlineStr">
+        <is>
+          <t>Travel refers to some form of relocation from a place or position to another.
+The classes 'travel behaviour' and 'locomotive behaviour' have many instances in which they overlap. However, there are also examples where these classes are not the same. For instance, running on a treadmill is a locomotive behaviour but not a travel behaviour.</t>
+        </is>
+      </c>
       <c r="T146" s="2" t="inlineStr"/>
       <c r="U146" s="2" t="inlineStr">
         <is>
@@ -9888,7 +9861,7 @@
       <c r="V146" s="2" t="inlineStr"/>
       <c r="W146" s="2" t="inlineStr">
         <is>
-          <t>RW; JH</t>
+          <t>OC; RW; PS</t>
         </is>
       </c>
       <c r="X146" s="2" t="inlineStr">
@@ -9902,25 +9875,25 @@
     <row r="147">
       <c r="A147" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050399</t>
+          <t>BCIO:050403</t>
         </is>
       </c>
       <c r="B147" s="2" t="inlineStr">
         <is>
-          <t>utilising healthcare</t>
+          <t>undergoing vaccination</t>
         </is>
       </c>
       <c r="C147" s="2" t="inlineStr"/>
       <c r="D147" s="2" t="inlineStr">
         <is>
-          <t>A health-related behaviour that involves interacting with a healthcare provider in order to assess, monitor, improve or maintain an aspect of one's health.</t>
+          <t>Utilising healthcare that involves interacting with a healthcare provider to receive a vaccination to prevent or lower the risk of a disease.</t>
         </is>
       </c>
       <c r="E147" s="2" t="inlineStr"/>
       <c r="F147" s="2" t="inlineStr"/>
       <c r="G147" s="2" t="inlineStr">
         <is>
-          <t>health-related behaviour</t>
+          <t>utilising healthcare</t>
         </is>
       </c>
       <c r="H147" s="2" t="inlineStr"/>
@@ -9940,7 +9913,7 @@
       <c r="R147" s="2" t="inlineStr"/>
       <c r="S147" s="2" t="inlineStr">
         <is>
-          <t>A ‘healthcare provider’ can be a person or organisation</t>
+          <t>Vaccination is defined as “a medical intervention that involves in adding vaccine into a host (e.g., human, mouse) in vivo with the intent to invoke an adaptive immune response.” (http://purl.obolibrary.org/obo/VO_0000002)</t>
         </is>
       </c>
       <c r="T147" s="2" t="inlineStr"/>
@@ -9952,7 +9925,7 @@
       <c r="V147" s="2" t="inlineStr"/>
       <c r="W147" s="2" t="inlineStr">
         <is>
-          <t>PS; RW</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X147" s="2" t="inlineStr">
@@ -9966,28 +9939,36 @@
     <row r="148">
       <c r="A148" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050379</t>
+          <t>BCIO:050267</t>
         </is>
       </c>
       <c r="B148" s="2" t="inlineStr">
         <is>
-          <t>vaping device use</t>
-        </is>
-      </c>
-      <c r="C148" s="2" t="inlineStr"/>
+          <t>uniform process aggregate</t>
+        </is>
+      </c>
+      <c r="C148" s="2" t="inlineStr">
+        <is>
+          <t>Several processes of the same type repeated over time.</t>
+        </is>
+      </c>
       <c r="D148" s="2" t="inlineStr">
         <is>
-          <t>Inhaling consumption that involves using a device to consume an aerosol.</t>
+          <t>A process aggregate whose member parts are of the same type.</t>
         </is>
       </c>
       <c r="E148" s="2" t="inlineStr"/>
       <c r="F148" s="2" t="inlineStr"/>
       <c r="G148" s="2" t="inlineStr">
         <is>
-          <t>inhaling consumption</t>
-        </is>
-      </c>
-      <c r="H148" s="2" t="inlineStr"/>
+          <t>process aggregate</t>
+        </is>
+      </c>
+      <c r="H148" s="2" t="inlineStr">
+        <is>
+          <t>occurrent</t>
+        </is>
+      </c>
       <c r="I148" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -9999,7 +9980,16 @@
       <c r="M148" s="2" t="inlineStr"/>
       <c r="N148" s="2" t="inlineStr"/>
       <c r="O148" s="2" t="inlineStr"/>
-      <c r="P148" s="2" t="inlineStr"/>
+      <c r="P148" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">u is a uniform process aggregate means:
+•	u instance_of process aggregate
+•	P is the set {p1,…pn} of process aggregate member parts of u
+•	X is some descendant of process
+•	Each of {p1,…pn} in P is instance_of X
+</t>
+        </is>
+      </c>
       <c r="Q148" s="2" t="inlineStr"/>
       <c r="R148" s="2" t="inlineStr"/>
       <c r="S148" s="2" t="inlineStr"/>
@@ -10012,7 +10002,7 @@
       <c r="V148" s="2" t="inlineStr"/>
       <c r="W148" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW; JH</t>
         </is>
       </c>
       <c r="X148" s="2" t="inlineStr">
@@ -10026,25 +10016,25 @@
     <row r="149">
       <c r="A149" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050442</t>
+          <t>BCIO:050399</t>
         </is>
       </c>
       <c r="B149" s="2" t="inlineStr">
         <is>
-          <t>vocalisation behaviour</t>
+          <t>utilising healthcare</t>
         </is>
       </c>
       <c r="C149" s="2" t="inlineStr"/>
       <c r="D149" s="2" t="inlineStr">
         <is>
-          <t>An individual human behaviour using one's voice to produce sounds.</t>
+          <t>A health-related behaviour that involves interacting with a healthcare provider in order to assess, monitor, improve or maintain an aspect of one's health.</t>
         </is>
       </c>
       <c r="E149" s="2" t="inlineStr"/>
       <c r="F149" s="2" t="inlineStr"/>
       <c r="G149" s="2" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t>health-related behaviour</t>
         </is>
       </c>
       <c r="H149" s="2" t="inlineStr"/>
@@ -10062,7 +10052,11 @@
       <c r="P149" s="2" t="inlineStr"/>
       <c r="Q149" s="2" t="inlineStr"/>
       <c r="R149" s="2" t="inlineStr"/>
-      <c r="S149" s="2" t="inlineStr"/>
+      <c r="S149" s="2" t="inlineStr">
+        <is>
+          <t>A ‘healthcare provider’ can be a person or organisation</t>
+        </is>
+      </c>
       <c r="T149" s="2" t="inlineStr"/>
       <c r="U149" s="2" t="inlineStr">
         <is>
@@ -10086,32 +10080,28 @@
     <row r="150">
       <c r="A150" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036108</t>
+          <t>BCIO:050379</t>
         </is>
       </c>
       <c r="B150" s="2" t="inlineStr">
         <is>
-          <t>walking</t>
+          <t>vaping device use</t>
         </is>
       </c>
       <c r="C150" s="2" t="inlineStr"/>
       <c r="D150" s="2" t="inlineStr">
         <is>
-          <t>A locomotive behaviour that involves moving at a regular pace by lifting and setting down each foot in turn, never having both feet off the ground at once.</t>
+          <t>Inhaling consumption that involves using a device to consume an aerosol.</t>
         </is>
       </c>
       <c r="E150" s="2" t="inlineStr"/>
       <c r="F150" s="2" t="inlineStr"/>
       <c r="G150" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">locomotive behaviour </t>
-        </is>
-      </c>
-      <c r="H150" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>inhaling consumption</t>
+        </is>
+      </c>
+      <c r="H150" s="2" t="inlineStr"/>
       <c r="I150" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -10136,7 +10126,7 @@
       <c r="V150" s="2" t="inlineStr"/>
       <c r="W150" s="2" t="inlineStr">
         <is>
-          <t>RW; OC; JH</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X150" s="2" t="inlineStr">
@@ -10150,25 +10140,25 @@
     <row r="151">
       <c r="A151" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050418</t>
+          <t>BCIO:050442</t>
         </is>
       </c>
       <c r="B151" s="2" t="inlineStr">
         <is>
-          <t>watching behaviour</t>
+          <t>vocalisation behaviour</t>
         </is>
       </c>
       <c r="C151" s="2" t="inlineStr"/>
       <c r="D151" s="2" t="inlineStr">
         <is>
-          <t>An object-using behaviour that involves deriving meaning from visual or audiovisual material.</t>
+          <t>An individual human behaviour using one's voice to produce sounds.</t>
         </is>
       </c>
       <c r="E151" s="2" t="inlineStr"/>
       <c r="F151" s="2" t="inlineStr"/>
       <c r="G151" s="2" t="inlineStr">
         <is>
-          <t>object-using behaviour</t>
+          <t>individual human behaviour</t>
         </is>
       </c>
       <c r="H151" s="2" t="inlineStr"/>
@@ -10187,18 +10177,16 @@
       <c r="Q151" s="2" t="inlineStr"/>
       <c r="R151" s="2" t="inlineStr"/>
       <c r="S151" s="2" t="inlineStr"/>
-      <c r="T151" s="2" t="inlineStr">
-        <is>
-          <t>Watching a movie</t>
-        </is>
-      </c>
-      <c r="U151" s="2" t="b">
-        <v>0</v>
+      <c r="T151" s="2" t="inlineStr"/>
+      <c r="U151" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="V151" s="2" t="inlineStr"/>
       <c r="W151" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="X151" s="2" t="inlineStr">
@@ -10208,6 +10196,134 @@
       </c>
       <c r="Y151" s="2" t="inlineStr"/>
       <c r="Z151" s="2" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:036108</t>
+        </is>
+      </c>
+      <c r="B152" s="2" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="C152" s="2" t="inlineStr"/>
+      <c r="D152" s="2" t="inlineStr">
+        <is>
+          <t>A locomotive behaviour that involves moving at a regular pace by lifting and setting down each foot in turn, never having both feet off the ground at once.</t>
+        </is>
+      </c>
+      <c r="E152" s="2" t="inlineStr"/>
+      <c r="F152" s="2" t="inlineStr"/>
+      <c r="G152" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">locomotive behaviour </t>
+        </is>
+      </c>
+      <c r="H152" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="I152" s="2" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J152" s="2" t="inlineStr"/>
+      <c r="K152" s="2" t="inlineStr"/>
+      <c r="L152" s="2" t="inlineStr"/>
+      <c r="M152" s="2" t="inlineStr"/>
+      <c r="N152" s="2" t="inlineStr"/>
+      <c r="O152" s="2" t="inlineStr"/>
+      <c r="P152" s="2" t="inlineStr"/>
+      <c r="Q152" s="2" t="inlineStr"/>
+      <c r="R152" s="2" t="inlineStr"/>
+      <c r="S152" s="2" t="inlineStr"/>
+      <c r="T152" s="2" t="inlineStr"/>
+      <c r="U152" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V152" s="2" t="inlineStr"/>
+      <c r="W152" s="2" t="inlineStr">
+        <is>
+          <t>RW; OC; JH</t>
+        </is>
+      </c>
+      <c r="X152" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="Y152" s="2" t="inlineStr"/>
+      <c r="Z152" s="2" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050418</t>
+        </is>
+      </c>
+      <c r="B153" s="2" t="inlineStr">
+        <is>
+          <t>watching behaviour</t>
+        </is>
+      </c>
+      <c r="C153" s="2" t="inlineStr"/>
+      <c r="D153" s="2" t="inlineStr">
+        <is>
+          <t>An object-using behaviour that involves deriving meaning from visual or audiovisual material.</t>
+        </is>
+      </c>
+      <c r="E153" s="2" t="inlineStr"/>
+      <c r="F153" s="2" t="inlineStr"/>
+      <c r="G153" s="2" t="inlineStr">
+        <is>
+          <t>object-using behaviour</t>
+        </is>
+      </c>
+      <c r="H153" s="2" t="inlineStr"/>
+      <c r="I153" s="2" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J153" s="2" t="inlineStr"/>
+      <c r="K153" s="2" t="inlineStr"/>
+      <c r="L153" s="2" t="inlineStr"/>
+      <c r="M153" s="2" t="inlineStr"/>
+      <c r="N153" s="2" t="inlineStr"/>
+      <c r="O153" s="2" t="inlineStr"/>
+      <c r="P153" s="2" t="inlineStr"/>
+      <c r="Q153" s="2" t="inlineStr"/>
+      <c r="R153" s="2" t="inlineStr"/>
+      <c r="S153" s="2" t="inlineStr"/>
+      <c r="T153" s="2" t="inlineStr">
+        <is>
+          <t>Watching a movie</t>
+        </is>
+      </c>
+      <c r="U153" s="2" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="V153" s="2" t="inlineStr"/>
+      <c r="W153" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="X153" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="Y153" s="2" t="inlineStr"/>
+      <c r="Z153" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Behaviour/BCIO_behaviour.xlsx
+++ b/Behaviour/BCIO_behaviour.xlsx
@@ -584,7 +584,7 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>administering vaccine</t>
+          <t>administering vaccine test</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr"/>
@@ -629,7 +629,7 @@
       <c r="V2" s="2" t="inlineStr"/>
       <c r="W2" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; BG</t>
         </is>
       </c>
       <c r="X2" s="2" t="inlineStr">
@@ -9149,7 +9149,9 @@
       <c r="R135" s="4" t="inlineStr"/>
       <c r="S135" s="4" t="inlineStr"/>
       <c r="T135" s="4" t="inlineStr"/>
-      <c r="U135" s="4" t="inlineStr"/>
+      <c r="U135" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="V135" s="4" t="inlineStr"/>
       <c r="W135" s="4" t="inlineStr">
         <is>
@@ -9205,7 +9207,9 @@
       <c r="R136" s="4" t="inlineStr"/>
       <c r="S136" s="4" t="inlineStr"/>
       <c r="T136" s="4" t="inlineStr"/>
-      <c r="U136" s="4" t="inlineStr"/>
+      <c r="U136" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="V136" s="4" t="inlineStr"/>
       <c r="W136" s="4" t="inlineStr">
         <is>
@@ -9261,8 +9265,10 @@
       <c r="R137" s="4" t="inlineStr"/>
       <c r="S137" s="4" t="inlineStr"/>
       <c r="T137" s="4" t="inlineStr"/>
-      <c r="U137" s="4" t="n">
-        <v>0</v>
+      <c r="U137" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="V137" s="4" t="inlineStr"/>
       <c r="W137" s="4" t="inlineStr">

--- a/Behaviour/BCIO_behaviour.xlsx
+++ b/Behaviour/BCIO_behaviour.xlsx
@@ -579,7 +579,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050359</t>
+          <t>BCIO:100004</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -9149,8 +9149,10 @@
       <c r="R135" s="4" t="inlineStr"/>
       <c r="S135" s="4" t="inlineStr"/>
       <c r="T135" s="4" t="inlineStr"/>
-      <c r="U135" s="4" t="n">
-        <v>0</v>
+      <c r="U135" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="V135" s="4" t="inlineStr"/>
       <c r="W135" s="4" t="inlineStr">
@@ -9207,8 +9209,10 @@
       <c r="R136" s="4" t="inlineStr"/>
       <c r="S136" s="4" t="inlineStr"/>
       <c r="T136" s="4" t="inlineStr"/>
-      <c r="U136" s="4" t="n">
-        <v>0</v>
+      <c r="U136" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="V136" s="4" t="inlineStr"/>
       <c r="W136" s="4" t="inlineStr">

--- a/Behaviour/BCIO_behaviour.xlsx
+++ b/Behaviour/BCIO_behaviour.xlsx
@@ -9176,7 +9176,7 @@
       </c>
       <c r="B136" s="4" t="inlineStr">
         <is>
-          <t>test 3</t>
+          <t>test 5</t>
         </is>
       </c>
       <c r="C136" s="4" t="inlineStr"/>

--- a/Behaviour/BCIO_behaviour.xlsx
+++ b/Behaviour/BCIO_behaviour.xlsx
@@ -4620,87 +4620,87 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:036067</t>
-        </is>
-      </c>
-      <c r="B64" s="2" t="inlineStr">
-        <is>
-          <t>lying down</t>
-        </is>
-      </c>
-      <c r="C64" s="2" t="inlineStr"/>
-      <c r="D64" s="2" t="inlineStr">
-        <is>
-          <t>A posture behaviour that involves being in a horizontal position on a supporting surface</t>
-        </is>
-      </c>
-      <c r="E64" s="2" t="inlineStr"/>
-      <c r="F64" s="2" t="inlineStr"/>
-      <c r="G64" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">posture behaviour </t>
-        </is>
-      </c>
-      <c r="H64" s="2" t="inlineStr"/>
-      <c r="I64" s="2" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="J64" s="2" t="inlineStr"/>
-      <c r="K64" s="2" t="inlineStr"/>
-      <c r="L64" s="2" t="inlineStr"/>
-      <c r="M64" s="2" t="inlineStr"/>
-      <c r="N64" s="2" t="inlineStr"/>
-      <c r="O64" s="2" t="inlineStr"/>
-      <c r="P64" s="2" t="inlineStr"/>
-      <c r="Q64" s="2" t="inlineStr"/>
-      <c r="R64" s="2" t="inlineStr"/>
-      <c r="S64" s="2" t="inlineStr"/>
-      <c r="T64" s="2" t="inlineStr"/>
-      <c r="U64" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V64" s="2" t="inlineStr"/>
-      <c r="W64" s="2" t="inlineStr">
-        <is>
-          <t>OC</t>
-        </is>
-      </c>
-      <c r="X64" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="Y64" s="2" t="inlineStr"/>
-      <c r="Z64" s="2" t="inlineStr"/>
+      <c r="A64" s="4" t="inlineStr">
+        <is>
+          <t>BCIO:100003</t>
+        </is>
+      </c>
+      <c r="B64" s="4" t="inlineStr">
+        <is>
+          <t>lorem ipsum dolor sit amet</t>
+        </is>
+      </c>
+      <c r="C64" s="4" t="inlineStr"/>
+      <c r="D64" s="4" t="inlineStr">
+        <is>
+          <t>somethi</t>
+        </is>
+      </c>
+      <c r="E64" s="4" t="inlineStr"/>
+      <c r="F64" s="4" t="inlineStr"/>
+      <c r="G64" s="4" t="inlineStr">
+        <is>
+          <t>occurrent</t>
+        </is>
+      </c>
+      <c r="H64" s="4" t="inlineStr"/>
+      <c r="I64" s="4" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="J64" s="4" t="inlineStr"/>
+      <c r="K64" s="4" t="inlineStr"/>
+      <c r="L64" s="4" t="inlineStr"/>
+      <c r="M64" s="4" t="inlineStr"/>
+      <c r="N64" s="4" t="inlineStr"/>
+      <c r="O64" s="4" t="inlineStr"/>
+      <c r="P64" s="4" t="inlineStr"/>
+      <c r="Q64" s="4" t="inlineStr"/>
+      <c r="R64" s="4" t="inlineStr"/>
+      <c r="S64" s="4" t="inlineStr"/>
+      <c r="T64" s="4" t="inlineStr"/>
+      <c r="U64" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V64" s="4" t="inlineStr"/>
+      <c r="W64" s="4" t="inlineStr">
+        <is>
+          <t>BG</t>
+        </is>
+      </c>
+      <c r="X64" s="4" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Y64" s="4" t="inlineStr"/>
+      <c r="Z64" s="4" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050361</t>
+          <t>BCIO:036067</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">making a referral to another health care service </t>
+          <t>lying down</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr"/>
       <c r="D65" s="2" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves directing a person to another healthcare professional or organisation to assess, monitor, improve or maintain an aspect of this person’s health or wellbeing.</t>
+          <t>A posture behaviour that involves being in a horizontal position on a supporting surface</t>
         </is>
       </c>
       <c r="E65" s="2" t="inlineStr"/>
       <c r="F65" s="2" t="inlineStr"/>
       <c r="G65" s="2" t="inlineStr">
         <is>
-          <t>providing healthcare</t>
+          <t xml:space="preserve">posture behaviour </t>
         </is>
       </c>
       <c r="H65" s="2" t="inlineStr"/>
@@ -4728,7 +4728,7 @@
       <c r="V65" s="2" t="inlineStr"/>
       <c r="W65" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>OC</t>
         </is>
       </c>
       <c r="X65" s="2" t="inlineStr">
@@ -4742,25 +4742,25 @@
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036062</t>
+          <t>BCIO:050361</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">manufacturing behaviour </t>
+          <t xml:space="preserve">making a referral to another health care service </t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr"/>
       <c r="D66" s="2" t="inlineStr">
         <is>
-          <t>An object-using behaviour that involves making a product from raw materials or parts.</t>
+          <t>Providing healthcare that involves directing a person to another healthcare professional or organisation to assess, monitor, improve or maintain an aspect of this person’s health or wellbeing.</t>
         </is>
       </c>
       <c r="E66" s="2" t="inlineStr"/>
       <c r="F66" s="2" t="inlineStr"/>
       <c r="G66" s="2" t="inlineStr">
         <is>
-          <t>object-using behaviour</t>
+          <t>providing healthcare</t>
         </is>
       </c>
       <c r="H66" s="2" t="inlineStr"/>
@@ -4779,11 +4779,7 @@
       <c r="Q66" s="2" t="inlineStr"/>
       <c r="R66" s="2" t="inlineStr"/>
       <c r="S66" s="2" t="inlineStr"/>
-      <c r="T66" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Building, Constructing, Food production, Production of goods </t>
-        </is>
-      </c>
+      <c r="T66" s="2" t="inlineStr"/>
       <c r="U66" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -4792,7 +4788,7 @@
       <c r="V66" s="2" t="inlineStr"/>
       <c r="W66" s="2" t="inlineStr">
         <is>
-          <t>OC</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X66" s="2" t="inlineStr">
@@ -4806,25 +4802,25 @@
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050439</t>
+          <t>BCIO:036062</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>material entity-related behaviour</t>
+          <t xml:space="preserve">manufacturing behaviour </t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr"/>
       <c r="D67" s="2" t="inlineStr">
         <is>
-          <t>An individual human behaviour that relates to a material entity.</t>
+          <t>An object-using behaviour that involves making a product from raw materials or parts.</t>
         </is>
       </c>
       <c r="E67" s="2" t="inlineStr"/>
       <c r="F67" s="2" t="inlineStr"/>
       <c r="G67" s="2" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t>object-using behaviour</t>
         </is>
       </c>
       <c r="H67" s="2" t="inlineStr"/>
@@ -4843,7 +4839,11 @@
       <c r="Q67" s="2" t="inlineStr"/>
       <c r="R67" s="2" t="inlineStr"/>
       <c r="S67" s="2" t="inlineStr"/>
-      <c r="T67" s="2" t="inlineStr"/>
+      <c r="T67" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Building, Constructing, Food production, Production of goods </t>
+        </is>
+      </c>
       <c r="U67" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -4852,7 +4852,7 @@
       <c r="V67" s="2" t="inlineStr"/>
       <c r="W67" s="2" t="inlineStr">
         <is>
-          <t>PS; RW</t>
+          <t>OC</t>
         </is>
       </c>
       <c r="X67" s="2" t="inlineStr">
@@ -4866,25 +4866,25 @@
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050412</t>
+          <t>BCIO:050439</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>medication-taking</t>
+          <t>material entity-related behaviour</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr"/>
       <c r="D68" s="2" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves ingesting a medicine to treat or relieve symptoms of a health condition or maintain an aspect of health or wellbeing.</t>
+          <t>An individual human behaviour that relates to a material entity.</t>
         </is>
       </c>
       <c r="E68" s="2" t="inlineStr"/>
       <c r="F68" s="2" t="inlineStr"/>
       <c r="G68" s="2" t="inlineStr">
         <is>
-          <t>consumption behaviour</t>
+          <t>individual human behaviour</t>
         </is>
       </c>
       <c r="H68" s="2" t="inlineStr"/>
@@ -4900,17 +4900,9 @@
       <c r="N68" s="2" t="inlineStr"/>
       <c r="O68" s="2" t="inlineStr"/>
       <c r="P68" s="2" t="inlineStr"/>
-      <c r="Q68" s="2" t="inlineStr">
-        <is>
-          <t>pharmacological consumption</t>
-        </is>
-      </c>
+      <c r="Q68" s="2" t="inlineStr"/>
       <c r="R68" s="2" t="inlineStr"/>
-      <c r="S68" s="2" t="inlineStr">
-        <is>
-          <t>Medicine is defined as type of drug, i.e., ‘any substance which when absorbed into a living organism may modify one or more of its functions.’ (http://purl.obolibrary.org/obo/CHEBI_23888)</t>
-        </is>
-      </c>
+      <c r="S68" s="2" t="inlineStr"/>
       <c r="T68" s="2" t="inlineStr"/>
       <c r="U68" s="2" t="inlineStr">
         <is>
@@ -4920,7 +4912,7 @@
       <c r="V68" s="2" t="inlineStr"/>
       <c r="W68" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="X68" s="2" t="inlineStr">
@@ -4934,29 +4926,25 @@
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050431</t>
+          <t>BCIO:050412</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>mental exertion expended on a behaviour</t>
-        </is>
-      </c>
-      <c r="C69" s="2" t="inlineStr">
-        <is>
-          <t>The mental effort required to perform a behaviour.</t>
-        </is>
-      </c>
+          <t>medication-taking</t>
+        </is>
+      </c>
+      <c r="C69" s="2" t="inlineStr"/>
       <c r="D69" s="2" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is the level of mental effort expended on the behaviour to be enacted.</t>
+          <t>A consumption behaviour that involves ingesting a medicine to treat or relieve symptoms of a health condition or maintain an aspect of health or wellbeing.</t>
         </is>
       </c>
       <c r="E69" s="2" t="inlineStr"/>
       <c r="F69" s="2" t="inlineStr"/>
       <c r="G69" s="2" t="inlineStr">
         <is>
-          <t>behavioural attribute</t>
+          <t>consumption behaviour</t>
         </is>
       </c>
       <c r="H69" s="2" t="inlineStr"/>
@@ -4972,14 +4960,18 @@
       <c r="N69" s="2" t="inlineStr"/>
       <c r="O69" s="2" t="inlineStr"/>
       <c r="P69" s="2" t="inlineStr"/>
-      <c r="Q69" s="2" t="inlineStr"/>
+      <c r="Q69" s="2" t="inlineStr">
+        <is>
+          <t>pharmacological consumption</t>
+        </is>
+      </c>
       <c r="R69" s="2" t="inlineStr"/>
-      <c r="S69" s="2" t="inlineStr"/>
-      <c r="T69" s="2" t="inlineStr">
-        <is>
-          <t>writing has high mental exertion expended on a behaviour</t>
-        </is>
-      </c>
+      <c r="S69" s="2" t="inlineStr">
+        <is>
+          <t>Medicine is defined as type of drug, i.e., ‘any substance which when absorbed into a living organism may modify one or more of its functions.’ (http://purl.obolibrary.org/obo/CHEBI_23888)</t>
+        </is>
+      </c>
+      <c r="T69" s="2" t="inlineStr"/>
       <c r="U69" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -4988,7 +4980,7 @@
       <c r="V69" s="2" t="inlineStr"/>
       <c r="W69" s="2" t="inlineStr">
         <is>
-          <t>PS; RW</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X69" s="2" t="inlineStr">
@@ -5002,25 +4994,29 @@
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036041</t>
+          <t>BCIO:050431</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>mind-body behaviour</t>
-        </is>
-      </c>
-      <c r="C70" s="2" t="inlineStr"/>
+          <t>mental exertion expended on a behaviour</t>
+        </is>
+      </c>
+      <c r="C70" s="2" t="inlineStr">
+        <is>
+          <t>The mental effort required to perform a behaviour.</t>
+        </is>
+      </c>
       <c r="D70" s="2" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that aims to create a sense of interconnectedness between the mind and the body.</t>
+          <t>A behavioural attribute that is the level of mental effort expended on the behaviour to be enacted.</t>
         </is>
       </c>
       <c r="E70" s="2" t="inlineStr"/>
       <c r="F70" s="2" t="inlineStr"/>
       <c r="G70" s="2" t="inlineStr">
         <is>
-          <t>experience-related behaviour</t>
+          <t>behavioural attribute</t>
         </is>
       </c>
       <c r="H70" s="2" t="inlineStr"/>
@@ -5041,7 +5037,7 @@
       <c r="S70" s="2" t="inlineStr"/>
       <c r="T70" s="2" t="inlineStr">
         <is>
-          <t>Yoga, Taichi</t>
+          <t>writing has high mental exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="U70" s="2" t="inlineStr">
@@ -5052,7 +5048,7 @@
       <c r="V70" s="2" t="inlineStr"/>
       <c r="W70" s="2" t="inlineStr">
         <is>
-          <t>OC; PS</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="X70" s="2" t="inlineStr">
@@ -5066,25 +5062,25 @@
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050238</t>
+          <t>BCIO:036041</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
         <is>
-          <t>non-linguistic communication behaviour</t>
+          <t>mind-body behaviour</t>
         </is>
       </c>
       <c r="C71" s="2" t="inlineStr"/>
       <c r="D71" s="2" t="inlineStr">
         <is>
-          <t>A human communication behaviour in which information is transmitted without being encoded in the meaning units of any language.</t>
+          <t>An experience-related behaviour that aims to create a sense of interconnectedness between the mind and the body.</t>
         </is>
       </c>
       <c r="E71" s="2" t="inlineStr"/>
       <c r="F71" s="2" t="inlineStr"/>
       <c r="G71" s="2" t="inlineStr">
         <is>
-          <t>human communication behaviour</t>
+          <t>experience-related behaviour</t>
         </is>
       </c>
       <c r="H71" s="2" t="inlineStr"/>
@@ -5103,7 +5099,11 @@
       <c r="Q71" s="2" t="inlineStr"/>
       <c r="R71" s="2" t="inlineStr"/>
       <c r="S71" s="2" t="inlineStr"/>
-      <c r="T71" s="2" t="inlineStr"/>
+      <c r="T71" s="2" t="inlineStr">
+        <is>
+          <t>Yoga, Taichi</t>
+        </is>
+      </c>
       <c r="U71" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -5112,7 +5112,7 @@
       <c r="V71" s="2" t="inlineStr"/>
       <c r="W71" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>OC; PS</t>
         </is>
       </c>
       <c r="X71" s="2" t="inlineStr">
@@ -5126,25 +5126,25 @@
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050424</t>
+          <t>BCIO:050238</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">non-linguistic communication behaviour using body language </t>
+          <t>non-linguistic communication behaviour</t>
         </is>
       </c>
       <c r="C72" s="2" t="inlineStr"/>
       <c r="D72" s="2" t="inlineStr">
         <is>
-          <t>A non-linguistic communication behaviour that involves expressing thoughts or feelings through bodily movement or posture.</t>
+          <t>A human communication behaviour in which information is transmitted without being encoded in the meaning units of any language.</t>
         </is>
       </c>
       <c r="E72" s="2" t="inlineStr"/>
       <c r="F72" s="2" t="inlineStr"/>
       <c r="G72" s="2" t="inlineStr">
         <is>
-          <t>non-linguistic communication behaviour</t>
+          <t>human communication behaviour</t>
         </is>
       </c>
       <c r="H72" s="2" t="inlineStr"/>
@@ -5186,25 +5186,25 @@
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050375</t>
+          <t>BCIO:050424</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
         <is>
-          <t>non-linguistic communication behaviour using eye contact</t>
+          <t xml:space="preserve">non-linguistic communication behaviour using body language </t>
         </is>
       </c>
       <c r="C73" s="2" t="inlineStr"/>
       <c r="D73" s="2" t="inlineStr">
         <is>
-          <t>A non-linguistic communication behaviour using body language characterised by the meeting of eyes with another individual.</t>
+          <t>A non-linguistic communication behaviour that involves expressing thoughts or feelings through bodily movement or posture.</t>
         </is>
       </c>
       <c r="E73" s="2" t="inlineStr"/>
       <c r="F73" s="2" t="inlineStr"/>
       <c r="G73" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">non-linguistic communication behaviour using body language </t>
+          <t>non-linguistic communication behaviour</t>
         </is>
       </c>
       <c r="H73" s="2" t="inlineStr"/>
@@ -5232,7 +5232,7 @@
       <c r="V73" s="2" t="inlineStr"/>
       <c r="W73" s="2" t="inlineStr">
         <is>
-          <t>PS; lz</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X73" s="2" t="inlineStr">
@@ -5246,18 +5246,18 @@
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050425</t>
+          <t>BCIO:050375</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
         <is>
-          <t>non-linguistic communication behaviour using facial expression</t>
+          <t>non-linguistic communication behaviour using eye contact</t>
         </is>
       </c>
       <c r="C74" s="2" t="inlineStr"/>
       <c r="D74" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Non-linguistic communication behaviour using body language that involves movements of facial muscles to express thoughts or feelings. </t>
+          <t>A non-linguistic communication behaviour using body language characterised by the meeting of eyes with another individual.</t>
         </is>
       </c>
       <c r="E74" s="2" t="inlineStr"/>
@@ -5292,7 +5292,7 @@
       <c r="V74" s="2" t="inlineStr"/>
       <c r="W74" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; lz</t>
         </is>
       </c>
       <c r="X74" s="2" t="inlineStr">
@@ -5306,25 +5306,25 @@
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036002</t>
+          <t>BCIO:050425</t>
         </is>
       </c>
       <c r="B75" s="2" t="inlineStr">
         <is>
-          <t>non-linguistic communication behaviour using gesture</t>
+          <t>non-linguistic communication behaviour using facial expression</t>
         </is>
       </c>
       <c r="C75" s="2" t="inlineStr"/>
       <c r="D75" s="2" t="inlineStr">
         <is>
-          <t>A non-linguistic communication behaviour using body language involving a deliberately chosen movement of the head, neck, torso, or limbs to express an idea or feeling.</t>
+          <t xml:space="preserve">Non-linguistic communication behaviour using body language that involves movements of facial muscles to express thoughts or feelings. </t>
         </is>
       </c>
       <c r="E75" s="2" t="inlineStr"/>
       <c r="F75" s="2" t="inlineStr"/>
       <c r="G75" s="2" t="inlineStr">
         <is>
-          <t>non-linguistic communication behaviour using body language</t>
+          <t xml:space="preserve">non-linguistic communication behaviour using body language </t>
         </is>
       </c>
       <c r="H75" s="2" t="inlineStr"/>
@@ -5342,16 +5342,8 @@
       <c r="P75" s="2" t="inlineStr"/>
       <c r="Q75" s="2" t="inlineStr"/>
       <c r="R75" s="2" t="inlineStr"/>
-      <c r="S75" s="2" t="inlineStr">
-        <is>
-          <t>Gestures are deliberately chosen by the person to communicate some message.  The meaning of a gesture may differ across different cultures.</t>
-        </is>
-      </c>
-      <c r="T75" s="2" t="inlineStr">
-        <is>
-          <t>Pointing</t>
-        </is>
-      </c>
+      <c r="S75" s="2" t="inlineStr"/>
+      <c r="T75" s="2" t="inlineStr"/>
       <c r="U75" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -5360,7 +5352,7 @@
       <c r="V75" s="2" t="inlineStr"/>
       <c r="W75" s="2" t="inlineStr">
         <is>
-          <t>JH; RW; OC</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X75" s="2" t="inlineStr">
@@ -5374,25 +5366,25 @@
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050373</t>
+          <t>BCIO:036002</t>
         </is>
       </c>
       <c r="B76" s="2" t="inlineStr">
         <is>
-          <t>non-linguistic communication behaviour using vocalisations</t>
+          <t>non-linguistic communication behaviour using gesture</t>
         </is>
       </c>
       <c r="C76" s="2" t="inlineStr"/>
       <c r="D76" s="2" t="inlineStr">
         <is>
-          <t>A non-linguistic communication behaviour using one's voice to produce sounds.</t>
+          <t>A non-linguistic communication behaviour using body language involving a deliberately chosen movement of the head, neck, torso, or limbs to express an idea or feeling.</t>
         </is>
       </c>
       <c r="E76" s="2" t="inlineStr"/>
       <c r="F76" s="2" t="inlineStr"/>
       <c r="G76" s="2" t="inlineStr">
         <is>
-          <t>non-linguistic communication behaviour</t>
+          <t>non-linguistic communication behaviour using body language</t>
         </is>
       </c>
       <c r="H76" s="2" t="inlineStr"/>
@@ -5410,8 +5402,16 @@
       <c r="P76" s="2" t="inlineStr"/>
       <c r="Q76" s="2" t="inlineStr"/>
       <c r="R76" s="2" t="inlineStr"/>
-      <c r="S76" s="2" t="inlineStr"/>
-      <c r="T76" s="2" t="inlineStr"/>
+      <c r="S76" s="2" t="inlineStr">
+        <is>
+          <t>Gestures are deliberately chosen by the person to communicate some message.  The meaning of a gesture may differ across different cultures.</t>
+        </is>
+      </c>
+      <c r="T76" s="2" t="inlineStr">
+        <is>
+          <t>Pointing</t>
+        </is>
+      </c>
       <c r="U76" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -5420,7 +5420,7 @@
       <c r="V76" s="2" t="inlineStr"/>
       <c r="W76" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>JH; RW; OC</t>
         </is>
       </c>
       <c r="X76" s="2" t="inlineStr">
@@ -5434,29 +5434,25 @@
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050429</t>
+          <t>BCIO:050373</t>
         </is>
       </c>
       <c r="B77" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">number of behavioural occurrences </t>
-        </is>
-      </c>
-      <c r="C77" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Number of times a person performs a behaviour. </t>
-        </is>
-      </c>
+          <t>non-linguistic communication behaviour using vocalisations</t>
+        </is>
+      </c>
+      <c r="C77" s="2" t="inlineStr"/>
       <c r="D77" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A data item that is about the number of times a behaviour has occurred. </t>
+          <t>A non-linguistic communication behaviour using one's voice to produce sounds.</t>
         </is>
       </c>
       <c r="E77" s="2" t="inlineStr"/>
       <c r="F77" s="2" t="inlineStr"/>
       <c r="G77" s="2" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>non-linguistic communication behaviour</t>
         </is>
       </c>
       <c r="H77" s="2" t="inlineStr"/>
@@ -5475,11 +5471,7 @@
       <c r="Q77" s="2" t="inlineStr"/>
       <c r="R77" s="2" t="inlineStr"/>
       <c r="S77" s="2" t="inlineStr"/>
-      <c r="T77" s="2" t="inlineStr">
-        <is>
-          <t>harassment behaviour occurred three times</t>
-        </is>
-      </c>
+      <c r="T77" s="2" t="inlineStr"/>
       <c r="U77" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -5488,7 +5480,7 @@
       <c r="V77" s="2" t="inlineStr"/>
       <c r="W77" s="2" t="inlineStr">
         <is>
-          <t>PS; RW</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X77" s="2" t="inlineStr">
@@ -5502,25 +5494,29 @@
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036086</t>
+          <t>BCIO:050429</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">nurture behaviour </t>
-        </is>
-      </c>
-      <c r="C78" s="2" t="inlineStr"/>
+          <t xml:space="preserve">number of behavioural occurrences </t>
+        </is>
+      </c>
+      <c r="C78" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Number of times a person performs a behaviour. </t>
+        </is>
+      </c>
       <c r="D78" s="2" t="inlineStr">
         <is>
-          <t>A socially-related behaviour that involves meeting the physical, psychological or social needs of another living being to promote its development.</t>
+          <t xml:space="preserve">A data item that is about the number of times a behaviour has occurred. </t>
         </is>
       </c>
       <c r="E78" s="2" t="inlineStr"/>
       <c r="F78" s="2" t="inlineStr"/>
       <c r="G78" s="2" t="inlineStr">
         <is>
-          <t>socially-related behaviour</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="H78" s="2" t="inlineStr"/>
@@ -5538,15 +5534,10 @@
       <c r="P78" s="2" t="inlineStr"/>
       <c r="Q78" s="2" t="inlineStr"/>
       <c r="R78" s="2" t="inlineStr"/>
-      <c r="S78" s="2" t="inlineStr">
-        <is>
-          <t>The term 'animal' in the definition includes humans and other animals.
-There can be different dimensions of nurturing, e.g., in some cases, nurturing can involve addressing someone's physical needs (e.g., feeding) but not emotional needs.</t>
-        </is>
-      </c>
+      <c r="S78" s="2" t="inlineStr"/>
       <c r="T78" s="2" t="inlineStr">
         <is>
-          <t>Comforting, feeding, encouraging</t>
+          <t>harassment behaviour occurred three times</t>
         </is>
       </c>
       <c r="U78" s="2" t="inlineStr">
@@ -5557,7 +5548,7 @@
       <c r="V78" s="2" t="inlineStr"/>
       <c r="W78" s="2" t="inlineStr">
         <is>
-          <t>OC; PS</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="X78" s="2" t="inlineStr">
@@ -5571,25 +5562,25 @@
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036005</t>
+          <t>BCIO:036086</t>
         </is>
       </c>
       <c r="B79" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">object management behaviour </t>
+          <t xml:space="preserve">nurture behaviour </t>
         </is>
       </c>
       <c r="C79" s="2" t="inlineStr"/>
       <c r="D79" s="2" t="inlineStr">
         <is>
-          <t>An environmental system management behaviour that involves creating, maintaining, adapting or destroying non-sentient objects.</t>
+          <t>A socially-related behaviour that involves meeting the physical, psychological or social needs of another living being to promote its development.</t>
         </is>
       </c>
       <c r="E79" s="2" t="inlineStr"/>
       <c r="F79" s="2" t="inlineStr"/>
       <c r="G79" s="2" t="inlineStr">
         <is>
-          <t>environmental system management behaviour</t>
+          <t>socially-related behaviour</t>
         </is>
       </c>
       <c r="H79" s="2" t="inlineStr"/>
@@ -5609,12 +5600,13 @@
       <c r="R79" s="2" t="inlineStr"/>
       <c r="S79" s="2" t="inlineStr">
         <is>
-          <t>Objects can include engineered artifacts, organisms, grain of sand and/or molecules. The phrase ‘non-sentient objects’ is used to refer to objects that do not have a central nervous system.</t>
+          <t>The term 'animal' in the definition includes humans and other animals.
+There can be different dimensions of nurturing, e.g., in some cases, nurturing can involve addressing someone's physical needs (e.g., feeding) but not emotional needs.</t>
         </is>
       </c>
       <c r="T79" s="2" t="inlineStr">
         <is>
-          <t>Storing, Littering, Installing, Assembling, Disassembling, Repairing, Designing, Servicing, Washing, Composting, Planting, Pruning,  Cooking,  Growing food, Recycling, Planting trees, Picking up litter</t>
+          <t>Comforting, feeding, encouraging</t>
         </is>
       </c>
       <c r="U79" s="2" t="inlineStr">
@@ -5625,7 +5617,7 @@
       <c r="V79" s="2" t="inlineStr"/>
       <c r="W79" s="2" t="inlineStr">
         <is>
-          <t>RW; OC; PS</t>
+          <t>OC; PS</t>
         </is>
       </c>
       <c r="X79" s="2" t="inlineStr">
@@ -5639,32 +5631,28 @@
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036027</t>
+          <t>BCIO:036005</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">object-using behaviour </t>
+          <t xml:space="preserve">object management behaviour </t>
         </is>
       </c>
       <c r="C80" s="2" t="inlineStr"/>
       <c r="D80" s="2" t="inlineStr">
         <is>
-          <t>A material-entity related behaviour that uses a non-living object.</t>
+          <t>An environmental system management behaviour that involves creating, maintaining, adapting or destroying non-sentient objects.</t>
         </is>
       </c>
       <c r="E80" s="2" t="inlineStr"/>
       <c r="F80" s="2" t="inlineStr"/>
       <c r="G80" s="2" t="inlineStr">
         <is>
-          <t>material entity-related behaviour</t>
-        </is>
-      </c>
-      <c r="H80" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>environmental system management behaviour</t>
+        </is>
+      </c>
+      <c r="H80" s="2" t="inlineStr"/>
       <c r="I80" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -5681,12 +5669,12 @@
       <c r="R80" s="2" t="inlineStr"/>
       <c r="S80" s="2" t="inlineStr">
         <is>
-          <t>Non-living objects can include engineered artifacts, grain of sand and/or molecules.</t>
+          <t>Objects can include engineered artifacts, organisms, grain of sand and/or molecules. The phrase ‘non-sentient objects’ is used to refer to objects that do not have a central nervous system.</t>
         </is>
       </c>
       <c r="T80" s="2" t="inlineStr">
         <is>
-          <t>Shooting, Writing, Using a weapon, Using public transport, Taking a bus, Sailing, Typing, Collecting, Drying, Ironing, Painting, Drawing</t>
+          <t>Storing, Littering, Installing, Assembling, Disassembling, Repairing, Designing, Servicing, Washing, Composting, Planting, Pruning,  Cooking,  Growing food, Recycling, Planting trees, Picking up litter</t>
         </is>
       </c>
       <c r="U80" s="2" t="inlineStr">
@@ -5711,28 +5699,32 @@
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050417</t>
+          <t>BCIO:036027</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
         <is>
-          <t>oral consumption</t>
+          <t xml:space="preserve">object-using behaviour </t>
         </is>
       </c>
       <c r="C81" s="2" t="inlineStr"/>
       <c r="D81" s="2" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves putting a material into one’s mouth and swallowing this material.</t>
+          <t>A material-entity related behaviour that uses a non-living object.</t>
         </is>
       </c>
       <c r="E81" s="2" t="inlineStr"/>
       <c r="F81" s="2" t="inlineStr"/>
       <c r="G81" s="2" t="inlineStr">
         <is>
-          <t>consumption behaviour</t>
-        </is>
-      </c>
-      <c r="H81" s="2" t="inlineStr"/>
+          <t>material entity-related behaviour</t>
+        </is>
+      </c>
+      <c r="H81" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I81" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -5747,8 +5739,16 @@
       <c r="P81" s="2" t="inlineStr"/>
       <c r="Q81" s="2" t="inlineStr"/>
       <c r="R81" s="2" t="inlineStr"/>
-      <c r="S81" s="2" t="inlineStr"/>
-      <c r="T81" s="2" t="inlineStr"/>
+      <c r="S81" s="2" t="inlineStr">
+        <is>
+          <t>Non-living objects can include engineered artifacts, grain of sand and/or molecules.</t>
+        </is>
+      </c>
+      <c r="T81" s="2" t="inlineStr">
+        <is>
+          <t>Shooting, Writing, Using a weapon, Using public transport, Taking a bus, Sailing, Typing, Collecting, Drying, Ironing, Painting, Drawing</t>
+        </is>
+      </c>
       <c r="U81" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -5757,7 +5757,7 @@
       <c r="V81" s="2" t="inlineStr"/>
       <c r="W81" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW; OC; PS</t>
         </is>
       </c>
       <c r="X81" s="2" t="inlineStr">
@@ -5771,25 +5771,25 @@
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050407</t>
+          <t>BCIO:050417</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t>participating in creative arts therapy</t>
+          <t>oral consumption</t>
         </is>
       </c>
       <c r="C82" s="2" t="inlineStr"/>
       <c r="D82" s="2" t="inlineStr">
         <is>
-          <t>Participating in psychological treatment that involves creative and expressive processes.</t>
+          <t>A consumption behaviour that involves putting a material into one’s mouth and swallowing this material.</t>
         </is>
       </c>
       <c r="E82" s="2" t="inlineStr"/>
       <c r="F82" s="2" t="inlineStr"/>
       <c r="G82" s="2" t="inlineStr">
         <is>
-          <t>participating in psychological treatment</t>
+          <t>consumption behaviour</t>
         </is>
       </c>
       <c r="H82" s="2" t="inlineStr"/>
@@ -5831,25 +5831,25 @@
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050402</t>
+          <t>BCIO:050407</t>
         </is>
       </c>
       <c r="B83" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">participating in health screening </t>
+          <t>participating in creative arts therapy</t>
         </is>
       </c>
       <c r="C83" s="2" t="inlineStr"/>
       <c r="D83" s="2" t="inlineStr">
         <is>
-          <t>Participating in healthcare testing to detect the presence of a health condition while asymptomatic for that condition.</t>
+          <t>Participating in psychological treatment that involves creative and expressive processes.</t>
         </is>
       </c>
       <c r="E83" s="2" t="inlineStr"/>
       <c r="F83" s="2" t="inlineStr"/>
       <c r="G83" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">participating in healthcare testing  </t>
+          <t>participating in psychological treatment</t>
         </is>
       </c>
       <c r="H83" s="2" t="inlineStr"/>
@@ -5868,11 +5868,7 @@
       <c r="Q83" s="2" t="inlineStr"/>
       <c r="R83" s="2" t="inlineStr"/>
       <c r="S83" s="2" t="inlineStr"/>
-      <c r="T83" s="2" t="inlineStr">
-        <is>
-          <t>Screen for breast cancer, screen for perinatal depression</t>
-        </is>
-      </c>
+      <c r="T83" s="2" t="inlineStr"/>
       <c r="U83" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -5895,25 +5891,25 @@
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050401</t>
+          <t>BCIO:050402</t>
         </is>
       </c>
       <c r="B84" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">participating in healthcare testing  </t>
+          <t xml:space="preserve">participating in health screening </t>
         </is>
       </c>
       <c r="C84" s="2" t="inlineStr"/>
       <c r="D84" s="2" t="inlineStr">
         <is>
-          <t>Utilising healthcare that involves participating in a healthcare procedure to assess or monitor an aspect of one’s health or wellbeing.</t>
+          <t>Participating in healthcare testing to detect the presence of a health condition while asymptomatic for that condition.</t>
         </is>
       </c>
       <c r="E84" s="2" t="inlineStr"/>
       <c r="F84" s="2" t="inlineStr"/>
       <c r="G84" s="2" t="inlineStr">
         <is>
-          <t>utilising healthcare</t>
+          <t xml:space="preserve">participating in healthcare testing  </t>
         </is>
       </c>
       <c r="H84" s="2" t="inlineStr"/>
@@ -5931,14 +5927,10 @@
       <c r="P84" s="2" t="inlineStr"/>
       <c r="Q84" s="2" t="inlineStr"/>
       <c r="R84" s="2" t="inlineStr"/>
-      <c r="S84" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Healthcare procedure is defined as ‘a healthcare intervention that refers to any series of pre-defined steps that should be followed to achieve a desired result.’ </t>
-        </is>
-      </c>
+      <c r="S84" s="2" t="inlineStr"/>
       <c r="T84" s="2" t="inlineStr">
         <is>
-          <t>Blood test to check for anaemia, psychological testing</t>
+          <t>Screen for breast cancer, screen for perinatal depression</t>
         </is>
       </c>
       <c r="U84" s="2" t="inlineStr">
@@ -5963,18 +5955,18 @@
     <row r="85">
       <c r="A85" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050404</t>
+          <t>BCIO:050401</t>
         </is>
       </c>
       <c r="B85" s="2" t="inlineStr">
         <is>
-          <t>participating in healthcare treatment</t>
+          <t xml:space="preserve">participating in healthcare testing  </t>
         </is>
       </c>
       <c r="C85" s="2" t="inlineStr"/>
       <c r="D85" s="2" t="inlineStr">
         <is>
-          <t>Utilising healthcare that involves interacting with a health professional to improve or maintain aspects of one's health or wellbeing.</t>
+          <t>Utilising healthcare that involves participating in a healthcare procedure to assess or monitor an aspect of one’s health or wellbeing.</t>
         </is>
       </c>
       <c r="E85" s="2" t="inlineStr"/>
@@ -5999,10 +5991,14 @@
       <c r="P85" s="2" t="inlineStr"/>
       <c r="Q85" s="2" t="inlineStr"/>
       <c r="R85" s="2" t="inlineStr"/>
-      <c r="S85" s="2" t="inlineStr"/>
+      <c r="S85" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Healthcare procedure is defined as ‘a healthcare intervention that refers to any series of pre-defined steps that should be followed to achieve a desired result.’ </t>
+        </is>
+      </c>
       <c r="T85" s="2" t="inlineStr">
         <is>
-          <t>Undergoing surgery</t>
+          <t>Blood test to check for anaemia, psychological testing</t>
         </is>
       </c>
       <c r="U85" s="2" t="inlineStr">
@@ -6027,25 +6023,25 @@
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050408</t>
+          <t>BCIO:050404</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
         <is>
-          <t>participating in occupational therapy</t>
+          <t>participating in healthcare treatment</t>
         </is>
       </c>
       <c r="C86" s="2" t="inlineStr"/>
       <c r="D86" s="2" t="inlineStr">
         <is>
-          <t>Participating in healthcare treatment that aims to enable people to participate in the activities of everyday life.</t>
+          <t>Utilising healthcare that involves interacting with a health professional to improve or maintain aspects of one's health or wellbeing.</t>
         </is>
       </c>
       <c r="E86" s="2" t="inlineStr"/>
       <c r="F86" s="2" t="inlineStr"/>
       <c r="G86" s="2" t="inlineStr">
         <is>
-          <t>participating in healthcare treatment</t>
+          <t>utilising healthcare</t>
         </is>
       </c>
       <c r="H86" s="2" t="inlineStr"/>
@@ -6064,7 +6060,11 @@
       <c r="Q86" s="2" t="inlineStr"/>
       <c r="R86" s="2" t="inlineStr"/>
       <c r="S86" s="2" t="inlineStr"/>
-      <c r="T86" s="2" t="inlineStr"/>
+      <c r="T86" s="2" t="inlineStr">
+        <is>
+          <t>Undergoing surgery</t>
+        </is>
+      </c>
       <c r="U86" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -6087,18 +6087,18 @@
     <row r="87">
       <c r="A87" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050405</t>
+          <t>BCIO:050408</t>
         </is>
       </c>
       <c r="B87" s="2" t="inlineStr">
         <is>
-          <t>participating in physical therapy</t>
+          <t>participating in occupational therapy</t>
         </is>
       </c>
       <c r="C87" s="2" t="inlineStr"/>
       <c r="D87" s="2" t="inlineStr">
         <is>
-          <t>Participating in healthcare treatment that involves advice, encouragement, or physical support to perform movements that remediate one’s bodily impairments or promote mobility, function or quality of life.</t>
+          <t>Participating in healthcare treatment that aims to enable people to participate in the activities of everyday life.</t>
         </is>
       </c>
       <c r="E87" s="2" t="inlineStr"/>
@@ -6147,18 +6147,18 @@
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050406</t>
+          <t>BCIO:050405</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
         <is>
-          <t>participating in psychological treatment</t>
+          <t>participating in physical therapy</t>
         </is>
       </c>
       <c r="C88" s="2" t="inlineStr"/>
       <c r="D88" s="2" t="inlineStr">
         <is>
-          <t>Participating in healthcare treatment that uses communication or recommended tasks to assess and improve adaptive mental or behavioural functioning.</t>
+          <t>Participating in healthcare treatment that involves advice, encouragement, or physical support to perform movements that remediate one’s bodily impairments or promote mobility, function or quality of life.</t>
         </is>
       </c>
       <c r="E88" s="2" t="inlineStr"/>
@@ -6207,18 +6207,18 @@
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050409</t>
+          <t>BCIO:050406</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
         <is>
-          <t>participating in speech and language therapy</t>
+          <t>participating in psychological treatment</t>
         </is>
       </c>
       <c r="C89" s="2" t="inlineStr"/>
       <c r="D89" s="2" t="inlineStr">
         <is>
-          <t>Participating in healthcare treatment that aims to improve or restore communication, eating, drinking or swallowing.</t>
+          <t>Participating in healthcare treatment that uses communication or recommended tasks to assess and improve adaptive mental or behavioural functioning.</t>
         </is>
       </c>
       <c r="E89" s="2" t="inlineStr"/>
@@ -6267,32 +6267,28 @@
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036024</t>
+          <t>BCIO:050409</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
         <is>
-          <t>personal bodily care behaviour</t>
+          <t>participating in speech and language therapy</t>
         </is>
       </c>
       <c r="C90" s="2" t="inlineStr"/>
       <c r="D90" s="2" t="inlineStr">
         <is>
-          <t>An individual human behaviour that attends one’s own hygiene, comfort or appearance.</t>
+          <t>Participating in healthcare treatment that aims to improve or restore communication, eating, drinking or swallowing.</t>
         </is>
       </c>
       <c r="E90" s="2" t="inlineStr"/>
       <c r="F90" s="2" t="inlineStr"/>
       <c r="G90" s="2" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
-        </is>
-      </c>
-      <c r="H90" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>participating in healthcare treatment</t>
+        </is>
+      </c>
+      <c r="H90" s="2" t="inlineStr"/>
       <c r="I90" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -6307,16 +6303,8 @@
       <c r="P90" s="2" t="inlineStr"/>
       <c r="Q90" s="2" t="inlineStr"/>
       <c r="R90" s="2" t="inlineStr"/>
-      <c r="S90" s="2" t="inlineStr">
-        <is>
-          <t>Behaviour relating to supporting the personal care of others can be captured under the class 'social support behaviour'.</t>
-        </is>
-      </c>
-      <c r="T90" s="2" t="inlineStr">
-        <is>
-          <t>Nail-cutting</t>
-        </is>
-      </c>
+      <c r="S90" s="2" t="inlineStr"/>
+      <c r="T90" s="2" t="inlineStr"/>
       <c r="U90" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -6325,7 +6313,7 @@
       <c r="V90" s="2" t="inlineStr"/>
       <c r="W90" s="2" t="inlineStr">
         <is>
-          <t>RW; OC; JH</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X90" s="2" t="inlineStr">
@@ -6339,28 +6327,32 @@
     <row r="91">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036036</t>
+          <t>BCIO:036024</t>
         </is>
       </c>
       <c r="B91" s="2" t="inlineStr">
         <is>
-          <t>physical combat behaviour</t>
+          <t>personal bodily care behaviour</t>
         </is>
       </c>
       <c r="C91" s="2" t="inlineStr"/>
       <c r="D91" s="2" t="inlineStr">
         <is>
-          <t>An inter-personal behaviour that involves taking part in a physical struggle involving contact or the use of weapons</t>
+          <t>An individual human behaviour that attends one’s own hygiene, comfort or appearance.</t>
         </is>
       </c>
       <c r="E91" s="2" t="inlineStr"/>
       <c r="F91" s="2" t="inlineStr"/>
       <c r="G91" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">inter-personal behaviour </t>
-        </is>
-      </c>
-      <c r="H91" s="2" t="inlineStr"/>
+          <t>individual human behaviour</t>
+        </is>
+      </c>
+      <c r="H91" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I91" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -6377,12 +6369,12 @@
       <c r="R91" s="2" t="inlineStr"/>
       <c r="S91" s="2" t="inlineStr">
         <is>
-          <t>Physical combat behaviour can be aggressive but does not need to be. For instance, people can fight as part of a game.</t>
+          <t>Behaviour relating to supporting the personal care of others can be captured under the class 'social support behaviour'.</t>
         </is>
       </c>
       <c r="T91" s="2" t="inlineStr">
         <is>
-          <t>Wrestling, fencing</t>
+          <t>Nail-cutting</t>
         </is>
       </c>
       <c r="U91" s="2" t="inlineStr">
@@ -6393,7 +6385,7 @@
       <c r="V91" s="2" t="inlineStr"/>
       <c r="W91" s="2" t="inlineStr">
         <is>
-          <t>OC</t>
+          <t>RW; OC; JH</t>
         </is>
       </c>
       <c r="X91" s="2" t="inlineStr">
@@ -6407,25 +6399,25 @@
     <row r="92">
       <c r="A92" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050426</t>
+          <t>BCIO:036036</t>
         </is>
       </c>
       <c r="B92" s="2" t="inlineStr">
         <is>
-          <t>physical contact behaviour</t>
+          <t>physical combat behaviour</t>
         </is>
       </c>
       <c r="C92" s="2" t="inlineStr"/>
       <c r="D92" s="2" t="inlineStr">
         <is>
-          <t>A material-entity related behaviour that makes physical contact with something.</t>
+          <t>An inter-personal behaviour that involves taking part in a physical struggle involving contact or the use of weapons</t>
         </is>
       </c>
       <c r="E92" s="2" t="inlineStr"/>
       <c r="F92" s="2" t="inlineStr"/>
       <c r="G92" s="2" t="inlineStr">
         <is>
-          <t>material-entity related behaviour</t>
+          <t xml:space="preserve">inter-personal behaviour </t>
         </is>
       </c>
       <c r="H92" s="2" t="inlineStr"/>
@@ -6443,10 +6435,14 @@
       <c r="P92" s="2" t="inlineStr"/>
       <c r="Q92" s="2" t="inlineStr"/>
       <c r="R92" s="2" t="inlineStr"/>
-      <c r="S92" s="2" t="inlineStr"/>
+      <c r="S92" s="2" t="inlineStr">
+        <is>
+          <t>Physical combat behaviour can be aggressive but does not need to be. For instance, people can fight as part of a game.</t>
+        </is>
+      </c>
       <c r="T92" s="2" t="inlineStr">
         <is>
-          <t>Touching</t>
+          <t>Wrestling, fencing</t>
         </is>
       </c>
       <c r="U92" s="2" t="inlineStr">
@@ -6457,7 +6453,7 @@
       <c r="V92" s="2" t="inlineStr"/>
       <c r="W92" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>OC</t>
         </is>
       </c>
       <c r="X92" s="2" t="inlineStr">
@@ -6471,29 +6467,25 @@
     <row r="93">
       <c r="A93" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050432</t>
+          <t>BCIO:050426</t>
         </is>
       </c>
       <c r="B93" s="2" t="inlineStr">
         <is>
-          <t>physical exertion expended on a behaviour</t>
-        </is>
-      </c>
-      <c r="C93" s="2" t="inlineStr">
-        <is>
-          <t>The physical effort required to perform a behaviour.</t>
-        </is>
-      </c>
+          <t>physical contact behaviour</t>
+        </is>
+      </c>
+      <c r="C93" s="2" t="inlineStr"/>
       <c r="D93" s="2" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is the level of musculoskeletal work expended on the behaviour to be enacted.</t>
+          <t>A material-entity related behaviour that makes physical contact with something.</t>
         </is>
       </c>
       <c r="E93" s="2" t="inlineStr"/>
       <c r="F93" s="2" t="inlineStr"/>
       <c r="G93" s="2" t="inlineStr">
         <is>
-          <t>behavioural attribute</t>
+          <t>material-entity related behaviour</t>
         </is>
       </c>
       <c r="H93" s="2" t="inlineStr"/>
@@ -6514,7 +6506,7 @@
       <c r="S93" s="2" t="inlineStr"/>
       <c r="T93" s="2" t="inlineStr">
         <is>
-          <t>physical performance behaviour has high physical exertion expended on a behaviour</t>
+          <t>Touching</t>
         </is>
       </c>
       <c r="U93" s="2" t="inlineStr">
@@ -6525,7 +6517,7 @@
       <c r="V93" s="2" t="inlineStr"/>
       <c r="W93" s="2" t="inlineStr">
         <is>
-          <t>PS; RW</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X93" s="2" t="inlineStr">
@@ -6539,32 +6531,32 @@
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036028</t>
+          <t>BCIO:050432</t>
         </is>
       </c>
       <c r="B94" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">physical impact behaviour </t>
-        </is>
-      </c>
-      <c r="C94" s="2" t="inlineStr"/>
+          <t>physical exertion expended on a behaviour</t>
+        </is>
+      </c>
+      <c r="C94" s="2" t="inlineStr">
+        <is>
+          <t>The physical effort required to perform a behaviour.</t>
+        </is>
+      </c>
       <c r="D94" s="2" t="inlineStr">
         <is>
-          <t>A physical contact behaviour that is forceful.</t>
+          <t>A behavioural attribute that is the level of musculoskeletal work expended on the behaviour to be enacted.</t>
         </is>
       </c>
       <c r="E94" s="2" t="inlineStr"/>
       <c r="F94" s="2" t="inlineStr"/>
       <c r="G94" s="2" t="inlineStr">
         <is>
-          <t>physical contact behaviour</t>
-        </is>
-      </c>
-      <c r="H94" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>behavioural attribute</t>
+        </is>
+      </c>
+      <c r="H94" s="2" t="inlineStr"/>
       <c r="I94" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -6582,20 +6574,18 @@
       <c r="S94" s="2" t="inlineStr"/>
       <c r="T94" s="2" t="inlineStr">
         <is>
-          <t>Pushing, Kicking, Punching</t>
-        </is>
-      </c>
-      <c r="U94" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="V94" s="2" t="inlineStr">
-        <is>
-          <t>The degree of force is not precisely specified.</t>
-        </is>
-      </c>
+          <t>physical performance behaviour has high physical exertion expended on a behaviour</t>
+        </is>
+      </c>
+      <c r="U94" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V94" s="2" t="inlineStr"/>
       <c r="W94" s="2" t="inlineStr">
         <is>
-          <t>RW; OC</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="X94" s="2" t="inlineStr">
@@ -6609,28 +6599,32 @@
     <row r="95">
       <c r="A95" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036042</t>
+          <t>BCIO:036028</t>
         </is>
       </c>
       <c r="B95" s="2" t="inlineStr">
         <is>
-          <t>physical performance behaviour</t>
+          <t xml:space="preserve">physical impact behaviour </t>
         </is>
       </c>
       <c r="C95" s="2" t="inlineStr"/>
       <c r="D95" s="2" t="inlineStr">
         <is>
-          <t>A health-related behaviour that involves maintenance or improvement of flexibility, strength, balance or cardiovascular fitness.</t>
+          <t>A physical contact behaviour that is forceful.</t>
         </is>
       </c>
       <c r="E95" s="2" t="inlineStr"/>
       <c r="F95" s="2" t="inlineStr"/>
       <c r="G95" s="2" t="inlineStr">
         <is>
-          <t>health-related behaviour</t>
-        </is>
-      </c>
-      <c r="H95" s="2" t="inlineStr"/>
+          <t>physical contact behaviour</t>
+        </is>
+      </c>
+      <c r="H95" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I95" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -6648,18 +6642,20 @@
       <c r="S95" s="2" t="inlineStr"/>
       <c r="T95" s="2" t="inlineStr">
         <is>
-          <t>Swimming, Engaging in regular physical activity, Exercising, Playing recreational sport</t>
-        </is>
-      </c>
-      <c r="U95" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V95" s="2" t="inlineStr"/>
+          <t>Pushing, Kicking, Punching</t>
+        </is>
+      </c>
+      <c r="U95" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V95" s="2" t="inlineStr">
+        <is>
+          <t>The degree of force is not precisely specified.</t>
+        </is>
+      </c>
       <c r="W95" s="2" t="inlineStr">
         <is>
-          <t>OC; PS</t>
+          <t>RW; OC</t>
         </is>
       </c>
       <c r="X95" s="2" t="inlineStr">
@@ -6673,25 +6669,25 @@
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036089</t>
+          <t>BCIO:036042</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
         <is>
-          <t>political behaviour</t>
+          <t>physical performance behaviour</t>
         </is>
       </c>
       <c r="C96" s="2" t="inlineStr"/>
       <c r="D96" s="2" t="inlineStr">
         <is>
-          <t>A socially-related behaviour that aims to bring about or oppose political or social change.</t>
+          <t>A health-related behaviour that involves maintenance or improvement of flexibility, strength, balance or cardiovascular fitness.</t>
         </is>
       </c>
       <c r="E96" s="2" t="inlineStr"/>
       <c r="F96" s="2" t="inlineStr"/>
       <c r="G96" s="2" t="inlineStr">
         <is>
-          <t>socially-related behaviour</t>
+          <t>health-related behaviour</t>
         </is>
       </c>
       <c r="H96" s="2" t="inlineStr"/>
@@ -6712,7 +6708,7 @@
       <c r="S96" s="2" t="inlineStr"/>
       <c r="T96" s="2" t="inlineStr">
         <is>
-          <t>Voting, Supporting a political campaign, Engaging in political activism, Engaging in protest, Engaging in boycotts, Engaging in strikes, Political opposition, Campaigning to be elected</t>
+          <t>Swimming, Engaging in regular physical activity, Exercising, Playing recreational sport</t>
         </is>
       </c>
       <c r="U96" s="2" t="inlineStr">
@@ -6737,25 +6733,25 @@
     <row r="97">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050440</t>
+          <t>BCIO:036089</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
         <is>
-          <t>position-related behaviour</t>
+          <t>political behaviour</t>
         </is>
       </c>
       <c r="C97" s="2" t="inlineStr"/>
       <c r="D97" s="2" t="inlineStr">
         <is>
-          <t>An individual human behaviour that relates to the enactor's posture or location.</t>
+          <t>A socially-related behaviour that aims to bring about or oppose political or social change.</t>
         </is>
       </c>
       <c r="E97" s="2" t="inlineStr"/>
       <c r="F97" s="2" t="inlineStr"/>
       <c r="G97" s="2" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t>socially-related behaviour</t>
         </is>
       </c>
       <c r="H97" s="2" t="inlineStr"/>
@@ -6774,7 +6770,11 @@
       <c r="Q97" s="2" t="inlineStr"/>
       <c r="R97" s="2" t="inlineStr"/>
       <c r="S97" s="2" t="inlineStr"/>
-      <c r="T97" s="2" t="inlineStr"/>
+      <c r="T97" s="2" t="inlineStr">
+        <is>
+          <t>Voting, Supporting a political campaign, Engaging in political activism, Engaging in protest, Engaging in boycotts, Engaging in strikes, Political opposition, Campaigning to be elected</t>
+        </is>
+      </c>
       <c r="U97" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -6783,7 +6783,7 @@
       <c r="V97" s="2" t="inlineStr"/>
       <c r="W97" s="2" t="inlineStr">
         <is>
-          <t>PS; RW</t>
+          <t>OC; PS</t>
         </is>
       </c>
       <c r="X97" s="2" t="inlineStr">
@@ -6797,32 +6797,28 @@
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036029</t>
+          <t>BCIO:050440</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">posture behaviour </t>
+          <t>position-related behaviour</t>
         </is>
       </c>
       <c r="C98" s="2" t="inlineStr"/>
       <c r="D98" s="2" t="inlineStr">
         <is>
-          <t>A position-related behaviour that involves adopting a body configuration in relation to the immediate environment.</t>
+          <t>An individual human behaviour that relates to the enactor's posture or location.</t>
         </is>
       </c>
       <c r="E98" s="2" t="inlineStr"/>
       <c r="F98" s="2" t="inlineStr"/>
       <c r="G98" s="2" t="inlineStr">
         <is>
-          <t>position-related behaviour</t>
-        </is>
-      </c>
-      <c r="H98" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>individual human behaviour</t>
+        </is>
+      </c>
+      <c r="H98" s="2" t="inlineStr"/>
       <c r="I98" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -6847,7 +6843,7 @@
       <c r="V98" s="2" t="inlineStr"/>
       <c r="W98" s="2" t="inlineStr">
         <is>
-          <t>RW; OC; PS</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="X98" s="2" t="inlineStr">
@@ -6861,28 +6857,32 @@
     <row r="99">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050354</t>
+          <t>BCIO:036029</t>
         </is>
       </c>
       <c r="B99" s="2" t="inlineStr">
         <is>
-          <t>prescribing behaviour</t>
+          <t xml:space="preserve">posture behaviour </t>
         </is>
       </c>
       <c r="C99" s="2" t="inlineStr"/>
       <c r="D99" s="2" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves advising and authorising the use of a treatment to improve or maintain another person's health or wellbeing.</t>
+          <t>A position-related behaviour that involves adopting a body configuration in relation to the immediate environment.</t>
         </is>
       </c>
       <c r="E99" s="2" t="inlineStr"/>
       <c r="F99" s="2" t="inlineStr"/>
       <c r="G99" s="2" t="inlineStr">
         <is>
-          <t>providing healthcare</t>
-        </is>
-      </c>
-      <c r="H99" s="2" t="inlineStr"/>
+          <t>position-related behaviour</t>
+        </is>
+      </c>
+      <c r="H99" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I99" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -6907,7 +6907,7 @@
       <c r="V99" s="2" t="inlineStr"/>
       <c r="W99" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW; OC; PS</t>
         </is>
       </c>
       <c r="X99" s="2" t="inlineStr">
@@ -6921,25 +6921,25 @@
     <row r="100">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050356</t>
+          <t>BCIO:050354</t>
         </is>
       </c>
       <c r="B100" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">prescribing behavioural regime </t>
+          <t>prescribing behaviour</t>
         </is>
       </c>
       <c r="C100" s="2" t="inlineStr"/>
       <c r="D100" s="2" t="inlineStr">
         <is>
-          <t>Prescribing behaviour that involves advising and authorising the performance of a behaviour or a series of behaviours.</t>
+          <t>Providing healthcare that involves advising and authorising the use of a treatment to improve or maintain another person's health or wellbeing.</t>
         </is>
       </c>
       <c r="E100" s="2" t="inlineStr"/>
       <c r="F100" s="2" t="inlineStr"/>
       <c r="G100" s="2" t="inlineStr">
         <is>
-          <t>prescribing behaviour</t>
+          <t>providing healthcare</t>
         </is>
       </c>
       <c r="H100" s="2" t="inlineStr"/>
@@ -6981,18 +6981,18 @@
     <row r="101">
       <c r="A101" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050355</t>
+          <t>BCIO:050356</t>
         </is>
       </c>
       <c r="B101" s="2" t="inlineStr">
         <is>
-          <t>prescribing medication</t>
+          <t xml:space="preserve">prescribing behavioural regime </t>
         </is>
       </c>
       <c r="C101" s="2" t="inlineStr"/>
       <c r="D101" s="2" t="inlineStr">
         <is>
-          <t>Prescribing behaviour that involves advising and authorising the use of a medicine.</t>
+          <t>Prescribing behaviour that involves advising and authorising the performance of a behaviour or a series of behaviours.</t>
         </is>
       </c>
       <c r="E101" s="2" t="inlineStr"/>
@@ -7017,12 +7017,7 @@
       <c r="P101" s="2" t="inlineStr"/>
       <c r="Q101" s="2" t="inlineStr"/>
       <c r="R101" s="2" t="inlineStr"/>
-      <c r="S101" s="2" t="inlineStr">
-        <is>
-          <t>Medicine is defined as type of drug, i.e., ‘any substance which when absorbed into a living organism may modify one or more of its functions.’ (http://purl.obolibrary.org/obo/CHEBI_23888)
-Prescribing medication can include advising and authorising to stop using a medicine.</t>
-        </is>
-      </c>
+      <c r="S101" s="2" t="inlineStr"/>
       <c r="T101" s="2" t="inlineStr"/>
       <c r="U101" s="2" t="inlineStr">
         <is>
@@ -7046,25 +7041,25 @@
     <row r="102">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036066</t>
+          <t>BCIO:050355</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">pro-social behaviour </t>
+          <t>prescribing medication</t>
         </is>
       </c>
       <c r="C102" s="2" t="inlineStr"/>
       <c r="D102" s="2" t="inlineStr">
         <is>
-          <t>A socially-related behaviour that a population judges to accord with current norms of positive social conduct.</t>
+          <t>Prescribing behaviour that involves advising and authorising the use of a medicine.</t>
         </is>
       </c>
       <c r="E102" s="2" t="inlineStr"/>
       <c r="F102" s="2" t="inlineStr"/>
       <c r="G102" s="2" t="inlineStr">
         <is>
-          <t>socially-related behaviour</t>
+          <t>prescribing behaviour</t>
         </is>
       </c>
       <c r="H102" s="2" t="inlineStr"/>
@@ -7082,12 +7077,13 @@
       <c r="P102" s="2" t="inlineStr"/>
       <c r="Q102" s="2" t="inlineStr"/>
       <c r="R102" s="2" t="inlineStr"/>
-      <c r="S102" s="2" t="inlineStr"/>
-      <c r="T102" s="2" t="inlineStr">
-        <is>
-          <t>Advocating, Recycling, Donating, Charitable giving, Charitable working, Volunteering, Participating in research, Co-operation, Altruism, Sharing food, Helping others</t>
-        </is>
-      </c>
+      <c r="S102" s="2" t="inlineStr">
+        <is>
+          <t>Medicine is defined as type of drug, i.e., ‘any substance which when absorbed into a living organism may modify one or more of its functions.’ (http://purl.obolibrary.org/obo/CHEBI_23888)
+Prescribing medication can include advising and authorising to stop using a medicine.</t>
+        </is>
+      </c>
+      <c r="T102" s="2" t="inlineStr"/>
       <c r="U102" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -7096,7 +7092,7 @@
       <c r="V102" s="2" t="inlineStr"/>
       <c r="W102" s="2" t="inlineStr">
         <is>
-          <t>OC; PS</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X102" s="2" t="inlineStr">
@@ -7110,36 +7106,28 @@
     <row r="103">
       <c r="A103" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036107</t>
+          <t>BCIO:036066</t>
         </is>
       </c>
       <c r="B103" s="2" t="inlineStr">
         <is>
-          <t>process aggregate</t>
-        </is>
-      </c>
-      <c r="C103" s="2" t="inlineStr">
-        <is>
-          <t>Processes that repeat over time.</t>
-        </is>
-      </c>
+          <t xml:space="preserve">pro-social behaviour </t>
+        </is>
+      </c>
+      <c r="C103" s="2" t="inlineStr"/>
       <c r="D103" s="2" t="inlineStr">
         <is>
-          <t>An occurrent consisting exactly of a plurality of processes that are process_aggregate_member_parts_of that occurrent for all times at which it exists.</t>
+          <t>A socially-related behaviour that a population judges to accord with current norms of positive social conduct.</t>
         </is>
       </c>
       <c r="E103" s="2" t="inlineStr"/>
       <c r="F103" s="2" t="inlineStr"/>
       <c r="G103" s="2" t="inlineStr">
         <is>
-          <t>occurrent</t>
-        </is>
-      </c>
-      <c r="H103" s="2" t="inlineStr">
-        <is>
-          <t>occurrent</t>
-        </is>
-      </c>
+          <t>socially-related behaviour</t>
+        </is>
+      </c>
+      <c r="H103" s="2" t="inlineStr"/>
       <c r="I103" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -7151,15 +7139,15 @@
       <c r="M103" s="2" t="inlineStr"/>
       <c r="N103" s="2" t="inlineStr"/>
       <c r="O103" s="2" t="inlineStr"/>
-      <c r="P103" s="2" t="inlineStr">
-        <is>
-          <t>Process aggregate extends BFO in the same way that object aggregate extends its coverage of material entities. It is required to be able to classify occurrents such as behaviour patterns that are repeated occurrences of classes of process that have properties such as average frequency of occurrence (not to be confused with frequency as a process profile) and temporal patterning of occurrences.</t>
-        </is>
-      </c>
+      <c r="P103" s="2" t="inlineStr"/>
       <c r="Q103" s="2" t="inlineStr"/>
       <c r="R103" s="2" t="inlineStr"/>
       <c r="S103" s="2" t="inlineStr"/>
-      <c r="T103" s="2" t="inlineStr"/>
+      <c r="T103" s="2" t="inlineStr">
+        <is>
+          <t>Advocating, Recycling, Donating, Charitable giving, Charitable working, Volunteering, Participating in research, Co-operation, Altruism, Sharing food, Helping others</t>
+        </is>
+      </c>
       <c r="U103" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -7168,7 +7156,7 @@
       <c r="V103" s="2" t="inlineStr"/>
       <c r="W103" s="2" t="inlineStr">
         <is>
-          <t>RW; JH</t>
+          <t>OC; PS</t>
         </is>
       </c>
       <c r="X103" s="2" t="inlineStr">
@@ -7182,28 +7170,36 @@
     <row r="104">
       <c r="A104" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050365</t>
+          <t>BCIO:036107</t>
         </is>
       </c>
       <c r="B104" s="2" t="inlineStr">
         <is>
-          <t>providing creative arts therapy</t>
-        </is>
-      </c>
-      <c r="C104" s="2" t="inlineStr"/>
+          <t>process aggregate</t>
+        </is>
+      </c>
+      <c r="C104" s="2" t="inlineStr">
+        <is>
+          <t>Processes that repeat over time.</t>
+        </is>
+      </c>
       <c r="D104" s="2" t="inlineStr">
         <is>
-          <t>Providing psychological treatment that involves creative and expressive processes.</t>
+          <t>An occurrent consisting exactly of a plurality of processes that are process_aggregate_member_parts_of that occurrent for all times at which it exists.</t>
         </is>
       </c>
       <c r="E104" s="2" t="inlineStr"/>
       <c r="F104" s="2" t="inlineStr"/>
       <c r="G104" s="2" t="inlineStr">
         <is>
-          <t>providing psychological treatment</t>
-        </is>
-      </c>
-      <c r="H104" s="2" t="inlineStr"/>
+          <t>occurrent</t>
+        </is>
+      </c>
+      <c r="H104" s="2" t="inlineStr">
+        <is>
+          <t>occurrent</t>
+        </is>
+      </c>
       <c r="I104" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -7215,7 +7211,11 @@
       <c r="M104" s="2" t="inlineStr"/>
       <c r="N104" s="2" t="inlineStr"/>
       <c r="O104" s="2" t="inlineStr"/>
-      <c r="P104" s="2" t="inlineStr"/>
+      <c r="P104" s="2" t="inlineStr">
+        <is>
+          <t>Process aggregate extends BFO in the same way that object aggregate extends its coverage of material entities. It is required to be able to classify occurrents such as behaviour patterns that are repeated occurrences of classes of process that have properties such as average frequency of occurrence (not to be confused with frequency as a process profile) and temporal patterning of occurrences.</t>
+        </is>
+      </c>
       <c r="Q104" s="2" t="inlineStr"/>
       <c r="R104" s="2" t="inlineStr"/>
       <c r="S104" s="2" t="inlineStr"/>
@@ -7228,7 +7228,7 @@
       <c r="V104" s="2" t="inlineStr"/>
       <c r="W104" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW; JH</t>
         </is>
       </c>
       <c r="X104" s="2" t="inlineStr">
@@ -7242,25 +7242,25 @@
     <row r="105">
       <c r="A105" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050413</t>
+          <t>BCIO:050365</t>
         </is>
       </c>
       <c r="B105" s="2" t="inlineStr">
         <is>
-          <t>providing healthcare</t>
+          <t>providing creative arts therapy</t>
         </is>
       </c>
       <c r="C105" s="2" t="inlineStr"/>
       <c r="D105" s="2" t="inlineStr">
         <is>
-          <t>A health-related behaviour that involves assessing, monitoring, improving or maintaining an aspect of another person’s health.</t>
+          <t>Providing psychological treatment that involves creative and expressive processes.</t>
         </is>
       </c>
       <c r="E105" s="2" t="inlineStr"/>
       <c r="F105" s="2" t="inlineStr"/>
       <c r="G105" s="2" t="inlineStr">
         <is>
-          <t>health-related behaviour</t>
+          <t>providing psychological treatment</t>
         </is>
       </c>
       <c r="H105" s="2" t="inlineStr"/>
@@ -7302,25 +7302,25 @@
     <row r="106">
       <c r="A106" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050360</t>
+          <t>BCIO:050413</t>
         </is>
       </c>
       <c r="B106" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">providing healthcare advice </t>
+          <t>providing healthcare</t>
         </is>
       </c>
       <c r="C106" s="2" t="inlineStr"/>
       <c r="D106" s="2" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves communicating guidance or recommendations to improve or maintain another person’s health or wellbeing.</t>
+          <t>A health-related behaviour that involves assessing, monitoring, improving or maintaining an aspect of another person’s health.</t>
         </is>
       </c>
       <c r="E106" s="2" t="inlineStr"/>
       <c r="F106" s="2" t="inlineStr"/>
       <c r="G106" s="2" t="inlineStr">
         <is>
-          <t>providing healthcare</t>
+          <t>health-related behaviour</t>
         </is>
       </c>
       <c r="H106" s="2" t="inlineStr"/>
@@ -7362,18 +7362,18 @@
     <row r="107">
       <c r="A107" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050352</t>
+          <t>BCIO:050360</t>
         </is>
       </c>
       <c r="B107" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">providing healthcare testing </t>
+          <t xml:space="preserve">providing healthcare advice </t>
         </is>
       </c>
       <c r="C107" s="2" t="inlineStr"/>
       <c r="D107" s="2" t="inlineStr">
         <is>
-          <t>Providing a healthcare that involves a procedure to assess another person’s health or wellbeing.</t>
+          <t>Providing healthcare that involves communicating guidance or recommendations to improve or maintain another person’s health or wellbeing.</t>
         </is>
       </c>
       <c r="E107" s="2" t="inlineStr"/>
@@ -7422,18 +7422,18 @@
     <row r="108">
       <c r="A108" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050362</t>
+          <t>BCIO:050352</t>
         </is>
       </c>
       <c r="B108" s="2" t="inlineStr">
         <is>
-          <t>providing healthcare treatment</t>
+          <t xml:space="preserve">providing healthcare testing </t>
         </is>
       </c>
       <c r="C108" s="2" t="inlineStr"/>
       <c r="D108" s="2" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves interacting with a person to improve or maintain aspects of this person’s health or wellbeing.</t>
+          <t>Providing a healthcare that involves a procedure to assess another person’s health or wellbeing.</t>
         </is>
       </c>
       <c r="E108" s="2" t="inlineStr"/>
@@ -7482,25 +7482,25 @@
     <row r="109">
       <c r="A109" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050353</t>
+          <t>BCIO:050362</t>
         </is>
       </c>
       <c r="B109" s="2" t="inlineStr">
         <is>
-          <t>providing in health screening</t>
+          <t>providing healthcare treatment</t>
         </is>
       </c>
       <c r="C109" s="2" t="inlineStr"/>
       <c r="D109" s="2" t="inlineStr">
         <is>
-          <t>Providing healthcare testing to detect the presence of a health condition in a person who is asymptomatic for that condition.</t>
+          <t>Providing healthcare that involves interacting with a person to improve or maintain aspects of this person’s health or wellbeing.</t>
         </is>
       </c>
       <c r="E109" s="2" t="inlineStr"/>
       <c r="F109" s="2" t="inlineStr"/>
       <c r="G109" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">providing healthcare testing </t>
+          <t>providing healthcare</t>
         </is>
       </c>
       <c r="H109" s="2" t="inlineStr"/>
@@ -7542,25 +7542,25 @@
     <row r="110">
       <c r="A110" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050366</t>
+          <t>BCIO:050353</t>
         </is>
       </c>
       <c r="B110" s="2" t="inlineStr">
         <is>
-          <t>providing occupational therapy</t>
+          <t>providing in health screening</t>
         </is>
       </c>
       <c r="C110" s="2" t="inlineStr"/>
       <c r="D110" s="2" t="inlineStr">
         <is>
-          <t>Providing healthcare treatment that aims to enable people to participate in the activities of everyday life.</t>
+          <t>Providing healthcare testing to detect the presence of a health condition in a person who is asymptomatic for that condition.</t>
         </is>
       </c>
       <c r="E110" s="2" t="inlineStr"/>
       <c r="F110" s="2" t="inlineStr"/>
       <c r="G110" s="2" t="inlineStr">
         <is>
-          <t>providing healthcare treatment</t>
+          <t xml:space="preserve">providing healthcare testing </t>
         </is>
       </c>
       <c r="H110" s="2" t="inlineStr"/>
@@ -7602,18 +7602,18 @@
     <row r="111">
       <c r="A111" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050363</t>
+          <t>BCIO:050366</t>
         </is>
       </c>
       <c r="B111" s="2" t="inlineStr">
         <is>
-          <t>providing physical therapy</t>
+          <t>providing occupational therapy</t>
         </is>
       </c>
       <c r="C111" s="2" t="inlineStr"/>
       <c r="D111" s="2" t="inlineStr">
         <is>
-          <t>Providing healthcare treatment that involves advising, encouraging or physically supporting, a person to perform movements that remediate this person’s bodily impairments or promote mobility, function or quality of life.</t>
+          <t>Providing healthcare treatment that aims to enable people to participate in the activities of everyday life.</t>
         </is>
       </c>
       <c r="E111" s="2" t="inlineStr"/>
@@ -7662,18 +7662,18 @@
     <row r="112">
       <c r="A112" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050364</t>
+          <t>BCIO:050363</t>
         </is>
       </c>
       <c r="B112" s="2" t="inlineStr">
         <is>
-          <t>providing psychological treatment</t>
+          <t>providing physical therapy</t>
         </is>
       </c>
       <c r="C112" s="2" t="inlineStr"/>
       <c r="D112" s="2" t="inlineStr">
         <is>
-          <t>Providing healthcare treatment that uses communication or recommended tasks to assess and improve a person’s adaptive mental or behavioural functioning.</t>
+          <t>Providing healthcare treatment that involves advising, encouraging or physically supporting, a person to perform movements that remediate this person’s bodily impairments or promote mobility, function or quality of life.</t>
         </is>
       </c>
       <c r="E112" s="2" t="inlineStr"/>
@@ -7722,18 +7722,18 @@
     <row r="113">
       <c r="A113" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050367</t>
+          <t>BCIO:050364</t>
         </is>
       </c>
       <c r="B113" s="2" t="inlineStr">
         <is>
-          <t>providing speech and language therapy</t>
+          <t>providing psychological treatment</t>
         </is>
       </c>
       <c r="C113" s="2" t="inlineStr"/>
       <c r="D113" s="2" t="inlineStr">
         <is>
-          <t>Providing healthcare treatment that aims to improve or restore communication, eating, drinking or swallowing.</t>
+          <t>Providing healthcare treatment that uses communication or recommended tasks to assess and improve a person’s adaptive mental or behavioural functioning.</t>
         </is>
       </c>
       <c r="E113" s="2" t="inlineStr"/>
@@ -7782,25 +7782,25 @@
     <row r="114">
       <c r="A114" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036063</t>
+          <t>BCIO:050367</t>
         </is>
       </c>
       <c r="B114" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">reading behaviour </t>
+          <t>providing speech and language therapy</t>
         </is>
       </c>
       <c r="C114" s="2" t="inlineStr"/>
       <c r="D114" s="2" t="inlineStr">
         <is>
-          <t>An object-using behaviour that involves deriving meaning from written or printed symbols.</t>
+          <t>Providing healthcare treatment that aims to improve or restore communication, eating, drinking or swallowing.</t>
         </is>
       </c>
       <c r="E114" s="2" t="inlineStr"/>
       <c r="F114" s="2" t="inlineStr"/>
       <c r="G114" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">object-using behaviour </t>
+          <t>providing healthcare treatment</t>
         </is>
       </c>
       <c r="H114" s="2" t="inlineStr"/>
@@ -7828,7 +7828,7 @@
       <c r="V114" s="2" t="inlineStr"/>
       <c r="W114" s="2" t="inlineStr">
         <is>
-          <t>OC</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X114" s="2" t="inlineStr">
@@ -7842,25 +7842,25 @@
     <row r="115">
       <c r="A115" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036068</t>
+          <t>BCIO:036063</t>
         </is>
       </c>
       <c r="B115" s="2" t="inlineStr">
         <is>
-          <t>reclining</t>
+          <t xml:space="preserve">reading behaviour </t>
         </is>
       </c>
       <c r="C115" s="2" t="inlineStr"/>
       <c r="D115" s="2" t="inlineStr">
         <is>
-          <t>A posture behaviour in which one's weight is supported by one's buttocks and back rather than one's feet, and in which one's back rests on a surface at an angle that is greater than 90 degrees and less than 180 degrees.</t>
+          <t>An object-using behaviour that involves deriving meaning from written or printed symbols.</t>
         </is>
       </c>
       <c r="E115" s="2" t="inlineStr"/>
       <c r="F115" s="2" t="inlineStr"/>
       <c r="G115" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">posture behaviour </t>
+          <t xml:space="preserve">object-using behaviour </t>
         </is>
       </c>
       <c r="H115" s="2" t="inlineStr"/>
@@ -7902,25 +7902,25 @@
     <row r="116">
       <c r="A116" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050444</t>
+          <t>BCIO:036068</t>
         </is>
       </c>
       <c r="B116" s="2" t="inlineStr">
         <is>
-          <t>reflectiveness</t>
+          <t>reclining</t>
         </is>
       </c>
       <c r="C116" s="2" t="inlineStr"/>
       <c r="D116" s="2" t="inlineStr">
         <is>
-          <t>A behaviour attribute in which the behaviour is a response to reflective motivation or thinking.</t>
+          <t>A posture behaviour in which one's weight is supported by one's buttocks and back rather than one's feet, and in which one's back rests on a surface at an angle that is greater than 90 degrees and less than 180 degrees.</t>
         </is>
       </c>
       <c r="E116" s="2" t="inlineStr"/>
       <c r="F116" s="2" t="inlineStr"/>
       <c r="G116" s="2" t="inlineStr">
         <is>
-          <t>behaviour attribute</t>
+          <t xml:space="preserve">posture behaviour </t>
         </is>
       </c>
       <c r="H116" s="2" t="inlineStr"/>
@@ -7948,7 +7948,7 @@
       <c r="V116" s="2" t="inlineStr"/>
       <c r="W116" s="2" t="inlineStr">
         <is>
-          <t>PS; RW</t>
+          <t>OC</t>
         </is>
       </c>
       <c r="X116" s="2" t="inlineStr">
@@ -7962,25 +7962,25 @@
     <row r="117">
       <c r="A117" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036056</t>
+          <t>BCIO:050444</t>
         </is>
       </c>
       <c r="B117" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">reproductive behaviour </t>
+          <t>reflectiveness</t>
         </is>
       </c>
       <c r="C117" s="2" t="inlineStr"/>
       <c r="D117" s="2" t="inlineStr">
         <is>
-          <t>A life function-related behaviour that involves producing offspring based on combining DNA of two or more people.</t>
+          <t>A behaviour attribute in which the behaviour is a response to reflective motivation or thinking.</t>
         </is>
       </c>
       <c r="E117" s="2" t="inlineStr"/>
       <c r="F117" s="2" t="inlineStr"/>
       <c r="G117" s="2" t="inlineStr">
         <is>
-          <t>life function-related behaviour</t>
+          <t>behaviour attribute</t>
         </is>
       </c>
       <c r="H117" s="2" t="inlineStr"/>
@@ -7998,16 +7998,8 @@
       <c r="P117" s="2" t="inlineStr"/>
       <c r="Q117" s="2" t="inlineStr"/>
       <c r="R117" s="2" t="inlineStr"/>
-      <c r="S117" s="2" t="inlineStr">
-        <is>
-          <t>The classes 'reproductive behaviour' and 'sexual behaviour' have some instances in which they would overlap. For instance, a subclass of both of these classes would be 'reproductive sexual behaviour'. Examples for 'reproductive sexual behaviour' can be annotated by using the two classes: 'reproductive behaviour' and 'sexual behaviour'. There are also various examples in which the classes 'reproductive behaviour' does not overlap with sexual behaviour. For instance, fertility preservation would be a reproductive behaviour but not a sexual behaviour. Similarly, various sexual behaviours do not have a reproductive function. For instance, performing oral sex may not have a reproductive function.</t>
-        </is>
-      </c>
-      <c r="T117" s="2" t="inlineStr">
-        <is>
-          <t>Fertility preservation</t>
-        </is>
-      </c>
+      <c r="S117" s="2" t="inlineStr"/>
+      <c r="T117" s="2" t="inlineStr"/>
       <c r="U117" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -8016,7 +8008,7 @@
       <c r="V117" s="2" t="inlineStr"/>
       <c r="W117" s="2" t="inlineStr">
         <is>
-          <t>OC; PS</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="X117" s="2" t="inlineStr">
@@ -8030,25 +8022,25 @@
     <row r="118">
       <c r="A118" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050358</t>
+          <t>BCIO:036056</t>
         </is>
       </c>
       <c r="B118" s="2" t="inlineStr">
         <is>
-          <t>reviewing prescribed medication</t>
+          <t xml:space="preserve">reproductive behaviour </t>
         </is>
       </c>
       <c r="C118" s="2" t="inlineStr"/>
       <c r="D118" s="2" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves assessing a person's health or wellbeing after a period of taking a prescribed medication and assessing whether the medication continues to be appropriate.</t>
+          <t>A life function-related behaviour that involves producing offspring based on combining DNA of two or more people.</t>
         </is>
       </c>
       <c r="E118" s="2" t="inlineStr"/>
       <c r="F118" s="2" t="inlineStr"/>
       <c r="G118" s="2" t="inlineStr">
         <is>
-          <t>providing healthcare</t>
+          <t>life function-related behaviour</t>
         </is>
       </c>
       <c r="H118" s="2" t="inlineStr"/>
@@ -8066,8 +8058,16 @@
       <c r="P118" s="2" t="inlineStr"/>
       <c r="Q118" s="2" t="inlineStr"/>
       <c r="R118" s="2" t="inlineStr"/>
-      <c r="S118" s="2" t="inlineStr"/>
-      <c r="T118" s="2" t="inlineStr"/>
+      <c r="S118" s="2" t="inlineStr">
+        <is>
+          <t>The classes 'reproductive behaviour' and 'sexual behaviour' have some instances in which they would overlap. For instance, a subclass of both of these classes would be 'reproductive sexual behaviour'. Examples for 'reproductive sexual behaviour' can be annotated by using the two classes: 'reproductive behaviour' and 'sexual behaviour'. There are also various examples in which the classes 'reproductive behaviour' does not overlap with sexual behaviour. For instance, fertility preservation would be a reproductive behaviour but not a sexual behaviour. Similarly, various sexual behaviours do not have a reproductive function. For instance, performing oral sex may not have a reproductive function.</t>
+        </is>
+      </c>
+      <c r="T118" s="2" t="inlineStr">
+        <is>
+          <t>Fertility preservation</t>
+        </is>
+      </c>
       <c r="U118" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -8076,7 +8076,7 @@
       <c r="V118" s="2" t="inlineStr"/>
       <c r="W118" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>OC; PS</t>
         </is>
       </c>
       <c r="X118" s="2" t="inlineStr">
@@ -8090,25 +8090,25 @@
     <row r="119">
       <c r="A119" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050415</t>
+          <t>BCIO:050358</t>
         </is>
       </c>
       <c r="B119" s="2" t="inlineStr">
         <is>
-          <t>self-injecting consumption</t>
+          <t>reviewing prescribed medication</t>
         </is>
       </c>
       <c r="C119" s="2" t="inlineStr"/>
       <c r="D119" s="2" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves administering a liquid into one’s body with a needle and a syringe.</t>
+          <t>Providing healthcare that involves assessing a person's health or wellbeing after a period of taking a prescribed medication and assessing whether the medication continues to be appropriate.</t>
         </is>
       </c>
       <c r="E119" s="2" t="inlineStr"/>
       <c r="F119" s="2" t="inlineStr"/>
       <c r="G119" s="2" t="inlineStr">
         <is>
-          <t>consumption behaviour</t>
+          <t>providing healthcare</t>
         </is>
       </c>
       <c r="H119" s="2" t="inlineStr"/>
@@ -8126,11 +8126,7 @@
       <c r="P119" s="2" t="inlineStr"/>
       <c r="Q119" s="2" t="inlineStr"/>
       <c r="R119" s="2" t="inlineStr"/>
-      <c r="S119" s="2" t="inlineStr">
-        <is>
-          <t>In the definition, ‘a needle and a springe’ include both a standard needle and syringe but also an autoinjector.</t>
-        </is>
-      </c>
+      <c r="S119" s="2" t="inlineStr"/>
       <c r="T119" s="2" t="inlineStr"/>
       <c r="U119" s="2" t="inlineStr">
         <is>
@@ -8154,25 +8150,25 @@
     <row r="120">
       <c r="A120" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036014</t>
+          <t>BCIO:050415</t>
         </is>
       </c>
       <c r="B120" s="2" t="inlineStr">
         <is>
-          <t>self-injury behaviour</t>
+          <t>self-injecting consumption</t>
         </is>
       </c>
       <c r="C120" s="2" t="inlineStr"/>
       <c r="D120" s="2" t="inlineStr">
         <is>
-          <t>A harmful behaviour that involves intentionally causing oneself physical harm.</t>
+          <t>A consumption behaviour that involves administering a liquid into one’s body with a needle and a syringe.</t>
         </is>
       </c>
       <c r="E120" s="2" t="inlineStr"/>
       <c r="F120" s="2" t="inlineStr"/>
       <c r="G120" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">harmful behaviour </t>
+          <t>consumption behaviour</t>
         </is>
       </c>
       <c r="H120" s="2" t="inlineStr"/>
@@ -8192,14 +8188,10 @@
       <c r="R120" s="2" t="inlineStr"/>
       <c r="S120" s="2" t="inlineStr">
         <is>
-          <t>There can be different reasons for engaging in self-injury behaviours, including to deal with difficult feelings and memories.</t>
-        </is>
-      </c>
-      <c r="T120" s="2" t="inlineStr">
-        <is>
-          <t>Intentional overdose</t>
-        </is>
-      </c>
+          <t>In the definition, ‘a needle and a springe’ include both a standard needle and syringe but also an autoinjector.</t>
+        </is>
+      </c>
+      <c r="T120" s="2" t="inlineStr"/>
       <c r="U120" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -8208,7 +8200,7 @@
       <c r="V120" s="2" t="inlineStr"/>
       <c r="W120" s="2" t="inlineStr">
         <is>
-          <t>OC; PS</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X120" s="2" t="inlineStr">
@@ -8222,25 +8214,25 @@
     <row r="121">
       <c r="A121" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050410</t>
+          <t>BCIO:036014</t>
         </is>
       </c>
       <c r="B121" s="2" t="inlineStr">
         <is>
-          <t>self-monitoring an aspect of health</t>
+          <t>self-injury behaviour</t>
         </is>
       </c>
       <c r="C121" s="2" t="inlineStr"/>
       <c r="D121" s="2" t="inlineStr">
         <is>
-          <t>A health-related behaviour that uses a method to monitor and record an indicator of one’s health or wellbeing.</t>
+          <t>A harmful behaviour that involves intentionally causing oneself physical harm.</t>
         </is>
       </c>
       <c r="E121" s="2" t="inlineStr"/>
       <c r="F121" s="2" t="inlineStr"/>
       <c r="G121" s="2" t="inlineStr">
         <is>
-          <t>health-related behaviour</t>
+          <t xml:space="preserve">harmful behaviour </t>
         </is>
       </c>
       <c r="H121" s="2" t="inlineStr"/>
@@ -8258,8 +8250,16 @@
       <c r="P121" s="2" t="inlineStr"/>
       <c r="Q121" s="2" t="inlineStr"/>
       <c r="R121" s="2" t="inlineStr"/>
-      <c r="S121" s="2" t="inlineStr"/>
-      <c r="T121" s="2" t="inlineStr"/>
+      <c r="S121" s="2" t="inlineStr">
+        <is>
+          <t>There can be different reasons for engaging in self-injury behaviours, including to deal with difficult feelings and memories.</t>
+        </is>
+      </c>
+      <c r="T121" s="2" t="inlineStr">
+        <is>
+          <t>Intentional overdose</t>
+        </is>
+      </c>
       <c r="U121" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -8268,7 +8268,7 @@
       <c r="V121" s="2" t="inlineStr"/>
       <c r="W121" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>OC; PS</t>
         </is>
       </c>
       <c r="X121" s="2" t="inlineStr">
@@ -8282,32 +8282,28 @@
     <row r="122">
       <c r="A122" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036030</t>
+          <t>BCIO:050410</t>
         </is>
       </c>
       <c r="B122" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">sexual behaviour  </t>
+          <t>self-monitoring an aspect of health</t>
         </is>
       </c>
       <c r="C122" s="2" t="inlineStr"/>
       <c r="D122" s="2" t="inlineStr">
         <is>
-          <t>A life function-related behaviour that involves sexual arousal.</t>
+          <t>A health-related behaviour that uses a method to monitor and record an indicator of one’s health or wellbeing.</t>
         </is>
       </c>
       <c r="E122" s="2" t="inlineStr"/>
       <c r="F122" s="2" t="inlineStr"/>
       <c r="G122" s="2" t="inlineStr">
         <is>
-          <t>life function-related behaviour</t>
-        </is>
-      </c>
-      <c r="H122" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>health-related behaviour</t>
+        </is>
+      </c>
+      <c r="H122" s="2" t="inlineStr"/>
       <c r="I122" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -8322,16 +8318,8 @@
       <c r="P122" s="2" t="inlineStr"/>
       <c r="Q122" s="2" t="inlineStr"/>
       <c r="R122" s="2" t="inlineStr"/>
-      <c r="S122" s="2" t="inlineStr">
-        <is>
-          <t>The classes 'reproductive behaviour' and 'sexual behaviour' have some instances in which they would overlap. For instance, a subclass of both of these classes would be 'reproductive sexual behaviour'. Examples for 'reproductive sexual behaviour' can be annotated by using the two classes: 'reproductive behaviour' and 'sexual behaviour'. There are also various examples in which the classes 'reproductive behaviour' does not overlap with sexual behaviour. For instance, fertility preservation would be a reproductive behaviour but not a sexual behaviour. Similarly, various sexual behaviours do not have a reproductive function. For instance, performing oral sex may not have a reproductive function.</t>
-        </is>
-      </c>
-      <c r="T122" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Copulating, Masturbating, Flirting, Having intercourse </t>
-        </is>
-      </c>
+      <c r="S122" s="2" t="inlineStr"/>
+      <c r="T122" s="2" t="inlineStr"/>
       <c r="U122" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -8340,7 +8328,7 @@
       <c r="V122" s="2" t="inlineStr"/>
       <c r="W122" s="2" t="inlineStr">
         <is>
-          <t>RW; OC; PS</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X122" s="2" t="inlineStr">
@@ -8354,28 +8342,32 @@
     <row r="123">
       <c r="A123" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036069</t>
+          <t>BCIO:036030</t>
         </is>
       </c>
       <c r="B123" s="2" t="inlineStr">
         <is>
-          <t>sitting</t>
+          <t xml:space="preserve">sexual behaviour  </t>
         </is>
       </c>
       <c r="C123" s="2" t="inlineStr"/>
       <c r="D123" s="2" t="inlineStr">
         <is>
-          <t>A posture behaviour in which one's weight is supported by one's buttocks rather than one's feet, and in which one's back is upright.</t>
+          <t>A life function-related behaviour that involves sexual arousal.</t>
         </is>
       </c>
       <c r="E123" s="2" t="inlineStr"/>
       <c r="F123" s="2" t="inlineStr"/>
       <c r="G123" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">posture behaviour </t>
-        </is>
-      </c>
-      <c r="H123" s="2" t="inlineStr"/>
+          <t>life function-related behaviour</t>
+        </is>
+      </c>
+      <c r="H123" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I123" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -8390,8 +8382,16 @@
       <c r="P123" s="2" t="inlineStr"/>
       <c r="Q123" s="2" t="inlineStr"/>
       <c r="R123" s="2" t="inlineStr"/>
-      <c r="S123" s="2" t="inlineStr"/>
-      <c r="T123" s="2" t="inlineStr"/>
+      <c r="S123" s="2" t="inlineStr">
+        <is>
+          <t>The classes 'reproductive behaviour' and 'sexual behaviour' have some instances in which they would overlap. For instance, a subclass of both of these classes would be 'reproductive sexual behaviour'. Examples for 'reproductive sexual behaviour' can be annotated by using the two classes: 'reproductive behaviour' and 'sexual behaviour'. There are also various examples in which the classes 'reproductive behaviour' does not overlap with sexual behaviour. For instance, fertility preservation would be a reproductive behaviour but not a sexual behaviour. Similarly, various sexual behaviours do not have a reproductive function. For instance, performing oral sex may not have a reproductive function.</t>
+        </is>
+      </c>
+      <c r="T123" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Copulating, Masturbating, Flirting, Having intercourse </t>
+        </is>
+      </c>
       <c r="U123" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -8400,7 +8400,7 @@
       <c r="V123" s="2" t="inlineStr"/>
       <c r="W123" s="2" t="inlineStr">
         <is>
-          <t>OC</t>
+          <t>RW; OC; PS</t>
         </is>
       </c>
       <c r="X123" s="2" t="inlineStr">
@@ -8414,25 +8414,25 @@
     <row r="124">
       <c r="A124" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036039</t>
+          <t>BCIO:036069</t>
         </is>
       </c>
       <c r="B124" s="2" t="inlineStr">
         <is>
-          <t>skill development behaviour</t>
+          <t>sitting</t>
         </is>
       </c>
       <c r="C124" s="2" t="inlineStr"/>
       <c r="D124" s="2" t="inlineStr">
         <is>
-          <t>A learning behaviour that involves improving the ability to perform physical, psychological or social activities.</t>
+          <t>A posture behaviour in which one's weight is supported by one's buttocks rather than one's feet, and in which one's back is upright.</t>
         </is>
       </c>
       <c r="E124" s="2" t="inlineStr"/>
       <c r="F124" s="2" t="inlineStr"/>
       <c r="G124" s="2" t="inlineStr">
         <is>
-          <t>learning behaviour</t>
+          <t xml:space="preserve">posture behaviour </t>
         </is>
       </c>
       <c r="H124" s="2" t="inlineStr"/>
@@ -8451,11 +8451,7 @@
       <c r="Q124" s="2" t="inlineStr"/>
       <c r="R124" s="2" t="inlineStr"/>
       <c r="S124" s="2" t="inlineStr"/>
-      <c r="T124" s="2" t="inlineStr">
-        <is>
-          <t>Training, Behavioural practice/rehearsal</t>
-        </is>
-      </c>
+      <c r="T124" s="2" t="inlineStr"/>
       <c r="U124" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -8464,7 +8460,7 @@
       <c r="V124" s="2" t="inlineStr"/>
       <c r="W124" s="2" t="inlineStr">
         <is>
-          <t>RW; OC; PS</t>
+          <t>OC</t>
         </is>
       </c>
       <c r="X124" s="2" t="inlineStr">
@@ -8478,25 +8474,25 @@
     <row r="125">
       <c r="A125" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050395</t>
+          <t>BCIO:036039</t>
         </is>
       </c>
       <c r="B125" s="2" t="inlineStr">
         <is>
-          <t>sniffing consumption</t>
+          <t>skill development behaviour</t>
         </is>
       </c>
       <c r="C125" s="2" t="inlineStr"/>
       <c r="D125" s="2" t="inlineStr">
         <is>
-          <t>Inhaling consumption that involves breathing in a material through the nose.</t>
+          <t>A learning behaviour that involves improving the ability to perform physical, psychological or social activities.</t>
         </is>
       </c>
       <c r="E125" s="2" t="inlineStr"/>
       <c r="F125" s="2" t="inlineStr"/>
       <c r="G125" s="2" t="inlineStr">
         <is>
-          <t>inhaling consumption</t>
+          <t>learning behaviour</t>
         </is>
       </c>
       <c r="H125" s="2" t="inlineStr"/>
@@ -8515,7 +8511,11 @@
       <c r="Q125" s="2" t="inlineStr"/>
       <c r="R125" s="2" t="inlineStr"/>
       <c r="S125" s="2" t="inlineStr"/>
-      <c r="T125" s="2" t="inlineStr"/>
+      <c r="T125" s="2" t="inlineStr">
+        <is>
+          <t>Training, Behavioural practice/rehearsal</t>
+        </is>
+      </c>
       <c r="U125" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -8524,7 +8524,7 @@
       <c r="V125" s="2" t="inlineStr"/>
       <c r="W125" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW; OC; PS</t>
         </is>
       </c>
       <c r="X125" s="2" t="inlineStr">
@@ -8538,32 +8538,28 @@
     <row r="126">
       <c r="A126" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036011</t>
+          <t>BCIO:050395</t>
         </is>
       </c>
       <c r="B126" s="2" t="inlineStr">
         <is>
-          <t>social organisation behaviour</t>
+          <t>sniffing consumption</t>
         </is>
       </c>
       <c r="C126" s="2" t="inlineStr"/>
       <c r="D126" s="2" t="inlineStr">
         <is>
-          <t>A socially-related behaviour that involves a person contributing to the functioning of a social structure or a person in relation to a social structure.</t>
+          <t>Inhaling consumption that involves breathing in a material through the nose.</t>
         </is>
       </c>
       <c r="E126" s="2" t="inlineStr"/>
       <c r="F126" s="2" t="inlineStr"/>
       <c r="G126" s="2" t="inlineStr">
         <is>
-          <t>socially-related behaviour</t>
-        </is>
-      </c>
-      <c r="H126" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>inhaling consumption</t>
+        </is>
+      </c>
+      <c r="H126" s="2" t="inlineStr"/>
       <c r="I126" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -8578,17 +8574,8 @@
       <c r="P126" s="2" t="inlineStr"/>
       <c r="Q126" s="2" t="inlineStr"/>
       <c r="R126" s="2" t="inlineStr"/>
-      <c r="S126" s="2" t="inlineStr">
-        <is>
-          <t>In the definition, the term 'contributing' can refer 'joining or integrating into a group or improving or maintaining the functioning within a group'
-'social structure' can relate to a social network or group.</t>
-        </is>
-      </c>
-      <c r="T126" s="2" t="inlineStr">
-        <is>
-          <t>Collaborating, coordinating gatherings</t>
-        </is>
-      </c>
+      <c r="S126" s="2" t="inlineStr"/>
+      <c r="T126" s="2" t="inlineStr"/>
       <c r="U126" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -8597,7 +8584,7 @@
       <c r="V126" s="2" t="inlineStr"/>
       <c r="W126" s="2" t="inlineStr">
         <is>
-          <t>RW; OC; PS</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X126" s="2" t="inlineStr">
@@ -8611,28 +8598,32 @@
     <row r="127">
       <c r="A127" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050357</t>
+          <t>BCIO:036011</t>
         </is>
       </c>
       <c r="B127" s="2" t="inlineStr">
         <is>
-          <t>social prescribing</t>
+          <t>social organisation behaviour</t>
         </is>
       </c>
       <c r="C127" s="2" t="inlineStr"/>
       <c r="D127" s="2" t="inlineStr">
         <is>
-          <t>Prescribing behaviour that involves advising and authorising the participation in services targeting social, economic or environmental factors that affect health or wellbeing.</t>
+          <t>A socially-related behaviour that involves a person contributing to the functioning of a social structure or a person in relation to a social structure.</t>
         </is>
       </c>
       <c r="E127" s="2" t="inlineStr"/>
       <c r="F127" s="2" t="inlineStr"/>
       <c r="G127" s="2" t="inlineStr">
         <is>
-          <t>prescribing behaviour</t>
-        </is>
-      </c>
-      <c r="H127" s="2" t="inlineStr"/>
+          <t>socially-related behaviour</t>
+        </is>
+      </c>
+      <c r="H127" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I127" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -8647,8 +8638,17 @@
       <c r="P127" s="2" t="inlineStr"/>
       <c r="Q127" s="2" t="inlineStr"/>
       <c r="R127" s="2" t="inlineStr"/>
-      <c r="S127" s="2" t="inlineStr"/>
-      <c r="T127" s="2" t="inlineStr"/>
+      <c r="S127" s="2" t="inlineStr">
+        <is>
+          <t>In the definition, the term 'contributing' can refer 'joining or integrating into a group or improving or maintaining the functioning within a group'
+'social structure' can relate to a social network or group.</t>
+        </is>
+      </c>
+      <c r="T127" s="2" t="inlineStr">
+        <is>
+          <t>Collaborating, coordinating gatherings</t>
+        </is>
+      </c>
       <c r="U127" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -8657,7 +8657,7 @@
       <c r="V127" s="2" t="inlineStr"/>
       <c r="W127" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW; OC; PS</t>
         </is>
       </c>
       <c r="X127" s="2" t="inlineStr">
@@ -8671,25 +8671,25 @@
     <row r="128">
       <c r="A128" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050397</t>
+          <t>BCIO:050357</t>
         </is>
       </c>
       <c r="B128" s="2" t="inlineStr">
         <is>
-          <t>social support behaviour</t>
+          <t>social prescribing</t>
         </is>
       </c>
       <c r="C128" s="2" t="inlineStr"/>
       <c r="D128" s="2" t="inlineStr">
         <is>
-          <t>An inter-personal behaviour that involves providing physical, psychological or social assistance to another.</t>
+          <t>Prescribing behaviour that involves advising and authorising the participation in services targeting social, economic or environmental factors that affect health or wellbeing.</t>
         </is>
       </c>
       <c r="E128" s="2" t="inlineStr"/>
       <c r="F128" s="2" t="inlineStr"/>
       <c r="G128" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">inter-personal behaviour </t>
+          <t>prescribing behaviour</t>
         </is>
       </c>
       <c r="H128" s="2" t="inlineStr"/>
@@ -8731,25 +8731,25 @@
     <row r="129">
       <c r="A129" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050441</t>
+          <t>BCIO:050397</t>
         </is>
       </c>
       <c r="B129" s="2" t="inlineStr">
         <is>
-          <t>socially-related behaviour</t>
+          <t>social support behaviour</t>
         </is>
       </c>
       <c r="C129" s="2" t="inlineStr"/>
       <c r="D129" s="2" t="inlineStr">
         <is>
-          <t>An individual human behaviour that relates to the social environment.</t>
+          <t>An inter-personal behaviour that involves providing physical, psychological or social assistance to another.</t>
         </is>
       </c>
       <c r="E129" s="2" t="inlineStr"/>
       <c r="F129" s="2" t="inlineStr"/>
       <c r="G129" s="2" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t xml:space="preserve">inter-personal behaviour </t>
         </is>
       </c>
       <c r="H129" s="2" t="inlineStr"/>
@@ -8777,7 +8777,7 @@
       <c r="V129" s="2" t="inlineStr"/>
       <c r="W129" s="2" t="inlineStr">
         <is>
-          <t>PS; RW</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X129" s="2" t="inlineStr">
@@ -8791,25 +8791,25 @@
     <row r="130">
       <c r="A130" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036112</t>
+          <t>BCIO:050441</t>
         </is>
       </c>
       <c r="B130" s="2" t="inlineStr">
         <is>
-          <t>spiritual behaviour</t>
+          <t>socially-related behaviour</t>
         </is>
       </c>
       <c r="C130" s="2" t="inlineStr"/>
       <c r="D130" s="2" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that is performed in line with a belief system that is grounded in reverence for a supernatural power or powers and provides meaning in life.</t>
+          <t>An individual human behaviour that relates to the social environment.</t>
         </is>
       </c>
       <c r="E130" s="2" t="inlineStr"/>
       <c r="F130" s="2" t="inlineStr"/>
       <c r="G130" s="2" t="inlineStr">
         <is>
-          <t>experience-related behaviour</t>
+          <t>individual human behaviour</t>
         </is>
       </c>
       <c r="H130" s="2" t="inlineStr"/>
@@ -8828,11 +8828,7 @@
       <c r="Q130" s="2" t="inlineStr"/>
       <c r="R130" s="2" t="inlineStr"/>
       <c r="S130" s="2" t="inlineStr"/>
-      <c r="T130" s="2" t="inlineStr">
-        <is>
-          <t>Praying, participating in rituals, meditation practices for spiritual purposes, fasting for spiritual purposes, participating in a silent retreat</t>
-        </is>
-      </c>
+      <c r="T130" s="2" t="inlineStr"/>
       <c r="U130" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -8841,7 +8837,7 @@
       <c r="V130" s="2" t="inlineStr"/>
       <c r="W130" s="2" t="inlineStr">
         <is>
-          <t>OC; JH; PS; RW</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="X130" s="2" t="inlineStr">
@@ -8855,25 +8851,25 @@
     <row r="131">
       <c r="A131" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036070</t>
+          <t>BCIO:036112</t>
         </is>
       </c>
       <c r="B131" s="2" t="inlineStr">
         <is>
-          <t>standing</t>
+          <t>spiritual behaviour</t>
         </is>
       </c>
       <c r="C131" s="2" t="inlineStr"/>
       <c r="D131" s="2" t="inlineStr">
         <is>
-          <t>A posture behaviour in which one has or is maintaining an upright position while supported by one's feet</t>
+          <t>An experience-related behaviour that is performed in line with a belief system that is grounded in reverence for a supernatural power or powers and provides meaning in life.</t>
         </is>
       </c>
       <c r="E131" s="2" t="inlineStr"/>
       <c r="F131" s="2" t="inlineStr"/>
       <c r="G131" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">posture behaviour </t>
+          <t>experience-related behaviour</t>
         </is>
       </c>
       <c r="H131" s="2" t="inlineStr"/>
@@ -8892,7 +8888,11 @@
       <c r="Q131" s="2" t="inlineStr"/>
       <c r="R131" s="2" t="inlineStr"/>
       <c r="S131" s="2" t="inlineStr"/>
-      <c r="T131" s="2" t="inlineStr"/>
+      <c r="T131" s="2" t="inlineStr">
+        <is>
+          <t>Praying, participating in rituals, meditation practices for spiritual purposes, fasting for spiritual purposes, participating in a silent retreat</t>
+        </is>
+      </c>
       <c r="U131" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -8901,7 +8901,7 @@
       <c r="V131" s="2" t="inlineStr"/>
       <c r="W131" s="2" t="inlineStr">
         <is>
-          <t>OC</t>
+          <t>OC; JH; PS; RW</t>
         </is>
       </c>
       <c r="X131" s="2" t="inlineStr">
@@ -8915,32 +8915,28 @@
     <row r="132">
       <c r="A132" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036113</t>
+          <t>BCIO:036070</t>
         </is>
       </c>
       <c r="B132" s="2" t="inlineStr">
         <is>
-          <t>substance use behaviour</t>
+          <t>standing</t>
         </is>
       </c>
       <c r="C132" s="2" t="inlineStr"/>
       <c r="D132" s="2" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves ingesting a psychoactive substance into the body.</t>
+          <t>A posture behaviour in which one has or is maintaining an upright position while supported by one's feet</t>
         </is>
       </c>
       <c r="E132" s="2" t="inlineStr"/>
       <c r="F132" s="2" t="inlineStr"/>
       <c r="G132" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">consumption behaviour </t>
-        </is>
-      </c>
-      <c r="H132" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t xml:space="preserve">posture behaviour </t>
+        </is>
+      </c>
+      <c r="H132" s="2" t="inlineStr"/>
       <c r="I132" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -8953,17 +8949,9 @@
       <c r="N132" s="2" t="inlineStr"/>
       <c r="O132" s="2" t="inlineStr"/>
       <c r="P132" s="2" t="inlineStr"/>
-      <c r="Q132" s="2" t="inlineStr">
-        <is>
-          <t>substance use</t>
-        </is>
-      </c>
+      <c r="Q132" s="2" t="inlineStr"/>
       <c r="R132" s="2" t="inlineStr"/>
-      <c r="S132" s="2" t="inlineStr">
-        <is>
-          <t>Substance use behaviour is not equated with substance abuse.</t>
-        </is>
-      </c>
+      <c r="S132" s="2" t="inlineStr"/>
       <c r="T132" s="2" t="inlineStr"/>
       <c r="U132" s="2" t="inlineStr">
         <is>
@@ -8973,7 +8961,7 @@
       <c r="V132" s="2" t="inlineStr"/>
       <c r="W132" s="2" t="inlineStr">
         <is>
-          <t>RW; OC; JH</t>
+          <t>OC</t>
         </is>
       </c>
       <c r="X132" s="2" t="inlineStr">
@@ -8987,28 +8975,32 @@
     <row r="133">
       <c r="A133" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050211</t>
+          <t>BCIO:036113</t>
         </is>
       </c>
       <c r="B133" s="2" t="inlineStr">
         <is>
-          <t>substance use behaviour pattern</t>
+          <t>substance use behaviour</t>
         </is>
       </c>
       <c r="C133" s="2" t="inlineStr"/>
       <c r="D133" s="2" t="inlineStr">
         <is>
-          <t>A consumption behaviour pattern that involves substance use behaviour.</t>
+          <t>A consumption behaviour that involves ingesting a psychoactive substance into the body.</t>
         </is>
       </c>
       <c r="E133" s="2" t="inlineStr"/>
       <c r="F133" s="2" t="inlineStr"/>
       <c r="G133" s="2" t="inlineStr">
         <is>
-          <t>consumption behaviour pattern</t>
-        </is>
-      </c>
-      <c r="H133" s="2" t="inlineStr"/>
+          <t xml:space="preserve">consumption behaviour </t>
+        </is>
+      </c>
+      <c r="H133" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I133" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -9021,9 +9013,17 @@
       <c r="N133" s="2" t="inlineStr"/>
       <c r="O133" s="2" t="inlineStr"/>
       <c r="P133" s="2" t="inlineStr"/>
-      <c r="Q133" s="2" t="inlineStr"/>
+      <c r="Q133" s="2" t="inlineStr">
+        <is>
+          <t>substance use</t>
+        </is>
+      </c>
       <c r="R133" s="2" t="inlineStr"/>
-      <c r="S133" s="2" t="inlineStr"/>
+      <c r="S133" s="2" t="inlineStr">
+        <is>
+          <t>Substance use behaviour is not equated with substance abuse.</t>
+        </is>
+      </c>
       <c r="T133" s="2" t="inlineStr"/>
       <c r="U133" s="2" t="inlineStr">
         <is>
@@ -9033,7 +9033,7 @@
       <c r="V133" s="2" t="inlineStr"/>
       <c r="W133" s="2" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>RW; OC; JH</t>
         </is>
       </c>
       <c r="X133" s="2" t="inlineStr">
@@ -9047,25 +9047,25 @@
     <row r="134">
       <c r="A134" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050411</t>
+          <t>BCIO:050211</t>
         </is>
       </c>
       <c r="B134" s="2" t="inlineStr">
         <is>
-          <t>sun protective behaviour</t>
+          <t>substance use behaviour pattern</t>
         </is>
       </c>
       <c r="C134" s="2" t="inlineStr"/>
       <c r="D134" s="2" t="inlineStr">
         <is>
-          <t>A personal bodily care behaviour that involves protecting one's skin or eyes from the damaging effects of the sun.</t>
+          <t>A consumption behaviour pattern that involves substance use behaviour.</t>
         </is>
       </c>
       <c r="E134" s="2" t="inlineStr"/>
       <c r="F134" s="2" t="inlineStr"/>
       <c r="G134" s="2" t="inlineStr">
         <is>
-          <t>personal bodily care behaviour</t>
+          <t>consumption behaviour pattern</t>
         </is>
       </c>
       <c r="H134" s="2" t="inlineStr"/>
@@ -9083,11 +9083,7 @@
       <c r="P134" s="2" t="inlineStr"/>
       <c r="Q134" s="2" t="inlineStr"/>
       <c r="R134" s="2" t="inlineStr"/>
-      <c r="S134" s="2" t="inlineStr">
-        <is>
-          <t>‘Sun protective behaviour’ is defined in terms of its goal (to protect oneself from the damaging effects of the sun) and can include very different behaviours, e.g., applying sunscreen and staying in the shade.</t>
-        </is>
-      </c>
+      <c r="S134" s="2" t="inlineStr"/>
       <c r="T134" s="2" t="inlineStr"/>
       <c r="U134" s="2" t="inlineStr">
         <is>
@@ -9097,7 +9093,7 @@
       <c r="V134" s="2" t="inlineStr"/>
       <c r="W134" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="X134" s="2" t="inlineStr">
@@ -9109,80 +9105,84 @@
       <c r="Z134" s="2" t="inlineStr"/>
     </row>
     <row r="135">
-      <c r="A135" s="4" t="inlineStr">
-        <is>
-          <t>BCIO:100002</t>
-        </is>
-      </c>
-      <c r="B135" s="4" t="inlineStr">
-        <is>
-          <t>test 2</t>
-        </is>
-      </c>
-      <c r="C135" s="4" t="inlineStr"/>
-      <c r="D135" s="4" t="inlineStr">
-        <is>
-          <t>somethin</t>
-        </is>
-      </c>
-      <c r="E135" s="4" t="inlineStr"/>
-      <c r="F135" s="4" t="inlineStr"/>
-      <c r="G135" s="4" t="inlineStr">
-        <is>
-          <t>occurrent</t>
-        </is>
-      </c>
-      <c r="H135" s="4" t="inlineStr"/>
-      <c r="I135" s="4" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="J135" s="4" t="inlineStr"/>
-      <c r="K135" s="4" t="inlineStr"/>
-      <c r="L135" s="4" t="inlineStr"/>
-      <c r="M135" s="4" t="inlineStr"/>
-      <c r="N135" s="4" t="inlineStr"/>
-      <c r="O135" s="4" t="inlineStr"/>
-      <c r="P135" s="4" t="inlineStr"/>
-      <c r="Q135" s="4" t="inlineStr"/>
-      <c r="R135" s="4" t="inlineStr"/>
-      <c r="S135" s="4" t="inlineStr"/>
-      <c r="T135" s="4" t="inlineStr"/>
-      <c r="U135" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V135" s="4" t="inlineStr"/>
-      <c r="W135" s="4" t="inlineStr">
-        <is>
-          <t>BG</t>
-        </is>
-      </c>
-      <c r="X135" s="4" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Y135" s="4" t="inlineStr"/>
-      <c r="Z135" s="4" t="inlineStr"/>
+      <c r="A135" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050411</t>
+        </is>
+      </c>
+      <c r="B135" s="2" t="inlineStr">
+        <is>
+          <t>sun protective behaviour</t>
+        </is>
+      </c>
+      <c r="C135" s="2" t="inlineStr"/>
+      <c r="D135" s="2" t="inlineStr">
+        <is>
+          <t>A personal bodily care behaviour that involves protecting one's skin or eyes from the damaging effects of the sun.</t>
+        </is>
+      </c>
+      <c r="E135" s="2" t="inlineStr"/>
+      <c r="F135" s="2" t="inlineStr"/>
+      <c r="G135" s="2" t="inlineStr">
+        <is>
+          <t>personal bodily care behaviour</t>
+        </is>
+      </c>
+      <c r="H135" s="2" t="inlineStr"/>
+      <c r="I135" s="2" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J135" s="2" t="inlineStr"/>
+      <c r="K135" s="2" t="inlineStr"/>
+      <c r="L135" s="2" t="inlineStr"/>
+      <c r="M135" s="2" t="inlineStr"/>
+      <c r="N135" s="2" t="inlineStr"/>
+      <c r="O135" s="2" t="inlineStr"/>
+      <c r="P135" s="2" t="inlineStr"/>
+      <c r="Q135" s="2" t="inlineStr"/>
+      <c r="R135" s="2" t="inlineStr"/>
+      <c r="S135" s="2" t="inlineStr">
+        <is>
+          <t>‘Sun protective behaviour’ is defined in terms of its goal (to protect oneself from the damaging effects of the sun) and can include very different behaviours, e.g., applying sunscreen and staying in the shade.</t>
+        </is>
+      </c>
+      <c r="T135" s="2" t="inlineStr"/>
+      <c r="U135" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V135" s="2" t="inlineStr"/>
+      <c r="W135" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="X135" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="Y135" s="2" t="inlineStr"/>
+      <c r="Z135" s="2" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="4" t="inlineStr">
         <is>
-          <t>BCIO:100003</t>
+          <t>BCIO:100002</t>
         </is>
       </c>
       <c r="B136" s="4" t="inlineStr">
         <is>
-          <t>test 5</t>
+          <t>test 2</t>
         </is>
       </c>
       <c r="C136" s="4" t="inlineStr"/>
       <c r="D136" s="4" t="inlineStr">
         <is>
-          <t>somethi</t>
+          <t>somethin</t>
         </is>
       </c>
       <c r="E136" s="4" t="inlineStr"/>

--- a/Behaviour/BCIO_behaviour.xlsx
+++ b/Behaviour/BCIO_behaviour.xlsx
@@ -584,7 +584,7 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>administering vaccine test</t>
+          <t>administering vaccine</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr"/>

--- a/Behaviour/BCIO_behaviour.xlsx
+++ b/Behaviour/BCIO_behaviour.xlsx
@@ -584,7 +584,7 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>administering vaccine</t>
+          <t>administering vaccine 2</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr"/>

--- a/Behaviour/BCIO_behaviour.xlsx
+++ b/Behaviour/BCIO_behaviour.xlsx
@@ -584,7 +584,7 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>administering vaccine 2</t>
+          <t>administering vaccine 3</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr"/>

--- a/Behaviour/BCIO_behaviour.xlsx
+++ b/Behaviour/BCIO_behaviour.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z153"/>
+  <dimension ref="A1:Z154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4299,94 +4299,82 @@
       <c r="Z58" s="2" t="inlineStr"/>
     </row>
     <row r="59">
-      <c r="A59" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050374</t>
-        </is>
-      </c>
-      <c r="B59" s="2" t="inlineStr">
-        <is>
-          <t>laughing</t>
-        </is>
-      </c>
-      <c r="C59" s="2" t="inlineStr"/>
-      <c r="D59" s="2" t="inlineStr">
-        <is>
-          <t>A vocalisation behaviour showing an emotion such as mirth, joy, or scorn with a chuckle or explosive vocal sound.</t>
-        </is>
-      </c>
-      <c r="E59" s="2" t="inlineStr"/>
-      <c r="F59" s="2" t="inlineStr"/>
-      <c r="G59" s="2" t="inlineStr">
-        <is>
-          <t>vocalisation behaviour</t>
-        </is>
-      </c>
-      <c r="H59" s="2" t="inlineStr"/>
-      <c r="I59" s="2" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="J59" s="2" t="inlineStr"/>
-      <c r="K59" s="2" t="inlineStr"/>
-      <c r="L59" s="2" t="inlineStr"/>
-      <c r="M59" s="2" t="inlineStr"/>
-      <c r="N59" s="2" t="inlineStr"/>
-      <c r="O59" s="2" t="inlineStr"/>
-      <c r="P59" s="2" t="inlineStr"/>
-      <c r="Q59" s="2" t="inlineStr"/>
-      <c r="R59" s="2" t="inlineStr"/>
-      <c r="S59" s="2" t="inlineStr"/>
-      <c r="T59" s="2" t="inlineStr"/>
-      <c r="U59" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V59" s="2" t="inlineStr"/>
-      <c r="W59" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="X59" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="Y59" s="2" t="inlineStr"/>
-      <c r="Z59" s="2" t="inlineStr"/>
+      <c r="A59" s="4" t="inlineStr">
+        <is>
+          <t>BCIO:100005</t>
+        </is>
+      </c>
+      <c r="B59" s="4" t="inlineStr">
+        <is>
+          <t>label</t>
+        </is>
+      </c>
+      <c r="C59" s="4" t="inlineStr"/>
+      <c r="D59" s="4" t="inlineStr">
+        <is>
+          <t>definition</t>
+        </is>
+      </c>
+      <c r="E59" s="4" t="inlineStr"/>
+      <c r="F59" s="4" t="inlineStr"/>
+      <c r="G59" s="4" t="inlineStr">
+        <is>
+          <t>occurrent</t>
+        </is>
+      </c>
+      <c r="H59" s="4" t="inlineStr"/>
+      <c r="I59" s="4" t="inlineStr"/>
+      <c r="J59" s="4" t="inlineStr"/>
+      <c r="K59" s="4" t="inlineStr"/>
+      <c r="L59" s="4" t="inlineStr"/>
+      <c r="M59" s="4" t="inlineStr"/>
+      <c r="N59" s="4" t="inlineStr"/>
+      <c r="O59" s="4" t="inlineStr"/>
+      <c r="P59" s="4" t="inlineStr"/>
+      <c r="Q59" s="4" t="inlineStr"/>
+      <c r="R59" s="4" t="inlineStr"/>
+      <c r="S59" s="4" t="inlineStr"/>
+      <c r="T59" s="4" t="inlineStr"/>
+      <c r="U59" s="4" t="inlineStr"/>
+      <c r="V59" s="4" t="inlineStr"/>
+      <c r="W59" s="4" t="inlineStr">
+        <is>
+          <t>BG</t>
+        </is>
+      </c>
+      <c r="X59" s="4" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Y59" s="4" t="inlineStr"/>
+      <c r="Z59" s="4" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036008</t>
+          <t>BCIO:050374</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>learning behaviour</t>
+          <t>laughing</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr"/>
       <c r="D60" s="2" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that involves improving knowledge or skill.</t>
+          <t>A vocalisation behaviour showing an emotion such as mirth, joy, or scorn with a chuckle or explosive vocal sound.</t>
         </is>
       </c>
       <c r="E60" s="2" t="inlineStr"/>
       <c r="F60" s="2" t="inlineStr"/>
       <c r="G60" s="2" t="inlineStr">
         <is>
-          <t>experience-related behaviour</t>
-        </is>
-      </c>
-      <c r="H60" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>vocalisation behaviour</t>
+        </is>
+      </c>
+      <c r="H60" s="2" t="inlineStr"/>
       <c r="I60" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -4402,11 +4390,7 @@
       <c r="Q60" s="2" t="inlineStr"/>
       <c r="R60" s="2" t="inlineStr"/>
       <c r="S60" s="2" t="inlineStr"/>
-      <c r="T60" s="2" t="inlineStr">
-        <is>
-          <t>Studying, Active learning, Problem-based learning, Collaborative learning, Online learning</t>
-        </is>
-      </c>
+      <c r="T60" s="2" t="inlineStr"/>
       <c r="U60" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -4415,7 +4399,7 @@
       <c r="V60" s="2" t="inlineStr"/>
       <c r="W60" s="2" t="inlineStr">
         <is>
-          <t>RW; OC; PS</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X60" s="2" t="inlineStr">
@@ -4429,28 +4413,32 @@
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050438</t>
+          <t>BCIO:036008</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>life function-related behaviour</t>
+          <t>learning behaviour</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr"/>
       <c r="D61" s="2" t="inlineStr">
         <is>
-          <t>An individual human behaviour relates to vital bodily functions.</t>
+          <t>An experience-related behaviour that involves improving knowledge or skill.</t>
         </is>
       </c>
       <c r="E61" s="2" t="inlineStr"/>
       <c r="F61" s="2" t="inlineStr"/>
       <c r="G61" s="2" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
-        </is>
-      </c>
-      <c r="H61" s="2" t="inlineStr"/>
+          <t>experience-related behaviour</t>
+        </is>
+      </c>
+      <c r="H61" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I61" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -4466,7 +4454,11 @@
       <c r="Q61" s="2" t="inlineStr"/>
       <c r="R61" s="2" t="inlineStr"/>
       <c r="S61" s="2" t="inlineStr"/>
-      <c r="T61" s="2" t="inlineStr"/>
+      <c r="T61" s="2" t="inlineStr">
+        <is>
+          <t>Studying, Active learning, Problem-based learning, Collaborative learning, Online learning</t>
+        </is>
+      </c>
       <c r="U61" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -4475,7 +4467,7 @@
       <c r="V61" s="2" t="inlineStr"/>
       <c r="W61" s="2" t="inlineStr">
         <is>
-          <t>PS; RW</t>
+          <t>RW; OC; PS</t>
         </is>
       </c>
       <c r="X61" s="2" t="inlineStr">
@@ -4489,25 +4481,25 @@
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050237</t>
+          <t>BCIO:050438</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>linguistic communication behaviour</t>
+          <t>life function-related behaviour</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr"/>
       <c r="D62" s="2" t="inlineStr">
         <is>
-          <t>A human communication behaviour in which the information that is communicated is encoded in language.</t>
+          <t>An individual human behaviour relates to vital bodily functions.</t>
         </is>
       </c>
       <c r="E62" s="2" t="inlineStr"/>
       <c r="F62" s="2" t="inlineStr"/>
       <c r="G62" s="2" t="inlineStr">
         <is>
-          <t>human communication behaviour</t>
+          <t>individual human behaviour</t>
         </is>
       </c>
       <c r="H62" s="2" t="inlineStr"/>
@@ -4535,7 +4527,7 @@
       <c r="V62" s="2" t="inlineStr"/>
       <c r="W62" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="X62" s="2" t="inlineStr">
@@ -4549,32 +4541,28 @@
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036026</t>
+          <t>BCIO:050237</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">locomotive behaviour </t>
+          <t>linguistic communication behaviour</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr"/>
       <c r="D63" s="2" t="inlineStr">
         <is>
-          <t>A position-related behaviour in which muscles are used by a person to move themselves relative to the immediate environment or part of it.</t>
+          <t>A human communication behaviour in which the information that is communicated is encoded in language.</t>
         </is>
       </c>
       <c r="E63" s="2" t="inlineStr"/>
       <c r="F63" s="2" t="inlineStr"/>
       <c r="G63" s="2" t="inlineStr">
         <is>
-          <t>position-related behaviour</t>
-        </is>
-      </c>
-      <c r="H63" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>human communication behaviour</t>
+        </is>
+      </c>
+      <c r="H63" s="2" t="inlineStr"/>
       <c r="I63" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -4590,11 +4578,7 @@
       <c r="Q63" s="2" t="inlineStr"/>
       <c r="R63" s="2" t="inlineStr"/>
       <c r="S63" s="2" t="inlineStr"/>
-      <c r="T63" s="2" t="inlineStr">
-        <is>
-          <t>Walking, Crawling, Climbing</t>
-        </is>
-      </c>
+      <c r="T63" s="2" t="inlineStr"/>
       <c r="U63" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -4603,164 +4587,172 @@
       <c r="V63" s="2" t="inlineStr"/>
       <c r="W63" s="2" t="inlineStr">
         <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="X63" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="Y63" s="2" t="inlineStr"/>
+      <c r="Z63" s="2" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:036026</t>
+        </is>
+      </c>
+      <c r="B64" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">locomotive behaviour </t>
+        </is>
+      </c>
+      <c r="C64" s="2" t="inlineStr"/>
+      <c r="D64" s="2" t="inlineStr">
+        <is>
+          <t>A position-related behaviour in which muscles are used by a person to move themselves relative to the immediate environment or part of it.</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="inlineStr"/>
+      <c r="F64" s="2" t="inlineStr"/>
+      <c r="G64" s="2" t="inlineStr">
+        <is>
+          <t>position-related behaviour</t>
+        </is>
+      </c>
+      <c r="H64" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="I64" s="2" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J64" s="2" t="inlineStr"/>
+      <c r="K64" s="2" t="inlineStr"/>
+      <c r="L64" s="2" t="inlineStr"/>
+      <c r="M64" s="2" t="inlineStr"/>
+      <c r="N64" s="2" t="inlineStr"/>
+      <c r="O64" s="2" t="inlineStr"/>
+      <c r="P64" s="2" t="inlineStr"/>
+      <c r="Q64" s="2" t="inlineStr"/>
+      <c r="R64" s="2" t="inlineStr"/>
+      <c r="S64" s="2" t="inlineStr"/>
+      <c r="T64" s="2" t="inlineStr">
+        <is>
+          <t>Walking, Crawling, Climbing</t>
+        </is>
+      </c>
+      <c r="U64" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V64" s="2" t="inlineStr"/>
+      <c r="W64" s="2" t="inlineStr">
+        <is>
           <t>RW; OC; PS</t>
         </is>
       </c>
-      <c r="X63" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="Y63" s="2" t="inlineStr"/>
-      <c r="Z63" s="2" t="inlineStr">
+      <c r="X64" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="Y64" s="2" t="inlineStr"/>
+      <c r="Z64" s="2" t="inlineStr">
         <is>
           <t>
 </t>
         </is>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="4" t="inlineStr">
+    <row r="65">
+      <c r="A65" s="4" t="inlineStr">
         <is>
           <t>BCIO:100003</t>
         </is>
       </c>
-      <c r="B64" s="4" t="inlineStr">
+      <c r="B65" s="4" t="inlineStr">
         <is>
           <t>lorem ipsum dolor sit amet</t>
         </is>
       </c>
-      <c r="C64" s="4" t="inlineStr"/>
-      <c r="D64" s="4" t="inlineStr">
+      <c r="C65" s="4" t="inlineStr"/>
+      <c r="D65" s="4" t="inlineStr">
         <is>
           <t>somethi</t>
         </is>
       </c>
-      <c r="E64" s="4" t="inlineStr"/>
-      <c r="F64" s="4" t="inlineStr"/>
-      <c r="G64" s="4" t="inlineStr">
+      <c r="E65" s="4" t="inlineStr"/>
+      <c r="F65" s="4" t="inlineStr"/>
+      <c r="G65" s="4" t="inlineStr">
         <is>
           <t>occurrent</t>
         </is>
       </c>
-      <c r="H64" s="4" t="inlineStr"/>
-      <c r="I64" s="4" t="inlineStr">
+      <c r="H65" s="4" t="inlineStr"/>
+      <c r="I65" s="4" t="inlineStr">
         <is>
           <t>test</t>
         </is>
       </c>
-      <c r="J64" s="4" t="inlineStr"/>
-      <c r="K64" s="4" t="inlineStr"/>
-      <c r="L64" s="4" t="inlineStr"/>
-      <c r="M64" s="4" t="inlineStr"/>
-      <c r="N64" s="4" t="inlineStr"/>
-      <c r="O64" s="4" t="inlineStr"/>
-      <c r="P64" s="4" t="inlineStr"/>
-      <c r="Q64" s="4" t="inlineStr"/>
-      <c r="R64" s="4" t="inlineStr"/>
-      <c r="S64" s="4" t="inlineStr"/>
-      <c r="T64" s="4" t="inlineStr"/>
-      <c r="U64" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V64" s="4" t="inlineStr"/>
-      <c r="W64" s="4" t="inlineStr">
+      <c r="J65" s="4" t="inlineStr"/>
+      <c r="K65" s="4" t="inlineStr"/>
+      <c r="L65" s="4" t="inlineStr"/>
+      <c r="M65" s="4" t="inlineStr"/>
+      <c r="N65" s="4" t="inlineStr"/>
+      <c r="O65" s="4" t="inlineStr"/>
+      <c r="P65" s="4" t="inlineStr"/>
+      <c r="Q65" s="4" t="inlineStr"/>
+      <c r="R65" s="4" t="inlineStr"/>
+      <c r="S65" s="4" t="inlineStr"/>
+      <c r="T65" s="4" t="inlineStr"/>
+      <c r="U65" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V65" s="4" t="inlineStr"/>
+      <c r="W65" s="4" t="inlineStr">
         <is>
           <t>BG</t>
         </is>
       </c>
-      <c r="X64" s="4" t="inlineStr">
+      <c r="X65" s="4" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="Y64" s="4" t="inlineStr"/>
-      <c r="Z64" s="4" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:036067</t>
-        </is>
-      </c>
-      <c r="B65" s="2" t="inlineStr">
-        <is>
-          <t>lying down</t>
-        </is>
-      </c>
-      <c r="C65" s="2" t="inlineStr"/>
-      <c r="D65" s="2" t="inlineStr">
-        <is>
-          <t>A posture behaviour that involves being in a horizontal position on a supporting surface</t>
-        </is>
-      </c>
-      <c r="E65" s="2" t="inlineStr"/>
-      <c r="F65" s="2" t="inlineStr"/>
-      <c r="G65" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">posture behaviour </t>
-        </is>
-      </c>
-      <c r="H65" s="2" t="inlineStr"/>
-      <c r="I65" s="2" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="J65" s="2" t="inlineStr"/>
-      <c r="K65" s="2" t="inlineStr"/>
-      <c r="L65" s="2" t="inlineStr"/>
-      <c r="M65" s="2" t="inlineStr"/>
-      <c r="N65" s="2" t="inlineStr"/>
-      <c r="O65" s="2" t="inlineStr"/>
-      <c r="P65" s="2" t="inlineStr"/>
-      <c r="Q65" s="2" t="inlineStr"/>
-      <c r="R65" s="2" t="inlineStr"/>
-      <c r="S65" s="2" t="inlineStr"/>
-      <c r="T65" s="2" t="inlineStr"/>
-      <c r="U65" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V65" s="2" t="inlineStr"/>
-      <c r="W65" s="2" t="inlineStr">
-        <is>
-          <t>OC</t>
-        </is>
-      </c>
-      <c r="X65" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="Y65" s="2" t="inlineStr"/>
-      <c r="Z65" s="2" t="inlineStr"/>
+      <c r="Y65" s="4" t="inlineStr"/>
+      <c r="Z65" s="4" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050361</t>
+          <t>BCIO:036067</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">making a referral to another health care service </t>
+          <t>lying down</t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr"/>
       <c r="D66" s="2" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves directing a person to another healthcare professional or organisation to assess, monitor, improve or maintain an aspect of this person’s health or wellbeing.</t>
+          <t>A posture behaviour that involves being in a horizontal position on a supporting surface</t>
         </is>
       </c>
       <c r="E66" s="2" t="inlineStr"/>
       <c r="F66" s="2" t="inlineStr"/>
       <c r="G66" s="2" t="inlineStr">
         <is>
-          <t>providing healthcare</t>
+          <t xml:space="preserve">posture behaviour </t>
         </is>
       </c>
       <c r="H66" s="2" t="inlineStr"/>
@@ -4788,7 +4780,7 @@
       <c r="V66" s="2" t="inlineStr"/>
       <c r="W66" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>OC</t>
         </is>
       </c>
       <c r="X66" s="2" t="inlineStr">
@@ -4802,25 +4794,25 @@
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036062</t>
+          <t>BCIO:050361</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">manufacturing behaviour </t>
+          <t xml:space="preserve">making a referral to another health care service </t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr"/>
       <c r="D67" s="2" t="inlineStr">
         <is>
-          <t>An object-using behaviour that involves making a product from raw materials or parts.</t>
+          <t>Providing healthcare that involves directing a person to another healthcare professional or organisation to assess, monitor, improve or maintain an aspect of this person’s health or wellbeing.</t>
         </is>
       </c>
       <c r="E67" s="2" t="inlineStr"/>
       <c r="F67" s="2" t="inlineStr"/>
       <c r="G67" s="2" t="inlineStr">
         <is>
-          <t>object-using behaviour</t>
+          <t>providing healthcare</t>
         </is>
       </c>
       <c r="H67" s="2" t="inlineStr"/>
@@ -4839,11 +4831,7 @@
       <c r="Q67" s="2" t="inlineStr"/>
       <c r="R67" s="2" t="inlineStr"/>
       <c r="S67" s="2" t="inlineStr"/>
-      <c r="T67" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Building, Constructing, Food production, Production of goods </t>
-        </is>
-      </c>
+      <c r="T67" s="2" t="inlineStr"/>
       <c r="U67" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -4852,7 +4840,7 @@
       <c r="V67" s="2" t="inlineStr"/>
       <c r="W67" s="2" t="inlineStr">
         <is>
-          <t>OC</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X67" s="2" t="inlineStr">
@@ -4866,25 +4854,25 @@
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050439</t>
+          <t>BCIO:036062</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>material entity-related behaviour</t>
+          <t xml:space="preserve">manufacturing behaviour </t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr"/>
       <c r="D68" s="2" t="inlineStr">
         <is>
-          <t>An individual human behaviour that relates to a material entity.</t>
+          <t>An object-using behaviour that involves making a product from raw materials or parts.</t>
         </is>
       </c>
       <c r="E68" s="2" t="inlineStr"/>
       <c r="F68" s="2" t="inlineStr"/>
       <c r="G68" s="2" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t>object-using behaviour</t>
         </is>
       </c>
       <c r="H68" s="2" t="inlineStr"/>
@@ -4903,7 +4891,11 @@
       <c r="Q68" s="2" t="inlineStr"/>
       <c r="R68" s="2" t="inlineStr"/>
       <c r="S68" s="2" t="inlineStr"/>
-      <c r="T68" s="2" t="inlineStr"/>
+      <c r="T68" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Building, Constructing, Food production, Production of goods </t>
+        </is>
+      </c>
       <c r="U68" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -4912,7 +4904,7 @@
       <c r="V68" s="2" t="inlineStr"/>
       <c r="W68" s="2" t="inlineStr">
         <is>
-          <t>PS; RW</t>
+          <t>OC</t>
         </is>
       </c>
       <c r="X68" s="2" t="inlineStr">
@@ -4926,25 +4918,25 @@
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050412</t>
+          <t>BCIO:050439</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>medication-taking</t>
+          <t>material entity-related behaviour</t>
         </is>
       </c>
       <c r="C69" s="2" t="inlineStr"/>
       <c r="D69" s="2" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves ingesting a medicine to treat or relieve symptoms of a health condition or maintain an aspect of health or wellbeing.</t>
+          <t>An individual human behaviour that relates to a material entity.</t>
         </is>
       </c>
       <c r="E69" s="2" t="inlineStr"/>
       <c r="F69" s="2" t="inlineStr"/>
       <c r="G69" s="2" t="inlineStr">
         <is>
-          <t>consumption behaviour</t>
+          <t>individual human behaviour</t>
         </is>
       </c>
       <c r="H69" s="2" t="inlineStr"/>
@@ -4960,17 +4952,9 @@
       <c r="N69" s="2" t="inlineStr"/>
       <c r="O69" s="2" t="inlineStr"/>
       <c r="P69" s="2" t="inlineStr"/>
-      <c r="Q69" s="2" t="inlineStr">
-        <is>
-          <t>pharmacological consumption</t>
-        </is>
-      </c>
+      <c r="Q69" s="2" t="inlineStr"/>
       <c r="R69" s="2" t="inlineStr"/>
-      <c r="S69" s="2" t="inlineStr">
-        <is>
-          <t>Medicine is defined as type of drug, i.e., ‘any substance which when absorbed into a living organism may modify one or more of its functions.’ (http://purl.obolibrary.org/obo/CHEBI_23888)</t>
-        </is>
-      </c>
+      <c r="S69" s="2" t="inlineStr"/>
       <c r="T69" s="2" t="inlineStr"/>
       <c r="U69" s="2" t="inlineStr">
         <is>
@@ -4980,7 +4964,7 @@
       <c r="V69" s="2" t="inlineStr"/>
       <c r="W69" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="X69" s="2" t="inlineStr">
@@ -4994,29 +4978,25 @@
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050431</t>
+          <t>BCIO:050412</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>mental exertion expended on a behaviour</t>
-        </is>
-      </c>
-      <c r="C70" s="2" t="inlineStr">
-        <is>
-          <t>The mental effort required to perform a behaviour.</t>
-        </is>
-      </c>
+          <t>medication-taking</t>
+        </is>
+      </c>
+      <c r="C70" s="2" t="inlineStr"/>
       <c r="D70" s="2" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is the level of mental effort expended on the behaviour to be enacted.</t>
+          <t>A consumption behaviour that involves ingesting a medicine to treat or relieve symptoms of a health condition or maintain an aspect of health or wellbeing.</t>
         </is>
       </c>
       <c r="E70" s="2" t="inlineStr"/>
       <c r="F70" s="2" t="inlineStr"/>
       <c r="G70" s="2" t="inlineStr">
         <is>
-          <t>behavioural attribute</t>
+          <t>consumption behaviour</t>
         </is>
       </c>
       <c r="H70" s="2" t="inlineStr"/>
@@ -5032,14 +5012,18 @@
       <c r="N70" s="2" t="inlineStr"/>
       <c r="O70" s="2" t="inlineStr"/>
       <c r="P70" s="2" t="inlineStr"/>
-      <c r="Q70" s="2" t="inlineStr"/>
+      <c r="Q70" s="2" t="inlineStr">
+        <is>
+          <t>pharmacological consumption</t>
+        </is>
+      </c>
       <c r="R70" s="2" t="inlineStr"/>
-      <c r="S70" s="2" t="inlineStr"/>
-      <c r="T70" s="2" t="inlineStr">
-        <is>
-          <t>writing has high mental exertion expended on a behaviour</t>
-        </is>
-      </c>
+      <c r="S70" s="2" t="inlineStr">
+        <is>
+          <t>Medicine is defined as type of drug, i.e., ‘any substance which when absorbed into a living organism may modify one or more of its functions.’ (http://purl.obolibrary.org/obo/CHEBI_23888)</t>
+        </is>
+      </c>
+      <c r="T70" s="2" t="inlineStr"/>
       <c r="U70" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -5048,7 +5032,7 @@
       <c r="V70" s="2" t="inlineStr"/>
       <c r="W70" s="2" t="inlineStr">
         <is>
-          <t>PS; RW</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X70" s="2" t="inlineStr">
@@ -5062,25 +5046,29 @@
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036041</t>
+          <t>BCIO:050431</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
         <is>
-          <t>mind-body behaviour</t>
-        </is>
-      </c>
-      <c r="C71" s="2" t="inlineStr"/>
+          <t>mental exertion expended on a behaviour</t>
+        </is>
+      </c>
+      <c r="C71" s="2" t="inlineStr">
+        <is>
+          <t>The mental effort required to perform a behaviour.</t>
+        </is>
+      </c>
       <c r="D71" s="2" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that aims to create a sense of interconnectedness between the mind and the body.</t>
+          <t>A behavioural attribute that is the level of mental effort expended on the behaviour to be enacted.</t>
         </is>
       </c>
       <c r="E71" s="2" t="inlineStr"/>
       <c r="F71" s="2" t="inlineStr"/>
       <c r="G71" s="2" t="inlineStr">
         <is>
-          <t>experience-related behaviour</t>
+          <t>behavioural attribute</t>
         </is>
       </c>
       <c r="H71" s="2" t="inlineStr"/>
@@ -5101,7 +5089,7 @@
       <c r="S71" s="2" t="inlineStr"/>
       <c r="T71" s="2" t="inlineStr">
         <is>
-          <t>Yoga, Taichi</t>
+          <t>writing has high mental exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="U71" s="2" t="inlineStr">
@@ -5112,7 +5100,7 @@
       <c r="V71" s="2" t="inlineStr"/>
       <c r="W71" s="2" t="inlineStr">
         <is>
-          <t>OC; PS</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="X71" s="2" t="inlineStr">
@@ -5126,25 +5114,25 @@
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050238</t>
+          <t>BCIO:036041</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
         <is>
-          <t>non-linguistic communication behaviour</t>
+          <t>mind-body behaviour</t>
         </is>
       </c>
       <c r="C72" s="2" t="inlineStr"/>
       <c r="D72" s="2" t="inlineStr">
         <is>
-          <t>A human communication behaviour in which information is transmitted without being encoded in the meaning units of any language.</t>
+          <t>An experience-related behaviour that aims to create a sense of interconnectedness between the mind and the body.</t>
         </is>
       </c>
       <c r="E72" s="2" t="inlineStr"/>
       <c r="F72" s="2" t="inlineStr"/>
       <c r="G72" s="2" t="inlineStr">
         <is>
-          <t>human communication behaviour</t>
+          <t>experience-related behaviour</t>
         </is>
       </c>
       <c r="H72" s="2" t="inlineStr"/>
@@ -5163,7 +5151,11 @@
       <c r="Q72" s="2" t="inlineStr"/>
       <c r="R72" s="2" t="inlineStr"/>
       <c r="S72" s="2" t="inlineStr"/>
-      <c r="T72" s="2" t="inlineStr"/>
+      <c r="T72" s="2" t="inlineStr">
+        <is>
+          <t>Yoga, Taichi</t>
+        </is>
+      </c>
       <c r="U72" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -5172,7 +5164,7 @@
       <c r="V72" s="2" t="inlineStr"/>
       <c r="W72" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>OC; PS</t>
         </is>
       </c>
       <c r="X72" s="2" t="inlineStr">
@@ -5186,25 +5178,25 @@
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050424</t>
+          <t>BCIO:050238</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">non-linguistic communication behaviour using body language </t>
+          <t>non-linguistic communication behaviour</t>
         </is>
       </c>
       <c r="C73" s="2" t="inlineStr"/>
       <c r="D73" s="2" t="inlineStr">
         <is>
-          <t>A non-linguistic communication behaviour that involves expressing thoughts or feelings through bodily movement or posture.</t>
+          <t>A human communication behaviour in which information is transmitted without being encoded in the meaning units of any language.</t>
         </is>
       </c>
       <c r="E73" s="2" t="inlineStr"/>
       <c r="F73" s="2" t="inlineStr"/>
       <c r="G73" s="2" t="inlineStr">
         <is>
-          <t>non-linguistic communication behaviour</t>
+          <t>human communication behaviour</t>
         </is>
       </c>
       <c r="H73" s="2" t="inlineStr"/>
@@ -5246,25 +5238,25 @@
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050375</t>
+          <t>BCIO:050424</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
         <is>
-          <t>non-linguistic communication behaviour using eye contact</t>
+          <t xml:space="preserve">non-linguistic communication behaviour using body language </t>
         </is>
       </c>
       <c r="C74" s="2" t="inlineStr"/>
       <c r="D74" s="2" t="inlineStr">
         <is>
-          <t>A non-linguistic communication behaviour using body language characterised by the meeting of eyes with another individual.</t>
+          <t>A non-linguistic communication behaviour that involves expressing thoughts or feelings through bodily movement or posture.</t>
         </is>
       </c>
       <c r="E74" s="2" t="inlineStr"/>
       <c r="F74" s="2" t="inlineStr"/>
       <c r="G74" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">non-linguistic communication behaviour using body language </t>
+          <t>non-linguistic communication behaviour</t>
         </is>
       </c>
       <c r="H74" s="2" t="inlineStr"/>
@@ -5292,7 +5284,7 @@
       <c r="V74" s="2" t="inlineStr"/>
       <c r="W74" s="2" t="inlineStr">
         <is>
-          <t>PS; lz</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X74" s="2" t="inlineStr">
@@ -5306,18 +5298,18 @@
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050425</t>
+          <t>BCIO:050375</t>
         </is>
       </c>
       <c r="B75" s="2" t="inlineStr">
         <is>
-          <t>non-linguistic communication behaviour using facial expression</t>
+          <t>non-linguistic communication behaviour using eye contact</t>
         </is>
       </c>
       <c r="C75" s="2" t="inlineStr"/>
       <c r="D75" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Non-linguistic communication behaviour using body language that involves movements of facial muscles to express thoughts or feelings. </t>
+          <t>A non-linguistic communication behaviour using body language characterised by the meeting of eyes with another individual.</t>
         </is>
       </c>
       <c r="E75" s="2" t="inlineStr"/>
@@ -5352,7 +5344,7 @@
       <c r="V75" s="2" t="inlineStr"/>
       <c r="W75" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; lz</t>
         </is>
       </c>
       <c r="X75" s="2" t="inlineStr">
@@ -5366,25 +5358,25 @@
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036002</t>
+          <t>BCIO:050425</t>
         </is>
       </c>
       <c r="B76" s="2" t="inlineStr">
         <is>
-          <t>non-linguistic communication behaviour using gesture</t>
+          <t>non-linguistic communication behaviour using facial expression</t>
         </is>
       </c>
       <c r="C76" s="2" t="inlineStr"/>
       <c r="D76" s="2" t="inlineStr">
         <is>
-          <t>A non-linguistic communication behaviour using body language involving a deliberately chosen movement of the head, neck, torso, or limbs to express an idea or feeling.</t>
+          <t xml:space="preserve">Non-linguistic communication behaviour using body language that involves movements of facial muscles to express thoughts or feelings. </t>
         </is>
       </c>
       <c r="E76" s="2" t="inlineStr"/>
       <c r="F76" s="2" t="inlineStr"/>
       <c r="G76" s="2" t="inlineStr">
         <is>
-          <t>non-linguistic communication behaviour using body language</t>
+          <t xml:space="preserve">non-linguistic communication behaviour using body language </t>
         </is>
       </c>
       <c r="H76" s="2" t="inlineStr"/>
@@ -5402,16 +5394,8 @@
       <c r="P76" s="2" t="inlineStr"/>
       <c r="Q76" s="2" t="inlineStr"/>
       <c r="R76" s="2" t="inlineStr"/>
-      <c r="S76" s="2" t="inlineStr">
-        <is>
-          <t>Gestures are deliberately chosen by the person to communicate some message.  The meaning of a gesture may differ across different cultures.</t>
-        </is>
-      </c>
-      <c r="T76" s="2" t="inlineStr">
-        <is>
-          <t>Pointing</t>
-        </is>
-      </c>
+      <c r="S76" s="2" t="inlineStr"/>
+      <c r="T76" s="2" t="inlineStr"/>
       <c r="U76" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -5420,7 +5404,7 @@
       <c r="V76" s="2" t="inlineStr"/>
       <c r="W76" s="2" t="inlineStr">
         <is>
-          <t>JH; RW; OC</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X76" s="2" t="inlineStr">
@@ -5434,25 +5418,25 @@
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050373</t>
+          <t>BCIO:036002</t>
         </is>
       </c>
       <c r="B77" s="2" t="inlineStr">
         <is>
-          <t>non-linguistic communication behaviour using vocalisations</t>
+          <t>non-linguistic communication behaviour using gesture</t>
         </is>
       </c>
       <c r="C77" s="2" t="inlineStr"/>
       <c r="D77" s="2" t="inlineStr">
         <is>
-          <t>A non-linguistic communication behaviour using one's voice to produce sounds.</t>
+          <t>A non-linguistic communication behaviour using body language involving a deliberately chosen movement of the head, neck, torso, or limbs to express an idea or feeling.</t>
         </is>
       </c>
       <c r="E77" s="2" t="inlineStr"/>
       <c r="F77" s="2" t="inlineStr"/>
       <c r="G77" s="2" t="inlineStr">
         <is>
-          <t>non-linguistic communication behaviour</t>
+          <t>non-linguistic communication behaviour using body language</t>
         </is>
       </c>
       <c r="H77" s="2" t="inlineStr"/>
@@ -5470,8 +5454,16 @@
       <c r="P77" s="2" t="inlineStr"/>
       <c r="Q77" s="2" t="inlineStr"/>
       <c r="R77" s="2" t="inlineStr"/>
-      <c r="S77" s="2" t="inlineStr"/>
-      <c r="T77" s="2" t="inlineStr"/>
+      <c r="S77" s="2" t="inlineStr">
+        <is>
+          <t>Gestures are deliberately chosen by the person to communicate some message.  The meaning of a gesture may differ across different cultures.</t>
+        </is>
+      </c>
+      <c r="T77" s="2" t="inlineStr">
+        <is>
+          <t>Pointing</t>
+        </is>
+      </c>
       <c r="U77" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -5480,7 +5472,7 @@
       <c r="V77" s="2" t="inlineStr"/>
       <c r="W77" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>JH; RW; OC</t>
         </is>
       </c>
       <c r="X77" s="2" t="inlineStr">
@@ -5494,29 +5486,25 @@
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050429</t>
+          <t>BCIO:050373</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">number of behavioural occurrences </t>
-        </is>
-      </c>
-      <c r="C78" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Number of times a person performs a behaviour. </t>
-        </is>
-      </c>
+          <t>non-linguistic communication behaviour using vocalisations</t>
+        </is>
+      </c>
+      <c r="C78" s="2" t="inlineStr"/>
       <c r="D78" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A data item that is about the number of times a behaviour has occurred. </t>
+          <t>A non-linguistic communication behaviour using one's voice to produce sounds.</t>
         </is>
       </c>
       <c r="E78" s="2" t="inlineStr"/>
       <c r="F78" s="2" t="inlineStr"/>
       <c r="G78" s="2" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>non-linguistic communication behaviour</t>
         </is>
       </c>
       <c r="H78" s="2" t="inlineStr"/>
@@ -5535,11 +5523,7 @@
       <c r="Q78" s="2" t="inlineStr"/>
       <c r="R78" s="2" t="inlineStr"/>
       <c r="S78" s="2" t="inlineStr"/>
-      <c r="T78" s="2" t="inlineStr">
-        <is>
-          <t>harassment behaviour occurred three times</t>
-        </is>
-      </c>
+      <c r="T78" s="2" t="inlineStr"/>
       <c r="U78" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -5548,7 +5532,7 @@
       <c r="V78" s="2" t="inlineStr"/>
       <c r="W78" s="2" t="inlineStr">
         <is>
-          <t>PS; RW</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X78" s="2" t="inlineStr">
@@ -5562,25 +5546,29 @@
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036086</t>
+          <t>BCIO:050429</t>
         </is>
       </c>
       <c r="B79" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">nurture behaviour </t>
-        </is>
-      </c>
-      <c r="C79" s="2" t="inlineStr"/>
+          <t xml:space="preserve">number of behavioural occurrences </t>
+        </is>
+      </c>
+      <c r="C79" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Number of times a person performs a behaviour. </t>
+        </is>
+      </c>
       <c r="D79" s="2" t="inlineStr">
         <is>
-          <t>A socially-related behaviour that involves meeting the physical, psychological or social needs of another living being to promote its development.</t>
+          <t xml:space="preserve">A data item that is about the number of times a behaviour has occurred. </t>
         </is>
       </c>
       <c r="E79" s="2" t="inlineStr"/>
       <c r="F79" s="2" t="inlineStr"/>
       <c r="G79" s="2" t="inlineStr">
         <is>
-          <t>socially-related behaviour</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="H79" s="2" t="inlineStr"/>
@@ -5598,15 +5586,10 @@
       <c r="P79" s="2" t="inlineStr"/>
       <c r="Q79" s="2" t="inlineStr"/>
       <c r="R79" s="2" t="inlineStr"/>
-      <c r="S79" s="2" t="inlineStr">
-        <is>
-          <t>The term 'animal' in the definition includes humans and other animals.
-There can be different dimensions of nurturing, e.g., in some cases, nurturing can involve addressing someone's physical needs (e.g., feeding) but not emotional needs.</t>
-        </is>
-      </c>
+      <c r="S79" s="2" t="inlineStr"/>
       <c r="T79" s="2" t="inlineStr">
         <is>
-          <t>Comforting, feeding, encouraging</t>
+          <t>harassment behaviour occurred three times</t>
         </is>
       </c>
       <c r="U79" s="2" t="inlineStr">
@@ -5617,7 +5600,7 @@
       <c r="V79" s="2" t="inlineStr"/>
       <c r="W79" s="2" t="inlineStr">
         <is>
-          <t>OC; PS</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="X79" s="2" t="inlineStr">
@@ -5631,25 +5614,25 @@
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036005</t>
+          <t>BCIO:036086</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">object management behaviour </t>
+          <t xml:space="preserve">nurture behaviour </t>
         </is>
       </c>
       <c r="C80" s="2" t="inlineStr"/>
       <c r="D80" s="2" t="inlineStr">
         <is>
-          <t>An environmental system management behaviour that involves creating, maintaining, adapting or destroying non-sentient objects.</t>
+          <t>A socially-related behaviour that involves meeting the physical, psychological or social needs of another living being to promote its development.</t>
         </is>
       </c>
       <c r="E80" s="2" t="inlineStr"/>
       <c r="F80" s="2" t="inlineStr"/>
       <c r="G80" s="2" t="inlineStr">
         <is>
-          <t>environmental system management behaviour</t>
+          <t>socially-related behaviour</t>
         </is>
       </c>
       <c r="H80" s="2" t="inlineStr"/>
@@ -5669,12 +5652,13 @@
       <c r="R80" s="2" t="inlineStr"/>
       <c r="S80" s="2" t="inlineStr">
         <is>
-          <t>Objects can include engineered artifacts, organisms, grain of sand and/or molecules. The phrase ‘non-sentient objects’ is used to refer to objects that do not have a central nervous system.</t>
+          <t>The term 'animal' in the definition includes humans and other animals.
+There can be different dimensions of nurturing, e.g., in some cases, nurturing can involve addressing someone's physical needs (e.g., feeding) but not emotional needs.</t>
         </is>
       </c>
       <c r="T80" s="2" t="inlineStr">
         <is>
-          <t>Storing, Littering, Installing, Assembling, Disassembling, Repairing, Designing, Servicing, Washing, Composting, Planting, Pruning,  Cooking,  Growing food, Recycling, Planting trees, Picking up litter</t>
+          <t>Comforting, feeding, encouraging</t>
         </is>
       </c>
       <c r="U80" s="2" t="inlineStr">
@@ -5685,7 +5669,7 @@
       <c r="V80" s="2" t="inlineStr"/>
       <c r="W80" s="2" t="inlineStr">
         <is>
-          <t>RW; OC; PS</t>
+          <t>OC; PS</t>
         </is>
       </c>
       <c r="X80" s="2" t="inlineStr">
@@ -5699,32 +5683,28 @@
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036027</t>
+          <t>BCIO:036005</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">object-using behaviour </t>
+          <t xml:space="preserve">object management behaviour </t>
         </is>
       </c>
       <c r="C81" s="2" t="inlineStr"/>
       <c r="D81" s="2" t="inlineStr">
         <is>
-          <t>A material-entity related behaviour that uses a non-living object.</t>
+          <t>An environmental system management behaviour that involves creating, maintaining, adapting or destroying non-sentient objects.</t>
         </is>
       </c>
       <c r="E81" s="2" t="inlineStr"/>
       <c r="F81" s="2" t="inlineStr"/>
       <c r="G81" s="2" t="inlineStr">
         <is>
-          <t>material entity-related behaviour</t>
-        </is>
-      </c>
-      <c r="H81" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>environmental system management behaviour</t>
+        </is>
+      </c>
+      <c r="H81" s="2" t="inlineStr"/>
       <c r="I81" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -5741,12 +5721,12 @@
       <c r="R81" s="2" t="inlineStr"/>
       <c r="S81" s="2" t="inlineStr">
         <is>
-          <t>Non-living objects can include engineered artifacts, grain of sand and/or molecules.</t>
+          <t>Objects can include engineered artifacts, organisms, grain of sand and/or molecules. The phrase ‘non-sentient objects’ is used to refer to objects that do not have a central nervous system.</t>
         </is>
       </c>
       <c r="T81" s="2" t="inlineStr">
         <is>
-          <t>Shooting, Writing, Using a weapon, Using public transport, Taking a bus, Sailing, Typing, Collecting, Drying, Ironing, Painting, Drawing</t>
+          <t>Storing, Littering, Installing, Assembling, Disassembling, Repairing, Designing, Servicing, Washing, Composting, Planting, Pruning,  Cooking,  Growing food, Recycling, Planting trees, Picking up litter</t>
         </is>
       </c>
       <c r="U81" s="2" t="inlineStr">
@@ -5771,28 +5751,32 @@
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050417</t>
+          <t>BCIO:036027</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t>oral consumption</t>
+          <t xml:space="preserve">object-using behaviour </t>
         </is>
       </c>
       <c r="C82" s="2" t="inlineStr"/>
       <c r="D82" s="2" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves putting a material into one’s mouth and swallowing this material.</t>
+          <t>A material-entity related behaviour that uses a non-living object.</t>
         </is>
       </c>
       <c r="E82" s="2" t="inlineStr"/>
       <c r="F82" s="2" t="inlineStr"/>
       <c r="G82" s="2" t="inlineStr">
         <is>
-          <t>consumption behaviour</t>
-        </is>
-      </c>
-      <c r="H82" s="2" t="inlineStr"/>
+          <t>material entity-related behaviour</t>
+        </is>
+      </c>
+      <c r="H82" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I82" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -5807,8 +5791,16 @@
       <c r="P82" s="2" t="inlineStr"/>
       <c r="Q82" s="2" t="inlineStr"/>
       <c r="R82" s="2" t="inlineStr"/>
-      <c r="S82" s="2" t="inlineStr"/>
-      <c r="T82" s="2" t="inlineStr"/>
+      <c r="S82" s="2" t="inlineStr">
+        <is>
+          <t>Non-living objects can include engineered artifacts, grain of sand and/or molecules.</t>
+        </is>
+      </c>
+      <c r="T82" s="2" t="inlineStr">
+        <is>
+          <t>Shooting, Writing, Using a weapon, Using public transport, Taking a bus, Sailing, Typing, Collecting, Drying, Ironing, Painting, Drawing</t>
+        </is>
+      </c>
       <c r="U82" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -5817,7 +5809,7 @@
       <c r="V82" s="2" t="inlineStr"/>
       <c r="W82" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW; OC; PS</t>
         </is>
       </c>
       <c r="X82" s="2" t="inlineStr">
@@ -5831,25 +5823,25 @@
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050407</t>
+          <t>BCIO:050417</t>
         </is>
       </c>
       <c r="B83" s="2" t="inlineStr">
         <is>
-          <t>participating in creative arts therapy</t>
+          <t>oral consumption</t>
         </is>
       </c>
       <c r="C83" s="2" t="inlineStr"/>
       <c r="D83" s="2" t="inlineStr">
         <is>
-          <t>Participating in psychological treatment that involves creative and expressive processes.</t>
+          <t>A consumption behaviour that involves putting a material into one’s mouth and swallowing this material.</t>
         </is>
       </c>
       <c r="E83" s="2" t="inlineStr"/>
       <c r="F83" s="2" t="inlineStr"/>
       <c r="G83" s="2" t="inlineStr">
         <is>
-          <t>participating in psychological treatment</t>
+          <t>consumption behaviour</t>
         </is>
       </c>
       <c r="H83" s="2" t="inlineStr"/>
@@ -5891,25 +5883,25 @@
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050402</t>
+          <t>BCIO:050407</t>
         </is>
       </c>
       <c r="B84" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">participating in health screening </t>
+          <t>participating in creative arts therapy</t>
         </is>
       </c>
       <c r="C84" s="2" t="inlineStr"/>
       <c r="D84" s="2" t="inlineStr">
         <is>
-          <t>Participating in healthcare testing to detect the presence of a health condition while asymptomatic for that condition.</t>
+          <t>Participating in psychological treatment that involves creative and expressive processes.</t>
         </is>
       </c>
       <c r="E84" s="2" t="inlineStr"/>
       <c r="F84" s="2" t="inlineStr"/>
       <c r="G84" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">participating in healthcare testing  </t>
+          <t>participating in psychological treatment</t>
         </is>
       </c>
       <c r="H84" s="2" t="inlineStr"/>
@@ -5928,11 +5920,7 @@
       <c r="Q84" s="2" t="inlineStr"/>
       <c r="R84" s="2" t="inlineStr"/>
       <c r="S84" s="2" t="inlineStr"/>
-      <c r="T84" s="2" t="inlineStr">
-        <is>
-          <t>Screen for breast cancer, screen for perinatal depression</t>
-        </is>
-      </c>
+      <c r="T84" s="2" t="inlineStr"/>
       <c r="U84" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -5955,25 +5943,25 @@
     <row r="85">
       <c r="A85" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050401</t>
+          <t>BCIO:050402</t>
         </is>
       </c>
       <c r="B85" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">participating in healthcare testing  </t>
+          <t xml:space="preserve">participating in health screening </t>
         </is>
       </c>
       <c r="C85" s="2" t="inlineStr"/>
       <c r="D85" s="2" t="inlineStr">
         <is>
-          <t>Utilising healthcare that involves participating in a healthcare procedure to assess or monitor an aspect of one’s health or wellbeing.</t>
+          <t>Participating in healthcare testing to detect the presence of a health condition while asymptomatic for that condition.</t>
         </is>
       </c>
       <c r="E85" s="2" t="inlineStr"/>
       <c r="F85" s="2" t="inlineStr"/>
       <c r="G85" s="2" t="inlineStr">
         <is>
-          <t>utilising healthcare</t>
+          <t xml:space="preserve">participating in healthcare testing  </t>
         </is>
       </c>
       <c r="H85" s="2" t="inlineStr"/>
@@ -5991,14 +5979,10 @@
       <c r="P85" s="2" t="inlineStr"/>
       <c r="Q85" s="2" t="inlineStr"/>
       <c r="R85" s="2" t="inlineStr"/>
-      <c r="S85" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Healthcare procedure is defined as ‘a healthcare intervention that refers to any series of pre-defined steps that should be followed to achieve a desired result.’ </t>
-        </is>
-      </c>
+      <c r="S85" s="2" t="inlineStr"/>
       <c r="T85" s="2" t="inlineStr">
         <is>
-          <t>Blood test to check for anaemia, psychological testing</t>
+          <t>Screen for breast cancer, screen for perinatal depression</t>
         </is>
       </c>
       <c r="U85" s="2" t="inlineStr">
@@ -6023,18 +6007,18 @@
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050404</t>
+          <t>BCIO:050401</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
         <is>
-          <t>participating in healthcare treatment</t>
+          <t xml:space="preserve">participating in healthcare testing  </t>
         </is>
       </c>
       <c r="C86" s="2" t="inlineStr"/>
       <c r="D86" s="2" t="inlineStr">
         <is>
-          <t>Utilising healthcare that involves interacting with a health professional to improve or maintain aspects of one's health or wellbeing.</t>
+          <t>Utilising healthcare that involves participating in a healthcare procedure to assess or monitor an aspect of one’s health or wellbeing.</t>
         </is>
       </c>
       <c r="E86" s="2" t="inlineStr"/>
@@ -6059,10 +6043,14 @@
       <c r="P86" s="2" t="inlineStr"/>
       <c r="Q86" s="2" t="inlineStr"/>
       <c r="R86" s="2" t="inlineStr"/>
-      <c r="S86" s="2" t="inlineStr"/>
+      <c r="S86" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Healthcare procedure is defined as ‘a healthcare intervention that refers to any series of pre-defined steps that should be followed to achieve a desired result.’ </t>
+        </is>
+      </c>
       <c r="T86" s="2" t="inlineStr">
         <is>
-          <t>Undergoing surgery</t>
+          <t>Blood test to check for anaemia, psychological testing</t>
         </is>
       </c>
       <c r="U86" s="2" t="inlineStr">
@@ -6087,25 +6075,25 @@
     <row r="87">
       <c r="A87" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050408</t>
+          <t>BCIO:050404</t>
         </is>
       </c>
       <c r="B87" s="2" t="inlineStr">
         <is>
-          <t>participating in occupational therapy</t>
+          <t>participating in healthcare treatment</t>
         </is>
       </c>
       <c r="C87" s="2" t="inlineStr"/>
       <c r="D87" s="2" t="inlineStr">
         <is>
-          <t>Participating in healthcare treatment that aims to enable people to participate in the activities of everyday life.</t>
+          <t>Utilising healthcare that involves interacting with a health professional to improve or maintain aspects of one's health or wellbeing.</t>
         </is>
       </c>
       <c r="E87" s="2" t="inlineStr"/>
       <c r="F87" s="2" t="inlineStr"/>
       <c r="G87" s="2" t="inlineStr">
         <is>
-          <t>participating in healthcare treatment</t>
+          <t>utilising healthcare</t>
         </is>
       </c>
       <c r="H87" s="2" t="inlineStr"/>
@@ -6124,7 +6112,11 @@
       <c r="Q87" s="2" t="inlineStr"/>
       <c r="R87" s="2" t="inlineStr"/>
       <c r="S87" s="2" t="inlineStr"/>
-      <c r="T87" s="2" t="inlineStr"/>
+      <c r="T87" s="2" t="inlineStr">
+        <is>
+          <t>Undergoing surgery</t>
+        </is>
+      </c>
       <c r="U87" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -6147,18 +6139,18 @@
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050405</t>
+          <t>BCIO:050408</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
         <is>
-          <t>participating in physical therapy</t>
+          <t>participating in occupational therapy</t>
         </is>
       </c>
       <c r="C88" s="2" t="inlineStr"/>
       <c r="D88" s="2" t="inlineStr">
         <is>
-          <t>Participating in healthcare treatment that involves advice, encouragement, or physical support to perform movements that remediate one’s bodily impairments or promote mobility, function or quality of life.</t>
+          <t>Participating in healthcare treatment that aims to enable people to participate in the activities of everyday life.</t>
         </is>
       </c>
       <c r="E88" s="2" t="inlineStr"/>
@@ -6207,18 +6199,18 @@
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050406</t>
+          <t>BCIO:050405</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
         <is>
-          <t>participating in psychological treatment</t>
+          <t>participating in physical therapy</t>
         </is>
       </c>
       <c r="C89" s="2" t="inlineStr"/>
       <c r="D89" s="2" t="inlineStr">
         <is>
-          <t>Participating in healthcare treatment that uses communication or recommended tasks to assess and improve adaptive mental or behavioural functioning.</t>
+          <t>Participating in healthcare treatment that involves advice, encouragement, or physical support to perform movements that remediate one’s bodily impairments or promote mobility, function or quality of life.</t>
         </is>
       </c>
       <c r="E89" s="2" t="inlineStr"/>
@@ -6267,18 +6259,18 @@
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050409</t>
+          <t>BCIO:050406</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
         <is>
-          <t>participating in speech and language therapy</t>
+          <t>participating in psychological treatment</t>
         </is>
       </c>
       <c r="C90" s="2" t="inlineStr"/>
       <c r="D90" s="2" t="inlineStr">
         <is>
-          <t>Participating in healthcare treatment that aims to improve or restore communication, eating, drinking or swallowing.</t>
+          <t>Participating in healthcare treatment that uses communication or recommended tasks to assess and improve adaptive mental or behavioural functioning.</t>
         </is>
       </c>
       <c r="E90" s="2" t="inlineStr"/>
@@ -6327,32 +6319,28 @@
     <row r="91">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036024</t>
+          <t>BCIO:050409</t>
         </is>
       </c>
       <c r="B91" s="2" t="inlineStr">
         <is>
-          <t>personal bodily care behaviour</t>
+          <t>participating in speech and language therapy</t>
         </is>
       </c>
       <c r="C91" s="2" t="inlineStr"/>
       <c r="D91" s="2" t="inlineStr">
         <is>
-          <t>An individual human behaviour that attends one’s own hygiene, comfort or appearance.</t>
+          <t>Participating in healthcare treatment that aims to improve or restore communication, eating, drinking or swallowing.</t>
         </is>
       </c>
       <c r="E91" s="2" t="inlineStr"/>
       <c r="F91" s="2" t="inlineStr"/>
       <c r="G91" s="2" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
-        </is>
-      </c>
-      <c r="H91" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>participating in healthcare treatment</t>
+        </is>
+      </c>
+      <c r="H91" s="2" t="inlineStr"/>
       <c r="I91" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -6367,16 +6355,8 @@
       <c r="P91" s="2" t="inlineStr"/>
       <c r="Q91" s="2" t="inlineStr"/>
       <c r="R91" s="2" t="inlineStr"/>
-      <c r="S91" s="2" t="inlineStr">
-        <is>
-          <t>Behaviour relating to supporting the personal care of others can be captured under the class 'social support behaviour'.</t>
-        </is>
-      </c>
-      <c r="T91" s="2" t="inlineStr">
-        <is>
-          <t>Nail-cutting</t>
-        </is>
-      </c>
+      <c r="S91" s="2" t="inlineStr"/>
+      <c r="T91" s="2" t="inlineStr"/>
       <c r="U91" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -6385,7 +6365,7 @@
       <c r="V91" s="2" t="inlineStr"/>
       <c r="W91" s="2" t="inlineStr">
         <is>
-          <t>RW; OC; JH</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X91" s="2" t="inlineStr">
@@ -6399,28 +6379,32 @@
     <row r="92">
       <c r="A92" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036036</t>
+          <t>BCIO:036024</t>
         </is>
       </c>
       <c r="B92" s="2" t="inlineStr">
         <is>
-          <t>physical combat behaviour</t>
+          <t>personal bodily care behaviour</t>
         </is>
       </c>
       <c r="C92" s="2" t="inlineStr"/>
       <c r="D92" s="2" t="inlineStr">
         <is>
-          <t>An inter-personal behaviour that involves taking part in a physical struggle involving contact or the use of weapons</t>
+          <t>An individual human behaviour that attends one’s own hygiene, comfort or appearance.</t>
         </is>
       </c>
       <c r="E92" s="2" t="inlineStr"/>
       <c r="F92" s="2" t="inlineStr"/>
       <c r="G92" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">inter-personal behaviour </t>
-        </is>
-      </c>
-      <c r="H92" s="2" t="inlineStr"/>
+          <t>individual human behaviour</t>
+        </is>
+      </c>
+      <c r="H92" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I92" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -6437,12 +6421,12 @@
       <c r="R92" s="2" t="inlineStr"/>
       <c r="S92" s="2" t="inlineStr">
         <is>
-          <t>Physical combat behaviour can be aggressive but does not need to be. For instance, people can fight as part of a game.</t>
+          <t>Behaviour relating to supporting the personal care of others can be captured under the class 'social support behaviour'.</t>
         </is>
       </c>
       <c r="T92" s="2" t="inlineStr">
         <is>
-          <t>Wrestling, fencing</t>
+          <t>Nail-cutting</t>
         </is>
       </c>
       <c r="U92" s="2" t="inlineStr">
@@ -6453,7 +6437,7 @@
       <c r="V92" s="2" t="inlineStr"/>
       <c r="W92" s="2" t="inlineStr">
         <is>
-          <t>OC</t>
+          <t>RW; OC; JH</t>
         </is>
       </c>
       <c r="X92" s="2" t="inlineStr">
@@ -6467,25 +6451,25 @@
     <row r="93">
       <c r="A93" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050426</t>
+          <t>BCIO:036036</t>
         </is>
       </c>
       <c r="B93" s="2" t="inlineStr">
         <is>
-          <t>physical contact behaviour</t>
+          <t>physical combat behaviour</t>
         </is>
       </c>
       <c r="C93" s="2" t="inlineStr"/>
       <c r="D93" s="2" t="inlineStr">
         <is>
-          <t>A material-entity related behaviour that makes physical contact with something.</t>
+          <t>An inter-personal behaviour that involves taking part in a physical struggle involving contact or the use of weapons</t>
         </is>
       </c>
       <c r="E93" s="2" t="inlineStr"/>
       <c r="F93" s="2" t="inlineStr"/>
       <c r="G93" s="2" t="inlineStr">
         <is>
-          <t>material-entity related behaviour</t>
+          <t xml:space="preserve">inter-personal behaviour </t>
         </is>
       </c>
       <c r="H93" s="2" t="inlineStr"/>
@@ -6503,10 +6487,14 @@
       <c r="P93" s="2" t="inlineStr"/>
       <c r="Q93" s="2" t="inlineStr"/>
       <c r="R93" s="2" t="inlineStr"/>
-      <c r="S93" s="2" t="inlineStr"/>
+      <c r="S93" s="2" t="inlineStr">
+        <is>
+          <t>Physical combat behaviour can be aggressive but does not need to be. For instance, people can fight as part of a game.</t>
+        </is>
+      </c>
       <c r="T93" s="2" t="inlineStr">
         <is>
-          <t>Touching</t>
+          <t>Wrestling, fencing</t>
         </is>
       </c>
       <c r="U93" s="2" t="inlineStr">
@@ -6517,7 +6505,7 @@
       <c r="V93" s="2" t="inlineStr"/>
       <c r="W93" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>OC</t>
         </is>
       </c>
       <c r="X93" s="2" t="inlineStr">
@@ -6531,29 +6519,25 @@
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050432</t>
+          <t>BCIO:050426</t>
         </is>
       </c>
       <c r="B94" s="2" t="inlineStr">
         <is>
-          <t>physical exertion expended on a behaviour</t>
-        </is>
-      </c>
-      <c r="C94" s="2" t="inlineStr">
-        <is>
-          <t>The physical effort required to perform a behaviour.</t>
-        </is>
-      </c>
+          <t>physical contact behaviour</t>
+        </is>
+      </c>
+      <c r="C94" s="2" t="inlineStr"/>
       <c r="D94" s="2" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is the level of musculoskeletal work expended on the behaviour to be enacted.</t>
+          <t>A material-entity related behaviour that makes physical contact with something.</t>
         </is>
       </c>
       <c r="E94" s="2" t="inlineStr"/>
       <c r="F94" s="2" t="inlineStr"/>
       <c r="G94" s="2" t="inlineStr">
         <is>
-          <t>behavioural attribute</t>
+          <t>material-entity related behaviour</t>
         </is>
       </c>
       <c r="H94" s="2" t="inlineStr"/>
@@ -6574,7 +6558,7 @@
       <c r="S94" s="2" t="inlineStr"/>
       <c r="T94" s="2" t="inlineStr">
         <is>
-          <t>physical performance behaviour has high physical exertion expended on a behaviour</t>
+          <t>Touching</t>
         </is>
       </c>
       <c r="U94" s="2" t="inlineStr">
@@ -6585,7 +6569,7 @@
       <c r="V94" s="2" t="inlineStr"/>
       <c r="W94" s="2" t="inlineStr">
         <is>
-          <t>PS; RW</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X94" s="2" t="inlineStr">
@@ -6599,32 +6583,32 @@
     <row r="95">
       <c r="A95" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036028</t>
+          <t>BCIO:050432</t>
         </is>
       </c>
       <c r="B95" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">physical impact behaviour </t>
-        </is>
-      </c>
-      <c r="C95" s="2" t="inlineStr"/>
+          <t>physical exertion expended on a behaviour</t>
+        </is>
+      </c>
+      <c r="C95" s="2" t="inlineStr">
+        <is>
+          <t>The physical effort required to perform a behaviour.</t>
+        </is>
+      </c>
       <c r="D95" s="2" t="inlineStr">
         <is>
-          <t>A physical contact behaviour that is forceful.</t>
+          <t>A behavioural attribute that is the level of musculoskeletal work expended on the behaviour to be enacted.</t>
         </is>
       </c>
       <c r="E95" s="2" t="inlineStr"/>
       <c r="F95" s="2" t="inlineStr"/>
       <c r="G95" s="2" t="inlineStr">
         <is>
-          <t>physical contact behaviour</t>
-        </is>
-      </c>
-      <c r="H95" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>behavioural attribute</t>
+        </is>
+      </c>
+      <c r="H95" s="2" t="inlineStr"/>
       <c r="I95" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -6642,20 +6626,18 @@
       <c r="S95" s="2" t="inlineStr"/>
       <c r="T95" s="2" t="inlineStr">
         <is>
-          <t>Pushing, Kicking, Punching</t>
-        </is>
-      </c>
-      <c r="U95" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="V95" s="2" t="inlineStr">
-        <is>
-          <t>The degree of force is not precisely specified.</t>
-        </is>
-      </c>
+          <t>physical performance behaviour has high physical exertion expended on a behaviour</t>
+        </is>
+      </c>
+      <c r="U95" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V95" s="2" t="inlineStr"/>
       <c r="W95" s="2" t="inlineStr">
         <is>
-          <t>RW; OC</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="X95" s="2" t="inlineStr">
@@ -6669,28 +6651,32 @@
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036042</t>
+          <t>BCIO:036028</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
         <is>
-          <t>physical performance behaviour</t>
+          <t xml:space="preserve">physical impact behaviour </t>
         </is>
       </c>
       <c r="C96" s="2" t="inlineStr"/>
       <c r="D96" s="2" t="inlineStr">
         <is>
-          <t>A health-related behaviour that involves maintenance or improvement of flexibility, strength, balance or cardiovascular fitness.</t>
+          <t>A physical contact behaviour that is forceful.</t>
         </is>
       </c>
       <c r="E96" s="2" t="inlineStr"/>
       <c r="F96" s="2" t="inlineStr"/>
       <c r="G96" s="2" t="inlineStr">
         <is>
-          <t>health-related behaviour</t>
-        </is>
-      </c>
-      <c r="H96" s="2" t="inlineStr"/>
+          <t>physical contact behaviour</t>
+        </is>
+      </c>
+      <c r="H96" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I96" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -6708,18 +6694,20 @@
       <c r="S96" s="2" t="inlineStr"/>
       <c r="T96" s="2" t="inlineStr">
         <is>
-          <t>Swimming, Engaging in regular physical activity, Exercising, Playing recreational sport</t>
-        </is>
-      </c>
-      <c r="U96" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V96" s="2" t="inlineStr"/>
+          <t>Pushing, Kicking, Punching</t>
+        </is>
+      </c>
+      <c r="U96" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V96" s="2" t="inlineStr">
+        <is>
+          <t>The degree of force is not precisely specified.</t>
+        </is>
+      </c>
       <c r="W96" s="2" t="inlineStr">
         <is>
-          <t>OC; PS</t>
+          <t>RW; OC</t>
         </is>
       </c>
       <c r="X96" s="2" t="inlineStr">
@@ -6733,25 +6721,25 @@
     <row r="97">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036089</t>
+          <t>BCIO:036042</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
         <is>
-          <t>political behaviour</t>
+          <t>physical performance behaviour</t>
         </is>
       </c>
       <c r="C97" s="2" t="inlineStr"/>
       <c r="D97" s="2" t="inlineStr">
         <is>
-          <t>A socially-related behaviour that aims to bring about or oppose political or social change.</t>
+          <t>A health-related behaviour that involves maintenance or improvement of flexibility, strength, balance or cardiovascular fitness.</t>
         </is>
       </c>
       <c r="E97" s="2" t="inlineStr"/>
       <c r="F97" s="2" t="inlineStr"/>
       <c r="G97" s="2" t="inlineStr">
         <is>
-          <t>socially-related behaviour</t>
+          <t>health-related behaviour</t>
         </is>
       </c>
       <c r="H97" s="2" t="inlineStr"/>
@@ -6772,7 +6760,7 @@
       <c r="S97" s="2" t="inlineStr"/>
       <c r="T97" s="2" t="inlineStr">
         <is>
-          <t>Voting, Supporting a political campaign, Engaging in political activism, Engaging in protest, Engaging in boycotts, Engaging in strikes, Political opposition, Campaigning to be elected</t>
+          <t>Swimming, Engaging in regular physical activity, Exercising, Playing recreational sport</t>
         </is>
       </c>
       <c r="U97" s="2" t="inlineStr">
@@ -6797,25 +6785,25 @@
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050440</t>
+          <t>BCIO:036089</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
         <is>
-          <t>position-related behaviour</t>
+          <t>political behaviour</t>
         </is>
       </c>
       <c r="C98" s="2" t="inlineStr"/>
       <c r="D98" s="2" t="inlineStr">
         <is>
-          <t>An individual human behaviour that relates to the enactor's posture or location.</t>
+          <t>A socially-related behaviour that aims to bring about or oppose political or social change.</t>
         </is>
       </c>
       <c r="E98" s="2" t="inlineStr"/>
       <c r="F98" s="2" t="inlineStr"/>
       <c r="G98" s="2" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t>socially-related behaviour</t>
         </is>
       </c>
       <c r="H98" s="2" t="inlineStr"/>
@@ -6834,7 +6822,11 @@
       <c r="Q98" s="2" t="inlineStr"/>
       <c r="R98" s="2" t="inlineStr"/>
       <c r="S98" s="2" t="inlineStr"/>
-      <c r="T98" s="2" t="inlineStr"/>
+      <c r="T98" s="2" t="inlineStr">
+        <is>
+          <t>Voting, Supporting a political campaign, Engaging in political activism, Engaging in protest, Engaging in boycotts, Engaging in strikes, Political opposition, Campaigning to be elected</t>
+        </is>
+      </c>
       <c r="U98" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -6843,7 +6835,7 @@
       <c r="V98" s="2" t="inlineStr"/>
       <c r="W98" s="2" t="inlineStr">
         <is>
-          <t>PS; RW</t>
+          <t>OC; PS</t>
         </is>
       </c>
       <c r="X98" s="2" t="inlineStr">
@@ -6857,32 +6849,28 @@
     <row r="99">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036029</t>
+          <t>BCIO:050440</t>
         </is>
       </c>
       <c r="B99" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">posture behaviour </t>
+          <t>position-related behaviour</t>
         </is>
       </c>
       <c r="C99" s="2" t="inlineStr"/>
       <c r="D99" s="2" t="inlineStr">
         <is>
-          <t>A position-related behaviour that involves adopting a body configuration in relation to the immediate environment.</t>
+          <t>An individual human behaviour that relates to the enactor's posture or location.</t>
         </is>
       </c>
       <c r="E99" s="2" t="inlineStr"/>
       <c r="F99" s="2" t="inlineStr"/>
       <c r="G99" s="2" t="inlineStr">
         <is>
-          <t>position-related behaviour</t>
-        </is>
-      </c>
-      <c r="H99" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>individual human behaviour</t>
+        </is>
+      </c>
+      <c r="H99" s="2" t="inlineStr"/>
       <c r="I99" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -6907,7 +6895,7 @@
       <c r="V99" s="2" t="inlineStr"/>
       <c r="W99" s="2" t="inlineStr">
         <is>
-          <t>RW; OC; PS</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="X99" s="2" t="inlineStr">
@@ -6921,28 +6909,32 @@
     <row r="100">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050354</t>
+          <t>BCIO:036029</t>
         </is>
       </c>
       <c r="B100" s="2" t="inlineStr">
         <is>
-          <t>prescribing behaviour</t>
+          <t xml:space="preserve">posture behaviour </t>
         </is>
       </c>
       <c r="C100" s="2" t="inlineStr"/>
       <c r="D100" s="2" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves advising and authorising the use of a treatment to improve or maintain another person's health or wellbeing.</t>
+          <t>A position-related behaviour that involves adopting a body configuration in relation to the immediate environment.</t>
         </is>
       </c>
       <c r="E100" s="2" t="inlineStr"/>
       <c r="F100" s="2" t="inlineStr"/>
       <c r="G100" s="2" t="inlineStr">
         <is>
-          <t>providing healthcare</t>
-        </is>
-      </c>
-      <c r="H100" s="2" t="inlineStr"/>
+          <t>position-related behaviour</t>
+        </is>
+      </c>
+      <c r="H100" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I100" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -6967,7 +6959,7 @@
       <c r="V100" s="2" t="inlineStr"/>
       <c r="W100" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW; OC; PS</t>
         </is>
       </c>
       <c r="X100" s="2" t="inlineStr">
@@ -6981,25 +6973,25 @@
     <row r="101">
       <c r="A101" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050356</t>
+          <t>BCIO:050354</t>
         </is>
       </c>
       <c r="B101" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">prescribing behavioural regime </t>
+          <t>prescribing behaviour</t>
         </is>
       </c>
       <c r="C101" s="2" t="inlineStr"/>
       <c r="D101" s="2" t="inlineStr">
         <is>
-          <t>Prescribing behaviour that involves advising and authorising the performance of a behaviour or a series of behaviours.</t>
+          <t>Providing healthcare that involves advising and authorising the use of a treatment to improve or maintain another person's health or wellbeing.</t>
         </is>
       </c>
       <c r="E101" s="2" t="inlineStr"/>
       <c r="F101" s="2" t="inlineStr"/>
       <c r="G101" s="2" t="inlineStr">
         <is>
-          <t>prescribing behaviour</t>
+          <t>providing healthcare</t>
         </is>
       </c>
       <c r="H101" s="2" t="inlineStr"/>
@@ -7041,18 +7033,18 @@
     <row r="102">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050355</t>
+          <t>BCIO:050356</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
         <is>
-          <t>prescribing medication</t>
+          <t xml:space="preserve">prescribing behavioural regime </t>
         </is>
       </c>
       <c r="C102" s="2" t="inlineStr"/>
       <c r="D102" s="2" t="inlineStr">
         <is>
-          <t>Prescribing behaviour that involves advising and authorising the use of a medicine.</t>
+          <t>Prescribing behaviour that involves advising and authorising the performance of a behaviour or a series of behaviours.</t>
         </is>
       </c>
       <c r="E102" s="2" t="inlineStr"/>
@@ -7077,12 +7069,7 @@
       <c r="P102" s="2" t="inlineStr"/>
       <c r="Q102" s="2" t="inlineStr"/>
       <c r="R102" s="2" t="inlineStr"/>
-      <c r="S102" s="2" t="inlineStr">
-        <is>
-          <t>Medicine is defined as type of drug, i.e., ‘any substance which when absorbed into a living organism may modify one or more of its functions.’ (http://purl.obolibrary.org/obo/CHEBI_23888)
-Prescribing medication can include advising and authorising to stop using a medicine.</t>
-        </is>
-      </c>
+      <c r="S102" s="2" t="inlineStr"/>
       <c r="T102" s="2" t="inlineStr"/>
       <c r="U102" s="2" t="inlineStr">
         <is>
@@ -7106,25 +7093,25 @@
     <row r="103">
       <c r="A103" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036066</t>
+          <t>BCIO:050355</t>
         </is>
       </c>
       <c r="B103" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">pro-social behaviour </t>
+          <t>prescribing medication</t>
         </is>
       </c>
       <c r="C103" s="2" t="inlineStr"/>
       <c r="D103" s="2" t="inlineStr">
         <is>
-          <t>A socially-related behaviour that a population judges to accord with current norms of positive social conduct.</t>
+          <t>Prescribing behaviour that involves advising and authorising the use of a medicine.</t>
         </is>
       </c>
       <c r="E103" s="2" t="inlineStr"/>
       <c r="F103" s="2" t="inlineStr"/>
       <c r="G103" s="2" t="inlineStr">
         <is>
-          <t>socially-related behaviour</t>
+          <t>prescribing behaviour</t>
         </is>
       </c>
       <c r="H103" s="2" t="inlineStr"/>
@@ -7142,12 +7129,13 @@
       <c r="P103" s="2" t="inlineStr"/>
       <c r="Q103" s="2" t="inlineStr"/>
       <c r="R103" s="2" t="inlineStr"/>
-      <c r="S103" s="2" t="inlineStr"/>
-      <c r="T103" s="2" t="inlineStr">
-        <is>
-          <t>Advocating, Recycling, Donating, Charitable giving, Charitable working, Volunteering, Participating in research, Co-operation, Altruism, Sharing food, Helping others</t>
-        </is>
-      </c>
+      <c r="S103" s="2" t="inlineStr">
+        <is>
+          <t>Medicine is defined as type of drug, i.e., ‘any substance which when absorbed into a living organism may modify one or more of its functions.’ (http://purl.obolibrary.org/obo/CHEBI_23888)
+Prescribing medication can include advising and authorising to stop using a medicine.</t>
+        </is>
+      </c>
+      <c r="T103" s="2" t="inlineStr"/>
       <c r="U103" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -7156,7 +7144,7 @@
       <c r="V103" s="2" t="inlineStr"/>
       <c r="W103" s="2" t="inlineStr">
         <is>
-          <t>OC; PS</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X103" s="2" t="inlineStr">
@@ -7170,36 +7158,28 @@
     <row r="104">
       <c r="A104" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036107</t>
+          <t>BCIO:036066</t>
         </is>
       </c>
       <c r="B104" s="2" t="inlineStr">
         <is>
-          <t>process aggregate</t>
-        </is>
-      </c>
-      <c r="C104" s="2" t="inlineStr">
-        <is>
-          <t>Processes that repeat over time.</t>
-        </is>
-      </c>
+          <t xml:space="preserve">pro-social behaviour </t>
+        </is>
+      </c>
+      <c r="C104" s="2" t="inlineStr"/>
       <c r="D104" s="2" t="inlineStr">
         <is>
-          <t>An occurrent consisting exactly of a plurality of processes that are process_aggregate_member_parts_of that occurrent for all times at which it exists.</t>
+          <t>A socially-related behaviour that a population judges to accord with current norms of positive social conduct.</t>
         </is>
       </c>
       <c r="E104" s="2" t="inlineStr"/>
       <c r="F104" s="2" t="inlineStr"/>
       <c r="G104" s="2" t="inlineStr">
         <is>
-          <t>occurrent</t>
-        </is>
-      </c>
-      <c r="H104" s="2" t="inlineStr">
-        <is>
-          <t>occurrent</t>
-        </is>
-      </c>
+          <t>socially-related behaviour</t>
+        </is>
+      </c>
+      <c r="H104" s="2" t="inlineStr"/>
       <c r="I104" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -7211,15 +7191,15 @@
       <c r="M104" s="2" t="inlineStr"/>
       <c r="N104" s="2" t="inlineStr"/>
       <c r="O104" s="2" t="inlineStr"/>
-      <c r="P104" s="2" t="inlineStr">
-        <is>
-          <t>Process aggregate extends BFO in the same way that object aggregate extends its coverage of material entities. It is required to be able to classify occurrents such as behaviour patterns that are repeated occurrences of classes of process that have properties such as average frequency of occurrence (not to be confused with frequency as a process profile) and temporal patterning of occurrences.</t>
-        </is>
-      </c>
+      <c r="P104" s="2" t="inlineStr"/>
       <c r="Q104" s="2" t="inlineStr"/>
       <c r="R104" s="2" t="inlineStr"/>
       <c r="S104" s="2" t="inlineStr"/>
-      <c r="T104" s="2" t="inlineStr"/>
+      <c r="T104" s="2" t="inlineStr">
+        <is>
+          <t>Advocating, Recycling, Donating, Charitable giving, Charitable working, Volunteering, Participating in research, Co-operation, Altruism, Sharing food, Helping others</t>
+        </is>
+      </c>
       <c r="U104" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -7228,7 +7208,7 @@
       <c r="V104" s="2" t="inlineStr"/>
       <c r="W104" s="2" t="inlineStr">
         <is>
-          <t>RW; JH</t>
+          <t>OC; PS</t>
         </is>
       </c>
       <c r="X104" s="2" t="inlineStr">
@@ -7242,28 +7222,36 @@
     <row r="105">
       <c r="A105" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050365</t>
+          <t>BCIO:036107</t>
         </is>
       </c>
       <c r="B105" s="2" t="inlineStr">
         <is>
-          <t>providing creative arts therapy</t>
-        </is>
-      </c>
-      <c r="C105" s="2" t="inlineStr"/>
+          <t>process aggregate</t>
+        </is>
+      </c>
+      <c r="C105" s="2" t="inlineStr">
+        <is>
+          <t>Processes that repeat over time.</t>
+        </is>
+      </c>
       <c r="D105" s="2" t="inlineStr">
         <is>
-          <t>Providing psychological treatment that involves creative and expressive processes.</t>
+          <t>An occurrent consisting exactly of a plurality of processes that are process_aggregate_member_parts_of that occurrent for all times at which it exists.</t>
         </is>
       </c>
       <c r="E105" s="2" t="inlineStr"/>
       <c r="F105" s="2" t="inlineStr"/>
       <c r="G105" s="2" t="inlineStr">
         <is>
-          <t>providing psychological treatment</t>
-        </is>
-      </c>
-      <c r="H105" s="2" t="inlineStr"/>
+          <t>occurrent</t>
+        </is>
+      </c>
+      <c r="H105" s="2" t="inlineStr">
+        <is>
+          <t>occurrent</t>
+        </is>
+      </c>
       <c r="I105" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -7275,7 +7263,11 @@
       <c r="M105" s="2" t="inlineStr"/>
       <c r="N105" s="2" t="inlineStr"/>
       <c r="O105" s="2" t="inlineStr"/>
-      <c r="P105" s="2" t="inlineStr"/>
+      <c r="P105" s="2" t="inlineStr">
+        <is>
+          <t>Process aggregate extends BFO in the same way that object aggregate extends its coverage of material entities. It is required to be able to classify occurrents such as behaviour patterns that are repeated occurrences of classes of process that have properties such as average frequency of occurrence (not to be confused with frequency as a process profile) and temporal patterning of occurrences.</t>
+        </is>
+      </c>
       <c r="Q105" s="2" t="inlineStr"/>
       <c r="R105" s="2" t="inlineStr"/>
       <c r="S105" s="2" t="inlineStr"/>
@@ -7288,7 +7280,7 @@
       <c r="V105" s="2" t="inlineStr"/>
       <c r="W105" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW; JH</t>
         </is>
       </c>
       <c r="X105" s="2" t="inlineStr">
@@ -7302,25 +7294,25 @@
     <row r="106">
       <c r="A106" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050413</t>
+          <t>BCIO:050365</t>
         </is>
       </c>
       <c r="B106" s="2" t="inlineStr">
         <is>
-          <t>providing healthcare</t>
+          <t>providing creative arts therapy</t>
         </is>
       </c>
       <c r="C106" s="2" t="inlineStr"/>
       <c r="D106" s="2" t="inlineStr">
         <is>
-          <t>A health-related behaviour that involves assessing, monitoring, improving or maintaining an aspect of another person’s health.</t>
+          <t>Providing psychological treatment that involves creative and expressive processes.</t>
         </is>
       </c>
       <c r="E106" s="2" t="inlineStr"/>
       <c r="F106" s="2" t="inlineStr"/>
       <c r="G106" s="2" t="inlineStr">
         <is>
-          <t>health-related behaviour</t>
+          <t>providing psychological treatment</t>
         </is>
       </c>
       <c r="H106" s="2" t="inlineStr"/>
@@ -7362,25 +7354,25 @@
     <row r="107">
       <c r="A107" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050360</t>
+          <t>BCIO:050413</t>
         </is>
       </c>
       <c r="B107" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">providing healthcare advice </t>
+          <t>providing healthcare</t>
         </is>
       </c>
       <c r="C107" s="2" t="inlineStr"/>
       <c r="D107" s="2" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves communicating guidance or recommendations to improve or maintain another person’s health or wellbeing.</t>
+          <t>A health-related behaviour that involves assessing, monitoring, improving or maintaining an aspect of another person’s health.</t>
         </is>
       </c>
       <c r="E107" s="2" t="inlineStr"/>
       <c r="F107" s="2" t="inlineStr"/>
       <c r="G107" s="2" t="inlineStr">
         <is>
-          <t>providing healthcare</t>
+          <t>health-related behaviour</t>
         </is>
       </c>
       <c r="H107" s="2" t="inlineStr"/>
@@ -7422,18 +7414,18 @@
     <row r="108">
       <c r="A108" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050352</t>
+          <t>BCIO:050360</t>
         </is>
       </c>
       <c r="B108" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">providing healthcare testing </t>
+          <t xml:space="preserve">providing healthcare advice </t>
         </is>
       </c>
       <c r="C108" s="2" t="inlineStr"/>
       <c r="D108" s="2" t="inlineStr">
         <is>
-          <t>Providing a healthcare that involves a procedure to assess another person’s health or wellbeing.</t>
+          <t>Providing healthcare that involves communicating guidance or recommendations to improve or maintain another person’s health or wellbeing.</t>
         </is>
       </c>
       <c r="E108" s="2" t="inlineStr"/>
@@ -7482,18 +7474,18 @@
     <row r="109">
       <c r="A109" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050362</t>
+          <t>BCIO:050352</t>
         </is>
       </c>
       <c r="B109" s="2" t="inlineStr">
         <is>
-          <t>providing healthcare treatment</t>
+          <t xml:space="preserve">providing healthcare testing </t>
         </is>
       </c>
       <c r="C109" s="2" t="inlineStr"/>
       <c r="D109" s="2" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves interacting with a person to improve or maintain aspects of this person’s health or wellbeing.</t>
+          <t>Providing a healthcare that involves a procedure to assess another person’s health or wellbeing.</t>
         </is>
       </c>
       <c r="E109" s="2" t="inlineStr"/>
@@ -7542,25 +7534,25 @@
     <row r="110">
       <c r="A110" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050353</t>
+          <t>BCIO:050362</t>
         </is>
       </c>
       <c r="B110" s="2" t="inlineStr">
         <is>
-          <t>providing in health screening</t>
+          <t>providing healthcare treatment</t>
         </is>
       </c>
       <c r="C110" s="2" t="inlineStr"/>
       <c r="D110" s="2" t="inlineStr">
         <is>
-          <t>Providing healthcare testing to detect the presence of a health condition in a person who is asymptomatic for that condition.</t>
+          <t>Providing healthcare that involves interacting with a person to improve or maintain aspects of this person’s health or wellbeing.</t>
         </is>
       </c>
       <c r="E110" s="2" t="inlineStr"/>
       <c r="F110" s="2" t="inlineStr"/>
       <c r="G110" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">providing healthcare testing </t>
+          <t>providing healthcare</t>
         </is>
       </c>
       <c r="H110" s="2" t="inlineStr"/>
@@ -7602,25 +7594,25 @@
     <row r="111">
       <c r="A111" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050366</t>
+          <t>BCIO:050353</t>
         </is>
       </c>
       <c r="B111" s="2" t="inlineStr">
         <is>
-          <t>providing occupational therapy</t>
+          <t>providing in health screening</t>
         </is>
       </c>
       <c r="C111" s="2" t="inlineStr"/>
       <c r="D111" s="2" t="inlineStr">
         <is>
-          <t>Providing healthcare treatment that aims to enable people to participate in the activities of everyday life.</t>
+          <t>Providing healthcare testing to detect the presence of a health condition in a person who is asymptomatic for that condition.</t>
         </is>
       </c>
       <c r="E111" s="2" t="inlineStr"/>
       <c r="F111" s="2" t="inlineStr"/>
       <c r="G111" s="2" t="inlineStr">
         <is>
-          <t>providing healthcare treatment</t>
+          <t xml:space="preserve">providing healthcare testing </t>
         </is>
       </c>
       <c r="H111" s="2" t="inlineStr"/>
@@ -7662,18 +7654,18 @@
     <row r="112">
       <c r="A112" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050363</t>
+          <t>BCIO:050366</t>
         </is>
       </c>
       <c r="B112" s="2" t="inlineStr">
         <is>
-          <t>providing physical therapy</t>
+          <t>providing occupational therapy</t>
         </is>
       </c>
       <c r="C112" s="2" t="inlineStr"/>
       <c r="D112" s="2" t="inlineStr">
         <is>
-          <t>Providing healthcare treatment that involves advising, encouraging or physically supporting, a person to perform movements that remediate this person’s bodily impairments or promote mobility, function or quality of life.</t>
+          <t>Providing healthcare treatment that aims to enable people to participate in the activities of everyday life.</t>
         </is>
       </c>
       <c r="E112" s="2" t="inlineStr"/>
@@ -7722,18 +7714,18 @@
     <row r="113">
       <c r="A113" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050364</t>
+          <t>BCIO:050363</t>
         </is>
       </c>
       <c r="B113" s="2" t="inlineStr">
         <is>
-          <t>providing psychological treatment</t>
+          <t>providing physical therapy</t>
         </is>
       </c>
       <c r="C113" s="2" t="inlineStr"/>
       <c r="D113" s="2" t="inlineStr">
         <is>
-          <t>Providing healthcare treatment that uses communication or recommended tasks to assess and improve a person’s adaptive mental or behavioural functioning.</t>
+          <t>Providing healthcare treatment that involves advising, encouraging or physically supporting, a person to perform movements that remediate this person’s bodily impairments or promote mobility, function or quality of life.</t>
         </is>
       </c>
       <c r="E113" s="2" t="inlineStr"/>
@@ -7782,18 +7774,18 @@
     <row r="114">
       <c r="A114" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050367</t>
+          <t>BCIO:050364</t>
         </is>
       </c>
       <c r="B114" s="2" t="inlineStr">
         <is>
-          <t>providing speech and language therapy</t>
+          <t>providing psychological treatment</t>
         </is>
       </c>
       <c r="C114" s="2" t="inlineStr"/>
       <c r="D114" s="2" t="inlineStr">
         <is>
-          <t>Providing healthcare treatment that aims to improve or restore communication, eating, drinking or swallowing.</t>
+          <t>Providing healthcare treatment that uses communication or recommended tasks to assess and improve a person’s adaptive mental or behavioural functioning.</t>
         </is>
       </c>
       <c r="E114" s="2" t="inlineStr"/>
@@ -7842,25 +7834,25 @@
     <row r="115">
       <c r="A115" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036063</t>
+          <t>BCIO:050367</t>
         </is>
       </c>
       <c r="B115" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">reading behaviour </t>
+          <t>providing speech and language therapy</t>
         </is>
       </c>
       <c r="C115" s="2" t="inlineStr"/>
       <c r="D115" s="2" t="inlineStr">
         <is>
-          <t>An object-using behaviour that involves deriving meaning from written or printed symbols.</t>
+          <t>Providing healthcare treatment that aims to improve or restore communication, eating, drinking or swallowing.</t>
         </is>
       </c>
       <c r="E115" s="2" t="inlineStr"/>
       <c r="F115" s="2" t="inlineStr"/>
       <c r="G115" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">object-using behaviour </t>
+          <t>providing healthcare treatment</t>
         </is>
       </c>
       <c r="H115" s="2" t="inlineStr"/>
@@ -7888,7 +7880,7 @@
       <c r="V115" s="2" t="inlineStr"/>
       <c r="W115" s="2" t="inlineStr">
         <is>
-          <t>OC</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X115" s="2" t="inlineStr">
@@ -7902,25 +7894,25 @@
     <row r="116">
       <c r="A116" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036068</t>
+          <t>BCIO:036063</t>
         </is>
       </c>
       <c r="B116" s="2" t="inlineStr">
         <is>
-          <t>reclining</t>
+          <t xml:space="preserve">reading behaviour </t>
         </is>
       </c>
       <c r="C116" s="2" t="inlineStr"/>
       <c r="D116" s="2" t="inlineStr">
         <is>
-          <t>A posture behaviour in which one's weight is supported by one's buttocks and back rather than one's feet, and in which one's back rests on a surface at an angle that is greater than 90 degrees and less than 180 degrees.</t>
+          <t>An object-using behaviour that involves deriving meaning from written or printed symbols.</t>
         </is>
       </c>
       <c r="E116" s="2" t="inlineStr"/>
       <c r="F116" s="2" t="inlineStr"/>
       <c r="G116" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">posture behaviour </t>
+          <t xml:space="preserve">object-using behaviour </t>
         </is>
       </c>
       <c r="H116" s="2" t="inlineStr"/>
@@ -7962,25 +7954,25 @@
     <row r="117">
       <c r="A117" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050444</t>
+          <t>BCIO:036068</t>
         </is>
       </c>
       <c r="B117" s="2" t="inlineStr">
         <is>
-          <t>reflectiveness</t>
+          <t>reclining</t>
         </is>
       </c>
       <c r="C117" s="2" t="inlineStr"/>
       <c r="D117" s="2" t="inlineStr">
         <is>
-          <t>A behaviour attribute in which the behaviour is a response to reflective motivation or thinking.</t>
+          <t>A posture behaviour in which one's weight is supported by one's buttocks and back rather than one's feet, and in which one's back rests on a surface at an angle that is greater than 90 degrees and less than 180 degrees.</t>
         </is>
       </c>
       <c r="E117" s="2" t="inlineStr"/>
       <c r="F117" s="2" t="inlineStr"/>
       <c r="G117" s="2" t="inlineStr">
         <is>
-          <t>behaviour attribute</t>
+          <t xml:space="preserve">posture behaviour </t>
         </is>
       </c>
       <c r="H117" s="2" t="inlineStr"/>
@@ -8008,7 +8000,7 @@
       <c r="V117" s="2" t="inlineStr"/>
       <c r="W117" s="2" t="inlineStr">
         <is>
-          <t>PS; RW</t>
+          <t>OC</t>
         </is>
       </c>
       <c r="X117" s="2" t="inlineStr">
@@ -8022,25 +8014,25 @@
     <row r="118">
       <c r="A118" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036056</t>
+          <t>BCIO:050444</t>
         </is>
       </c>
       <c r="B118" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">reproductive behaviour </t>
+          <t>reflectiveness</t>
         </is>
       </c>
       <c r="C118" s="2" t="inlineStr"/>
       <c r="D118" s="2" t="inlineStr">
         <is>
-          <t>A life function-related behaviour that involves producing offspring based on combining DNA of two or more people.</t>
+          <t>A behaviour attribute in which the behaviour is a response to reflective motivation or thinking.</t>
         </is>
       </c>
       <c r="E118" s="2" t="inlineStr"/>
       <c r="F118" s="2" t="inlineStr"/>
       <c r="G118" s="2" t="inlineStr">
         <is>
-          <t>life function-related behaviour</t>
+          <t>behaviour attribute</t>
         </is>
       </c>
       <c r="H118" s="2" t="inlineStr"/>
@@ -8058,16 +8050,8 @@
       <c r="P118" s="2" t="inlineStr"/>
       <c r="Q118" s="2" t="inlineStr"/>
       <c r="R118" s="2" t="inlineStr"/>
-      <c r="S118" s="2" t="inlineStr">
-        <is>
-          <t>The classes 'reproductive behaviour' and 'sexual behaviour' have some instances in which they would overlap. For instance, a subclass of both of these classes would be 'reproductive sexual behaviour'. Examples for 'reproductive sexual behaviour' can be annotated by using the two classes: 'reproductive behaviour' and 'sexual behaviour'. There are also various examples in which the classes 'reproductive behaviour' does not overlap with sexual behaviour. For instance, fertility preservation would be a reproductive behaviour but not a sexual behaviour. Similarly, various sexual behaviours do not have a reproductive function. For instance, performing oral sex may not have a reproductive function.</t>
-        </is>
-      </c>
-      <c r="T118" s="2" t="inlineStr">
-        <is>
-          <t>Fertility preservation</t>
-        </is>
-      </c>
+      <c r="S118" s="2" t="inlineStr"/>
+      <c r="T118" s="2" t="inlineStr"/>
       <c r="U118" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -8076,7 +8060,7 @@
       <c r="V118" s="2" t="inlineStr"/>
       <c r="W118" s="2" t="inlineStr">
         <is>
-          <t>OC; PS</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="X118" s="2" t="inlineStr">
@@ -8090,25 +8074,25 @@
     <row r="119">
       <c r="A119" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050358</t>
+          <t>BCIO:036056</t>
         </is>
       </c>
       <c r="B119" s="2" t="inlineStr">
         <is>
-          <t>reviewing prescribed medication</t>
+          <t xml:space="preserve">reproductive behaviour </t>
         </is>
       </c>
       <c r="C119" s="2" t="inlineStr"/>
       <c r="D119" s="2" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves assessing a person's health or wellbeing after a period of taking a prescribed medication and assessing whether the medication continues to be appropriate.</t>
+          <t>A life function-related behaviour that involves producing offspring based on combining DNA of two or more people.</t>
         </is>
       </c>
       <c r="E119" s="2" t="inlineStr"/>
       <c r="F119" s="2" t="inlineStr"/>
       <c r="G119" s="2" t="inlineStr">
         <is>
-          <t>providing healthcare</t>
+          <t>life function-related behaviour</t>
         </is>
       </c>
       <c r="H119" s="2" t="inlineStr"/>
@@ -8126,8 +8110,16 @@
       <c r="P119" s="2" t="inlineStr"/>
       <c r="Q119" s="2" t="inlineStr"/>
       <c r="R119" s="2" t="inlineStr"/>
-      <c r="S119" s="2" t="inlineStr"/>
-      <c r="T119" s="2" t="inlineStr"/>
+      <c r="S119" s="2" t="inlineStr">
+        <is>
+          <t>The classes 'reproductive behaviour' and 'sexual behaviour' have some instances in which they would overlap. For instance, a subclass of both of these classes would be 'reproductive sexual behaviour'. Examples for 'reproductive sexual behaviour' can be annotated by using the two classes: 'reproductive behaviour' and 'sexual behaviour'. There are also various examples in which the classes 'reproductive behaviour' does not overlap with sexual behaviour. For instance, fertility preservation would be a reproductive behaviour but not a sexual behaviour. Similarly, various sexual behaviours do not have a reproductive function. For instance, performing oral sex may not have a reproductive function.</t>
+        </is>
+      </c>
+      <c r="T119" s="2" t="inlineStr">
+        <is>
+          <t>Fertility preservation</t>
+        </is>
+      </c>
       <c r="U119" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -8136,7 +8128,7 @@
       <c r="V119" s="2" t="inlineStr"/>
       <c r="W119" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>OC; PS</t>
         </is>
       </c>
       <c r="X119" s="2" t="inlineStr">
@@ -8150,25 +8142,25 @@
     <row r="120">
       <c r="A120" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050415</t>
+          <t>BCIO:050358</t>
         </is>
       </c>
       <c r="B120" s="2" t="inlineStr">
         <is>
-          <t>self-injecting consumption</t>
+          <t>reviewing prescribed medication</t>
         </is>
       </c>
       <c r="C120" s="2" t="inlineStr"/>
       <c r="D120" s="2" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves administering a liquid into one’s body with a needle and a syringe.</t>
+          <t>Providing healthcare that involves assessing a person's health or wellbeing after a period of taking a prescribed medication and assessing whether the medication continues to be appropriate.</t>
         </is>
       </c>
       <c r="E120" s="2" t="inlineStr"/>
       <c r="F120" s="2" t="inlineStr"/>
       <c r="G120" s="2" t="inlineStr">
         <is>
-          <t>consumption behaviour</t>
+          <t>providing healthcare</t>
         </is>
       </c>
       <c r="H120" s="2" t="inlineStr"/>
@@ -8186,11 +8178,7 @@
       <c r="P120" s="2" t="inlineStr"/>
       <c r="Q120" s="2" t="inlineStr"/>
       <c r="R120" s="2" t="inlineStr"/>
-      <c r="S120" s="2" t="inlineStr">
-        <is>
-          <t>In the definition, ‘a needle and a springe’ include both a standard needle and syringe but also an autoinjector.</t>
-        </is>
-      </c>
+      <c r="S120" s="2" t="inlineStr"/>
       <c r="T120" s="2" t="inlineStr"/>
       <c r="U120" s="2" t="inlineStr">
         <is>
@@ -8214,25 +8202,25 @@
     <row r="121">
       <c r="A121" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036014</t>
+          <t>BCIO:050415</t>
         </is>
       </c>
       <c r="B121" s="2" t="inlineStr">
         <is>
-          <t>self-injury behaviour</t>
+          <t>self-injecting consumption</t>
         </is>
       </c>
       <c r="C121" s="2" t="inlineStr"/>
       <c r="D121" s="2" t="inlineStr">
         <is>
-          <t>A harmful behaviour that involves intentionally causing oneself physical harm.</t>
+          <t>A consumption behaviour that involves administering a liquid into one’s body with a needle and a syringe.</t>
         </is>
       </c>
       <c r="E121" s="2" t="inlineStr"/>
       <c r="F121" s="2" t="inlineStr"/>
       <c r="G121" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">harmful behaviour </t>
+          <t>consumption behaviour</t>
         </is>
       </c>
       <c r="H121" s="2" t="inlineStr"/>
@@ -8252,14 +8240,10 @@
       <c r="R121" s="2" t="inlineStr"/>
       <c r="S121" s="2" t="inlineStr">
         <is>
-          <t>There can be different reasons for engaging in self-injury behaviours, including to deal with difficult feelings and memories.</t>
-        </is>
-      </c>
-      <c r="T121" s="2" t="inlineStr">
-        <is>
-          <t>Intentional overdose</t>
-        </is>
-      </c>
+          <t>In the definition, ‘a needle and a springe’ include both a standard needle and syringe but also an autoinjector.</t>
+        </is>
+      </c>
+      <c r="T121" s="2" t="inlineStr"/>
       <c r="U121" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -8268,7 +8252,7 @@
       <c r="V121" s="2" t="inlineStr"/>
       <c r="W121" s="2" t="inlineStr">
         <is>
-          <t>OC; PS</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X121" s="2" t="inlineStr">
@@ -8282,25 +8266,25 @@
     <row r="122">
       <c r="A122" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050410</t>
+          <t>BCIO:036014</t>
         </is>
       </c>
       <c r="B122" s="2" t="inlineStr">
         <is>
-          <t>self-monitoring an aspect of health</t>
+          <t>self-injury behaviour</t>
         </is>
       </c>
       <c r="C122" s="2" t="inlineStr"/>
       <c r="D122" s="2" t="inlineStr">
         <is>
-          <t>A health-related behaviour that uses a method to monitor and record an indicator of one’s health or wellbeing.</t>
+          <t>A harmful behaviour that involves intentionally causing oneself physical harm.</t>
         </is>
       </c>
       <c r="E122" s="2" t="inlineStr"/>
       <c r="F122" s="2" t="inlineStr"/>
       <c r="G122" s="2" t="inlineStr">
         <is>
-          <t>health-related behaviour</t>
+          <t xml:space="preserve">harmful behaviour </t>
         </is>
       </c>
       <c r="H122" s="2" t="inlineStr"/>
@@ -8318,8 +8302,16 @@
       <c r="P122" s="2" t="inlineStr"/>
       <c r="Q122" s="2" t="inlineStr"/>
       <c r="R122" s="2" t="inlineStr"/>
-      <c r="S122" s="2" t="inlineStr"/>
-      <c r="T122" s="2" t="inlineStr"/>
+      <c r="S122" s="2" t="inlineStr">
+        <is>
+          <t>There can be different reasons for engaging in self-injury behaviours, including to deal with difficult feelings and memories.</t>
+        </is>
+      </c>
+      <c r="T122" s="2" t="inlineStr">
+        <is>
+          <t>Intentional overdose</t>
+        </is>
+      </c>
       <c r="U122" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -8328,7 +8320,7 @@
       <c r="V122" s="2" t="inlineStr"/>
       <c r="W122" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>OC; PS</t>
         </is>
       </c>
       <c r="X122" s="2" t="inlineStr">
@@ -8342,32 +8334,28 @@
     <row r="123">
       <c r="A123" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036030</t>
+          <t>BCIO:050410</t>
         </is>
       </c>
       <c r="B123" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">sexual behaviour  </t>
+          <t>self-monitoring an aspect of health</t>
         </is>
       </c>
       <c r="C123" s="2" t="inlineStr"/>
       <c r="D123" s="2" t="inlineStr">
         <is>
-          <t>A life function-related behaviour that involves sexual arousal.</t>
+          <t>A health-related behaviour that uses a method to monitor and record an indicator of one’s health or wellbeing.</t>
         </is>
       </c>
       <c r="E123" s="2" t="inlineStr"/>
       <c r="F123" s="2" t="inlineStr"/>
       <c r="G123" s="2" t="inlineStr">
         <is>
-          <t>life function-related behaviour</t>
-        </is>
-      </c>
-      <c r="H123" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>health-related behaviour</t>
+        </is>
+      </c>
+      <c r="H123" s="2" t="inlineStr"/>
       <c r="I123" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -8382,16 +8370,8 @@
       <c r="P123" s="2" t="inlineStr"/>
       <c r="Q123" s="2" t="inlineStr"/>
       <c r="R123" s="2" t="inlineStr"/>
-      <c r="S123" s="2" t="inlineStr">
-        <is>
-          <t>The classes 'reproductive behaviour' and 'sexual behaviour' have some instances in which they would overlap. For instance, a subclass of both of these classes would be 'reproductive sexual behaviour'. Examples for 'reproductive sexual behaviour' can be annotated by using the two classes: 'reproductive behaviour' and 'sexual behaviour'. There are also various examples in which the classes 'reproductive behaviour' does not overlap with sexual behaviour. For instance, fertility preservation would be a reproductive behaviour but not a sexual behaviour. Similarly, various sexual behaviours do not have a reproductive function. For instance, performing oral sex may not have a reproductive function.</t>
-        </is>
-      </c>
-      <c r="T123" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Copulating, Masturbating, Flirting, Having intercourse </t>
-        </is>
-      </c>
+      <c r="S123" s="2" t="inlineStr"/>
+      <c r="T123" s="2" t="inlineStr"/>
       <c r="U123" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -8400,7 +8380,7 @@
       <c r="V123" s="2" t="inlineStr"/>
       <c r="W123" s="2" t="inlineStr">
         <is>
-          <t>RW; OC; PS</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X123" s="2" t="inlineStr">
@@ -8414,28 +8394,32 @@
     <row r="124">
       <c r="A124" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036069</t>
+          <t>BCIO:036030</t>
         </is>
       </c>
       <c r="B124" s="2" t="inlineStr">
         <is>
-          <t>sitting</t>
+          <t xml:space="preserve">sexual behaviour  </t>
         </is>
       </c>
       <c r="C124" s="2" t="inlineStr"/>
       <c r="D124" s="2" t="inlineStr">
         <is>
-          <t>A posture behaviour in which one's weight is supported by one's buttocks rather than one's feet, and in which one's back is upright.</t>
+          <t>A life function-related behaviour that involves sexual arousal.</t>
         </is>
       </c>
       <c r="E124" s="2" t="inlineStr"/>
       <c r="F124" s="2" t="inlineStr"/>
       <c r="G124" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">posture behaviour </t>
-        </is>
-      </c>
-      <c r="H124" s="2" t="inlineStr"/>
+          <t>life function-related behaviour</t>
+        </is>
+      </c>
+      <c r="H124" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I124" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -8450,8 +8434,16 @@
       <c r="P124" s="2" t="inlineStr"/>
       <c r="Q124" s="2" t="inlineStr"/>
       <c r="R124" s="2" t="inlineStr"/>
-      <c r="S124" s="2" t="inlineStr"/>
-      <c r="T124" s="2" t="inlineStr"/>
+      <c r="S124" s="2" t="inlineStr">
+        <is>
+          <t>The classes 'reproductive behaviour' and 'sexual behaviour' have some instances in which they would overlap. For instance, a subclass of both of these classes would be 'reproductive sexual behaviour'. Examples for 'reproductive sexual behaviour' can be annotated by using the two classes: 'reproductive behaviour' and 'sexual behaviour'. There are also various examples in which the classes 'reproductive behaviour' does not overlap with sexual behaviour. For instance, fertility preservation would be a reproductive behaviour but not a sexual behaviour. Similarly, various sexual behaviours do not have a reproductive function. For instance, performing oral sex may not have a reproductive function.</t>
+        </is>
+      </c>
+      <c r="T124" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Copulating, Masturbating, Flirting, Having intercourse </t>
+        </is>
+      </c>
       <c r="U124" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -8460,7 +8452,7 @@
       <c r="V124" s="2" t="inlineStr"/>
       <c r="W124" s="2" t="inlineStr">
         <is>
-          <t>OC</t>
+          <t>RW; OC; PS</t>
         </is>
       </c>
       <c r="X124" s="2" t="inlineStr">
@@ -8474,25 +8466,25 @@
     <row r="125">
       <c r="A125" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036039</t>
+          <t>BCIO:036069</t>
         </is>
       </c>
       <c r="B125" s="2" t="inlineStr">
         <is>
-          <t>skill development behaviour</t>
+          <t>sitting</t>
         </is>
       </c>
       <c r="C125" s="2" t="inlineStr"/>
       <c r="D125" s="2" t="inlineStr">
         <is>
-          <t>A learning behaviour that involves improving the ability to perform physical, psychological or social activities.</t>
+          <t>A posture behaviour in which one's weight is supported by one's buttocks rather than one's feet, and in which one's back is upright.</t>
         </is>
       </c>
       <c r="E125" s="2" t="inlineStr"/>
       <c r="F125" s="2" t="inlineStr"/>
       <c r="G125" s="2" t="inlineStr">
         <is>
-          <t>learning behaviour</t>
+          <t xml:space="preserve">posture behaviour </t>
         </is>
       </c>
       <c r="H125" s="2" t="inlineStr"/>
@@ -8511,11 +8503,7 @@
       <c r="Q125" s="2" t="inlineStr"/>
       <c r="R125" s="2" t="inlineStr"/>
       <c r="S125" s="2" t="inlineStr"/>
-      <c r="T125" s="2" t="inlineStr">
-        <is>
-          <t>Training, Behavioural practice/rehearsal</t>
-        </is>
-      </c>
+      <c r="T125" s="2" t="inlineStr"/>
       <c r="U125" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -8524,7 +8512,7 @@
       <c r="V125" s="2" t="inlineStr"/>
       <c r="W125" s="2" t="inlineStr">
         <is>
-          <t>RW; OC; PS</t>
+          <t>OC</t>
         </is>
       </c>
       <c r="X125" s="2" t="inlineStr">
@@ -8538,25 +8526,25 @@
     <row r="126">
       <c r="A126" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050395</t>
+          <t>BCIO:036039</t>
         </is>
       </c>
       <c r="B126" s="2" t="inlineStr">
         <is>
-          <t>sniffing consumption</t>
+          <t>skill development behaviour</t>
         </is>
       </c>
       <c r="C126" s="2" t="inlineStr"/>
       <c r="D126" s="2" t="inlineStr">
         <is>
-          <t>Inhaling consumption that involves breathing in a material through the nose.</t>
+          <t>A learning behaviour that involves improving the ability to perform physical, psychological or social activities.</t>
         </is>
       </c>
       <c r="E126" s="2" t="inlineStr"/>
       <c r="F126" s="2" t="inlineStr"/>
       <c r="G126" s="2" t="inlineStr">
         <is>
-          <t>inhaling consumption</t>
+          <t>learning behaviour</t>
         </is>
       </c>
       <c r="H126" s="2" t="inlineStr"/>
@@ -8575,7 +8563,11 @@
       <c r="Q126" s="2" t="inlineStr"/>
       <c r="R126" s="2" t="inlineStr"/>
       <c r="S126" s="2" t="inlineStr"/>
-      <c r="T126" s="2" t="inlineStr"/>
+      <c r="T126" s="2" t="inlineStr">
+        <is>
+          <t>Training, Behavioural practice/rehearsal</t>
+        </is>
+      </c>
       <c r="U126" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -8584,7 +8576,7 @@
       <c r="V126" s="2" t="inlineStr"/>
       <c r="W126" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW; OC; PS</t>
         </is>
       </c>
       <c r="X126" s="2" t="inlineStr">
@@ -8598,32 +8590,28 @@
     <row r="127">
       <c r="A127" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036011</t>
+          <t>BCIO:050395</t>
         </is>
       </c>
       <c r="B127" s="2" t="inlineStr">
         <is>
-          <t>social organisation behaviour</t>
+          <t>sniffing consumption</t>
         </is>
       </c>
       <c r="C127" s="2" t="inlineStr"/>
       <c r="D127" s="2" t="inlineStr">
         <is>
-          <t>A socially-related behaviour that involves a person contributing to the functioning of a social structure or a person in relation to a social structure.</t>
+          <t>Inhaling consumption that involves breathing in a material through the nose.</t>
         </is>
       </c>
       <c r="E127" s="2" t="inlineStr"/>
       <c r="F127" s="2" t="inlineStr"/>
       <c r="G127" s="2" t="inlineStr">
         <is>
-          <t>socially-related behaviour</t>
-        </is>
-      </c>
-      <c r="H127" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>inhaling consumption</t>
+        </is>
+      </c>
+      <c r="H127" s="2" t="inlineStr"/>
       <c r="I127" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -8638,17 +8626,8 @@
       <c r="P127" s="2" t="inlineStr"/>
       <c r="Q127" s="2" t="inlineStr"/>
       <c r="R127" s="2" t="inlineStr"/>
-      <c r="S127" s="2" t="inlineStr">
-        <is>
-          <t>In the definition, the term 'contributing' can refer 'joining or integrating into a group or improving or maintaining the functioning within a group'
-'social structure' can relate to a social network or group.</t>
-        </is>
-      </c>
-      <c r="T127" s="2" t="inlineStr">
-        <is>
-          <t>Collaborating, coordinating gatherings</t>
-        </is>
-      </c>
+      <c r="S127" s="2" t="inlineStr"/>
+      <c r="T127" s="2" t="inlineStr"/>
       <c r="U127" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -8657,7 +8636,7 @@
       <c r="V127" s="2" t="inlineStr"/>
       <c r="W127" s="2" t="inlineStr">
         <is>
-          <t>RW; OC; PS</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X127" s="2" t="inlineStr">
@@ -8671,28 +8650,32 @@
     <row r="128">
       <c r="A128" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050357</t>
+          <t>BCIO:036011</t>
         </is>
       </c>
       <c r="B128" s="2" t="inlineStr">
         <is>
-          <t>social prescribing</t>
+          <t>social organisation behaviour</t>
         </is>
       </c>
       <c r="C128" s="2" t="inlineStr"/>
       <c r="D128" s="2" t="inlineStr">
         <is>
-          <t>Prescribing behaviour that involves advising and authorising the participation in services targeting social, economic or environmental factors that affect health or wellbeing.</t>
+          <t>A socially-related behaviour that involves a person contributing to the functioning of a social structure or a person in relation to a social structure.</t>
         </is>
       </c>
       <c r="E128" s="2" t="inlineStr"/>
       <c r="F128" s="2" t="inlineStr"/>
       <c r="G128" s="2" t="inlineStr">
         <is>
-          <t>prescribing behaviour</t>
-        </is>
-      </c>
-      <c r="H128" s="2" t="inlineStr"/>
+          <t>socially-related behaviour</t>
+        </is>
+      </c>
+      <c r="H128" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I128" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -8707,8 +8690,17 @@
       <c r="P128" s="2" t="inlineStr"/>
       <c r="Q128" s="2" t="inlineStr"/>
       <c r="R128" s="2" t="inlineStr"/>
-      <c r="S128" s="2" t="inlineStr"/>
-      <c r="T128" s="2" t="inlineStr"/>
+      <c r="S128" s="2" t="inlineStr">
+        <is>
+          <t>In the definition, the term 'contributing' can refer 'joining or integrating into a group or improving or maintaining the functioning within a group'
+'social structure' can relate to a social network or group.</t>
+        </is>
+      </c>
+      <c r="T128" s="2" t="inlineStr">
+        <is>
+          <t>Collaborating, coordinating gatherings</t>
+        </is>
+      </c>
       <c r="U128" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -8717,7 +8709,7 @@
       <c r="V128" s="2" t="inlineStr"/>
       <c r="W128" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW; OC; PS</t>
         </is>
       </c>
       <c r="X128" s="2" t="inlineStr">
@@ -8731,25 +8723,25 @@
     <row r="129">
       <c r="A129" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050397</t>
+          <t>BCIO:050357</t>
         </is>
       </c>
       <c r="B129" s="2" t="inlineStr">
         <is>
-          <t>social support behaviour</t>
+          <t>social prescribing</t>
         </is>
       </c>
       <c r="C129" s="2" t="inlineStr"/>
       <c r="D129" s="2" t="inlineStr">
         <is>
-          <t>An inter-personal behaviour that involves providing physical, psychological or social assistance to another.</t>
+          <t>Prescribing behaviour that involves advising and authorising the participation in services targeting social, economic or environmental factors that affect health or wellbeing.</t>
         </is>
       </c>
       <c r="E129" s="2" t="inlineStr"/>
       <c r="F129" s="2" t="inlineStr"/>
       <c r="G129" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">inter-personal behaviour </t>
+          <t>prescribing behaviour</t>
         </is>
       </c>
       <c r="H129" s="2" t="inlineStr"/>
@@ -8791,25 +8783,25 @@
     <row r="130">
       <c r="A130" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050441</t>
+          <t>BCIO:050397</t>
         </is>
       </c>
       <c r="B130" s="2" t="inlineStr">
         <is>
-          <t>socially-related behaviour</t>
+          <t>social support behaviour</t>
         </is>
       </c>
       <c r="C130" s="2" t="inlineStr"/>
       <c r="D130" s="2" t="inlineStr">
         <is>
-          <t>An individual human behaviour that relates to the social environment.</t>
+          <t>An inter-personal behaviour that involves providing physical, psychological or social assistance to another.</t>
         </is>
       </c>
       <c r="E130" s="2" t="inlineStr"/>
       <c r="F130" s="2" t="inlineStr"/>
       <c r="G130" s="2" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t xml:space="preserve">inter-personal behaviour </t>
         </is>
       </c>
       <c r="H130" s="2" t="inlineStr"/>
@@ -8837,7 +8829,7 @@
       <c r="V130" s="2" t="inlineStr"/>
       <c r="W130" s="2" t="inlineStr">
         <is>
-          <t>PS; RW</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X130" s="2" t="inlineStr">
@@ -8851,25 +8843,25 @@
     <row r="131">
       <c r="A131" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036112</t>
+          <t>BCIO:050441</t>
         </is>
       </c>
       <c r="B131" s="2" t="inlineStr">
         <is>
-          <t>spiritual behaviour</t>
+          <t>socially-related behaviour</t>
         </is>
       </c>
       <c r="C131" s="2" t="inlineStr"/>
       <c r="D131" s="2" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that is performed in line with a belief system that is grounded in reverence for a supernatural power or powers and provides meaning in life.</t>
+          <t>An individual human behaviour that relates to the social environment.</t>
         </is>
       </c>
       <c r="E131" s="2" t="inlineStr"/>
       <c r="F131" s="2" t="inlineStr"/>
       <c r="G131" s="2" t="inlineStr">
         <is>
-          <t>experience-related behaviour</t>
+          <t>individual human behaviour</t>
         </is>
       </c>
       <c r="H131" s="2" t="inlineStr"/>
@@ -8888,11 +8880,7 @@
       <c r="Q131" s="2" t="inlineStr"/>
       <c r="R131" s="2" t="inlineStr"/>
       <c r="S131" s="2" t="inlineStr"/>
-      <c r="T131" s="2" t="inlineStr">
-        <is>
-          <t>Praying, participating in rituals, meditation practices for spiritual purposes, fasting for spiritual purposes, participating in a silent retreat</t>
-        </is>
-      </c>
+      <c r="T131" s="2" t="inlineStr"/>
       <c r="U131" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -8901,7 +8889,7 @@
       <c r="V131" s="2" t="inlineStr"/>
       <c r="W131" s="2" t="inlineStr">
         <is>
-          <t>OC; JH; PS; RW</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="X131" s="2" t="inlineStr">
@@ -8915,25 +8903,25 @@
     <row r="132">
       <c r="A132" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036070</t>
+          <t>BCIO:036112</t>
         </is>
       </c>
       <c r="B132" s="2" t="inlineStr">
         <is>
-          <t>standing</t>
+          <t>spiritual behaviour</t>
         </is>
       </c>
       <c r="C132" s="2" t="inlineStr"/>
       <c r="D132" s="2" t="inlineStr">
         <is>
-          <t>A posture behaviour in which one has or is maintaining an upright position while supported by one's feet</t>
+          <t>An experience-related behaviour that is performed in line with a belief system that is grounded in reverence for a supernatural power or powers and provides meaning in life.</t>
         </is>
       </c>
       <c r="E132" s="2" t="inlineStr"/>
       <c r="F132" s="2" t="inlineStr"/>
       <c r="G132" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">posture behaviour </t>
+          <t>experience-related behaviour</t>
         </is>
       </c>
       <c r="H132" s="2" t="inlineStr"/>
@@ -8952,7 +8940,11 @@
       <c r="Q132" s="2" t="inlineStr"/>
       <c r="R132" s="2" t="inlineStr"/>
       <c r="S132" s="2" t="inlineStr"/>
-      <c r="T132" s="2" t="inlineStr"/>
+      <c r="T132" s="2" t="inlineStr">
+        <is>
+          <t>Praying, participating in rituals, meditation practices for spiritual purposes, fasting for spiritual purposes, participating in a silent retreat</t>
+        </is>
+      </c>
       <c r="U132" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -8961,7 +8953,7 @@
       <c r="V132" s="2" t="inlineStr"/>
       <c r="W132" s="2" t="inlineStr">
         <is>
-          <t>OC</t>
+          <t>OC; JH; PS; RW</t>
         </is>
       </c>
       <c r="X132" s="2" t="inlineStr">
@@ -8975,32 +8967,28 @@
     <row r="133">
       <c r="A133" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036113</t>
+          <t>BCIO:036070</t>
         </is>
       </c>
       <c r="B133" s="2" t="inlineStr">
         <is>
-          <t>substance use behaviour</t>
+          <t>standing</t>
         </is>
       </c>
       <c r="C133" s="2" t="inlineStr"/>
       <c r="D133" s="2" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves ingesting a psychoactive substance into the body.</t>
+          <t>A posture behaviour in which one has or is maintaining an upright position while supported by one's feet</t>
         </is>
       </c>
       <c r="E133" s="2" t="inlineStr"/>
       <c r="F133" s="2" t="inlineStr"/>
       <c r="G133" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">consumption behaviour </t>
-        </is>
-      </c>
-      <c r="H133" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t xml:space="preserve">posture behaviour </t>
+        </is>
+      </c>
+      <c r="H133" s="2" t="inlineStr"/>
       <c r="I133" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -9013,17 +9001,9 @@
       <c r="N133" s="2" t="inlineStr"/>
       <c r="O133" s="2" t="inlineStr"/>
       <c r="P133" s="2" t="inlineStr"/>
-      <c r="Q133" s="2" t="inlineStr">
-        <is>
-          <t>substance use</t>
-        </is>
-      </c>
+      <c r="Q133" s="2" t="inlineStr"/>
       <c r="R133" s="2" t="inlineStr"/>
-      <c r="S133" s="2" t="inlineStr">
-        <is>
-          <t>Substance use behaviour is not equated with substance abuse.</t>
-        </is>
-      </c>
+      <c r="S133" s="2" t="inlineStr"/>
       <c r="T133" s="2" t="inlineStr"/>
       <c r="U133" s="2" t="inlineStr">
         <is>
@@ -9033,7 +9013,7 @@
       <c r="V133" s="2" t="inlineStr"/>
       <c r="W133" s="2" t="inlineStr">
         <is>
-          <t>RW; OC; JH</t>
+          <t>OC</t>
         </is>
       </c>
       <c r="X133" s="2" t="inlineStr">
@@ -9047,28 +9027,32 @@
     <row r="134">
       <c r="A134" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050211</t>
+          <t>BCIO:036113</t>
         </is>
       </c>
       <c r="B134" s="2" t="inlineStr">
         <is>
-          <t>substance use behaviour pattern</t>
+          <t>substance use behaviour</t>
         </is>
       </c>
       <c r="C134" s="2" t="inlineStr"/>
       <c r="D134" s="2" t="inlineStr">
         <is>
-          <t>A consumption behaviour pattern that involves substance use behaviour.</t>
+          <t>A consumption behaviour that involves ingesting a psychoactive substance into the body.</t>
         </is>
       </c>
       <c r="E134" s="2" t="inlineStr"/>
       <c r="F134" s="2" t="inlineStr"/>
       <c r="G134" s="2" t="inlineStr">
         <is>
-          <t>consumption behaviour pattern</t>
-        </is>
-      </c>
-      <c r="H134" s="2" t="inlineStr"/>
+          <t xml:space="preserve">consumption behaviour </t>
+        </is>
+      </c>
+      <c r="H134" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I134" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -9081,9 +9065,17 @@
       <c r="N134" s="2" t="inlineStr"/>
       <c r="O134" s="2" t="inlineStr"/>
       <c r="P134" s="2" t="inlineStr"/>
-      <c r="Q134" s="2" t="inlineStr"/>
+      <c r="Q134" s="2" t="inlineStr">
+        <is>
+          <t>substance use</t>
+        </is>
+      </c>
       <c r="R134" s="2" t="inlineStr"/>
-      <c r="S134" s="2" t="inlineStr"/>
+      <c r="S134" s="2" t="inlineStr">
+        <is>
+          <t>Substance use behaviour is not equated with substance abuse.</t>
+        </is>
+      </c>
       <c r="T134" s="2" t="inlineStr"/>
       <c r="U134" s="2" t="inlineStr">
         <is>
@@ -9093,7 +9085,7 @@
       <c r="V134" s="2" t="inlineStr"/>
       <c r="W134" s="2" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>RW; OC; JH</t>
         </is>
       </c>
       <c r="X134" s="2" t="inlineStr">
@@ -9107,25 +9099,25 @@
     <row r="135">
       <c r="A135" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050411</t>
+          <t>BCIO:050211</t>
         </is>
       </c>
       <c r="B135" s="2" t="inlineStr">
         <is>
-          <t>sun protective behaviour</t>
+          <t>substance use behaviour pattern</t>
         </is>
       </c>
       <c r="C135" s="2" t="inlineStr"/>
       <c r="D135" s="2" t="inlineStr">
         <is>
-          <t>A personal bodily care behaviour that involves protecting one's skin or eyes from the damaging effects of the sun.</t>
+          <t>A consumption behaviour pattern that involves substance use behaviour.</t>
         </is>
       </c>
       <c r="E135" s="2" t="inlineStr"/>
       <c r="F135" s="2" t="inlineStr"/>
       <c r="G135" s="2" t="inlineStr">
         <is>
-          <t>personal bodily care behaviour</t>
+          <t>consumption behaviour pattern</t>
         </is>
       </c>
       <c r="H135" s="2" t="inlineStr"/>
@@ -9143,11 +9135,7 @@
       <c r="P135" s="2" t="inlineStr"/>
       <c r="Q135" s="2" t="inlineStr"/>
       <c r="R135" s="2" t="inlineStr"/>
-      <c r="S135" s="2" t="inlineStr">
-        <is>
-          <t>‘Sun protective behaviour’ is defined in terms of its goal (to protect oneself from the damaging effects of the sun) and can include very different behaviours, e.g., applying sunscreen and staying in the shade.</t>
-        </is>
-      </c>
+      <c r="S135" s="2" t="inlineStr"/>
       <c r="T135" s="2" t="inlineStr"/>
       <c r="U135" s="2" t="inlineStr">
         <is>
@@ -9157,7 +9145,7 @@
       <c r="V135" s="2" t="inlineStr"/>
       <c r="W135" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="X135" s="2" t="inlineStr">
@@ -9169,80 +9157,84 @@
       <c r="Z135" s="2" t="inlineStr"/>
     </row>
     <row r="136">
-      <c r="A136" s="4" t="inlineStr">
-        <is>
-          <t>BCIO:100002</t>
-        </is>
-      </c>
-      <c r="B136" s="4" t="inlineStr">
-        <is>
-          <t>test 2</t>
-        </is>
-      </c>
-      <c r="C136" s="4" t="inlineStr"/>
-      <c r="D136" s="4" t="inlineStr">
-        <is>
-          <t>somethin</t>
-        </is>
-      </c>
-      <c r="E136" s="4" t="inlineStr"/>
-      <c r="F136" s="4" t="inlineStr"/>
-      <c r="G136" s="4" t="inlineStr">
-        <is>
-          <t>occurrent</t>
-        </is>
-      </c>
-      <c r="H136" s="4" t="inlineStr"/>
-      <c r="I136" s="4" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="J136" s="4" t="inlineStr"/>
-      <c r="K136" s="4" t="inlineStr"/>
-      <c r="L136" s="4" t="inlineStr"/>
-      <c r="M136" s="4" t="inlineStr"/>
-      <c r="N136" s="4" t="inlineStr"/>
-      <c r="O136" s="4" t="inlineStr"/>
-      <c r="P136" s="4" t="inlineStr"/>
-      <c r="Q136" s="4" t="inlineStr"/>
-      <c r="R136" s="4" t="inlineStr"/>
-      <c r="S136" s="4" t="inlineStr"/>
-      <c r="T136" s="4" t="inlineStr"/>
-      <c r="U136" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V136" s="4" t="inlineStr"/>
-      <c r="W136" s="4" t="inlineStr">
-        <is>
-          <t>BG</t>
-        </is>
-      </c>
-      <c r="X136" s="4" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Y136" s="4" t="inlineStr"/>
-      <c r="Z136" s="4" t="inlineStr"/>
+      <c r="A136" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050411</t>
+        </is>
+      </c>
+      <c r="B136" s="2" t="inlineStr">
+        <is>
+          <t>sun protective behaviour</t>
+        </is>
+      </c>
+      <c r="C136" s="2" t="inlineStr"/>
+      <c r="D136" s="2" t="inlineStr">
+        <is>
+          <t>A personal bodily care behaviour that involves protecting one's skin or eyes from the damaging effects of the sun.</t>
+        </is>
+      </c>
+      <c r="E136" s="2" t="inlineStr"/>
+      <c r="F136" s="2" t="inlineStr"/>
+      <c r="G136" s="2" t="inlineStr">
+        <is>
+          <t>personal bodily care behaviour</t>
+        </is>
+      </c>
+      <c r="H136" s="2" t="inlineStr"/>
+      <c r="I136" s="2" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J136" s="2" t="inlineStr"/>
+      <c r="K136" s="2" t="inlineStr"/>
+      <c r="L136" s="2" t="inlineStr"/>
+      <c r="M136" s="2" t="inlineStr"/>
+      <c r="N136" s="2" t="inlineStr"/>
+      <c r="O136" s="2" t="inlineStr"/>
+      <c r="P136" s="2" t="inlineStr"/>
+      <c r="Q136" s="2" t="inlineStr"/>
+      <c r="R136" s="2" t="inlineStr"/>
+      <c r="S136" s="2" t="inlineStr">
+        <is>
+          <t>‘Sun protective behaviour’ is defined in terms of its goal (to protect oneself from the damaging effects of the sun) and can include very different behaviours, e.g., applying sunscreen and staying in the shade.</t>
+        </is>
+      </c>
+      <c r="T136" s="2" t="inlineStr"/>
+      <c r="U136" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V136" s="2" t="inlineStr"/>
+      <c r="W136" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="X136" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="Y136" s="2" t="inlineStr"/>
+      <c r="Z136" s="2" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="4" t="inlineStr">
         <is>
-          <t>BCIO:100001</t>
+          <t>BCIO:100002</t>
         </is>
       </c>
       <c r="B137" s="4" t="inlineStr">
         <is>
-          <t>test label</t>
+          <t>test 2</t>
         </is>
       </c>
       <c r="C137" s="4" t="inlineStr"/>
       <c r="D137" s="4" t="inlineStr">
         <is>
-          <t>Some definiton</t>
+          <t>somethin</t>
         </is>
       </c>
       <c r="E137" s="4" t="inlineStr"/>
@@ -9289,95 +9281,87 @@
       <c r="Z137" s="4" t="inlineStr"/>
     </row>
     <row r="138">
-      <c r="A138" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:036103</t>
-        </is>
-      </c>
-      <c r="B138" s="2" t="inlineStr">
-        <is>
-          <t>tobacco smoking behaviour</t>
-        </is>
-      </c>
-      <c r="C138" s="2" t="inlineStr"/>
-      <c r="D138" s="2" t="inlineStr">
-        <is>
-          <t>A tobacco use behaviour that involves setting light to a combustible tobacco product and ingesting the tobacco smoke that is produced.</t>
-        </is>
-      </c>
-      <c r="E138" s="2" t="inlineStr"/>
-      <c r="F138" s="2" t="inlineStr"/>
-      <c r="G138" s="2" t="inlineStr">
-        <is>
-          <t>tobacco use behaviour</t>
-        </is>
-      </c>
-      <c r="H138" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="I138" s="2" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="J138" s="2" t="inlineStr"/>
-      <c r="K138" s="2" t="inlineStr"/>
-      <c r="L138" s="2" t="inlineStr"/>
-      <c r="M138" s="2" t="inlineStr"/>
-      <c r="N138" s="2" t="inlineStr"/>
-      <c r="O138" s="2" t="inlineStr"/>
-      <c r="P138" s="2" t="inlineStr"/>
-      <c r="Q138" s="2" t="inlineStr">
-        <is>
-          <t>smoking</t>
-        </is>
-      </c>
-      <c r="R138" s="2" t="inlineStr"/>
-      <c r="S138" s="2" t="inlineStr"/>
-      <c r="T138" s="2" t="inlineStr"/>
-      <c r="U138" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V138" s="2" t="inlineStr"/>
-      <c r="W138" s="2" t="inlineStr">
-        <is>
-          <t>RW; JH</t>
-        </is>
-      </c>
-      <c r="X138" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="Y138" s="2" t="inlineStr"/>
-      <c r="Z138" s="2" t="inlineStr"/>
+      <c r="A138" s="4" t="inlineStr">
+        <is>
+          <t>BCIO:100001</t>
+        </is>
+      </c>
+      <c r="B138" s="4" t="inlineStr">
+        <is>
+          <t>test label</t>
+        </is>
+      </c>
+      <c r="C138" s="4" t="inlineStr"/>
+      <c r="D138" s="4" t="inlineStr">
+        <is>
+          <t>Some definiton</t>
+        </is>
+      </c>
+      <c r="E138" s="4" t="inlineStr"/>
+      <c r="F138" s="4" t="inlineStr"/>
+      <c r="G138" s="4" t="inlineStr">
+        <is>
+          <t>occurrent</t>
+        </is>
+      </c>
+      <c r="H138" s="4" t="inlineStr"/>
+      <c r="I138" s="4" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="J138" s="4" t="inlineStr"/>
+      <c r="K138" s="4" t="inlineStr"/>
+      <c r="L138" s="4" t="inlineStr"/>
+      <c r="M138" s="4" t="inlineStr"/>
+      <c r="N138" s="4" t="inlineStr"/>
+      <c r="O138" s="4" t="inlineStr"/>
+      <c r="P138" s="4" t="inlineStr"/>
+      <c r="Q138" s="4" t="inlineStr"/>
+      <c r="R138" s="4" t="inlineStr"/>
+      <c r="S138" s="4" t="inlineStr"/>
+      <c r="T138" s="4" t="inlineStr"/>
+      <c r="U138" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V138" s="4" t="inlineStr"/>
+      <c r="W138" s="4" t="inlineStr">
+        <is>
+          <t>BG</t>
+        </is>
+      </c>
+      <c r="X138" s="4" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Y138" s="4" t="inlineStr"/>
+      <c r="Z138" s="4" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036104</t>
+          <t>BCIO:036103</t>
         </is>
       </c>
       <c r="B139" s="2" t="inlineStr">
         <is>
-          <t>tobacco smoking behaviour pattern</t>
+          <t>tobacco smoking behaviour</t>
         </is>
       </c>
       <c r="C139" s="2" t="inlineStr"/>
       <c r="D139" s="2" t="inlineStr">
         <is>
-          <t>A tobacco use behaviour pattern that involves tobacco smoking behaviour.</t>
+          <t>A tobacco use behaviour that involves setting light to a combustible tobacco product and ingesting the tobacco smoke that is produced.</t>
         </is>
       </c>
       <c r="E139" s="2" t="inlineStr"/>
       <c r="F139" s="2" t="inlineStr"/>
       <c r="G139" s="2" t="inlineStr">
         <is>
-          <t>tobacco use behaviour pattern</t>
+          <t>tobacco use behaviour</t>
         </is>
       </c>
       <c r="H139" s="2" t="inlineStr">
@@ -9397,7 +9381,11 @@
       <c r="N139" s="2" t="inlineStr"/>
       <c r="O139" s="2" t="inlineStr"/>
       <c r="P139" s="2" t="inlineStr"/>
-      <c r="Q139" s="2" t="inlineStr"/>
+      <c r="Q139" s="2" t="inlineStr">
+        <is>
+          <t>smoking</t>
+        </is>
+      </c>
       <c r="R139" s="2" t="inlineStr"/>
       <c r="S139" s="2" t="inlineStr"/>
       <c r="T139" s="2" t="inlineStr"/>
@@ -9423,25 +9411,25 @@
     <row r="140">
       <c r="A140" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050269</t>
+          <t>BCIO:036104</t>
         </is>
       </c>
       <c r="B140" s="2" t="inlineStr">
         <is>
-          <t>tobacco smoking cessation</t>
+          <t>tobacco smoking behaviour pattern</t>
         </is>
       </c>
       <c r="C140" s="2" t="inlineStr"/>
       <c r="D140" s="2" t="inlineStr">
         <is>
-          <t>Tobacco use cessation in which the form of tobacco use is tobacco smoking.</t>
+          <t>A tobacco use behaviour pattern that involves tobacco smoking behaviour.</t>
         </is>
       </c>
       <c r="E140" s="2" t="inlineStr"/>
       <c r="F140" s="2" t="inlineStr"/>
       <c r="G140" s="2" t="inlineStr">
         <is>
-          <t>tobacco use cessation</t>
+          <t>tobacco use behaviour pattern</t>
         </is>
       </c>
       <c r="H140" s="2" t="inlineStr">
@@ -9473,7 +9461,7 @@
       <c r="V140" s="2" t="inlineStr"/>
       <c r="W140" s="2" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>RW; JH</t>
         </is>
       </c>
       <c r="X140" s="2" t="inlineStr">
@@ -9487,25 +9475,25 @@
     <row r="141">
       <c r="A141" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036114</t>
+          <t>BCIO:050269</t>
         </is>
       </c>
       <c r="B141" s="2" t="inlineStr">
         <is>
-          <t>tobacco use behaviour</t>
+          <t>tobacco smoking cessation</t>
         </is>
       </c>
       <c r="C141" s="2" t="inlineStr"/>
       <c r="D141" s="2" t="inlineStr">
         <is>
-          <t>A substance use behaviour that involves ingesting constituents of a tobacco-containing product.</t>
+          <t>Tobacco use cessation in which the form of tobacco use is tobacco smoking.</t>
         </is>
       </c>
       <c r="E141" s="2" t="inlineStr"/>
       <c r="F141" s="2" t="inlineStr"/>
       <c r="G141" s="2" t="inlineStr">
         <is>
-          <t>substance use behaviour</t>
+          <t>tobacco use cessation</t>
         </is>
       </c>
       <c r="H141" s="2" t="inlineStr">
@@ -9525,11 +9513,7 @@
       <c r="N141" s="2" t="inlineStr"/>
       <c r="O141" s="2" t="inlineStr"/>
       <c r="P141" s="2" t="inlineStr"/>
-      <c r="Q141" s="2" t="inlineStr">
-        <is>
-          <t>tobacco use</t>
-        </is>
-      </c>
+      <c r="Q141" s="2" t="inlineStr"/>
       <c r="R141" s="2" t="inlineStr"/>
       <c r="S141" s="2" t="inlineStr"/>
       <c r="T141" s="2" t="inlineStr"/>
@@ -9541,7 +9525,7 @@
       <c r="V141" s="2" t="inlineStr"/>
       <c r="W141" s="2" t="inlineStr">
         <is>
-          <t>RW; OC; JH</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="X141" s="2" t="inlineStr">
@@ -9555,25 +9539,25 @@
     <row r="142">
       <c r="A142" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036102</t>
+          <t>BCIO:036114</t>
         </is>
       </c>
       <c r="B142" s="2" t="inlineStr">
         <is>
-          <t>tobacco use behaviour pattern</t>
+          <t>tobacco use behaviour</t>
         </is>
       </c>
       <c r="C142" s="2" t="inlineStr"/>
       <c r="D142" s="2" t="inlineStr">
         <is>
-          <t>A substance use behaviour pattern that involves tobacco use.</t>
+          <t>A substance use behaviour that involves ingesting constituents of a tobacco-containing product.</t>
         </is>
       </c>
       <c r="E142" s="2" t="inlineStr"/>
       <c r="F142" s="2" t="inlineStr"/>
       <c r="G142" s="2" t="inlineStr">
         <is>
-          <t>substance use behaviour pattern</t>
+          <t>substance use behaviour</t>
         </is>
       </c>
       <c r="H142" s="2" t="inlineStr">
@@ -9609,7 +9593,7 @@
       <c r="V142" s="2" t="inlineStr"/>
       <c r="W142" s="2" t="inlineStr">
         <is>
-          <t>RW; JH</t>
+          <t>RW; OC; JH</t>
         </is>
       </c>
       <c r="X142" s="2" t="inlineStr">
@@ -9623,29 +9607,25 @@
     <row r="143">
       <c r="A143" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050208</t>
+          <t>BCIO:036102</t>
         </is>
       </c>
       <c r="B143" s="2" t="inlineStr">
         <is>
-          <t>tobacco use cessation</t>
-        </is>
-      </c>
-      <c r="C143" s="2" t="inlineStr">
-        <is>
-          <t>Cessation of tobacco use for a period of time.</t>
-        </is>
-      </c>
+          <t>tobacco use behaviour pattern</t>
+        </is>
+      </c>
+      <c r="C143" s="2" t="inlineStr"/>
       <c r="D143" s="2" t="inlineStr">
         <is>
-          <t>Individual human behaviour pattern cessation in which the behaviour pattern involved is tobacco use.</t>
+          <t>A substance use behaviour pattern that involves tobacco use.</t>
         </is>
       </c>
       <c r="E143" s="2" t="inlineStr"/>
       <c r="F143" s="2" t="inlineStr"/>
       <c r="G143" s="2" t="inlineStr">
         <is>
-          <t>individual human behaviour pattern cessation</t>
+          <t>substance use behaviour pattern</t>
         </is>
       </c>
       <c r="H143" s="2" t="inlineStr">
@@ -9665,14 +9645,13 @@
       <c r="N143" s="2" t="inlineStr"/>
       <c r="O143" s="2" t="inlineStr"/>
       <c r="P143" s="2" t="inlineStr"/>
-      <c r="Q143" s="2" t="inlineStr"/>
+      <c r="Q143" s="2" t="inlineStr">
+        <is>
+          <t>tobacco use</t>
+        </is>
+      </c>
       <c r="R143" s="2" t="inlineStr"/>
-      <c r="S143" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">As with the parent class 'individual human behaviour pattern cessation'  this class can only be identified after the duration for which cessation has occurred has elapsed and it is necessary to specify this period for the class to be meaningful.
-</t>
-        </is>
-      </c>
+      <c r="S143" s="2" t="inlineStr"/>
       <c r="T143" s="2" t="inlineStr"/>
       <c r="U143" s="2" t="inlineStr">
         <is>
@@ -9682,7 +9661,7 @@
       <c r="V143" s="2" t="inlineStr"/>
       <c r="W143" s="2" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>RW; JH</t>
         </is>
       </c>
       <c r="X143" s="2" t="inlineStr">
@@ -9696,28 +9675,36 @@
     <row r="144">
       <c r="A144" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050396</t>
+          <t>BCIO:050208</t>
         </is>
       </c>
       <c r="B144" s="2" t="inlineStr">
         <is>
-          <t>transdermal consumption</t>
-        </is>
-      </c>
-      <c r="C144" s="2" t="inlineStr"/>
+          <t>tobacco use cessation</t>
+        </is>
+      </c>
+      <c r="C144" s="2" t="inlineStr">
+        <is>
+          <t>Cessation of tobacco use for a period of time.</t>
+        </is>
+      </c>
       <c r="D144" s="2" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves applying a material to the skin and ingesting this material into the circulation through the skin.</t>
+          <t>Individual human behaviour pattern cessation in which the behaviour pattern involved is tobacco use.</t>
         </is>
       </c>
       <c r="E144" s="2" t="inlineStr"/>
       <c r="F144" s="2" t="inlineStr"/>
       <c r="G144" s="2" t="inlineStr">
         <is>
-          <t>consumption behaviour</t>
-        </is>
-      </c>
-      <c r="H144" s="2" t="inlineStr"/>
+          <t>individual human behaviour pattern cessation</t>
+        </is>
+      </c>
+      <c r="H144" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I144" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -9732,12 +9719,13 @@
       <c r="P144" s="2" t="inlineStr"/>
       <c r="Q144" s="2" t="inlineStr"/>
       <c r="R144" s="2" t="inlineStr"/>
-      <c r="S144" s="2" t="inlineStr"/>
-      <c r="T144" s="2" t="inlineStr">
-        <is>
-          <t>Nicotine patches, hormone patches, pain relief gels</t>
-        </is>
-      </c>
+      <c r="S144" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">As with the parent class 'individual human behaviour pattern cessation'  this class can only be identified after the duration for which cessation has occurred has elapsed and it is necessary to specify this period for the class to be meaningful.
+</t>
+        </is>
+      </c>
+      <c r="T144" s="2" t="inlineStr"/>
       <c r="U144" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -9746,7 +9734,7 @@
       <c r="V144" s="2" t="inlineStr"/>
       <c r="W144" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="X144" s="2" t="inlineStr">
@@ -9760,25 +9748,25 @@
     <row r="145">
       <c r="A145" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036064</t>
+          <t>BCIO:050396</t>
         </is>
       </c>
       <c r="B145" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">transporting behaviour </t>
+          <t>transdermal consumption</t>
         </is>
       </c>
       <c r="C145" s="2" t="inlineStr"/>
       <c r="D145" s="2" t="inlineStr">
         <is>
-          <t>A travel behaviour that involves moving an object in addition toother than the actor.</t>
+          <t>A consumption behaviour that involves applying a material to the skin and ingesting this material into the circulation through the skin.</t>
         </is>
       </c>
       <c r="E145" s="2" t="inlineStr"/>
       <c r="F145" s="2" t="inlineStr"/>
       <c r="G145" s="2" t="inlineStr">
         <is>
-          <t>travel behaviour</t>
+          <t>consumption behaviour</t>
         </is>
       </c>
       <c r="H145" s="2" t="inlineStr"/>
@@ -9797,7 +9785,11 @@
       <c r="Q145" s="2" t="inlineStr"/>
       <c r="R145" s="2" t="inlineStr"/>
       <c r="S145" s="2" t="inlineStr"/>
-      <c r="T145" s="2" t="inlineStr"/>
+      <c r="T145" s="2" t="inlineStr">
+        <is>
+          <t>Nicotine patches, hormone patches, pain relief gels</t>
+        </is>
+      </c>
       <c r="U145" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -9806,7 +9798,7 @@
       <c r="V145" s="2" t="inlineStr"/>
       <c r="W145" s="2" t="inlineStr">
         <is>
-          <t>OC; RW</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X145" s="2" t="inlineStr">
@@ -9820,25 +9812,25 @@
     <row r="146">
       <c r="A146" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036059</t>
+          <t>BCIO:036064</t>
         </is>
       </c>
       <c r="B146" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">travel behaviour </t>
+          <t xml:space="preserve">transporting behaviour </t>
         </is>
       </c>
       <c r="C146" s="2" t="inlineStr"/>
       <c r="D146" s="2" t="inlineStr">
         <is>
-          <t>A position-related behaviour that involves changing physical location.</t>
+          <t>A travel behaviour that involves moving an object in addition toother than the actor.</t>
         </is>
       </c>
       <c r="E146" s="2" t="inlineStr"/>
       <c r="F146" s="2" t="inlineStr"/>
       <c r="G146" s="2" t="inlineStr">
         <is>
-          <t>position-related behaviour</t>
+          <t>travel behaviour</t>
         </is>
       </c>
       <c r="H146" s="2" t="inlineStr"/>
@@ -9856,12 +9848,7 @@
       <c r="P146" s="2" t="inlineStr"/>
       <c r="Q146" s="2" t="inlineStr"/>
       <c r="R146" s="2" t="inlineStr"/>
-      <c r="S146" s="2" t="inlineStr">
-        <is>
-          <t>Travel refers to some form of relocation from a place or position to another.
-The classes 'travel behaviour' and 'locomotive behaviour' have many instances in which they overlap. However, there are also examples where these classes are not the same. For instance, running on a treadmill is a locomotive behaviour but not a travel behaviour.</t>
-        </is>
-      </c>
+      <c r="S146" s="2" t="inlineStr"/>
       <c r="T146" s="2" t="inlineStr"/>
       <c r="U146" s="2" t="inlineStr">
         <is>
@@ -9871,7 +9858,7 @@
       <c r="V146" s="2" t="inlineStr"/>
       <c r="W146" s="2" t="inlineStr">
         <is>
-          <t>OC; RW; PS</t>
+          <t>OC; RW</t>
         </is>
       </c>
       <c r="X146" s="2" t="inlineStr">
@@ -9885,25 +9872,25 @@
     <row r="147">
       <c r="A147" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050403</t>
+          <t>BCIO:036059</t>
         </is>
       </c>
       <c r="B147" s="2" t="inlineStr">
         <is>
-          <t>undergoing vaccination</t>
+          <t xml:space="preserve">travel behaviour </t>
         </is>
       </c>
       <c r="C147" s="2" t="inlineStr"/>
       <c r="D147" s="2" t="inlineStr">
         <is>
-          <t>Utilising healthcare that involves interacting with a healthcare provider to receive a vaccination to prevent or lower the risk of a disease.</t>
+          <t>A position-related behaviour that involves changing physical location.</t>
         </is>
       </c>
       <c r="E147" s="2" t="inlineStr"/>
       <c r="F147" s="2" t="inlineStr"/>
       <c r="G147" s="2" t="inlineStr">
         <is>
-          <t>utilising healthcare</t>
+          <t>position-related behaviour</t>
         </is>
       </c>
       <c r="H147" s="2" t="inlineStr"/>
@@ -9923,7 +9910,8 @@
       <c r="R147" s="2" t="inlineStr"/>
       <c r="S147" s="2" t="inlineStr">
         <is>
-          <t>Vaccination is defined as “a medical intervention that involves in adding vaccine into a host (e.g., human, mouse) in vivo with the intent to invoke an adaptive immune response.” (http://purl.obolibrary.org/obo/VO_0000002)</t>
+          <t>Travel refers to some form of relocation from a place or position to another.
+The classes 'travel behaviour' and 'locomotive behaviour' have many instances in which they overlap. However, there are also examples where these classes are not the same. For instance, running on a treadmill is a locomotive behaviour but not a travel behaviour.</t>
         </is>
       </c>
       <c r="T147" s="2" t="inlineStr"/>
@@ -9935,7 +9923,7 @@
       <c r="V147" s="2" t="inlineStr"/>
       <c r="W147" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>OC; RW; PS</t>
         </is>
       </c>
       <c r="X147" s="2" t="inlineStr">
@@ -9949,36 +9937,28 @@
     <row r="148">
       <c r="A148" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050267</t>
+          <t>BCIO:050403</t>
         </is>
       </c>
       <c r="B148" s="2" t="inlineStr">
         <is>
-          <t>uniform process aggregate</t>
-        </is>
-      </c>
-      <c r="C148" s="2" t="inlineStr">
-        <is>
-          <t>Several processes of the same type repeated over time.</t>
-        </is>
-      </c>
+          <t>undergoing vaccination</t>
+        </is>
+      </c>
+      <c r="C148" s="2" t="inlineStr"/>
       <c r="D148" s="2" t="inlineStr">
         <is>
-          <t>A process aggregate whose member parts are of the same type.</t>
+          <t>Utilising healthcare that involves interacting with a healthcare provider to receive a vaccination to prevent or lower the risk of a disease.</t>
         </is>
       </c>
       <c r="E148" s="2" t="inlineStr"/>
       <c r="F148" s="2" t="inlineStr"/>
       <c r="G148" s="2" t="inlineStr">
         <is>
-          <t>process aggregate</t>
-        </is>
-      </c>
-      <c r="H148" s="2" t="inlineStr">
-        <is>
-          <t>occurrent</t>
-        </is>
-      </c>
+          <t>utilising healthcare</t>
+        </is>
+      </c>
+      <c r="H148" s="2" t="inlineStr"/>
       <c r="I148" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -9990,7 +9970,79 @@
       <c r="M148" s="2" t="inlineStr"/>
       <c r="N148" s="2" t="inlineStr"/>
       <c r="O148" s="2" t="inlineStr"/>
-      <c r="P148" s="2" t="inlineStr">
+      <c r="P148" s="2" t="inlineStr"/>
+      <c r="Q148" s="2" t="inlineStr"/>
+      <c r="R148" s="2" t="inlineStr"/>
+      <c r="S148" s="2" t="inlineStr">
+        <is>
+          <t>Vaccination is defined as “a medical intervention that involves in adding vaccine into a host (e.g., human, mouse) in vivo with the intent to invoke an adaptive immune response.” (http://purl.obolibrary.org/obo/VO_0000002)</t>
+        </is>
+      </c>
+      <c r="T148" s="2" t="inlineStr"/>
+      <c r="U148" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V148" s="2" t="inlineStr"/>
+      <c r="W148" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="X148" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="Y148" s="2" t="inlineStr"/>
+      <c r="Z148" s="2" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050267</t>
+        </is>
+      </c>
+      <c r="B149" s="2" t="inlineStr">
+        <is>
+          <t>uniform process aggregate</t>
+        </is>
+      </c>
+      <c r="C149" s="2" t="inlineStr">
+        <is>
+          <t>Several processes of the same type repeated over time.</t>
+        </is>
+      </c>
+      <c r="D149" s="2" t="inlineStr">
+        <is>
+          <t>A process aggregate whose member parts are of the same type.</t>
+        </is>
+      </c>
+      <c r="E149" s="2" t="inlineStr"/>
+      <c r="F149" s="2" t="inlineStr"/>
+      <c r="G149" s="2" t="inlineStr">
+        <is>
+          <t>process aggregate</t>
+        </is>
+      </c>
+      <c r="H149" s="2" t="inlineStr">
+        <is>
+          <t>occurrent</t>
+        </is>
+      </c>
+      <c r="I149" s="2" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J149" s="2" t="inlineStr"/>
+      <c r="K149" s="2" t="inlineStr"/>
+      <c r="L149" s="2" t="inlineStr"/>
+      <c r="M149" s="2" t="inlineStr"/>
+      <c r="N149" s="2" t="inlineStr"/>
+      <c r="O149" s="2" t="inlineStr"/>
+      <c r="P149" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">u is a uniform process aggregate means:
 •	u instance_of process aggregate
@@ -10000,73 +10052,9 @@
 </t>
         </is>
       </c>
-      <c r="Q148" s="2" t="inlineStr"/>
-      <c r="R148" s="2" t="inlineStr"/>
-      <c r="S148" s="2" t="inlineStr"/>
-      <c r="T148" s="2" t="inlineStr"/>
-      <c r="U148" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V148" s="2" t="inlineStr"/>
-      <c r="W148" s="2" t="inlineStr">
-        <is>
-          <t>RW; JH</t>
-        </is>
-      </c>
-      <c r="X148" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="Y148" s="2" t="inlineStr"/>
-      <c r="Z148" s="2" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050399</t>
-        </is>
-      </c>
-      <c r="B149" s="2" t="inlineStr">
-        <is>
-          <t>utilising healthcare</t>
-        </is>
-      </c>
-      <c r="C149" s="2" t="inlineStr"/>
-      <c r="D149" s="2" t="inlineStr">
-        <is>
-          <t>A health-related behaviour that involves interacting with a healthcare provider in order to assess, monitor, improve or maintain an aspect of one's health.</t>
-        </is>
-      </c>
-      <c r="E149" s="2" t="inlineStr"/>
-      <c r="F149" s="2" t="inlineStr"/>
-      <c r="G149" s="2" t="inlineStr">
-        <is>
-          <t>health-related behaviour</t>
-        </is>
-      </c>
-      <c r="H149" s="2" t="inlineStr"/>
-      <c r="I149" s="2" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="J149" s="2" t="inlineStr"/>
-      <c r="K149" s="2" t="inlineStr"/>
-      <c r="L149" s="2" t="inlineStr"/>
-      <c r="M149" s="2" t="inlineStr"/>
-      <c r="N149" s="2" t="inlineStr"/>
-      <c r="O149" s="2" t="inlineStr"/>
-      <c r="P149" s="2" t="inlineStr"/>
       <c r="Q149" s="2" t="inlineStr"/>
       <c r="R149" s="2" t="inlineStr"/>
-      <c r="S149" s="2" t="inlineStr">
-        <is>
-          <t>A ‘healthcare provider’ can be a person or organisation</t>
-        </is>
-      </c>
+      <c r="S149" s="2" t="inlineStr"/>
       <c r="T149" s="2" t="inlineStr"/>
       <c r="U149" s="2" t="inlineStr">
         <is>
@@ -10076,7 +10064,7 @@
       <c r="V149" s="2" t="inlineStr"/>
       <c r="W149" s="2" t="inlineStr">
         <is>
-          <t>PS; RW</t>
+          <t>RW; JH</t>
         </is>
       </c>
       <c r="X149" s="2" t="inlineStr">
@@ -10090,25 +10078,25 @@
     <row r="150">
       <c r="A150" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050379</t>
+          <t>BCIO:050399</t>
         </is>
       </c>
       <c r="B150" s="2" t="inlineStr">
         <is>
-          <t>vaping device use</t>
+          <t>utilising healthcare</t>
         </is>
       </c>
       <c r="C150" s="2" t="inlineStr"/>
       <c r="D150" s="2" t="inlineStr">
         <is>
-          <t>Inhaling consumption that involves using a device to consume an aerosol.</t>
+          <t>A health-related behaviour that involves interacting with a healthcare provider in order to assess, monitor, improve or maintain an aspect of one's health.</t>
         </is>
       </c>
       <c r="E150" s="2" t="inlineStr"/>
       <c r="F150" s="2" t="inlineStr"/>
       <c r="G150" s="2" t="inlineStr">
         <is>
-          <t>inhaling consumption</t>
+          <t>health-related behaviour</t>
         </is>
       </c>
       <c r="H150" s="2" t="inlineStr"/>
@@ -10126,7 +10114,11 @@
       <c r="P150" s="2" t="inlineStr"/>
       <c r="Q150" s="2" t="inlineStr"/>
       <c r="R150" s="2" t="inlineStr"/>
-      <c r="S150" s="2" t="inlineStr"/>
+      <c r="S150" s="2" t="inlineStr">
+        <is>
+          <t>A ‘healthcare provider’ can be a person or organisation</t>
+        </is>
+      </c>
       <c r="T150" s="2" t="inlineStr"/>
       <c r="U150" s="2" t="inlineStr">
         <is>
@@ -10136,7 +10128,7 @@
       <c r="V150" s="2" t="inlineStr"/>
       <c r="W150" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="X150" s="2" t="inlineStr">
@@ -10150,25 +10142,25 @@
     <row r="151">
       <c r="A151" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050442</t>
+          <t>BCIO:050379</t>
         </is>
       </c>
       <c r="B151" s="2" t="inlineStr">
         <is>
-          <t>vocalisation behaviour</t>
+          <t>vaping device use</t>
         </is>
       </c>
       <c r="C151" s="2" t="inlineStr"/>
       <c r="D151" s="2" t="inlineStr">
         <is>
-          <t>An individual human behaviour using one's voice to produce sounds.</t>
+          <t>Inhaling consumption that involves using a device to consume an aerosol.</t>
         </is>
       </c>
       <c r="E151" s="2" t="inlineStr"/>
       <c r="F151" s="2" t="inlineStr"/>
       <c r="G151" s="2" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t>inhaling consumption</t>
         </is>
       </c>
       <c r="H151" s="2" t="inlineStr"/>
@@ -10196,7 +10188,7 @@
       <c r="V151" s="2" t="inlineStr"/>
       <c r="W151" s="2" t="inlineStr">
         <is>
-          <t>PS; RW</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X151" s="2" t="inlineStr">
@@ -10210,32 +10202,28 @@
     <row r="152">
       <c r="A152" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036108</t>
+          <t>BCIO:050442</t>
         </is>
       </c>
       <c r="B152" s="2" t="inlineStr">
         <is>
-          <t>walking</t>
+          <t>vocalisation behaviour</t>
         </is>
       </c>
       <c r="C152" s="2" t="inlineStr"/>
       <c r="D152" s="2" t="inlineStr">
         <is>
-          <t>A locomotive behaviour that involves moving at a regular pace by lifting and setting down each foot in turn, never having both feet off the ground at once.</t>
+          <t>An individual human behaviour using one's voice to produce sounds.</t>
         </is>
       </c>
       <c r="E152" s="2" t="inlineStr"/>
       <c r="F152" s="2" t="inlineStr"/>
       <c r="G152" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">locomotive behaviour </t>
-        </is>
-      </c>
-      <c r="H152" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>individual human behaviour</t>
+        </is>
+      </c>
+      <c r="H152" s="2" t="inlineStr"/>
       <c r="I152" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -10260,7 +10248,7 @@
       <c r="V152" s="2" t="inlineStr"/>
       <c r="W152" s="2" t="inlineStr">
         <is>
-          <t>RW; OC; JH</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="X152" s="2" t="inlineStr">
@@ -10274,28 +10262,32 @@
     <row r="153">
       <c r="A153" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050418</t>
+          <t>BCIO:036108</t>
         </is>
       </c>
       <c r="B153" s="2" t="inlineStr">
         <is>
-          <t>watching behaviour</t>
+          <t>walking</t>
         </is>
       </c>
       <c r="C153" s="2" t="inlineStr"/>
       <c r="D153" s="2" t="inlineStr">
         <is>
-          <t>An object-using behaviour that involves deriving meaning from visual or audiovisual material.</t>
+          <t>A locomotive behaviour that involves moving at a regular pace by lifting and setting down each foot in turn, never having both feet off the ground at once.</t>
         </is>
       </c>
       <c r="E153" s="2" t="inlineStr"/>
       <c r="F153" s="2" t="inlineStr"/>
       <c r="G153" s="2" t="inlineStr">
         <is>
-          <t>object-using behaviour</t>
-        </is>
-      </c>
-      <c r="H153" s="2" t="inlineStr"/>
+          <t xml:space="preserve">locomotive behaviour </t>
+        </is>
+      </c>
+      <c r="H153" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I153" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -10311,20 +10303,16 @@
       <c r="Q153" s="2" t="inlineStr"/>
       <c r="R153" s="2" t="inlineStr"/>
       <c r="S153" s="2" t="inlineStr"/>
-      <c r="T153" s="2" t="inlineStr">
-        <is>
-          <t>Watching a movie</t>
-        </is>
-      </c>
+      <c r="T153" s="2" t="inlineStr"/>
       <c r="U153" s="2" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V153" s="2" t="inlineStr"/>
       <c r="W153" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW; OC; JH</t>
         </is>
       </c>
       <c r="X153" s="2" t="inlineStr">
@@ -10334,6 +10322,70 @@
       </c>
       <c r="Y153" s="2" t="inlineStr"/>
       <c r="Z153" s="2" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050418</t>
+        </is>
+      </c>
+      <c r="B154" s="2" t="inlineStr">
+        <is>
+          <t>watching behaviour</t>
+        </is>
+      </c>
+      <c r="C154" s="2" t="inlineStr"/>
+      <c r="D154" s="2" t="inlineStr">
+        <is>
+          <t>An object-using behaviour that involves deriving meaning from visual or audiovisual material.</t>
+        </is>
+      </c>
+      <c r="E154" s="2" t="inlineStr"/>
+      <c r="F154" s="2" t="inlineStr"/>
+      <c r="G154" s="2" t="inlineStr">
+        <is>
+          <t>object-using behaviour</t>
+        </is>
+      </c>
+      <c r="H154" s="2" t="inlineStr"/>
+      <c r="I154" s="2" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J154" s="2" t="inlineStr"/>
+      <c r="K154" s="2" t="inlineStr"/>
+      <c r="L154" s="2" t="inlineStr"/>
+      <c r="M154" s="2" t="inlineStr"/>
+      <c r="N154" s="2" t="inlineStr"/>
+      <c r="O154" s="2" t="inlineStr"/>
+      <c r="P154" s="2" t="inlineStr"/>
+      <c r="Q154" s="2" t="inlineStr"/>
+      <c r="R154" s="2" t="inlineStr"/>
+      <c r="S154" s="2" t="inlineStr"/>
+      <c r="T154" s="2" t="inlineStr">
+        <is>
+          <t>Watching a movie</t>
+        </is>
+      </c>
+      <c r="U154" s="2" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="V154" s="2" t="inlineStr"/>
+      <c r="W154" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="X154" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="Y154" s="2" t="inlineStr"/>
+      <c r="Z154" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Behaviour/BCIO_behaviour.xlsx
+++ b/Behaviour/BCIO_behaviour.xlsx
@@ -578,7 +578,8 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>administering vaccine</t>
+          <t xml:space="preserve">administering vaccine test2
+</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr"/>
@@ -623,7 +624,7 @@
       <c r="V2" s="2" t="inlineStr"/>
       <c r="W2" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; BG</t>
         </is>
       </c>
       <c r="X2" s="2" t="inlineStr">

--- a/Behaviour/BCIO_behaviour.xlsx
+++ b/Behaviour/BCIO_behaviour.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -47,6 +47,11 @@
         <fgColor rgb="002f4f4f"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ffffff"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -60,11 +65,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -430,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z150"/>
+  <dimension ref="A1:Z151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8811,91 +8817,79 @@
       <c r="Z129" s="2" t="inlineStr"/>
     </row>
     <row r="130">
-      <c r="A130" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:036112</t>
-        </is>
-      </c>
-      <c r="B130" s="2" t="inlineStr">
-        <is>
-          <t>spiritual behaviour</t>
-        </is>
-      </c>
-      <c r="C130" s="2" t="inlineStr"/>
-      <c r="D130" s="2" t="inlineStr">
-        <is>
-          <t>An experience-related behaviour that is performed in line with a belief system that is grounded in reverence for a supernatural power or powers and provides meaning in life.</t>
-        </is>
-      </c>
-      <c r="E130" s="2" t="inlineStr"/>
-      <c r="F130" s="2" t="inlineStr"/>
-      <c r="G130" s="2" t="inlineStr">
-        <is>
-          <t>experience-related behaviour</t>
-        </is>
-      </c>
-      <c r="H130" s="2" t="inlineStr"/>
-      <c r="I130" s="2" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="J130" s="2" t="inlineStr"/>
-      <c r="K130" s="2" t="inlineStr"/>
-      <c r="L130" s="2" t="inlineStr"/>
-      <c r="M130" s="2" t="inlineStr"/>
-      <c r="N130" s="2" t="inlineStr"/>
-      <c r="O130" s="2" t="inlineStr"/>
-      <c r="P130" s="2" t="inlineStr"/>
-      <c r="Q130" s="2" t="inlineStr"/>
-      <c r="R130" s="2" t="inlineStr"/>
-      <c r="S130" s="2" t="inlineStr"/>
-      <c r="T130" s="2" t="inlineStr">
-        <is>
-          <t>Praying, participating in rituals, meditation practices for spiritual purposes, fasting for spiritual purposes, participating in a silent retreat</t>
-        </is>
-      </c>
-      <c r="U130" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V130" s="2" t="inlineStr"/>
-      <c r="W130" s="2" t="inlineStr">
-        <is>
-          <t>OC; JH; PS; RW</t>
-        </is>
-      </c>
-      <c r="X130" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="Y130" s="2" t="inlineStr"/>
-      <c r="Z130" s="2" t="inlineStr"/>
+      <c r="A130" s="4" t="inlineStr">
+        <is>
+          <t>BCIO:050445</t>
+        </is>
+      </c>
+      <c r="B130" s="4" t="inlineStr">
+        <is>
+          <t>some test</t>
+        </is>
+      </c>
+      <c r="C130" s="4" t="inlineStr"/>
+      <c r="D130" s="4" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="E130" s="4" t="inlineStr"/>
+      <c r="F130" s="4" t="inlineStr"/>
+      <c r="G130" s="4" t="inlineStr">
+        <is>
+          <t>occurrent</t>
+        </is>
+      </c>
+      <c r="H130" s="4" t="inlineStr"/>
+      <c r="I130" s="4" t="inlineStr"/>
+      <c r="J130" s="4" t="inlineStr"/>
+      <c r="K130" s="4" t="inlineStr"/>
+      <c r="L130" s="4" t="inlineStr"/>
+      <c r="M130" s="4" t="inlineStr"/>
+      <c r="N130" s="4" t="inlineStr"/>
+      <c r="O130" s="4" t="inlineStr"/>
+      <c r="P130" s="4" t="inlineStr"/>
+      <c r="Q130" s="4" t="inlineStr"/>
+      <c r="R130" s="4" t="inlineStr"/>
+      <c r="S130" s="4" t="inlineStr"/>
+      <c r="T130" s="4" t="inlineStr"/>
+      <c r="U130" s="4" t="inlineStr"/>
+      <c r="V130" s="4" t="inlineStr"/>
+      <c r="W130" s="4" t="inlineStr">
+        <is>
+          <t>BG</t>
+        </is>
+      </c>
+      <c r="X130" s="4" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Y130" s="4" t="inlineStr"/>
+      <c r="Z130" s="4" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036070</t>
+          <t>BCIO:036112</t>
         </is>
       </c>
       <c r="B131" s="2" t="inlineStr">
         <is>
-          <t>standing</t>
+          <t>spiritual behaviour</t>
         </is>
       </c>
       <c r="C131" s="2" t="inlineStr"/>
       <c r="D131" s="2" t="inlineStr">
         <is>
-          <t>A posture behaviour in which one has or is maintaining an upright position while supported by one's feet</t>
+          <t>An experience-related behaviour that is performed in line with a belief system that is grounded in reverence for a supernatural power or powers and provides meaning in life.</t>
         </is>
       </c>
       <c r="E131" s="2" t="inlineStr"/>
       <c r="F131" s="2" t="inlineStr"/>
       <c r="G131" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">posture behaviour </t>
+          <t>experience-related behaviour</t>
         </is>
       </c>
       <c r="H131" s="2" t="inlineStr"/>
@@ -8914,7 +8908,11 @@
       <c r="Q131" s="2" t="inlineStr"/>
       <c r="R131" s="2" t="inlineStr"/>
       <c r="S131" s="2" t="inlineStr"/>
-      <c r="T131" s="2" t="inlineStr"/>
+      <c r="T131" s="2" t="inlineStr">
+        <is>
+          <t>Praying, participating in rituals, meditation practices for spiritual purposes, fasting for spiritual purposes, participating in a silent retreat</t>
+        </is>
+      </c>
       <c r="U131" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -8923,7 +8921,7 @@
       <c r="V131" s="2" t="inlineStr"/>
       <c r="W131" s="2" t="inlineStr">
         <is>
-          <t>OC</t>
+          <t>OC; JH; PS; RW</t>
         </is>
       </c>
       <c r="X131" s="2" t="inlineStr">
@@ -8937,32 +8935,28 @@
     <row r="132">
       <c r="A132" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036113</t>
+          <t>BCIO:036070</t>
         </is>
       </c>
       <c r="B132" s="2" t="inlineStr">
         <is>
-          <t>substance use behaviour</t>
+          <t>standing</t>
         </is>
       </c>
       <c r="C132" s="2" t="inlineStr"/>
       <c r="D132" s="2" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves ingesting a psychoactive substance into the body.</t>
+          <t>A posture behaviour in which one has or is maintaining an upright position while supported by one's feet</t>
         </is>
       </c>
       <c r="E132" s="2" t="inlineStr"/>
       <c r="F132" s="2" t="inlineStr"/>
       <c r="G132" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">consumption behaviour </t>
-        </is>
-      </c>
-      <c r="H132" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t xml:space="preserve">posture behaviour </t>
+        </is>
+      </c>
+      <c r="H132" s="2" t="inlineStr"/>
       <c r="I132" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -8975,17 +8969,9 @@
       <c r="N132" s="2" t="inlineStr"/>
       <c r="O132" s="2" t="inlineStr"/>
       <c r="P132" s="2" t="inlineStr"/>
-      <c r="Q132" s="2" t="inlineStr">
-        <is>
-          <t>substance use</t>
-        </is>
-      </c>
+      <c r="Q132" s="2" t="inlineStr"/>
       <c r="R132" s="2" t="inlineStr"/>
-      <c r="S132" s="2" t="inlineStr">
-        <is>
-          <t>Substance use behaviour is not equated with substance abuse.</t>
-        </is>
-      </c>
+      <c r="S132" s="2" t="inlineStr"/>
       <c r="T132" s="2" t="inlineStr"/>
       <c r="U132" s="2" t="inlineStr">
         <is>
@@ -8995,7 +8981,7 @@
       <c r="V132" s="2" t="inlineStr"/>
       <c r="W132" s="2" t="inlineStr">
         <is>
-          <t>RW; OC; JH</t>
+          <t>OC</t>
         </is>
       </c>
       <c r="X132" s="2" t="inlineStr">
@@ -9009,28 +8995,32 @@
     <row r="133">
       <c r="A133" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050211</t>
+          <t>BCIO:036113</t>
         </is>
       </c>
       <c r="B133" s="2" t="inlineStr">
         <is>
-          <t>substance use behaviour pattern</t>
+          <t>substance use behaviour</t>
         </is>
       </c>
       <c r="C133" s="2" t="inlineStr"/>
       <c r="D133" s="2" t="inlineStr">
         <is>
-          <t>A consumption behaviour pattern that involves substance use behaviour.</t>
+          <t>A consumption behaviour that involves ingesting a psychoactive substance into the body.</t>
         </is>
       </c>
       <c r="E133" s="2" t="inlineStr"/>
       <c r="F133" s="2" t="inlineStr"/>
       <c r="G133" s="2" t="inlineStr">
         <is>
-          <t>consumption behaviour pattern</t>
-        </is>
-      </c>
-      <c r="H133" s="2" t="inlineStr"/>
+          <t xml:space="preserve">consumption behaviour </t>
+        </is>
+      </c>
+      <c r="H133" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I133" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -9043,9 +9033,17 @@
       <c r="N133" s="2" t="inlineStr"/>
       <c r="O133" s="2" t="inlineStr"/>
       <c r="P133" s="2" t="inlineStr"/>
-      <c r="Q133" s="2" t="inlineStr"/>
+      <c r="Q133" s="2" t="inlineStr">
+        <is>
+          <t>substance use</t>
+        </is>
+      </c>
       <c r="R133" s="2" t="inlineStr"/>
-      <c r="S133" s="2" t="inlineStr"/>
+      <c r="S133" s="2" t="inlineStr">
+        <is>
+          <t>Substance use behaviour is not equated with substance abuse.</t>
+        </is>
+      </c>
       <c r="T133" s="2" t="inlineStr"/>
       <c r="U133" s="2" t="inlineStr">
         <is>
@@ -9055,7 +9053,7 @@
       <c r="V133" s="2" t="inlineStr"/>
       <c r="W133" s="2" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>RW; OC; JH</t>
         </is>
       </c>
       <c r="X133" s="2" t="inlineStr">
@@ -9069,25 +9067,25 @@
     <row r="134">
       <c r="A134" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050411</t>
+          <t>BCIO:050211</t>
         </is>
       </c>
       <c r="B134" s="2" t="inlineStr">
         <is>
-          <t>sun protective behaviour</t>
+          <t>substance use behaviour pattern</t>
         </is>
       </c>
       <c r="C134" s="2" t="inlineStr"/>
       <c r="D134" s="2" t="inlineStr">
         <is>
-          <t>A personal bodily care behaviour that involves protecting one's skin or eyes from the damaging effects of the sun.</t>
+          <t>A consumption behaviour pattern that involves substance use behaviour.</t>
         </is>
       </c>
       <c r="E134" s="2" t="inlineStr"/>
       <c r="F134" s="2" t="inlineStr"/>
       <c r="G134" s="2" t="inlineStr">
         <is>
-          <t>personal bodily care behaviour</t>
+          <t>consumption behaviour pattern</t>
         </is>
       </c>
       <c r="H134" s="2" t="inlineStr"/>
@@ -9105,11 +9103,7 @@
       <c r="P134" s="2" t="inlineStr"/>
       <c r="Q134" s="2" t="inlineStr"/>
       <c r="R134" s="2" t="inlineStr"/>
-      <c r="S134" s="2" t="inlineStr">
-        <is>
-          <t>‘Sun protective behaviour’ is defined in terms of its goal (to protect oneself from the damaging effects of the sun) and can include very different behaviours, e.g., applying sunscreen and staying in the shade.</t>
-        </is>
-      </c>
+      <c r="S134" s="2" t="inlineStr"/>
       <c r="T134" s="2" t="inlineStr"/>
       <c r="U134" s="2" t="inlineStr">
         <is>
@@ -9119,7 +9113,7 @@
       <c r="V134" s="2" t="inlineStr"/>
       <c r="W134" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="X134" s="2" t="inlineStr">
@@ -9133,32 +9127,28 @@
     <row r="135">
       <c r="A135" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036103</t>
+          <t>BCIO:050411</t>
         </is>
       </c>
       <c r="B135" s="2" t="inlineStr">
         <is>
-          <t>tobacco smoking behaviour</t>
+          <t>sun protective behaviour</t>
         </is>
       </c>
       <c r="C135" s="2" t="inlineStr"/>
       <c r="D135" s="2" t="inlineStr">
         <is>
-          <t>A tobacco use behaviour that involves setting light to a combustible tobacco product and ingesting the tobacco smoke that is produced.</t>
+          <t>A personal bodily care behaviour that involves protecting one's skin or eyes from the damaging effects of the sun.</t>
         </is>
       </c>
       <c r="E135" s="2" t="inlineStr"/>
       <c r="F135" s="2" t="inlineStr"/>
       <c r="G135" s="2" t="inlineStr">
         <is>
-          <t>tobacco use behaviour</t>
-        </is>
-      </c>
-      <c r="H135" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>personal bodily care behaviour</t>
+        </is>
+      </c>
+      <c r="H135" s="2" t="inlineStr"/>
       <c r="I135" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -9171,13 +9161,13 @@
       <c r="N135" s="2" t="inlineStr"/>
       <c r="O135" s="2" t="inlineStr"/>
       <c r="P135" s="2" t="inlineStr"/>
-      <c r="Q135" s="2" t="inlineStr">
-        <is>
-          <t>smoking</t>
-        </is>
-      </c>
+      <c r="Q135" s="2" t="inlineStr"/>
       <c r="R135" s="2" t="inlineStr"/>
-      <c r="S135" s="2" t="inlineStr"/>
+      <c r="S135" s="2" t="inlineStr">
+        <is>
+          <t>‘Sun protective behaviour’ is defined in terms of its goal (to protect oneself from the damaging effects of the sun) and can include very different behaviours, e.g., applying sunscreen and staying in the shade.</t>
+        </is>
+      </c>
       <c r="T135" s="2" t="inlineStr"/>
       <c r="U135" s="2" t="inlineStr">
         <is>
@@ -9187,7 +9177,7 @@
       <c r="V135" s="2" t="inlineStr"/>
       <c r="W135" s="2" t="inlineStr">
         <is>
-          <t>RW; JH</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X135" s="2" t="inlineStr">
@@ -9201,25 +9191,25 @@
     <row r="136">
       <c r="A136" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036104</t>
+          <t>BCIO:036103</t>
         </is>
       </c>
       <c r="B136" s="2" t="inlineStr">
         <is>
-          <t>tobacco smoking behaviour pattern</t>
+          <t>tobacco smoking behaviour</t>
         </is>
       </c>
       <c r="C136" s="2" t="inlineStr"/>
       <c r="D136" s="2" t="inlineStr">
         <is>
-          <t>A tobacco use behaviour pattern that involves tobacco smoking behaviour.</t>
+          <t>A tobacco use behaviour that involves setting light to a combustible tobacco product and ingesting the tobacco smoke that is produced.</t>
         </is>
       </c>
       <c r="E136" s="2" t="inlineStr"/>
       <c r="F136" s="2" t="inlineStr"/>
       <c r="G136" s="2" t="inlineStr">
         <is>
-          <t>tobacco use behaviour pattern</t>
+          <t>tobacco use behaviour</t>
         </is>
       </c>
       <c r="H136" s="2" t="inlineStr">
@@ -9239,7 +9229,11 @@
       <c r="N136" s="2" t="inlineStr"/>
       <c r="O136" s="2" t="inlineStr"/>
       <c r="P136" s="2" t="inlineStr"/>
-      <c r="Q136" s="2" t="inlineStr"/>
+      <c r="Q136" s="2" t="inlineStr">
+        <is>
+          <t>smoking</t>
+        </is>
+      </c>
       <c r="R136" s="2" t="inlineStr"/>
       <c r="S136" s="2" t="inlineStr"/>
       <c r="T136" s="2" t="inlineStr"/>
@@ -9265,25 +9259,25 @@
     <row r="137">
       <c r="A137" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050269</t>
+          <t>BCIO:036104</t>
         </is>
       </c>
       <c r="B137" s="2" t="inlineStr">
         <is>
-          <t>tobacco smoking cessation</t>
+          <t>tobacco smoking behaviour pattern</t>
         </is>
       </c>
       <c r="C137" s="2" t="inlineStr"/>
       <c r="D137" s="2" t="inlineStr">
         <is>
-          <t>Tobacco use cessation in which the form of tobacco use is tobacco smoking.</t>
+          <t>A tobacco use behaviour pattern that involves tobacco smoking behaviour.</t>
         </is>
       </c>
       <c r="E137" s="2" t="inlineStr"/>
       <c r="F137" s="2" t="inlineStr"/>
       <c r="G137" s="2" t="inlineStr">
         <is>
-          <t>tobacco use cessation</t>
+          <t>tobacco use behaviour pattern</t>
         </is>
       </c>
       <c r="H137" s="2" t="inlineStr">
@@ -9315,7 +9309,7 @@
       <c r="V137" s="2" t="inlineStr"/>
       <c r="W137" s="2" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>RW; JH</t>
         </is>
       </c>
       <c r="X137" s="2" t="inlineStr">
@@ -9329,25 +9323,25 @@
     <row r="138">
       <c r="A138" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036114</t>
+          <t>BCIO:050269</t>
         </is>
       </c>
       <c r="B138" s="2" t="inlineStr">
         <is>
-          <t>tobacco use behaviour</t>
+          <t>tobacco smoking cessation</t>
         </is>
       </c>
       <c r="C138" s="2" t="inlineStr"/>
       <c r="D138" s="2" t="inlineStr">
         <is>
-          <t>A substance use behaviour that involves ingesting constituents of a tobacco-containing product.</t>
+          <t>Tobacco use cessation in which the form of tobacco use is tobacco smoking.</t>
         </is>
       </c>
       <c r="E138" s="2" t="inlineStr"/>
       <c r="F138" s="2" t="inlineStr"/>
       <c r="G138" s="2" t="inlineStr">
         <is>
-          <t>substance use behaviour</t>
+          <t>tobacco use cessation</t>
         </is>
       </c>
       <c r="H138" s="2" t="inlineStr">
@@ -9367,11 +9361,7 @@
       <c r="N138" s="2" t="inlineStr"/>
       <c r="O138" s="2" t="inlineStr"/>
       <c r="P138" s="2" t="inlineStr"/>
-      <c r="Q138" s="2" t="inlineStr">
-        <is>
-          <t>tobacco use</t>
-        </is>
-      </c>
+      <c r="Q138" s="2" t="inlineStr"/>
       <c r="R138" s="2" t="inlineStr"/>
       <c r="S138" s="2" t="inlineStr"/>
       <c r="T138" s="2" t="inlineStr"/>
@@ -9383,7 +9373,7 @@
       <c r="V138" s="2" t="inlineStr"/>
       <c r="W138" s="2" t="inlineStr">
         <is>
-          <t>RW; OC; JH</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="X138" s="2" t="inlineStr">
@@ -9397,25 +9387,25 @@
     <row r="139">
       <c r="A139" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036102</t>
+          <t>BCIO:036114</t>
         </is>
       </c>
       <c r="B139" s="2" t="inlineStr">
         <is>
-          <t>tobacco use behaviour pattern</t>
+          <t>tobacco use behaviour</t>
         </is>
       </c>
       <c r="C139" s="2" t="inlineStr"/>
       <c r="D139" s="2" t="inlineStr">
         <is>
-          <t>A substance use behaviour pattern that involves tobacco use.</t>
+          <t>A substance use behaviour that involves ingesting constituents of a tobacco-containing product.</t>
         </is>
       </c>
       <c r="E139" s="2" t="inlineStr"/>
       <c r="F139" s="2" t="inlineStr"/>
       <c r="G139" s="2" t="inlineStr">
         <is>
-          <t>substance use behaviour pattern</t>
+          <t>substance use behaviour</t>
         </is>
       </c>
       <c r="H139" s="2" t="inlineStr">
@@ -9451,7 +9441,7 @@
       <c r="V139" s="2" t="inlineStr"/>
       <c r="W139" s="2" t="inlineStr">
         <is>
-          <t>RW; JH</t>
+          <t>RW; OC; JH</t>
         </is>
       </c>
       <c r="X139" s="2" t="inlineStr">
@@ -9465,29 +9455,25 @@
     <row r="140">
       <c r="A140" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050208</t>
+          <t>BCIO:036102</t>
         </is>
       </c>
       <c r="B140" s="2" t="inlineStr">
         <is>
-          <t>tobacco use cessation</t>
-        </is>
-      </c>
-      <c r="C140" s="2" t="inlineStr">
-        <is>
-          <t>Cessation of tobacco use for a period of time.</t>
-        </is>
-      </c>
+          <t>tobacco use behaviour pattern</t>
+        </is>
+      </c>
+      <c r="C140" s="2" t="inlineStr"/>
       <c r="D140" s="2" t="inlineStr">
         <is>
-          <t>Individual human behaviour pattern cessation in which the behaviour pattern is tobacco use.</t>
+          <t>A substance use behaviour pattern that involves tobacco use.</t>
         </is>
       </c>
       <c r="E140" s="2" t="inlineStr"/>
       <c r="F140" s="2" t="inlineStr"/>
       <c r="G140" s="2" t="inlineStr">
         <is>
-          <t>individual human behaviour pattern cessation</t>
+          <t>substance use behaviour pattern</t>
         </is>
       </c>
       <c r="H140" s="2" t="inlineStr">
@@ -9507,14 +9493,13 @@
       <c r="N140" s="2" t="inlineStr"/>
       <c r="O140" s="2" t="inlineStr"/>
       <c r="P140" s="2" t="inlineStr"/>
-      <c r="Q140" s="2" t="inlineStr"/>
+      <c r="Q140" s="2" t="inlineStr">
+        <is>
+          <t>tobacco use</t>
+        </is>
+      </c>
       <c r="R140" s="2" t="inlineStr"/>
-      <c r="S140" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">As with the parent class 'individual human behaviour pattern cessation'  this class can only be identified after the duration for which cessation has occurred has elapsed and it is necessary to specify this period for the class to be meaningful.
-</t>
-        </is>
-      </c>
+      <c r="S140" s="2" t="inlineStr"/>
       <c r="T140" s="2" t="inlineStr"/>
       <c r="U140" s="2" t="inlineStr">
         <is>
@@ -9524,7 +9509,7 @@
       <c r="V140" s="2" t="inlineStr"/>
       <c r="W140" s="2" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>RW; JH</t>
         </is>
       </c>
       <c r="X140" s="2" t="inlineStr">
@@ -9538,28 +9523,36 @@
     <row r="141">
       <c r="A141" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050396</t>
+          <t>BCIO:050208</t>
         </is>
       </c>
       <c r="B141" s="2" t="inlineStr">
         <is>
-          <t>transdermal consumption</t>
-        </is>
-      </c>
-      <c r="C141" s="2" t="inlineStr"/>
+          <t>tobacco use cessation</t>
+        </is>
+      </c>
+      <c r="C141" s="2" t="inlineStr">
+        <is>
+          <t>Cessation of tobacco use for a period of time.</t>
+        </is>
+      </c>
       <c r="D141" s="2" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves applying a material to the skin and ingesting this material into the circulation through the skin.</t>
+          <t>Individual human behaviour pattern cessation in which the behaviour pattern is tobacco use.</t>
         </is>
       </c>
       <c r="E141" s="2" t="inlineStr"/>
       <c r="F141" s="2" t="inlineStr"/>
       <c r="G141" s="2" t="inlineStr">
         <is>
-          <t>consumption behaviour</t>
-        </is>
-      </c>
-      <c r="H141" s="2" t="inlineStr"/>
+          <t>individual human behaviour pattern cessation</t>
+        </is>
+      </c>
+      <c r="H141" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I141" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -9574,12 +9567,13 @@
       <c r="P141" s="2" t="inlineStr"/>
       <c r="Q141" s="2" t="inlineStr"/>
       <c r="R141" s="2" t="inlineStr"/>
-      <c r="S141" s="2" t="inlineStr"/>
-      <c r="T141" s="2" t="inlineStr">
-        <is>
-          <t>Nicotine patches, hormone patches, pain relief gels</t>
-        </is>
-      </c>
+      <c r="S141" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">As with the parent class 'individual human behaviour pattern cessation'  this class can only be identified after the duration for which cessation has occurred has elapsed and it is necessary to specify this period for the class to be meaningful.
+</t>
+        </is>
+      </c>
+      <c r="T141" s="2" t="inlineStr"/>
       <c r="U141" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -9588,7 +9582,7 @@
       <c r="V141" s="2" t="inlineStr"/>
       <c r="W141" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="X141" s="2" t="inlineStr">
@@ -9602,25 +9596,25 @@
     <row r="142">
       <c r="A142" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036064</t>
+          <t>BCIO:050396</t>
         </is>
       </c>
       <c r="B142" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">transporting behaviour </t>
+          <t>transdermal consumption</t>
         </is>
       </c>
       <c r="C142" s="2" t="inlineStr"/>
       <c r="D142" s="2" t="inlineStr">
         <is>
-          <t>A travel behaviour that involves moving an object in addition toother than the actor.</t>
+          <t>A consumption behaviour that involves applying a material to the skin and ingesting this material into the circulation through the skin.</t>
         </is>
       </c>
       <c r="E142" s="2" t="inlineStr"/>
       <c r="F142" s="2" t="inlineStr"/>
       <c r="G142" s="2" t="inlineStr">
         <is>
-          <t>travel behaviour</t>
+          <t>consumption behaviour</t>
         </is>
       </c>
       <c r="H142" s="2" t="inlineStr"/>
@@ -9639,7 +9633,11 @@
       <c r="Q142" s="2" t="inlineStr"/>
       <c r="R142" s="2" t="inlineStr"/>
       <c r="S142" s="2" t="inlineStr"/>
-      <c r="T142" s="2" t="inlineStr"/>
+      <c r="T142" s="2" t="inlineStr">
+        <is>
+          <t>Nicotine patches, hormone patches, pain relief gels</t>
+        </is>
+      </c>
       <c r="U142" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -9648,7 +9646,7 @@
       <c r="V142" s="2" t="inlineStr"/>
       <c r="W142" s="2" t="inlineStr">
         <is>
-          <t>OC; RW</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X142" s="2" t="inlineStr">
@@ -9662,25 +9660,25 @@
     <row r="143">
       <c r="A143" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036059</t>
+          <t>BCIO:036064</t>
         </is>
       </c>
       <c r="B143" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">travel behaviour </t>
+          <t xml:space="preserve">transporting behaviour </t>
         </is>
       </c>
       <c r="C143" s="2" t="inlineStr"/>
       <c r="D143" s="2" t="inlineStr">
         <is>
-          <t>A position-related behaviour that involves changing physical location.</t>
+          <t>A travel behaviour that involves moving an object in addition toother than the actor.</t>
         </is>
       </c>
       <c r="E143" s="2" t="inlineStr"/>
       <c r="F143" s="2" t="inlineStr"/>
       <c r="G143" s="2" t="inlineStr">
         <is>
-          <t>position-related behaviour</t>
+          <t>travel behaviour</t>
         </is>
       </c>
       <c r="H143" s="2" t="inlineStr"/>
@@ -9698,12 +9696,7 @@
       <c r="P143" s="2" t="inlineStr"/>
       <c r="Q143" s="2" t="inlineStr"/>
       <c r="R143" s="2" t="inlineStr"/>
-      <c r="S143" s="2" t="inlineStr">
-        <is>
-          <t>Travel refers to some form of relocation from a place or position to another.
-The classes 'travel behaviour' and 'locomotive behaviour' have many instances in which they overlap. However, there are also examples where these classes are not the same. For instance, running on a treadmill is a locomotive behaviour but not a travel behaviour.</t>
-        </is>
-      </c>
+      <c r="S143" s="2" t="inlineStr"/>
       <c r="T143" s="2" t="inlineStr"/>
       <c r="U143" s="2" t="inlineStr">
         <is>
@@ -9713,7 +9706,7 @@
       <c r="V143" s="2" t="inlineStr"/>
       <c r="W143" s="2" t="inlineStr">
         <is>
-          <t>OC; RW; PS</t>
+          <t>OC; RW</t>
         </is>
       </c>
       <c r="X143" s="2" t="inlineStr">
@@ -9727,25 +9720,25 @@
     <row r="144">
       <c r="A144" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050403</t>
+          <t>BCIO:036059</t>
         </is>
       </c>
       <c r="B144" s="2" t="inlineStr">
         <is>
-          <t>undergoing vaccination</t>
+          <t xml:space="preserve">travel behaviour </t>
         </is>
       </c>
       <c r="C144" s="2" t="inlineStr"/>
       <c r="D144" s="2" t="inlineStr">
         <is>
-          <t>Utilising healthcare that involves interacting with a healthcare provider to receive a vaccination to prevent or lower the risk of a disease.</t>
+          <t>A position-related behaviour that involves changing physical location.</t>
         </is>
       </c>
       <c r="E144" s="2" t="inlineStr"/>
       <c r="F144" s="2" t="inlineStr"/>
       <c r="G144" s="2" t="inlineStr">
         <is>
-          <t>utilising healthcare</t>
+          <t>position-related behaviour</t>
         </is>
       </c>
       <c r="H144" s="2" t="inlineStr"/>
@@ -9765,7 +9758,8 @@
       <c r="R144" s="2" t="inlineStr"/>
       <c r="S144" s="2" t="inlineStr">
         <is>
-          <t>Vaccination is defined as “a medical intervention that involves in adding vaccine into a host (e.g., human, mouse) in vivo with the intent to invoke an adaptive immune response.” (http://purl.obolibrary.org/obo/VO_0000002)</t>
+          <t>Travel refers to some form of relocation from a place or position to another.
+The classes 'travel behaviour' and 'locomotive behaviour' have many instances in which they overlap. However, there are also examples where these classes are not the same. For instance, running on a treadmill is a locomotive behaviour but not a travel behaviour.</t>
         </is>
       </c>
       <c r="T144" s="2" t="inlineStr"/>
@@ -9777,7 +9771,7 @@
       <c r="V144" s="2" t="inlineStr"/>
       <c r="W144" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>OC; RW; PS</t>
         </is>
       </c>
       <c r="X144" s="2" t="inlineStr">
@@ -9791,36 +9785,28 @@
     <row r="145">
       <c r="A145" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050267</t>
+          <t>BCIO:050403</t>
         </is>
       </c>
       <c r="B145" s="2" t="inlineStr">
         <is>
-          <t>uniform process aggregate</t>
-        </is>
-      </c>
-      <c r="C145" s="2" t="inlineStr">
-        <is>
-          <t>Several processes of the same type repeated over time.</t>
-        </is>
-      </c>
+          <t>undergoing vaccination</t>
+        </is>
+      </c>
+      <c r="C145" s="2" t="inlineStr"/>
       <c r="D145" s="2" t="inlineStr">
         <is>
-          <t>A process aggregate whose member parts are of the same type.</t>
+          <t>Utilising healthcare that involves interacting with a healthcare provider to receive a vaccination to prevent or lower the risk of a disease.</t>
         </is>
       </c>
       <c r="E145" s="2" t="inlineStr"/>
       <c r="F145" s="2" t="inlineStr"/>
       <c r="G145" s="2" t="inlineStr">
         <is>
-          <t>process aggregate</t>
-        </is>
-      </c>
-      <c r="H145" s="2" t="inlineStr">
-        <is>
-          <t>occurrent</t>
-        </is>
-      </c>
+          <t>utilising healthcare</t>
+        </is>
+      </c>
+      <c r="H145" s="2" t="inlineStr"/>
       <c r="I145" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -9832,7 +9818,79 @@
       <c r="M145" s="2" t="inlineStr"/>
       <c r="N145" s="2" t="inlineStr"/>
       <c r="O145" s="2" t="inlineStr"/>
-      <c r="P145" s="2" t="inlineStr">
+      <c r="P145" s="2" t="inlineStr"/>
+      <c r="Q145" s="2" t="inlineStr"/>
+      <c r="R145" s="2" t="inlineStr"/>
+      <c r="S145" s="2" t="inlineStr">
+        <is>
+          <t>Vaccination is defined as “a medical intervention that involves in adding vaccine into a host (e.g., human, mouse) in vivo with the intent to invoke an adaptive immune response.” (http://purl.obolibrary.org/obo/VO_0000002)</t>
+        </is>
+      </c>
+      <c r="T145" s="2" t="inlineStr"/>
+      <c r="U145" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V145" s="2" t="inlineStr"/>
+      <c r="W145" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="X145" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="Y145" s="2" t="inlineStr"/>
+      <c r="Z145" s="2" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050267</t>
+        </is>
+      </c>
+      <c r="B146" s="2" t="inlineStr">
+        <is>
+          <t>uniform process aggregate</t>
+        </is>
+      </c>
+      <c r="C146" s="2" t="inlineStr">
+        <is>
+          <t>Several processes of the same type repeated over time.</t>
+        </is>
+      </c>
+      <c r="D146" s="2" t="inlineStr">
+        <is>
+          <t>A process aggregate whose member parts are of the same type.</t>
+        </is>
+      </c>
+      <c r="E146" s="2" t="inlineStr"/>
+      <c r="F146" s="2" t="inlineStr"/>
+      <c r="G146" s="2" t="inlineStr">
+        <is>
+          <t>process aggregate</t>
+        </is>
+      </c>
+      <c r="H146" s="2" t="inlineStr">
+        <is>
+          <t>occurrent</t>
+        </is>
+      </c>
+      <c r="I146" s="2" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J146" s="2" t="inlineStr"/>
+      <c r="K146" s="2" t="inlineStr"/>
+      <c r="L146" s="2" t="inlineStr"/>
+      <c r="M146" s="2" t="inlineStr"/>
+      <c r="N146" s="2" t="inlineStr"/>
+      <c r="O146" s="2" t="inlineStr"/>
+      <c r="P146" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">u is a uniform process aggregate means:
 •	u instance_of process aggregate
@@ -9842,73 +9900,9 @@
 </t>
         </is>
       </c>
-      <c r="Q145" s="2" t="inlineStr"/>
-      <c r="R145" s="2" t="inlineStr"/>
-      <c r="S145" s="2" t="inlineStr"/>
-      <c r="T145" s="2" t="inlineStr"/>
-      <c r="U145" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V145" s="2" t="inlineStr"/>
-      <c r="W145" s="2" t="inlineStr">
-        <is>
-          <t>RW; JH</t>
-        </is>
-      </c>
-      <c r="X145" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="Y145" s="2" t="inlineStr"/>
-      <c r="Z145" s="2" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050399</t>
-        </is>
-      </c>
-      <c r="B146" s="2" t="inlineStr">
-        <is>
-          <t>utilising healthcare</t>
-        </is>
-      </c>
-      <c r="C146" s="2" t="inlineStr"/>
-      <c r="D146" s="2" t="inlineStr">
-        <is>
-          <t>A health-related behaviour that involves interacting with a healthcare provider in order to assess, monitor, improve or maintain an aspect of one's health.</t>
-        </is>
-      </c>
-      <c r="E146" s="2" t="inlineStr"/>
-      <c r="F146" s="2" t="inlineStr"/>
-      <c r="G146" s="2" t="inlineStr">
-        <is>
-          <t>health-related behaviour</t>
-        </is>
-      </c>
-      <c r="H146" s="2" t="inlineStr"/>
-      <c r="I146" s="2" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="J146" s="2" t="inlineStr"/>
-      <c r="K146" s="2" t="inlineStr"/>
-      <c r="L146" s="2" t="inlineStr"/>
-      <c r="M146" s="2" t="inlineStr"/>
-      <c r="N146" s="2" t="inlineStr"/>
-      <c r="O146" s="2" t="inlineStr"/>
-      <c r="P146" s="2" t="inlineStr"/>
       <c r="Q146" s="2" t="inlineStr"/>
       <c r="R146" s="2" t="inlineStr"/>
-      <c r="S146" s="2" t="inlineStr">
-        <is>
-          <t>A ‘healthcare provider’ can be a person or organisation</t>
-        </is>
-      </c>
+      <c r="S146" s="2" t="inlineStr"/>
       <c r="T146" s="2" t="inlineStr"/>
       <c r="U146" s="2" t="inlineStr">
         <is>
@@ -9918,7 +9912,7 @@
       <c r="V146" s="2" t="inlineStr"/>
       <c r="W146" s="2" t="inlineStr">
         <is>
-          <t>PS; RW</t>
+          <t>RW; JH</t>
         </is>
       </c>
       <c r="X146" s="2" t="inlineStr">
@@ -9932,25 +9926,25 @@
     <row r="147">
       <c r="A147" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050379</t>
+          <t>BCIO:050399</t>
         </is>
       </c>
       <c r="B147" s="2" t="inlineStr">
         <is>
-          <t>vaping device use</t>
+          <t>utilising healthcare</t>
         </is>
       </c>
       <c r="C147" s="2" t="inlineStr"/>
       <c r="D147" s="2" t="inlineStr">
         <is>
-          <t>Inhaling consumption that involves using a device to consume an aerosol.</t>
+          <t>A health-related behaviour that involves interacting with a healthcare provider in order to assess, monitor, improve or maintain an aspect of one's health.</t>
         </is>
       </c>
       <c r="E147" s="2" t="inlineStr"/>
       <c r="F147" s="2" t="inlineStr"/>
       <c r="G147" s="2" t="inlineStr">
         <is>
-          <t>inhaling consumption</t>
+          <t>health-related behaviour</t>
         </is>
       </c>
       <c r="H147" s="2" t="inlineStr"/>
@@ -9968,7 +9962,11 @@
       <c r="P147" s="2" t="inlineStr"/>
       <c r="Q147" s="2" t="inlineStr"/>
       <c r="R147" s="2" t="inlineStr"/>
-      <c r="S147" s="2" t="inlineStr"/>
+      <c r="S147" s="2" t="inlineStr">
+        <is>
+          <t>A ‘healthcare provider’ can be a person or organisation</t>
+        </is>
+      </c>
       <c r="T147" s="2" t="inlineStr"/>
       <c r="U147" s="2" t="inlineStr">
         <is>
@@ -9978,7 +9976,7 @@
       <c r="V147" s="2" t="inlineStr"/>
       <c r="W147" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="X147" s="2" t="inlineStr">
@@ -9992,25 +9990,25 @@
     <row r="148">
       <c r="A148" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050442</t>
+          <t>BCIO:050379</t>
         </is>
       </c>
       <c r="B148" s="2" t="inlineStr">
         <is>
-          <t>vocalisation behaviour</t>
+          <t>vaping device use</t>
         </is>
       </c>
       <c r="C148" s="2" t="inlineStr"/>
       <c r="D148" s="2" t="inlineStr">
         <is>
-          <t>An individual human behaviour using one's voice to produce sounds.</t>
+          <t>Inhaling consumption that involves using a device to consume an aerosol.</t>
         </is>
       </c>
       <c r="E148" s="2" t="inlineStr"/>
       <c r="F148" s="2" t="inlineStr"/>
       <c r="G148" s="2" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t>inhaling consumption</t>
         </is>
       </c>
       <c r="H148" s="2" t="inlineStr"/>
@@ -10038,7 +10036,7 @@
       <c r="V148" s="2" t="inlineStr"/>
       <c r="W148" s="2" t="inlineStr">
         <is>
-          <t>PS; RW</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X148" s="2" t="inlineStr">
@@ -10052,32 +10050,28 @@
     <row r="149">
       <c r="A149" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036108</t>
+          <t>BCIO:050442</t>
         </is>
       </c>
       <c r="B149" s="2" t="inlineStr">
         <is>
-          <t>walking</t>
+          <t>vocalisation behaviour</t>
         </is>
       </c>
       <c r="C149" s="2" t="inlineStr"/>
       <c r="D149" s="2" t="inlineStr">
         <is>
-          <t>A locomotive behaviour that involves moving at a regular pace by lifting and setting down each foot in turn, never having both feet off the ground at once.</t>
+          <t>An individual human behaviour using one's voice to produce sounds.</t>
         </is>
       </c>
       <c r="E149" s="2" t="inlineStr"/>
       <c r="F149" s="2" t="inlineStr"/>
       <c r="G149" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">locomotive behaviour </t>
-        </is>
-      </c>
-      <c r="H149" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>individual human behaviour</t>
+        </is>
+      </c>
+      <c r="H149" s="2" t="inlineStr"/>
       <c r="I149" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -10102,7 +10096,7 @@
       <c r="V149" s="2" t="inlineStr"/>
       <c r="W149" s="2" t="inlineStr">
         <is>
-          <t>RW; OC; JH</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="X149" s="2" t="inlineStr">
@@ -10116,28 +10110,32 @@
     <row r="150">
       <c r="A150" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050418</t>
+          <t>BCIO:036108</t>
         </is>
       </c>
       <c r="B150" s="2" t="inlineStr">
         <is>
-          <t>watching behaviour</t>
+          <t>walking</t>
         </is>
       </c>
       <c r="C150" s="2" t="inlineStr"/>
       <c r="D150" s="2" t="inlineStr">
         <is>
-          <t>An object-using behaviour that involves deriving meaning from visual or audiovisual material.</t>
+          <t>A locomotive behaviour that involves moving at a regular pace by lifting and setting down each foot in turn, never having both feet off the ground at once.</t>
         </is>
       </c>
       <c r="E150" s="2" t="inlineStr"/>
       <c r="F150" s="2" t="inlineStr"/>
       <c r="G150" s="2" t="inlineStr">
         <is>
-          <t>object-using behaviour</t>
-        </is>
-      </c>
-      <c r="H150" s="2" t="inlineStr"/>
+          <t xml:space="preserve">locomotive behaviour </t>
+        </is>
+      </c>
+      <c r="H150" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I150" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -10153,11 +10151,7 @@
       <c r="Q150" s="2" t="inlineStr"/>
       <c r="R150" s="2" t="inlineStr"/>
       <c r="S150" s="2" t="inlineStr"/>
-      <c r="T150" s="2" t="inlineStr">
-        <is>
-          <t>Watching a movie</t>
-        </is>
-      </c>
+      <c r="T150" s="2" t="inlineStr"/>
       <c r="U150" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -10166,7 +10160,7 @@
       <c r="V150" s="2" t="inlineStr"/>
       <c r="W150" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW; OC; JH</t>
         </is>
       </c>
       <c r="X150" s="2" t="inlineStr">
@@ -10176,6 +10170,70 @@
       </c>
       <c r="Y150" s="2" t="inlineStr"/>
       <c r="Z150" s="2" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050418</t>
+        </is>
+      </c>
+      <c r="B151" s="2" t="inlineStr">
+        <is>
+          <t>watching behaviour</t>
+        </is>
+      </c>
+      <c r="C151" s="2" t="inlineStr"/>
+      <c r="D151" s="2" t="inlineStr">
+        <is>
+          <t>An object-using behaviour that involves deriving meaning from visual or audiovisual material.</t>
+        </is>
+      </c>
+      <c r="E151" s="2" t="inlineStr"/>
+      <c r="F151" s="2" t="inlineStr"/>
+      <c r="G151" s="2" t="inlineStr">
+        <is>
+          <t>object-using behaviour</t>
+        </is>
+      </c>
+      <c r="H151" s="2" t="inlineStr"/>
+      <c r="I151" s="2" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J151" s="2" t="inlineStr"/>
+      <c r="K151" s="2" t="inlineStr"/>
+      <c r="L151" s="2" t="inlineStr"/>
+      <c r="M151" s="2" t="inlineStr"/>
+      <c r="N151" s="2" t="inlineStr"/>
+      <c r="O151" s="2" t="inlineStr"/>
+      <c r="P151" s="2" t="inlineStr"/>
+      <c r="Q151" s="2" t="inlineStr"/>
+      <c r="R151" s="2" t="inlineStr"/>
+      <c r="S151" s="2" t="inlineStr"/>
+      <c r="T151" s="2" t="inlineStr">
+        <is>
+          <t>Watching a movie</t>
+        </is>
+      </c>
+      <c r="U151" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V151" s="2" t="inlineStr"/>
+      <c r="W151" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="X151" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="Y151" s="2" t="inlineStr"/>
+      <c r="Z151" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
